--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A78BC3F-2FB3-498B-860E-43575BE7569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70D08D-5D7A-470A-AE14-CC7C0F32A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="2881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="2902">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -8715,6 +8715,69 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#Recopilacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geological Maps: Archipiélago de Los Monjes; Península de La Guajira; Región de Cojoro and Isla de Toas, Estado Zulia. </t>
+  </si>
+  <si>
+    <t>Evolución Tectono – Estratigráfica en el área de Sanare, Venezuela Occidental, Estados Táchira y Apure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracterización de las micas blancas del Sector Las Trincheras – La Entrada, Estado Carabobo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El petróleo de Pedernales según P. J. Ayres, 1842. </t>
+  </si>
+  <si>
+    <t>Nuevo registro de tres especies de Orthaulax (Gastropoda: Strombidae) en las formaciones San Luis y Patiecitos del Oligoceno Tardío – Mioceno Temprano en el Estado Falcón, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implications of wandering stars passing through our solar system. </t>
+  </si>
+  <si>
+    <t>Macsotay, O.; Olivares, I.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Octubre 2024</t>
+  </si>
+  <si>
+    <t>Universidad Industrial de Santander, Boletín de Geología, Volúmen 37, Número 2, Julio – Diciembre de 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco Urbani P. </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 22, Aňos 1980, 1981, 1982 y 1983.</t>
+  </si>
+  <si>
+    <t>Duerto, L.; Boujana, M.; Ramírez, R.; Hernández, C.; Varela, D.; Acosta, N.; Issa, N.; Silva, M.</t>
+  </si>
+  <si>
+    <t>Facultad de Ingeniería, Escuela de Geología, Minas y Geofísica de la ilustre Universidad Central de Venezuela y FUNVISIS</t>
+  </si>
+  <si>
+    <t>Homenaje a Nelly Pimentel de Bellizzia. Su aporte a la geología venezolana.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Octubre, Suplemento 2024.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#Toas2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#DuertoLetal2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#UrbaniP1983</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#UrbaniF1993</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MacsotayoOlivaresI2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2024a</t>
   </si>
 </sst>
 </file>
@@ -8779,12 +8842,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9100,9 +9162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H778"/>
+  <dimension ref="A1:H785"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="A785" sqref="A785"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9154,7 +9218,7 @@
       <c r="E2" t="s">
         <v>2801</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>2798</v>
       </c>
       <c r="G2" s="3" t="str">
@@ -9501,7 +9565,7 @@
       <c r="E16" t="s">
         <v>2762</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>2804</v>
       </c>
       <c r="G16" s="3" t="str">
@@ -10101,7 +10165,7 @@
       <c r="E40" t="s">
         <v>2695</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>2806</v>
       </c>
       <c r="G40" s="3" t="str">
@@ -10126,7 +10190,7 @@
       <c r="E41" t="s">
         <v>2691</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>2692</v>
       </c>
       <c r="G41" s="3" t="str">
@@ -10501,7 +10565,7 @@
       <c r="E56" t="s">
         <v>2649</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>2137</v>
       </c>
       <c r="G56" s="3" t="str">
@@ -10851,7 +10915,7 @@
       <c r="E70" t="s">
         <v>2610</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>2812</v>
       </c>
       <c r="G70" s="3" t="str">
@@ -10970,7 +11034,7 @@
       <c r="E75" t="s">
         <v>2597</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>2807</v>
       </c>
       <c r="G75" s="3" t="str">
@@ -10995,7 +11059,7 @@
       <c r="E76" t="s">
         <v>2573</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>2594</v>
       </c>
       <c r="G76" s="3" t="str">
@@ -11305,7 +11369,7 @@
       <c r="E89" t="s">
         <v>2539</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" t="s">
         <v>2593</v>
       </c>
       <c r="G89" s="3" t="str">
@@ -11405,7 +11469,7 @@
       <c r="E93" t="s">
         <v>2529</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" t="s">
         <v>2591</v>
       </c>
       <c r="G93" s="3" t="str">
@@ -11455,7 +11519,7 @@
       <c r="E95" t="s">
         <v>2524</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" t="s">
         <v>2590</v>
       </c>
       <c r="G95" s="3" t="str">
@@ -11480,7 +11544,7 @@
       <c r="E96" t="s">
         <v>2522</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" t="s">
         <v>2589</v>
       </c>
       <c r="G96" s="3" t="str">
@@ -11505,7 +11569,7 @@
       <c r="E97" t="s">
         <v>2519</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" t="s">
         <v>2588</v>
       </c>
       <c r="G97" s="3" t="str">
@@ -11552,7 +11616,7 @@
       <c r="E99" t="s">
         <v>2514</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" t="s">
         <v>2587</v>
       </c>
       <c r="G99" s="3" t="str">
@@ -13140,7 +13204,7 @@
       <c r="E163" t="s">
         <v>2267</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" t="s">
         <v>2454</v>
       </c>
       <c r="G163" s="3" t="str">
@@ -18944,7 +19008,7 @@
       <c r="E396" t="s">
         <v>1394</v>
       </c>
-      <c r="F396" s="4" t="s">
+      <c r="F396" t="s">
         <v>1395</v>
       </c>
       <c r="G396" s="3" t="str">
@@ -28315,7 +28379,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A778" si="24">A771+1</f>
+        <f t="shared" ref="A772:A785" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -28334,7 +28398,7 @@
         <v>2230</v>
       </c>
       <c r="G772" s="3" t="str">
-        <f t="shared" ref="G772:G778" si="25">HYPERLINK(F772)</f>
+        <f t="shared" ref="G772:G779" si="25">HYPERLINK(F772)</f>
         <v>https://mariantoc.github.io/geochemistry.html#EscobarMEetal1993</v>
       </c>
     </row>
@@ -28380,7 +28444,7 @@
       <c r="E774" t="s">
         <v>2862</v>
       </c>
-      <c r="F774" s="4" t="s">
+      <c r="F774" t="s">
         <v>2874</v>
       </c>
       <c r="G774" s="3" t="str">
@@ -28405,7 +28469,7 @@
       <c r="E775" t="s">
         <v>2865</v>
       </c>
-      <c r="F775" s="4" t="s">
+      <c r="F775" t="s">
         <v>2875</v>
       </c>
       <c r="G775" s="3" t="str">
@@ -28430,7 +28494,7 @@
       <c r="E776" t="s">
         <v>2868</v>
       </c>
-      <c r="F776" s="4" t="s">
+      <c r="F776" t="s">
         <v>2876</v>
       </c>
       <c r="G776" s="3" t="str">
@@ -28455,7 +28519,7 @@
       <c r="E777" t="s">
         <v>2871</v>
       </c>
-      <c r="F777" s="4" t="s">
+      <c r="F777" t="s">
         <v>2877</v>
       </c>
       <c r="G777" s="3" t="str">
@@ -28480,12 +28544,184 @@
       <c r="E778" t="s">
         <v>2873</v>
       </c>
-      <c r="F778" s="4" t="s">
+      <c r="F778" t="s">
         <v>2878</v>
       </c>
       <c r="G778" s="3" t="str">
         <f t="shared" si="25"/>
         <v>https://mariantoc.github.io/topics.html#CastroM2024b</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <f t="shared" si="24"/>
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C779" t="s">
+        <v>22</v>
+      </c>
+      <c r="D779">
+        <v>2024</v>
+      </c>
+      <c r="E779" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F779" t="s">
+        <v>118</v>
+      </c>
+      <c r="G779" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2024</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <f t="shared" si="24"/>
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D780">
+        <v>2008</v>
+      </c>
+      <c r="E780" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F780" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G780" s="3" t="str">
+        <f t="shared" ref="G780:G785" si="26">HYPERLINK(F780)</f>
+        <v>https://mariantoc.github.io/maps.html#Toas2008</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <f t="shared" si="24"/>
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D781">
+        <v>2006</v>
+      </c>
+      <c r="E781" t="s">
+        <v>160</v>
+      </c>
+      <c r="F781" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G781" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/structural.html#DuertoLetal2006</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <f t="shared" si="24"/>
+        <v>781</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D782">
+        <v>1983</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F782" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G782" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#UrbaniP1983</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <f t="shared" si="24"/>
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D783">
+        <v>1993</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F783" t="s">
+        <v>2899</v>
+      </c>
+      <c r="G783" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/fields.html#UrbaniF1993</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <f t="shared" si="24"/>
+        <v>783</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D784">
+        <v>2015</v>
+      </c>
+      <c r="E784" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F784" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G784" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MacsotayoOlivaresI2015</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <f t="shared" si="24"/>
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C785" t="s">
+        <v>127</v>
+      </c>
+      <c r="D785">
+        <v>2024</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F785" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G785" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2024a</v>
       </c>
     </row>
   </sheetData>
@@ -28493,6 +28729,13 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F115" r:id="rId1" location="Recopilacion" xr:uid="{E9243540-70A1-439A-8BCA-12E1CD412570}"/>
+    <hyperlink ref="F779" r:id="rId2" location="CastroM2024" xr:uid="{5C832698-9D04-44A1-882F-4BD36033CA08}"/>
+    <hyperlink ref="F780" r:id="rId3" location="Toas2008" xr:uid="{DABEE26E-EC31-4BD9-A1E1-D123B6FCB5FF}"/>
+    <hyperlink ref="F781" r:id="rId4" location="DuertoLetal2006" xr:uid="{714F9E8D-22A7-4879-A099-1C672763DA49}"/>
+    <hyperlink ref="F782" r:id="rId5" location="UrbaniP1983" xr:uid="{88CB4D86-EFA9-487D-8731-27E60556AF54}"/>
+    <hyperlink ref="F783" r:id="rId6" location="UrbaniF1993" xr:uid="{31108101-3E02-4C28-A85F-3CE371111108}"/>
+    <hyperlink ref="F784" r:id="rId7" location="MacsotayoOlivaresI2015" xr:uid="{E6369229-8847-4229-846A-6A25BC56DB0D}"/>
+    <hyperlink ref="F785" r:id="rId8" location="CasasJE2024a" xr:uid="{F665D1E8-68FE-44AB-A3A9-EE16E380E3A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70D08D-5D7A-470A-AE14-CC7C0F32A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8755A50-D9C1-4D54-A62E-B84BECCC912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="2902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2922">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -8778,6 +8789,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/topics.html#CasasJE2024a</t>
+  </si>
+  <si>
+    <t>Lead Deposits in Venezuela</t>
+  </si>
+  <si>
+    <t>Bibliographic references of Lead Deposits in Venezuela through the Stratigraphic Code of Venezuela, GEOREF, ASTER VNIR images, Google Earth and internet.</t>
+  </si>
+  <si>
+    <t>Microfossils from the younger Tertiary of La Sabana, Distrito Federal, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolli, H. M.; Krause, H. </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 7, Número 5, Mayo 1964.</t>
+  </si>
+  <si>
+    <t>La Geología y el Pedagógico.</t>
+  </si>
+  <si>
+    <t>Sergio Foghin</t>
+  </si>
+  <si>
+    <t>El Nacional, Geología, Septiembre 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the Moon: Exploration and Resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambrose, W. A.; Cutright, B. </t>
+  </si>
+  <si>
+    <t>Expresiones geomorfológicas de las estructuras tectónicas mayores y cotejo sísmico. Levantamientos Patao 3D y Tacat 3D. Subcuenca de Maturín, Venezuela.</t>
+  </si>
+  <si>
+    <t>Rodríguez, D.; Rojas, H.;Varela, D. 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio de los procesos geodinámicos y geoquímicos de los crudos del Campo Ceuta, Cuenca del Lago de Maracaibo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faraco, A.; Lobo, C. </t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#CastroM2022</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BolliHKrauseH1964</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#FoghinS2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#AmbroseWCutrightB2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/RodriguezDetal2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#FaracoALoboC2015</t>
   </si>
 </sst>
 </file>
@@ -9162,10 +9233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H785"/>
+  <dimension ref="A1:H791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A762" workbookViewId="0">
-      <selection activeCell="A785" sqref="A785"/>
+    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
+      <selection activeCell="A786" sqref="A786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12007,7 +12078,7 @@
       <c r="E115" t="s">
         <v>2879</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" t="s">
         <v>2880</v>
       </c>
       <c r="G115" s="3" t="str">
@@ -28379,7 +28450,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A785" si="24">A771+1</f>
+        <f t="shared" ref="A772:A791" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -28722,6 +28793,156 @@
       <c r="G785" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/topics.html#CasasJE2024a</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <f t="shared" si="24"/>
+        <v>785</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C786" t="s">
+        <v>22</v>
+      </c>
+      <c r="D786">
+        <v>2022</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F786" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G786" s="3" t="str">
+        <f t="shared" ref="G786:G791" si="27">HYPERLINK(F786)</f>
+        <v>https://mariantoc.github.io/minerals.html#CastroM2022</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <f t="shared" si="24"/>
+        <v>786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D787">
+        <v>1964</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F787" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G787" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#BolliHKrauseH1964</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <f t="shared" si="24"/>
+        <v>787</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D788">
+        <v>2024</v>
+      </c>
+      <c r="E788" t="s">
+        <v>2909</v>
+      </c>
+      <c r="F788" t="s">
+        <v>2918</v>
+      </c>
+      <c r="G788" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>https://mariantoc.github.io/biography.html#FoghinS2024</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <f t="shared" si="24"/>
+        <v>788</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D789">
+        <v>2024</v>
+      </c>
+      <c r="E789" t="s">
+        <v>2248</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G789" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>https://mariantoc.github.io/topics.html#AmbroseWCutrightB2024</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <f t="shared" si="24"/>
+        <v>789</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D790">
+        <v>2006</v>
+      </c>
+      <c r="E790" t="s">
+        <v>35</v>
+      </c>
+      <c r="F790" t="s">
+        <v>2920</v>
+      </c>
+      <c r="G790" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>https://mariantoc.github.io/RodriguezDetal2006</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <f t="shared" si="24"/>
+        <v>790</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D791">
+        <v>2006</v>
+      </c>
+      <c r="E791" t="s">
+        <v>35</v>
+      </c>
+      <c r="F791" t="s">
+        <v>2921</v>
+      </c>
+      <c r="G791" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v>https://mariantoc.github.io/geochemistry.html#FaracoALoboC2015</v>
       </c>
     </row>
   </sheetData>
@@ -28736,6 +28957,12 @@
     <hyperlink ref="F783" r:id="rId6" location="UrbaniF1993" xr:uid="{31108101-3E02-4C28-A85F-3CE371111108}"/>
     <hyperlink ref="F784" r:id="rId7" location="MacsotayoOlivaresI2015" xr:uid="{E6369229-8847-4229-846A-6A25BC56DB0D}"/>
     <hyperlink ref="F785" r:id="rId8" location="CasasJE2024a" xr:uid="{F665D1E8-68FE-44AB-A3A9-EE16E380E3A9}"/>
+    <hyperlink ref="F786" r:id="rId9" location="CastroM2022" xr:uid="{220D7822-9DF0-48D7-8F5D-6508083FBA79}"/>
+    <hyperlink ref="F787" r:id="rId10" location="BolliHKrauseH1964" xr:uid="{E400331B-9366-4FC4-9A26-03205671D4C0}"/>
+    <hyperlink ref="F788" r:id="rId11" location="FoghinS2024" xr:uid="{6A55865F-5DB7-4A88-8CFA-B43948EBCE3F}"/>
+    <hyperlink ref="F789" r:id="rId12" location="AmbroseWCutrightB2024" xr:uid="{17592340-0C68-49B8-B682-D89F6D2CBCF0}"/>
+    <hyperlink ref="F790" r:id="rId13" xr:uid="{A7BB9A94-FFAA-4B87-9670-5584EA4C1FB9}"/>
+    <hyperlink ref="F791" r:id="rId14" location="FaracoALoboC2015" xr:uid="{A6083044-C2DE-46E5-AD8A-5C6452720EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8755A50-D9C1-4D54-A62E-B84BECCC912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ABC36-902C-4A60-A98E-A593808223CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8845,10 +8834,10 @@
     <t>https://mariantoc.github.io/topics.html#AmbroseWCutrightB2024</t>
   </si>
   <si>
-    <t>https://mariantoc.github.io/RodriguezDetal2006</t>
-  </si>
-  <si>
     <t>https://mariantoc.github.io/geochemistry.html#FaracoALoboC2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geomorphology.html#RodriguezDetal2006</t>
   </si>
 </sst>
 </file>
@@ -28912,12 +28901,12 @@
       <c r="E790" t="s">
         <v>35</v>
       </c>
-      <c r="F790" t="s">
-        <v>2920</v>
+      <c r="F790" s="3" t="s">
+        <v>2921</v>
       </c>
       <c r="G790" s="3" t="str">
         <f t="shared" si="27"/>
-        <v>https://mariantoc.github.io/RodriguezDetal2006</v>
+        <v>https://mariantoc.github.io/geomorphology.html#RodriguezDetal2006</v>
       </c>
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
@@ -28938,7 +28927,7 @@
         <v>35</v>
       </c>
       <c r="F791" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G791" s="3" t="str">
         <f t="shared" si="27"/>
@@ -28961,7 +28950,7 @@
     <hyperlink ref="F787" r:id="rId10" location="BolliHKrauseH1964" xr:uid="{E400331B-9366-4FC4-9A26-03205671D4C0}"/>
     <hyperlink ref="F788" r:id="rId11" location="FoghinS2024" xr:uid="{6A55865F-5DB7-4A88-8CFA-B43948EBCE3F}"/>
     <hyperlink ref="F789" r:id="rId12" location="AmbroseWCutrightB2024" xr:uid="{17592340-0C68-49B8-B682-D89F6D2CBCF0}"/>
-    <hyperlink ref="F790" r:id="rId13" xr:uid="{A7BB9A94-FFAA-4B87-9670-5584EA4C1FB9}"/>
+    <hyperlink ref="F790" r:id="rId13" location="RodriguezDetal2006" xr:uid="{A7BB9A94-FFAA-4B87-9670-5584EA4C1FB9}"/>
     <hyperlink ref="F791" r:id="rId14" location="FaracoALoboC2015" xr:uid="{A6083044-C2DE-46E5-AD8A-5C6452720EFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6ABC36-902C-4A60-A98E-A593808223CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F5061-95A2-440A-98BB-FC40BAC8D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2945">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -8838,6 +8838,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/geomorphology.html#RodriguezDetal2006</t>
+  </si>
+  <si>
+    <t>Crónica de la Pluviometría Venezolana.</t>
+  </si>
+  <si>
+    <t>Sergio Foghin – Pillin</t>
+  </si>
+  <si>
+    <t>Capítulo del libro: Perspectivas venezolanas sobre riesgos, reflexiones y experiencias, Volúmen II, pp. 295 – 322, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Geomorfología de los abanicos aluviales del piedemonte norte del Macizo El Avila, Estado Vargas, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méndez, W.; González, Z.; Suárez, J.; Arauno, M.; Vielma, M.; Maíz, H. </t>
+  </si>
+  <si>
+    <t>Revista de Investigaciones, Número 87, Volúmen 40, Enero – Abril, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implicaciones estructurales en la caracterización de los yacimientos del Campo Mara Este. </t>
+  </si>
+  <si>
+    <t>Prieto Rodríguez, D.</t>
+  </si>
+  <si>
+    <t>IX Simposio Bolivariano de Exploración Petrolera de Cuencas Andinas y Subandinas 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco Urbani…una trayectoria brillante. </t>
+  </si>
+  <si>
+    <t>NotiAcading 2024</t>
+  </si>
+  <si>
+    <t>Noticiero Digital Mensual de la ANH, desde Venezuela para el mundo, Número 9, Septiembre 2024, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Late Cretaceous upwelling in the Southwest of the Thetys Sea, a case history from the Barinas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Ruiz, M.; Lorente, M. A.; Durán, I.; Fasola, A.</t>
+  </si>
+  <si>
+    <t>SEPM Research Conference. Paleogeography and hydrocarbon Potential of The La Luna Formation and related Cretaceous Anoxic Systems, Caracas, Venezuela, 7 – 9 de Septiembre de 2000.</t>
+  </si>
+  <si>
+    <t>Informe inédito del pozo petrolero Manuel -1, Estado Falcón, Noroccidente de Venezuela.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Noviembre 2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#FoghinS2012</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geomorphology.html#MendezWetal2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#PrietoD2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#NotiAcading2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#RuizMetal2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#RodriguezJACastroM2024</t>
   </si>
 </sst>
 </file>
@@ -9222,10 +9291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H791"/>
+  <dimension ref="A1:H798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A768" workbookViewId="0">
-      <selection activeCell="A786" sqref="A786"/>
+    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="A791" sqref="A791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9234,7 +9303,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28439,7 +28508,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A791" si="24">A771+1</f>
+        <f t="shared" ref="A772:A797" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -28901,7 +28970,7 @@
       <c r="E790" t="s">
         <v>35</v>
       </c>
-      <c r="F790" s="3" t="s">
+      <c r="F790" t="s">
         <v>2921</v>
       </c>
       <c r="G790" s="3" t="str">
@@ -28933,6 +29002,159 @@
         <f t="shared" si="27"/>
         <v>https://mariantoc.github.io/geochemistry.html#FaracoALoboC2015</v>
       </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <f t="shared" si="24"/>
+        <v>791</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D792">
+        <v>2012</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F792" t="s">
+        <v>2939</v>
+      </c>
+      <c r="G792" s="3" t="str">
+        <f t="shared" ref="G792:G797" si="28">HYPERLINK(F792)</f>
+        <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <f t="shared" si="24"/>
+        <v>792</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D793">
+        <v>2016</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2927</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G793" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geomorphology.html#MendezWetal2016</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <f t="shared" si="24"/>
+        <v>793</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D794">
+        <v>2006</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G794" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#PrietoD2006</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <f t="shared" si="24"/>
+        <v>794</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D795">
+        <v>2024</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2942</v>
+      </c>
+      <c r="G795" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#NotiAcading2024</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <f t="shared" si="24"/>
+        <v>795</v>
+      </c>
+      <c r="B796" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C796" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D796">
+        <v>2000</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F796" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G796" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#RuizMetal2000</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <f t="shared" si="24"/>
+        <v>796</v>
+      </c>
+      <c r="B797" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C797" t="s">
+        <v>18</v>
+      </c>
+      <c r="D797">
+        <v>2024</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F797" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G797" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/fields.html#RodriguezJACastroM2024</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G798" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G778" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}"/>
@@ -28952,6 +29174,12 @@
     <hyperlink ref="F789" r:id="rId12" location="AmbroseWCutrightB2024" xr:uid="{17592340-0C68-49B8-B682-D89F6D2CBCF0}"/>
     <hyperlink ref="F790" r:id="rId13" location="RodriguezDetal2006" xr:uid="{A7BB9A94-FFAA-4B87-9670-5584EA4C1FB9}"/>
     <hyperlink ref="F791" r:id="rId14" location="FaracoALoboC2015" xr:uid="{A6083044-C2DE-46E5-AD8A-5C6452720EFB}"/>
+    <hyperlink ref="F792" r:id="rId15" location="FoghinS2012" xr:uid="{B765A711-44F5-4C14-A22E-47DDB98ACE4E}"/>
+    <hyperlink ref="F793" r:id="rId16" location="MendezWetal2016" xr:uid="{1A594147-6BF8-4822-99E8-527EE25F9A3B}"/>
+    <hyperlink ref="F794" r:id="rId17" location="PrietoD2006" xr:uid="{16CCA92B-84D4-4271-B586-45061CB0B498}"/>
+    <hyperlink ref="F795" r:id="rId18" location="NotiAcading2024" xr:uid="{DB40FAC4-15A5-447C-B858-24EA7DC13B87}"/>
+    <hyperlink ref="F796" r:id="rId19" location="RuizMetal2000" xr:uid="{175B5AC6-53C3-4C73-8153-8AAC53641206}"/>
+    <hyperlink ref="F797" r:id="rId20" location="RodriguezJACastroM2024" xr:uid="{003E5E71-DF14-403E-9F11-5038094C5A5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F5061-95A2-440A-98BB-FC40BAC8D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15A0F3-9B38-43F7-A919-C87D6EDA3D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9293,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
-      <selection activeCell="A791" sqref="A791"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="A792" sqref="A792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9303,7 +9303,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15A0F3-9B38-43F7-A919-C87D6EDA3D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3407436-2E95-41C3-B217-AC909F350CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="2968">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -8907,6 +8907,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/fields.html#RodriguezJACastroM2024</t>
+  </si>
+  <si>
+    <t>Modelado de facies y ciclicidad de la sección Pérmica que aflora en la Quebrada El Palmar, Flanco Surandino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Laya Pereira </t>
+  </si>
+  <si>
+    <t>Tesis de grado presentada ante la ilustre Universidad Central de Venezuela para optar al título de Magister Scientiarum en Ciencias Geológicas.</t>
+  </si>
+  <si>
+    <t>Petrografía de los xenolitos en la lava del Cerro Atravesado, Cuenca de Falcón Central, Venezuela.</t>
+  </si>
+  <si>
+    <t>Sebastián Grande</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Noviembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tectonic inheritance and structural styles in the Merida Andes (Western Venezuela). </t>
+  </si>
+  <si>
+    <t>Colletta, B.; Roure, F.; De Toni, B.; Loureiro, D.; Passalacqua, H.; Gou, Y.</t>
+  </si>
+  <si>
+    <t>Third ISAG, St. Malo (France), Number 17, 17 – 19 September, 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambios Paleoambientales durante el Pleistoceno Tardío – Holoceno de la Cuenca del Río Portuguesa, Llanos Centro – Occidentales, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">González, O.; Bezada, M.; Millán, Z.; Carrera, J. </t>
+  </si>
+  <si>
+    <t>INVERCIENCIA, Volumen 38, Número 10, Octubre 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workflow of the in situ combustion EOR method in Venezuela: challenges and opportunities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez, F.; Llamedo, M.; Belhaj, H.; Mendoza, A.; Elraies, K. A. </t>
+  </si>
+  <si>
+    <t>ACS Omega, Número 8, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amenaza hidrogeomorfológica en microcuencas de la vertiente sur del Parque Waraima Repano, Distrito Capital, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méndez, W.; Rivas, L.; Fernández, E.; Díaz, Y.; Arévalo, M.; Correa, N. </t>
+  </si>
+  <si>
+    <t>Revista Geográfica Venezolana, Volumen 37, 2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#LayaJC2010</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/igneous.html#GrandeS2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#CollettaBetal1996</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GonzalezOetal2013</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#RodriguezFetal2023</t>
   </si>
 </sst>
 </file>
@@ -9291,10 +9360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H798"/>
+  <dimension ref="A1:H803"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
-      <selection activeCell="A792" sqref="A792"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="A791" sqref="A791"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28508,7 +28577,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A797" si="24">A771+1</f>
+        <f t="shared" ref="A772:A803" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29024,7 +29093,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G797" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G803" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -29154,7 +29223,154 @@
       </c>
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G798" s="3"/>
+      <c r="A798">
+        <f t="shared" si="24"/>
+        <v>797</v>
+      </c>
+      <c r="B798" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D798">
+        <v>2010</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2963</v>
+      </c>
+      <c r="G798" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#LayaJC2010</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <f t="shared" si="24"/>
+        <v>798</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D799">
+        <v>2024</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G799" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/igneous.html#GrandeS2024</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <f t="shared" si="24"/>
+        <v>799</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D800">
+        <v>1996</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F800" t="s">
+        <v>2965</v>
+      </c>
+      <c r="G800" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#CollettaBetal1996</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <f t="shared" si="24"/>
+        <v>800</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D801">
+        <v>2013</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F801" t="s">
+        <v>2966</v>
+      </c>
+      <c r="G801" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GonzalezOetal2013</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <f t="shared" si="24"/>
+        <v>801</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D802">
+        <v>2023</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2967</v>
+      </c>
+      <c r="G802" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#RodriguezFetal2023</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <f t="shared" si="24"/>
+        <v>802</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D803">
+        <v>2016</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G803" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geomorphology.html#MendezWetal2016</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G778" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}"/>
@@ -29179,8 +29395,14 @@
     <hyperlink ref="F794" r:id="rId17" location="PrietoD2006" xr:uid="{16CCA92B-84D4-4271-B586-45061CB0B498}"/>
     <hyperlink ref="F795" r:id="rId18" location="NotiAcading2024" xr:uid="{DB40FAC4-15A5-447C-B858-24EA7DC13B87}"/>
     <hyperlink ref="F796" r:id="rId19" location="RuizMetal2000" xr:uid="{175B5AC6-53C3-4C73-8153-8AAC53641206}"/>
-    <hyperlink ref="F797" r:id="rId20" location="RodriguezJACastroM2024" xr:uid="{003E5E71-DF14-403E-9F11-5038094C5A5E}"/>
+    <hyperlink ref="F798" r:id="rId20" location="LayaJC2010" xr:uid="{861106A8-5CD0-4A37-A3EE-067F28575762}"/>
+    <hyperlink ref="F799" r:id="rId21" location="GrandeS2024" xr:uid="{148C4CF1-A06A-4C61-9AF3-5A1A186D3598}"/>
+    <hyperlink ref="F800" r:id="rId22" location="CollettaBetal1996" xr:uid="{07E91938-FD61-4225-AF88-9C373CBEBEF3}"/>
+    <hyperlink ref="F801" r:id="rId23" location="GonzalezOetal2013" xr:uid="{A228DBD1-D75D-4B91-B7AF-D778B63F627D}"/>
+    <hyperlink ref="F802" r:id="rId24" location="RodriguezFetal2023" xr:uid="{B1D23617-DD69-49D2-A4A2-FE652BCEB840}"/>
+    <hyperlink ref="F803" r:id="rId25" location="MendezWetal2016" xr:uid="{1B09BE2C-B649-4077-894C-7087537D4113}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3407436-2E95-41C3-B217-AC909F350CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694169F-49F3-423B-993F-42549BCB01A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="2968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="2992">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -8976,6 +8976,78 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/topics.html#RodriguezFetal2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observaciones Geológicas de la Meseta de Sarisariňama, Estado Bolívar, Venezuela. </t>
+  </si>
+  <si>
+    <t>Urbani, F.; Zawidski, P.; Koisar, B.</t>
+  </si>
+  <si>
+    <t>Sedimentación de carbonatos en las islas Larga, Alcatraz y Santo Domingo en el Estado Carabobo.</t>
+  </si>
+  <si>
+    <t>Picard, X.; Goddard, D</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 19, Número 2, Junio 1976.</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 15, Números 4, 5 y 6, Abril, Mayo y Junio de 1972.</t>
+  </si>
+  <si>
+    <t>La mica y el feldespato de La Quebrada, Estado Trujillo, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles C. Jefferson </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 12, Números 4, Abril 1969.</t>
+  </si>
+  <si>
+    <t>Tributo a Erika Wagner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Silva Ferrer </t>
+  </si>
+  <si>
+    <t>Trópico Absoluto. Noviembre 2023.</t>
+  </si>
+  <si>
+    <t>Geochemistry of the Mirador Formation (Late Eocene – Early Oligocene), south western Venezuela: Chemostratigraphic constraints on provenance and the influence of the sea level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reategui, K.; Martínez, M.; Esteves, I.; Gutiérrez, J. V.; Martínez, A.; Meléndez, W.; Urbani, F. </t>
+  </si>
+  <si>
+    <t>Geochemical Journal, Vol. 39, pp. 213 – 226, 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a Geociences Sustainability Atlas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capello, M. A.; Caslin, E.; Stewart, I.; Cox, D.; Wouters, L.; Shaughenessy, A.; Winsten, M.; Atekwana, E.; Handley, H.; Singh, V.; Bakamjian, T.; Mhopjeni, J. </t>
+  </si>
+  <si>
+    <t>Second International Meeting for Applied Geoscience &amp; Energy. Society of Exploration Geophysicist and The American Association of Petroleum Geologist, 2022.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/speleology.html#UrbaniFetal1976</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PicardXGoddardD1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#JeffersonCC1969</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#SilvaFerrerM2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#ReateguiKetal2005</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CapelloMAetal2022</t>
   </si>
 </sst>
 </file>
@@ -9360,10 +9432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H803"/>
+  <dimension ref="A1:H809"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
-      <selection activeCell="A791" sqref="A791"/>
+    <sheetView tabSelected="1" topLeftCell="A794" workbookViewId="0">
+      <selection activeCell="A804" sqref="A804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28577,7 +28649,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A803" si="24">A771+1</f>
+        <f t="shared" ref="A772:A810" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29093,7 +29165,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G803" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G809" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -29370,6 +29442,156 @@
       <c r="G803" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/geomorphology.html#MendezWetal2016</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <f t="shared" si="24"/>
+        <v>803</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D804">
+        <v>1976</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F804" t="s">
+        <v>2986</v>
+      </c>
+      <c r="G804" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/speleology.html#UrbaniFetal1976</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <f t="shared" si="24"/>
+        <v>804</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D805">
+        <v>1972</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F805" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G805" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PicardXGoddardD1972</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <f t="shared" si="24"/>
+        <v>805</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D806">
+        <v>1969</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F806" t="s">
+        <v>2988</v>
+      </c>
+      <c r="G806" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#JeffersonCC1969</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <f t="shared" si="24"/>
+        <v>806</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D807">
+        <v>2023</v>
+      </c>
+      <c r="E807" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F807" t="s">
+        <v>2989</v>
+      </c>
+      <c r="G807" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#SilvaFerrerM2023</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <f t="shared" si="24"/>
+        <v>807</v>
+      </c>
+      <c r="B808" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C808" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D808">
+        <v>2005</v>
+      </c>
+      <c r="E808" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F808" t="s">
+        <v>2990</v>
+      </c>
+      <c r="G808" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geochemistry.html#ReateguiKetal2005</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <f t="shared" si="24"/>
+        <v>808</v>
+      </c>
+      <c r="B809" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C809" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D809">
+        <v>2022</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G809" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#CapelloMAetal2022</v>
       </c>
     </row>
   </sheetData>
@@ -29401,8 +29623,15 @@
     <hyperlink ref="F801" r:id="rId23" location="GonzalezOetal2013" xr:uid="{A228DBD1-D75D-4B91-B7AF-D778B63F627D}"/>
     <hyperlink ref="F802" r:id="rId24" location="RodriguezFetal2023" xr:uid="{B1D23617-DD69-49D2-A4A2-FE652BCEB840}"/>
     <hyperlink ref="F803" r:id="rId25" location="MendezWetal2016" xr:uid="{1B09BE2C-B649-4077-894C-7087537D4113}"/>
+    <hyperlink ref="F804:F809" r:id="rId26" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{95BBB3FB-FD0C-45A8-AC70-F0701C7298A9}"/>
+    <hyperlink ref="F804" r:id="rId27" location="UrbaniFetal1976" xr:uid="{9C865814-7102-42E7-B37B-CA58D3353398}"/>
+    <hyperlink ref="F805" r:id="rId28" location="PicardXGoddardD1972" xr:uid="{550096BE-46AA-482E-B041-3D394C63D1A6}"/>
+    <hyperlink ref="F806" r:id="rId29" location="JeffersonCC1969" xr:uid="{5295F534-17AC-40AB-8D04-889E61BB7E67}"/>
+    <hyperlink ref="F807" r:id="rId30" location="SilvaFerrerM2023" xr:uid="{7A2F0516-6341-4993-BCE2-BD38859469B4}"/>
+    <hyperlink ref="F808" r:id="rId31" location="ReateguiKetal2005" xr:uid="{7583FEF1-3299-4BBE-A173-721ED10159C4}"/>
+    <hyperlink ref="F809" r:id="rId32" location="CapelloMAetal2022" xr:uid="{BBB40858-5B3A-4F60-B151-CABA0A0E8252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694169F-49F3-423B-993F-42549BCB01A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EDF5B7-B317-4416-94BF-BED4EA469FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="2992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3013">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9048,6 +9048,79 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/topics.html#CapelloMAetal2022</t>
+  </si>
+  <si>
+    <t>Modelo Geodinámico de la colisión arco – continente y de la inversión en la polaridad de subducción para el segmento de La Española de la Placa del Caribe Septentrional. Geodynamic model of arc - continent collision and subduction polarity reversal for The Hispaniola segment of the northern Caribbean.</t>
+  </si>
+  <si>
+    <t>Escuder -Viruete, J.; Fernández, F. J.; Pérez Valera, T.; Castillo – Carrión, M.; Valverde Vaquero, P.; Pérez, Y.; Roque, M. B.</t>
+  </si>
+  <si>
+    <t>Colección de trabajos clásicos de Geociencias de Venezuela. Reproducciones. 2007
+1.	1631. Ellffryth. Guite to the Caribbean
+2.	1744. Knowles. Expedition to La Guaira
+3.	1839. Wright. Meteorological observations, Colombia
+4.	1858. Holmes. Cuyuni - Caratal
+5.	1880. im Thurm. Journey
+6.	1885. im Thurm. Roraima
+7.	1889. Chatart. Urao
+8.	1895. Peckhan. Asfalto Trinidad
+9.	1918. de Booy. Perijá
+10.	1918. de Booy. Western Maracaibo</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 101, Diciembre 2007.</t>
+  </si>
+  <si>
+    <t>La Diatomita o Tierra de Diatomáceas. Análisis geológico del yacimiento de Laguna Brava, Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolás Gerardo Muñoz </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volumen V, Número 2, Mayo – Agosto, 1970.</t>
+  </si>
+  <si>
+    <t>The estate of Venezuela’s Forests: A case study of the Guayana Region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevilacqua, M.; Cárdenas, L.; Flores, A. L.; Hernández, L.; Larez, E.; Mansutti, A.; Miranda, M.; Ochoa, J.; Rodríguez, M.; Selig, E. Editor: Marta Miranda </t>
+  </si>
+  <si>
+    <t>A Global Forest Watch Report, World Resources Institute, 2002.</t>
+  </si>
+  <si>
+    <t>La sílice de Boquerón, Distrito Escuque, Estado Trujillo.</t>
+  </si>
+  <si>
+    <t>La Mineralogía en los Procesos de Recuperación Mejorada de Petróleo (EOR).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Quintero </t>
+  </si>
+  <si>
+    <t>PetroRenova, Revista de Energía, Número 15, Noviembre 2024</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volúmen 12, Número 7, Julio 1969</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#EscuderIetal2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#Reproducciones2007</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MunozNG1970</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#BevilacquaMetal2002</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#JeffersonCJ1969a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#QuinteroE2024</t>
   </si>
 </sst>
 </file>
@@ -9432,10 +9505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H809"/>
+  <dimension ref="A1:H815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A794" workbookViewId="0">
-      <selection activeCell="A804" sqref="A804"/>
+    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
+      <selection activeCell="A795" sqref="A795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28649,7 +28722,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A810" si="24">A771+1</f>
+        <f t="shared" ref="A772:A815" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29165,7 +29238,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G809" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G815" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -29592,6 +29665,153 @@
       <c r="G809" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/topics.html#CapelloMAetal2022</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <f t="shared" si="24"/>
+        <v>809</v>
+      </c>
+      <c r="B810" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C810" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D810">
+        <v>2024</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F810" t="s">
+        <v>3007</v>
+      </c>
+      <c r="G810" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#EscuderIetal2024</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <f t="shared" si="24"/>
+        <v>810</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D811">
+        <v>2007</v>
+      </c>
+      <c r="E811" t="s">
+        <v>2995</v>
+      </c>
+      <c r="F811" t="s">
+        <v>3008</v>
+      </c>
+      <c r="G811" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#Reproducciones2007</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <f t="shared" si="24"/>
+        <v>811</v>
+      </c>
+      <c r="B812" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C812" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D812">
+        <v>1970</v>
+      </c>
+      <c r="E812" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F812" t="s">
+        <v>3009</v>
+      </c>
+      <c r="G812" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MunozNG1970</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <f t="shared" si="24"/>
+        <v>812</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C813" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D813">
+        <v>2002</v>
+      </c>
+      <c r="E813" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F813" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G813" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/ecology.html#BevilacquaMetal2002</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <f t="shared" si="24"/>
+        <v>813</v>
+      </c>
+      <c r="B814" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C814" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D814">
+        <v>1969</v>
+      </c>
+      <c r="E814" t="s">
+        <v>3006</v>
+      </c>
+      <c r="F814" t="s">
+        <v>3011</v>
+      </c>
+      <c r="G814" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#JeffersonCJ1969a</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <f t="shared" si="24"/>
+        <v>814</v>
+      </c>
+      <c r="B815" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C815" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D815">
+        <v>2022</v>
+      </c>
+      <c r="E815" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F815" t="s">
+        <v>3012</v>
+      </c>
+      <c r="G815" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#QuinteroE2024</v>
       </c>
     </row>
   </sheetData>
@@ -29629,9 +29849,15 @@
     <hyperlink ref="F806" r:id="rId29" location="JeffersonCC1969" xr:uid="{5295F534-17AC-40AB-8D04-889E61BB7E67}"/>
     <hyperlink ref="F807" r:id="rId30" location="SilvaFerrerM2023" xr:uid="{7A2F0516-6341-4993-BCE2-BD38859469B4}"/>
     <hyperlink ref="F808" r:id="rId31" location="ReateguiKetal2005" xr:uid="{7583FEF1-3299-4BBE-A173-721ED10159C4}"/>
-    <hyperlink ref="F809" r:id="rId32" location="CapelloMAetal2022" xr:uid="{BBB40858-5B3A-4F60-B151-CABA0A0E8252}"/>
+    <hyperlink ref="F809:F815" r:id="rId32" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{8E9D72C9-5457-44C1-8F99-6D2DF2ED6304}"/>
+    <hyperlink ref="F810" r:id="rId33" location="EscuderIetal2024" xr:uid="{E6525B6F-2894-4AD6-9D55-43FADDF6A423}"/>
+    <hyperlink ref="F811" r:id="rId34" location="Reproducciones2007" xr:uid="{3AFFFE67-79C2-489A-9FE4-7B1AD2C44701}"/>
+    <hyperlink ref="F812" r:id="rId35" location="MunozNG1970" xr:uid="{492B1516-F92A-4122-AFA2-CC805EC01BF5}"/>
+    <hyperlink ref="F813" r:id="rId36" location="BevilacquaMetal2002" xr:uid="{BCEF41AB-8C9B-4FC2-B292-8D0C7FA6144E}"/>
+    <hyperlink ref="F814" r:id="rId37" location="JeffersonCJ1969a" xr:uid="{2C2EAED2-A222-4664-9001-20E8287FFB67}"/>
+    <hyperlink ref="F815" r:id="rId38" location="QuinteroE2024" xr:uid="{6A0E5F06-D843-49EC-9290-94B00977BCE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EDF5B7-B317-4416-94BF-BED4EA469FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16083143-8A55-4DD2-A309-E79192D94AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="3013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="3034">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9121,6 +9121,69 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/topics.html#QuinteroE2024</t>
+  </si>
+  <si>
+    <t>Los Terremotos en Venezuela y su origen.</t>
+  </si>
+  <si>
+    <t>Cuadernos Lagoven S.A. Editado por el Departamento de Relaciones Públicas de Lagoven S.A., Filial de Petróleos de Venezuela.</t>
+  </si>
+  <si>
+    <t>Carta faunal de macrofósiles correspondientes a las formaciones Cenozoicas de la Península de Araya, Estado Sucre, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver Macsotay </t>
+  </si>
+  <si>
+    <t>GEOS, Universidad Central de Venezuela, Número 13, pp. 23 – 26, Diciembre 1965, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Mapas Geológicos de la Península de Araya, Venezuela. Geological Maps of Araya Peninsula, Venezuela.</t>
+  </si>
+  <si>
+    <t>Trabajo Especial de Grado presentado ante la ilustre Universidad Central de Venezuela dentro del Proyecto Geología de la Región de Araya – Saucedo, Estado Sucre, Zircon Caribbean Project, May 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qué es el oro? Geología del oro en el mundo. Geología del oro en Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelly Pimentel </t>
+  </si>
+  <si>
+    <t>Seminario para periodistas sobre el oro, Marzo 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de tesis de grado presentadas ante la Escuela de Geología y Minas de la Universidad de Oriente para optar a los títulos de geólogo, ingeniero geólogo e ingeniero de minas 1965 – 1979. </t>
+  </si>
+  <si>
+    <t>GEOS, Número 26, Escuela de Geología, Minas y Geofísica de la ilustre Universidad Central de Venezuela, pp. 66 – 72, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Reconnaissance of the Guayana Shield from Guasipati to the Rio Aro, Venezuela.</t>
+  </si>
+  <si>
+    <t>Short, K. C.; Steenken, W. F.</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación de Geología, Minería y Petróleo, Volumen 5, Número 7, 1962.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#SchubertC1984</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MacsotayO1965</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#MujicaAetal2017</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#PimentelN2010</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#UrbaniF1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/igneous.html#ShortKCSteenkenWF1962</t>
   </si>
 </sst>
 </file>
@@ -9505,10 +9568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H815"/>
+  <dimension ref="A1:H821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A795" workbookViewId="0">
-      <selection activeCell="A795" sqref="A795"/>
+    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
+      <selection activeCell="A822" sqref="A822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28722,7 +28785,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A815" si="24">A771+1</f>
+        <f t="shared" ref="A772:A822" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29238,7 +29301,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G815" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G821" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -29812,6 +29875,156 @@
       <c r="G815" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/topics.html#QuinteroE2024</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <f t="shared" si="24"/>
+        <v>815</v>
+      </c>
+      <c r="B816" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C816" t="s">
+        <v>427</v>
+      </c>
+      <c r="D816">
+        <v>1984</v>
+      </c>
+      <c r="E816" t="s">
+        <v>3014</v>
+      </c>
+      <c r="F816" t="s">
+        <v>3028</v>
+      </c>
+      <c r="G816" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#SchubertC1984</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <f t="shared" si="24"/>
+        <v>816</v>
+      </c>
+      <c r="B817" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C817" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D817">
+        <v>1965</v>
+      </c>
+      <c r="E817" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F817" t="s">
+        <v>3029</v>
+      </c>
+      <c r="G817" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MacsotayO1965</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <f t="shared" si="24"/>
+        <v>817</v>
+      </c>
+      <c r="B818" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D818">
+        <v>2017</v>
+      </c>
+      <c r="E818" t="s">
+        <v>3019</v>
+      </c>
+      <c r="F818" t="s">
+        <v>3030</v>
+      </c>
+      <c r="G818" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/maps.html#MujicaAetal2017</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <f t="shared" si="24"/>
+        <v>818</v>
+      </c>
+      <c r="B819" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C819" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D819">
+        <v>2010</v>
+      </c>
+      <c r="E819" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F819" t="s">
+        <v>3031</v>
+      </c>
+      <c r="G819" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#PimentelN2010</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <f t="shared" si="24"/>
+        <v>819</v>
+      </c>
+      <c r="B820" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D820">
+        <v>1981</v>
+      </c>
+      <c r="E820" t="s">
+        <v>3024</v>
+      </c>
+      <c r="F820" t="s">
+        <v>3032</v>
+      </c>
+      <c r="G820" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#UrbaniF1981</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <f t="shared" si="24"/>
+        <v>820</v>
+      </c>
+      <c r="B821" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C821" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D821">
+        <v>1962</v>
+      </c>
+      <c r="E821" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F821" t="s">
+        <v>3033</v>
+      </c>
+      <c r="G821" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/igneous.html#ShortKCSteenkenWF1962</v>
       </c>
     </row>
   </sheetData>
@@ -29855,9 +30068,15 @@
     <hyperlink ref="F812" r:id="rId35" location="MunozNG1970" xr:uid="{492B1516-F92A-4122-AFA2-CC805EC01BF5}"/>
     <hyperlink ref="F813" r:id="rId36" location="BevilacquaMetal2002" xr:uid="{BCEF41AB-8C9B-4FC2-B292-8D0C7FA6144E}"/>
     <hyperlink ref="F814" r:id="rId37" location="JeffersonCJ1969a" xr:uid="{2C2EAED2-A222-4664-9001-20E8287FFB67}"/>
-    <hyperlink ref="F815" r:id="rId38" location="QuinteroE2024" xr:uid="{6A0E5F06-D843-49EC-9290-94B00977BCE4}"/>
+    <hyperlink ref="F815:F821" r:id="rId38" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{96139CD0-BE71-44F5-AEC3-715576F650F5}"/>
+    <hyperlink ref="F816" r:id="rId39" location="SchubertC1984" xr:uid="{21C92744-50B5-4CC8-ACE5-E08F81794A48}"/>
+    <hyperlink ref="F817" r:id="rId40" location="MacsotayO1965" xr:uid="{59A606C5-50DA-4E4D-A593-C0DE4C1F726D}"/>
+    <hyperlink ref="F818" r:id="rId41" location="MujicaAetal2017" xr:uid="{4718A95D-6065-49CA-BBF8-52E33167E7E3}"/>
+    <hyperlink ref="F819" r:id="rId42" location="PimentelN2010" xr:uid="{D0AB4D5C-3EE0-4596-A87E-79AFB7795395}"/>
+    <hyperlink ref="F820" r:id="rId43" location="UrbaniF1981" xr:uid="{7E835299-D625-45F9-8F84-9087E26EE4B0}"/>
+    <hyperlink ref="F821" r:id="rId44" location="ShortKCSteenkenWF1962" xr:uid="{AB090CC3-5D65-4FEB-98FF-92E08F7E9C25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16083143-8A55-4DD2-A309-E79192D94AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83164A6E-BCA6-4519-AE15-36531DC9CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="3034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="3054">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9184,6 +9195,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/igneous.html#ShortKCSteenkenWF1962</t>
+  </si>
+  <si>
+    <t>Quaternary faults and stress regime of Venezuela</t>
+  </si>
+  <si>
+    <t>Audemard, F. A.; Singer, A.; Soulas, J. P.</t>
+  </si>
+  <si>
+    <t>Revista de la Asociación Geológica Argentina, Volumen 61, Número 4, pp. 480 – 491, 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution to the geology of north – central Venezuela. Contribución a la geología de Venezuela nor-central. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Feo-Codecido </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volúmen 5, Número 5, 1962</t>
+  </si>
+  <si>
+    <t>Las arqueólogas que transformaron nuestro conocimiento de la tierra. Parte 1.</t>
+  </si>
+  <si>
+    <t>Centro Ricardo B. Salinas Pliego. Arte y Cultura, 2024</t>
+  </si>
+  <si>
+    <t>Salto Angel: La cascada mas alta del mundo.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de geociencias, Diciembre 2024. Tomado de https://es.geologyscience.com/</t>
+  </si>
+  <si>
+    <t>El profesor Vincenzo Costanzo Alvarez. Ejemplo de una contínua y dilatada carrera profesional en las geociencias. Su legado en la aplicación de la geofísica en impacto ambiental y riesgos de salud</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Diciembre 2024.</t>
+  </si>
+  <si>
+    <t>Luis Ugueto Pérez (1868 – 1936): Entre la sismología y los fenómenos astronómicos, Observatorio Cajigal, Caracas, Venezuela</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Diciembre 2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#AudemardFetal2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#FeoCodecidoG1962</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#Arqueologas2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#SaltoAngel2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroMM2024a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2024</t>
   </si>
 </sst>
 </file>
@@ -9272,9 +9343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9312,7 +9383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9418,7 +9489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9560,7 +9631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9568,10 +9639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H821"/>
+  <dimension ref="A1:H827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A804" workbookViewId="0">
-      <selection activeCell="A822" sqref="A822"/>
+    <sheetView tabSelected="1" topLeftCell="C807" workbookViewId="0">
+      <selection activeCell="C817" sqref="C817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9580,7 +9651,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28785,7 +28856,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A822" si="24">A771+1</f>
+        <f t="shared" ref="A772:A827" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29301,7 +29372,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G821" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G827" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -30025,6 +30096,150 @@
       <c r="G821" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/igneous.html#ShortKCSteenkenWF1962</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <f>A821+1</f>
+        <v>821</v>
+      </c>
+      <c r="B822" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C822" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D822">
+        <v>2006</v>
+      </c>
+      <c r="E822" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F822" t="s">
+        <v>3048</v>
+      </c>
+      <c r="G822" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#AudemardFetal2006</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <f t="shared" si="24"/>
+        <v>822</v>
+      </c>
+      <c r="B823" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C823" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D823">
+        <v>1962</v>
+      </c>
+      <c r="E823" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F823" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G823" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#FeoCodecidoG1962</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <f t="shared" si="24"/>
+        <v>823</v>
+      </c>
+      <c r="B824" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D824">
+        <v>2024</v>
+      </c>
+      <c r="E824" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F824" t="s">
+        <v>3050</v>
+      </c>
+      <c r="G824" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#Arqueologas2024</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <f t="shared" si="24"/>
+        <v>824</v>
+      </c>
+      <c r="B825" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D825">
+        <v>2024</v>
+      </c>
+      <c r="E825" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F825" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G825" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/ecology.html#SaltoAngel2024</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <f t="shared" si="24"/>
+        <v>825</v>
+      </c>
+      <c r="B826" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C826" t="s">
+        <v>22</v>
+      </c>
+      <c r="D826">
+        <v>2024</v>
+      </c>
+      <c r="E826" t="s">
+        <v>3045</v>
+      </c>
+      <c r="F826" t="s">
+        <v>3052</v>
+      </c>
+      <c r="G826" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CastroMM2024a</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <f t="shared" si="24"/>
+        <v>826</v>
+      </c>
+      <c r="B827" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D827">
+        <v>2024</v>
+      </c>
+      <c r="E827" t="s">
+        <v>3047</v>
+      </c>
+      <c r="F827" t="s">
+        <v>3053</v>
+      </c>
+      <c r="G827" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2024</v>
       </c>
     </row>
   </sheetData>
@@ -30074,9 +30289,15 @@
     <hyperlink ref="F818" r:id="rId41" location="MujicaAetal2017" xr:uid="{4718A95D-6065-49CA-BBF8-52E33167E7E3}"/>
     <hyperlink ref="F819" r:id="rId42" location="PimentelN2010" xr:uid="{D0AB4D5C-3EE0-4596-A87E-79AFB7795395}"/>
     <hyperlink ref="F820" r:id="rId43" location="UrbaniF1981" xr:uid="{7E835299-D625-45F9-8F84-9087E26EE4B0}"/>
-    <hyperlink ref="F821" r:id="rId44" location="ShortKCSteenkenWF1962" xr:uid="{AB090CC3-5D65-4FEB-98FF-92E08F7E9C25}"/>
+    <hyperlink ref="F821:F827" r:id="rId44" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{CA63A6A6-F671-4069-B7BC-AE7F1B5E7348}"/>
+    <hyperlink ref="F822" r:id="rId45" location="AudemardFetal2006" xr:uid="{C2052AB6-3BB7-4F78-BBFD-929EEDA57DAD}"/>
+    <hyperlink ref="F823" r:id="rId46" location="FeoCodecidoG1962" xr:uid="{7434D248-EA2A-41E2-AFF3-8EE68FE6A30B}"/>
+    <hyperlink ref="F824" r:id="rId47" location="Arqueologas2024" xr:uid="{D59FB7AE-BC31-4F01-A52E-E97268BAB408}"/>
+    <hyperlink ref="F825" r:id="rId48" location="SaltoAngel2024" xr:uid="{FF1CDE34-A096-4986-9C1B-EC216709F1C1}"/>
+    <hyperlink ref="F826" r:id="rId49" location="CastroMM2024a" xr:uid="{C40FEF2B-F020-41A9-BAC3-758B03E4010D}"/>
+    <hyperlink ref="F827" r:id="rId50" location="RodriguezJA2024" xr:uid="{73FC86C0-61D1-496D-B069-89D41BF727E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83164A6E-BCA6-4519-AE15-36531DC9CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48716A6A-92B8-4156-9932-B32CD63C6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -9343,9 +9343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9383,7 +9383,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9489,7 +9489,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9631,7 +9631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9641,8 +9641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C807" workbookViewId="0">
-      <selection activeCell="C817" sqref="C817"/>
+    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
+      <selection activeCell="A822" sqref="A822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9651,7 +9651,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48716A6A-92B8-4156-9932-B32CD63C6FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850906DB-1199-48F0-96AA-8276B97EEBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="3054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="3076">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9255,6 +9244,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#RodriguezJA2024</t>
+  </si>
+  <si>
+    <t>Resumen Tesis de Maestría de la Universidad del Zulia (1984 – 1996).</t>
+  </si>
+  <si>
+    <t>Google Scholar, Articles https://scholar.google.ca/; Código Geológico de Venezuela. PDVSA Intevep 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situación de los derrames de hidrocarburos en Venezuela (2010 – 2021) y nuevas tecnologías de monitoreo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klaus Essig </t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de Ingeniería y el Habitat, Boletín 54, pp. 8 – 33, Enero – Marzo, 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine learning suggests climate and seasonal definitions should change under global warming. </t>
+  </si>
+  <si>
+    <t>Milton Speer; Lance Leslie</t>
+  </si>
+  <si>
+    <t>Academia Environmental Sciences &amp; Sustainability, 2024</t>
+  </si>
+  <si>
+    <t>Balance geológico de las rocas ornamentales aflorantes en la Cuenca del Río Parguaza y sus alternativas de desarrollo, Estado Bolívar, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noel Mariño Pardo; Sebastián Grande, </t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de Ingeniería y el Hábitat, Boletín 54, pp. 34 – 40, Enero – Marzo, 2022</t>
+  </si>
+  <si>
+    <t>Geology of the Falcon Basin (NW Venezuela).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albert – Villanueva, E.; González, L.; Bover – Arnal, T.; Ferrández – Caňadel, C.; Esteban, M.; Fernández Carmona, J.; Calvo, R.; Salas, R. </t>
+  </si>
+  <si>
+    <t>Journal of Maps, Vol. 13, No. 7, pp. 491 – 501, 2017.</t>
+  </si>
+  <si>
+    <t>Early Cretaceous Conomita outcrop: Structural análisis syn-sedimentary gravity – driven deformations (NE Venezuela).</t>
+  </si>
+  <si>
+    <t>Presentación Carlos Giraldo, June 2020</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroMM2024b</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#EssigK2022</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#SpeerMLanceL2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#MarinoNGrandeS2022</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#AlbertVillanuevaetal2017</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#GiraldoC2020</t>
   </si>
 </sst>
 </file>
@@ -9639,10 +9694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H827"/>
+  <dimension ref="A1:H833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
-      <selection activeCell="A822" sqref="A822"/>
+    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
+      <selection activeCell="A828" sqref="A828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28856,7 +28911,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772">
-        <f t="shared" ref="A772:A827" si="24">A771+1</f>
+        <f t="shared" ref="A772:A834" si="24">A771+1</f>
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -29372,7 +29427,7 @@
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
-        <f t="shared" ref="G792:G827" si="28">HYPERLINK(F792)</f>
+        <f t="shared" ref="G792:G833" si="28">HYPERLINK(F792)</f>
         <v>https://mariantoc.github.io/ecology.html#FoghinS2012</v>
       </c>
     </row>
@@ -30240,6 +30295,156 @@
       <c r="G827" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/biography.html#RodriguezJA2024</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <f t="shared" si="24"/>
+        <v>827</v>
+      </c>
+      <c r="B828" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C828" t="s">
+        <v>22</v>
+      </c>
+      <c r="D828">
+        <v>2024</v>
+      </c>
+      <c r="E828" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F828" t="s">
+        <v>3070</v>
+      </c>
+      <c r="G828" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CastroMM2024b</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <f t="shared" si="24"/>
+        <v>828</v>
+      </c>
+      <c r="B829" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C829" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D829">
+        <v>2022</v>
+      </c>
+      <c r="E829" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F829" t="s">
+        <v>3071</v>
+      </c>
+      <c r="G829" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/ecology.html#EssigK2022</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <f t="shared" si="24"/>
+        <v>829</v>
+      </c>
+      <c r="B830" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C830" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D830">
+        <v>2024</v>
+      </c>
+      <c r="E830" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F830" t="s">
+        <v>3072</v>
+      </c>
+      <c r="G830" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#SpeerMLanceL2024</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <f t="shared" si="24"/>
+        <v>830</v>
+      </c>
+      <c r="B831" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C831" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D831">
+        <v>2022</v>
+      </c>
+      <c r="E831" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F831" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G831" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#MarinoNGrandeS2022</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <f t="shared" si="24"/>
+        <v>831</v>
+      </c>
+      <c r="B832" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C832" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D832">
+        <v>2017</v>
+      </c>
+      <c r="E832" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F832" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G832" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#AlbertVillanuevaetal2017</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <f t="shared" si="24"/>
+        <v>832</v>
+      </c>
+      <c r="B833" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C833" t="s">
+        <v>348</v>
+      </c>
+      <c r="D833">
+        <v>2020</v>
+      </c>
+      <c r="E833" t="s">
+        <v>3069</v>
+      </c>
+      <c r="F833" t="s">
+        <v>3075</v>
+      </c>
+      <c r="G833" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#GiraldoC2020</v>
       </c>
     </row>
   </sheetData>
@@ -30295,9 +30500,15 @@
     <hyperlink ref="F824" r:id="rId47" location="Arqueologas2024" xr:uid="{D59FB7AE-BC31-4F01-A52E-E97268BAB408}"/>
     <hyperlink ref="F825" r:id="rId48" location="SaltoAngel2024" xr:uid="{FF1CDE34-A096-4986-9C1B-EC216709F1C1}"/>
     <hyperlink ref="F826" r:id="rId49" location="CastroMM2024a" xr:uid="{C40FEF2B-F020-41A9-BAC3-758B03E4010D}"/>
-    <hyperlink ref="F827" r:id="rId50" location="RodriguezJA2024" xr:uid="{73FC86C0-61D1-496D-B069-89D41BF727E4}"/>
+    <hyperlink ref="F827:F833" r:id="rId50" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{EEAF20DB-A520-4739-8A7F-CC07D72A9E6B}"/>
+    <hyperlink ref="F828" r:id="rId51" location="CastroMM2024b" xr:uid="{03F526D8-B6D3-4CE2-A67E-DFC8AFE8E8EC}"/>
+    <hyperlink ref="F829" r:id="rId52" location="EssigK2022" xr:uid="{ECA96AC4-1DCD-4705-B683-55E1A9324057}"/>
+    <hyperlink ref="F830" r:id="rId53" location="SpeerMLanceL2024" xr:uid="{79F09CE1-BD46-49FC-A7D6-D4CE746C94DC}"/>
+    <hyperlink ref="F831" r:id="rId54" location="MarinoNGrandeS2022" xr:uid="{CC4DCA15-FED1-4CF6-802A-4128F0F76C10}"/>
+    <hyperlink ref="F832" r:id="rId55" location="AlbertVillanuevaetal2017" xr:uid="{991AF708-1CC7-429E-B765-41DBB46C7506}"/>
+    <hyperlink ref="F833" r:id="rId56" location="GiraldoC2020" xr:uid="{CF1A63B9-446D-44D5-970A-1CF299C208FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298B08A6-BDB3-4AD4-BB94-2A019FBAEC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B6439-4B14-43E9-8946-6C6E7CE60288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="3118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="3138">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9436,6 +9436,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#PadronVetal1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trilobites y Graptolitos: Anécdota de dos estudiantes de geología (Kepa Achurra Allende y Alfredo Mederos Herrera) en tiempos de dictadura en Venezuela (1948 – 1958). </t>
+  </si>
+  <si>
+    <t>MAYA, Revista de Geociencias, Enero 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did the toba eruption produced a widespread glaciation and a human population crash? </t>
+  </si>
+  <si>
+    <t>Jhony Casas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas sobre los foraminíferos del Grupo Cabo Blanco, Venezuela. </t>
+  </si>
+  <si>
+    <t>Bermúdez, P. J.; Fuenmayor, A. N.</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 5, Número 1, Enero 1962.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflexiones sobre cómo enfrentar algunos de los problemas ambientales de Venezuela. </t>
+  </si>
+  <si>
+    <t>Rafael J. Bermúdez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio de las facies carbonáticas en la Formación Churuguara, Estado Falcón, Venezuela. </t>
+  </si>
+  <si>
+    <t>Escalona, N.; Truskowski, I.; Zapata, E.</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 20, Número 4, 1978.</t>
+  </si>
+  <si>
+    <t>Breve historia de la primera escuela de minería post-independencia de Venezuela y su director, Miguel Emilio Palacio Viso.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Enero 2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroM2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJ2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BermudezPJFuenmayorAN1962</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#BermudezRJ2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#EscalonaNetal1978</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2025</t>
   </si>
 </sst>
 </file>
@@ -9500,11 +9560,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9820,10 +9881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H845"/>
+  <dimension ref="A1:H851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A824" workbookViewId="0">
-      <selection activeCell="A840" sqref="A840"/>
+    <sheetView tabSelected="1" topLeftCell="A833" workbookViewId="0">
+      <selection activeCell="A846" sqref="A846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12665,7 +12726,7 @@
       <c r="E115" t="s">
         <v>2879</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>2880</v>
       </c>
       <c r="G115" s="3" t="str">
@@ -29227,7 +29288,7 @@
       <c r="E779" t="s">
         <v>2895</v>
       </c>
-      <c r="F779" t="s">
+      <c r="F779" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G779" s="3" t="str">
@@ -29249,7 +29310,7 @@
       <c r="E780" t="s">
         <v>2893</v>
       </c>
-      <c r="F780" t="s">
+      <c r="F780" s="4" t="s">
         <v>2896</v>
       </c>
       <c r="G780" s="3" t="str">
@@ -29274,7 +29335,7 @@
       <c r="E781" t="s">
         <v>160</v>
       </c>
-      <c r="F781" t="s">
+      <c r="F781" s="4" t="s">
         <v>2897</v>
       </c>
       <c r="G781" s="3" t="str">
@@ -29299,7 +29360,7 @@
       <c r="E782" t="s">
         <v>2891</v>
       </c>
-      <c r="F782" t="s">
+      <c r="F782" s="4" t="s">
         <v>2898</v>
       </c>
       <c r="G782" s="3" t="str">
@@ -29324,7 +29385,7 @@
       <c r="E783" t="s">
         <v>2245</v>
       </c>
-      <c r="F783" t="s">
+      <c r="F783" s="4" t="s">
         <v>2899</v>
       </c>
       <c r="G783" s="3" t="str">
@@ -29349,7 +29410,7 @@
       <c r="E784" t="s">
         <v>2889</v>
       </c>
-      <c r="F784" t="s">
+      <c r="F784" s="4" t="s">
         <v>2900</v>
       </c>
       <c r="G784" s="3" t="str">
@@ -29374,7 +29435,7 @@
       <c r="E785" t="s">
         <v>2888</v>
       </c>
-      <c r="F785" t="s">
+      <c r="F785" s="4" t="s">
         <v>2901</v>
       </c>
       <c r="G785" s="3" t="str">
@@ -29399,7 +29460,7 @@
       <c r="E786" t="s">
         <v>2903</v>
       </c>
-      <c r="F786" t="s">
+      <c r="F786" s="4" t="s">
         <v>2916</v>
       </c>
       <c r="G786" s="3" t="str">
@@ -29424,7 +29485,7 @@
       <c r="E787" t="s">
         <v>2906</v>
       </c>
-      <c r="F787" t="s">
+      <c r="F787" s="4" t="s">
         <v>2917</v>
       </c>
       <c r="G787" s="3" t="str">
@@ -29449,7 +29510,7 @@
       <c r="E788" t="s">
         <v>2909</v>
       </c>
-      <c r="F788" t="s">
+      <c r="F788" s="4" t="s">
         <v>2918</v>
       </c>
       <c r="G788" s="3" t="str">
@@ -29474,7 +29535,7 @@
       <c r="E789" t="s">
         <v>2248</v>
       </c>
-      <c r="F789" t="s">
+      <c r="F789" s="4" t="s">
         <v>2919</v>
       </c>
       <c r="G789" s="3" t="str">
@@ -29499,7 +29560,7 @@
       <c r="E790" t="s">
         <v>35</v>
       </c>
-      <c r="F790" t="s">
+      <c r="F790" s="4" t="s">
         <v>2921</v>
       </c>
       <c r="G790" s="3" t="str">
@@ -29524,7 +29585,7 @@
       <c r="E791" t="s">
         <v>35</v>
       </c>
-      <c r="F791" t="s">
+      <c r="F791" s="4" t="s">
         <v>2920</v>
       </c>
       <c r="G791" s="3" t="str">
@@ -29549,7 +29610,7 @@
       <c r="E792" t="s">
         <v>2924</v>
       </c>
-      <c r="F792" t="s">
+      <c r="F792" s="4" t="s">
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
@@ -29574,7 +29635,7 @@
       <c r="E793" t="s">
         <v>2927</v>
       </c>
-      <c r="F793" t="s">
+      <c r="F793" s="4" t="s">
         <v>2940</v>
       </c>
       <c r="G793" s="3" t="str">
@@ -29599,7 +29660,7 @@
       <c r="E794" t="s">
         <v>2930</v>
       </c>
-      <c r="F794" t="s">
+      <c r="F794" s="4" t="s">
         <v>2941</v>
       </c>
       <c r="G794" s="3" t="str">
@@ -29624,7 +29685,7 @@
       <c r="E795" t="s">
         <v>2933</v>
       </c>
-      <c r="F795" t="s">
+      <c r="F795" s="4" t="s">
         <v>2942</v>
       </c>
       <c r="G795" s="3" t="str">
@@ -29649,7 +29710,7 @@
       <c r="E796" t="s">
         <v>2936</v>
       </c>
-      <c r="F796" t="s">
+      <c r="F796" s="4" t="s">
         <v>2943</v>
       </c>
       <c r="G796" s="3" t="str">
@@ -29699,7 +29760,7 @@
       <c r="E798" t="s">
         <v>2947</v>
       </c>
-      <c r="F798" t="s">
+      <c r="F798" s="4" t="s">
         <v>2963</v>
       </c>
       <c r="G798" s="3" t="str">
@@ -29724,7 +29785,7 @@
       <c r="E799" t="s">
         <v>2950</v>
       </c>
-      <c r="F799" t="s">
+      <c r="F799" s="4" t="s">
         <v>2964</v>
       </c>
       <c r="G799" s="3" t="str">
@@ -29749,7 +29810,7 @@
       <c r="E800" t="s">
         <v>2953</v>
       </c>
-      <c r="F800" t="s">
+      <c r="F800" s="4" t="s">
         <v>2965</v>
       </c>
       <c r="G800" s="3" t="str">
@@ -29774,7 +29835,7 @@
       <c r="E801" t="s">
         <v>2956</v>
       </c>
-      <c r="F801" t="s">
+      <c r="F801" s="4" t="s">
         <v>2966</v>
       </c>
       <c r="G801" s="3" t="str">
@@ -29799,7 +29860,7 @@
       <c r="E802" t="s">
         <v>2959</v>
       </c>
-      <c r="F802" t="s">
+      <c r="F802" s="4" t="s">
         <v>2967</v>
       </c>
       <c r="G802" s="3" t="str">
@@ -29824,7 +29885,7 @@
       <c r="E803" t="s">
         <v>2962</v>
       </c>
-      <c r="F803" t="s">
+      <c r="F803" s="4" t="s">
         <v>2940</v>
       </c>
       <c r="G803" s="3" t="str">
@@ -29849,7 +29910,7 @@
       <c r="E804" t="s">
         <v>2972</v>
       </c>
-      <c r="F804" t="s">
+      <c r="F804" s="4" t="s">
         <v>2986</v>
       </c>
       <c r="G804" s="3" t="str">
@@ -29874,7 +29935,7 @@
       <c r="E805" t="s">
         <v>2973</v>
       </c>
-      <c r="F805" t="s">
+      <c r="F805" s="4" t="s">
         <v>2987</v>
       </c>
       <c r="G805" s="3" t="str">
@@ -29899,7 +29960,7 @@
       <c r="E806" t="s">
         <v>2976</v>
       </c>
-      <c r="F806" t="s">
+      <c r="F806" s="4" t="s">
         <v>2988</v>
       </c>
       <c r="G806" s="3" t="str">
@@ -29924,7 +29985,7 @@
       <c r="E807" t="s">
         <v>2979</v>
       </c>
-      <c r="F807" t="s">
+      <c r="F807" s="4" t="s">
         <v>2989</v>
       </c>
       <c r="G807" s="3" t="str">
@@ -29949,7 +30010,7 @@
       <c r="E808" t="s">
         <v>2982</v>
       </c>
-      <c r="F808" t="s">
+      <c r="F808" s="4" t="s">
         <v>2990</v>
       </c>
       <c r="G808" s="3" t="str">
@@ -29974,7 +30035,7 @@
       <c r="E809" t="s">
         <v>2985</v>
       </c>
-      <c r="F809" t="s">
+      <c r="F809" s="4" t="s">
         <v>2991</v>
       </c>
       <c r="G809" s="3" t="str">
@@ -29999,7 +30060,7 @@
       <c r="E810" t="s">
         <v>2985</v>
       </c>
-      <c r="F810" t="s">
+      <c r="F810" s="4" t="s">
         <v>3007</v>
       </c>
       <c r="G810" s="3" t="str">
@@ -30021,7 +30082,7 @@
       <c r="E811" t="s">
         <v>2995</v>
       </c>
-      <c r="F811" t="s">
+      <c r="F811" s="4" t="s">
         <v>3008</v>
       </c>
       <c r="G811" s="3" t="str">
@@ -30046,7 +30107,7 @@
       <c r="E812" t="s">
         <v>2998</v>
       </c>
-      <c r="F812" t="s">
+      <c r="F812" s="4" t="s">
         <v>3009</v>
       </c>
       <c r="G812" s="3" t="str">
@@ -30071,7 +30132,7 @@
       <c r="E813" t="s">
         <v>3001</v>
       </c>
-      <c r="F813" t="s">
+      <c r="F813" s="4" t="s">
         <v>3010</v>
       </c>
       <c r="G813" s="3" t="str">
@@ -30096,7 +30157,7 @@
       <c r="E814" t="s">
         <v>3006</v>
       </c>
-      <c r="F814" t="s">
+      <c r="F814" s="4" t="s">
         <v>3011</v>
       </c>
       <c r="G814" s="3" t="str">
@@ -30121,7 +30182,7 @@
       <c r="E815" t="s">
         <v>3005</v>
       </c>
-      <c r="F815" t="s">
+      <c r="F815" s="4" t="s">
         <v>3012</v>
       </c>
       <c r="G815" s="3" t="str">
@@ -30146,7 +30207,7 @@
       <c r="E816" t="s">
         <v>3014</v>
       </c>
-      <c r="F816" t="s">
+      <c r="F816" s="4" t="s">
         <v>3028</v>
       </c>
       <c r="G816" s="3" t="str">
@@ -30171,7 +30232,7 @@
       <c r="E817" t="s">
         <v>3017</v>
       </c>
-      <c r="F817" t="s">
+      <c r="F817" s="4" t="s">
         <v>3029</v>
       </c>
       <c r="G817" s="3" t="str">
@@ -30196,7 +30257,7 @@
       <c r="E818" t="s">
         <v>3019</v>
       </c>
-      <c r="F818" t="s">
+      <c r="F818" s="4" t="s">
         <v>3030</v>
       </c>
       <c r="G818" s="3" t="str">
@@ -30221,7 +30282,7 @@
       <c r="E819" t="s">
         <v>3022</v>
       </c>
-      <c r="F819" t="s">
+      <c r="F819" s="4" t="s">
         <v>3031</v>
       </c>
       <c r="G819" s="3" t="str">
@@ -30246,7 +30307,7 @@
       <c r="E820" t="s">
         <v>3024</v>
       </c>
-      <c r="F820" t="s">
+      <c r="F820" s="4" t="s">
         <v>3032</v>
       </c>
       <c r="G820" s="3" t="str">
@@ -30271,7 +30332,7 @@
       <c r="E821" t="s">
         <v>3027</v>
       </c>
-      <c r="F821" t="s">
+      <c r="F821" s="4" t="s">
         <v>3033</v>
       </c>
       <c r="G821" s="3" t="str">
@@ -30296,7 +30357,7 @@
       <c r="E822" t="s">
         <v>3036</v>
       </c>
-      <c r="F822" t="s">
+      <c r="F822" s="4" t="s">
         <v>3048</v>
       </c>
       <c r="G822" s="3" t="str">
@@ -30321,7 +30382,7 @@
       <c r="E823" t="s">
         <v>3039</v>
       </c>
-      <c r="F823" t="s">
+      <c r="F823" s="4" t="s">
         <v>3049</v>
       </c>
       <c r="G823" s="3" t="str">
@@ -30343,7 +30404,7 @@
       <c r="E824" t="s">
         <v>3041</v>
       </c>
-      <c r="F824" t="s">
+      <c r="F824" s="4" t="s">
         <v>3050</v>
       </c>
       <c r="G824" s="3" t="str">
@@ -30365,7 +30426,7 @@
       <c r="E825" t="s">
         <v>3043</v>
       </c>
-      <c r="F825" t="s">
+      <c r="F825" s="4" t="s">
         <v>3051</v>
       </c>
       <c r="G825" s="3" t="str">
@@ -30390,7 +30451,7 @@
       <c r="E826" t="s">
         <v>3045</v>
       </c>
-      <c r="F826" t="s">
+      <c r="F826" s="4" t="s">
         <v>3052</v>
       </c>
       <c r="G826" s="3" t="str">
@@ -30415,7 +30476,7 @@
       <c r="E827" t="s">
         <v>3047</v>
       </c>
-      <c r="F827" t="s">
+      <c r="F827" s="4" t="s">
         <v>3053</v>
       </c>
       <c r="G827" s="3" t="str">
@@ -30440,7 +30501,7 @@
       <c r="E828" t="s">
         <v>3055</v>
       </c>
-      <c r="F828" t="s">
+      <c r="F828" s="4" t="s">
         <v>3070</v>
       </c>
       <c r="G828" s="3" t="str">
@@ -30465,7 +30526,7 @@
       <c r="E829" t="s">
         <v>3058</v>
       </c>
-      <c r="F829" t="s">
+      <c r="F829" s="4" t="s">
         <v>3071</v>
       </c>
       <c r="G829" s="3" t="str">
@@ -30490,7 +30551,7 @@
       <c r="E830" t="s">
         <v>3061</v>
       </c>
-      <c r="F830" t="s">
+      <c r="F830" s="4" t="s">
         <v>3072</v>
       </c>
       <c r="G830" s="3" t="str">
@@ -30515,7 +30576,7 @@
       <c r="E831" t="s">
         <v>3064</v>
       </c>
-      <c r="F831" t="s">
+      <c r="F831" s="4" t="s">
         <v>3073</v>
       </c>
       <c r="G831" s="3" t="str">
@@ -30540,7 +30601,7 @@
       <c r="E832" t="s">
         <v>3067</v>
       </c>
-      <c r="F832" t="s">
+      <c r="F832" s="4" t="s">
         <v>3074</v>
       </c>
       <c r="G832" s="3" t="str">
@@ -30565,7 +30626,7 @@
       <c r="E833" t="s">
         <v>3069</v>
       </c>
-      <c r="F833" t="s">
+      <c r="F833" s="4" t="s">
         <v>3075</v>
       </c>
       <c r="G833" s="3" t="str">
@@ -30587,11 +30648,11 @@
       <c r="E834" t="s">
         <v>3076</v>
       </c>
-      <c r="F834" t="s">
+      <c r="F834" s="4" t="s">
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G897" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G851" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30612,7 +30673,7 @@
       <c r="E835" t="s">
         <v>3080</v>
       </c>
-      <c r="F835" t="s">
+      <c r="F835" s="4" t="s">
         <v>3093</v>
       </c>
       <c r="G835" s="3" t="str">
@@ -30622,7 +30683,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A845" si="27">A835+1</f>
+        <f t="shared" ref="A836:A852" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -30637,7 +30698,7 @@
       <c r="E836" t="s">
         <v>3083</v>
       </c>
-      <c r="F836" t="s">
+      <c r="F836" s="4" t="s">
         <v>3094</v>
       </c>
       <c r="G836" s="3" t="str">
@@ -30662,7 +30723,7 @@
       <c r="E837" t="s">
         <v>3086</v>
       </c>
-      <c r="F837" t="s">
+      <c r="F837" s="4" t="s">
         <v>3095</v>
       </c>
       <c r="G837" s="3" t="str">
@@ -30687,7 +30748,7 @@
       <c r="E838" t="s">
         <v>3088</v>
       </c>
-      <c r="F838" t="s">
+      <c r="F838" s="4" t="s">
         <v>3096</v>
       </c>
       <c r="G838" s="3" t="str">
@@ -30712,7 +30773,7 @@
       <c r="E839" t="s">
         <v>3091</v>
       </c>
-      <c r="F839" t="s">
+      <c r="F839" s="4" t="s">
         <v>3097</v>
       </c>
       <c r="G839" s="3" t="str">
@@ -30737,7 +30798,7 @@
       <c r="E840" t="s">
         <v>3099</v>
       </c>
-      <c r="F840" t="s">
+      <c r="F840" s="4" t="s">
         <v>3112</v>
       </c>
       <c r="G840" s="3" t="str">
@@ -30762,7 +30823,7 @@
       <c r="E841" t="s">
         <v>3099</v>
       </c>
-      <c r="F841" t="s">
+      <c r="F841" s="4" t="s">
         <v>3113</v>
       </c>
       <c r="G841" s="3" t="str">
@@ -30787,7 +30848,7 @@
       <c r="E842" t="s">
         <v>3103</v>
       </c>
-      <c r="F842" t="s">
+      <c r="F842" s="4" t="s">
         <v>3114</v>
       </c>
       <c r="G842" s="3" t="str">
@@ -30812,7 +30873,7 @@
       <c r="E843" t="s">
         <v>3103</v>
       </c>
-      <c r="F843" t="s">
+      <c r="F843" s="4" t="s">
         <v>3115</v>
       </c>
       <c r="G843" s="3" t="str">
@@ -30837,7 +30898,7 @@
       <c r="E844" t="s">
         <v>3108</v>
       </c>
-      <c r="F844" t="s">
+      <c r="F844" s="4" t="s">
         <v>3116</v>
       </c>
       <c r="G844" s="3" t="str">
@@ -30862,7 +30923,7 @@
       <c r="E845" t="s">
         <v>3111</v>
       </c>
-      <c r="F845" t="s">
+      <c r="F845" s="4" t="s">
         <v>3117</v>
       </c>
       <c r="G845" s="3" t="str">
@@ -30870,80 +30931,160 @@
         <v>https://mariantoc.github.io/stratigraphy.html#PadronVetal1993</v>
       </c>
     </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <f t="shared" si="27"/>
+        <v>845</v>
+      </c>
+      <c r="B846" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C846" t="s">
+        <v>22</v>
+      </c>
+      <c r="D846">
+        <v>2025</v>
+      </c>
+      <c r="E846" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F846" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="G846" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2025</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <f t="shared" si="27"/>
+        <v>846</v>
+      </c>
+      <c r="B847" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C847" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D847">
+        <v>2025</v>
+      </c>
+      <c r="E847" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F847" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="G847" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJ2025</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <f t="shared" si="27"/>
+        <v>847</v>
+      </c>
+      <c r="B848" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C848" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D848">
+        <v>1962</v>
+      </c>
+      <c r="E848" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F848" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="G848" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#BermudezPJFuenmayorAN1962</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <f t="shared" si="27"/>
+        <v>848</v>
+      </c>
+      <c r="B849" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C849" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D849">
+        <v>2024</v>
+      </c>
+      <c r="E849" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F849" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="G849" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/ecology.html#BermudezRJ2024</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <f t="shared" si="27"/>
+        <v>849</v>
+      </c>
+      <c r="B850" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C850" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D850">
+        <v>1978</v>
+      </c>
+      <c r="E850" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F850" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="G850" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#EscalonaNetal1978</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <f t="shared" si="27"/>
+        <v>850</v>
+      </c>
+      <c r="B851" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D851">
+        <v>2025</v>
+      </c>
+      <c r="E851" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F851" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G851" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2025</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G778" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F838" r:id="rId1" location="FoghinS2024" xr:uid="{C31988F6-0D09-49ED-A208-B907E73C96E3}"/>
-    <hyperlink ref="F837" r:id="rId2" location="OngG2004" xr:uid="{DAE45043-7F19-458B-9ABB-701C375FE5CB}"/>
-    <hyperlink ref="F836" r:id="rId3" location="OdremanOWagnerR1979" xr:uid="{BC08ECEA-3D9C-4DBA-AB8F-2DF399AAAC31}"/>
-    <hyperlink ref="F835" r:id="rId4" location="AlbinoAetal2016" xr:uid="{40C01058-232C-453D-8C73-41AD95B42C27}"/>
-    <hyperlink ref="F834" r:id="rId5" location="Arqueologas2024a" xr:uid="{B2A5A27C-3BFB-4854-9B44-380A4DB89357}"/>
-    <hyperlink ref="F833:F839" r:id="rId6" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{8B1B7912-C182-41D6-B2D2-F030A6A1D910}"/>
-    <hyperlink ref="F832" r:id="rId7" location="AlbertVillanuevaetal2017" xr:uid="{991AF708-1CC7-429E-B765-41DBB46C7506}"/>
-    <hyperlink ref="F831" r:id="rId8" location="MarinoNGrandeS2022" xr:uid="{CC4DCA15-FED1-4CF6-802A-4128F0F76C10}"/>
-    <hyperlink ref="F830" r:id="rId9" location="SpeerMLanceL2024" xr:uid="{79F09CE1-BD46-49FC-A7D6-D4CE746C94DC}"/>
-    <hyperlink ref="F829" r:id="rId10" location="EssigK2022" xr:uid="{ECA96AC4-1DCD-4705-B683-55E1A9324057}"/>
-    <hyperlink ref="F828" r:id="rId11" location="CastroMM2024b" xr:uid="{03F526D8-B6D3-4CE2-A67E-DFC8AFE8E8EC}"/>
-    <hyperlink ref="F827:F833" r:id="rId12" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{EEAF20DB-A520-4739-8A7F-CC07D72A9E6B}"/>
-    <hyperlink ref="F826" r:id="rId13" location="CastroMM2024a" xr:uid="{C40FEF2B-F020-41A9-BAC3-758B03E4010D}"/>
-    <hyperlink ref="F825" r:id="rId14" location="SaltoAngel2024" xr:uid="{FF1CDE34-A096-4986-9C1B-EC216709F1C1}"/>
-    <hyperlink ref="F824" r:id="rId15" location="Arqueologas2024" xr:uid="{D59FB7AE-BC31-4F01-A52E-E97268BAB408}"/>
-    <hyperlink ref="F823" r:id="rId16" location="FeoCodecidoG1962" xr:uid="{7434D248-EA2A-41E2-AFF3-8EE68FE6A30B}"/>
-    <hyperlink ref="F822" r:id="rId17" location="AudemardFetal2006" xr:uid="{C2052AB6-3BB7-4F78-BBFD-929EEDA57DAD}"/>
-    <hyperlink ref="F821:F827" r:id="rId18" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{CA63A6A6-F671-4069-B7BC-AE7F1B5E7348}"/>
-    <hyperlink ref="F820" r:id="rId19" location="UrbaniF1981" xr:uid="{7E835299-D625-45F9-8F84-9087E26EE4B0}"/>
-    <hyperlink ref="F819" r:id="rId20" location="PimentelN2010" xr:uid="{D0AB4D5C-3EE0-4596-A87E-79AFB7795395}"/>
-    <hyperlink ref="F818" r:id="rId21" location="MujicaAetal2017" xr:uid="{4718A95D-6065-49CA-BBF8-52E33167E7E3}"/>
-    <hyperlink ref="F817" r:id="rId22" location="MacsotayO1965" xr:uid="{59A606C5-50DA-4E4D-A593-C0DE4C1F726D}"/>
-    <hyperlink ref="F816" r:id="rId23" location="SchubertC1984" xr:uid="{21C92744-50B5-4CC8-ACE5-E08F81794A48}"/>
-    <hyperlink ref="F815:F821" r:id="rId24" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{96139CD0-BE71-44F5-AEC3-715576F650F5}"/>
-    <hyperlink ref="F814" r:id="rId25" location="JeffersonCJ1969a" xr:uid="{2C2EAED2-A222-4664-9001-20E8287FFB67}"/>
-    <hyperlink ref="F813" r:id="rId26" location="BevilacquaMetal2002" xr:uid="{BCEF41AB-8C9B-4FC2-B292-8D0C7FA6144E}"/>
-    <hyperlink ref="F812" r:id="rId27" location="MunozNG1970" xr:uid="{492B1516-F92A-4122-AFA2-CC805EC01BF5}"/>
-    <hyperlink ref="F811" r:id="rId28" location="Reproducciones2007" xr:uid="{3AFFFE67-79C2-489A-9FE4-7B1AD2C44701}"/>
-    <hyperlink ref="F810" r:id="rId29" location="EscuderIetal2024" xr:uid="{E6525B6F-2894-4AD6-9D55-43FADDF6A423}"/>
-    <hyperlink ref="F809:F815" r:id="rId30" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{8E9D72C9-5457-44C1-8F99-6D2DF2ED6304}"/>
-    <hyperlink ref="F808" r:id="rId31" location="ReateguiKetal2005" xr:uid="{7583FEF1-3299-4BBE-A173-721ED10159C4}"/>
-    <hyperlink ref="F807" r:id="rId32" location="SilvaFerrerM2023" xr:uid="{7A2F0516-6341-4993-BCE2-BD38859469B4}"/>
-    <hyperlink ref="F806" r:id="rId33" location="JeffersonCC1969" xr:uid="{5295F534-17AC-40AB-8D04-889E61BB7E67}"/>
-    <hyperlink ref="F805" r:id="rId34" location="PicardXGoddardD1972" xr:uid="{550096BE-46AA-482E-B041-3D394C63D1A6}"/>
-    <hyperlink ref="F804" r:id="rId35" location="UrbaniFetal1976" xr:uid="{9C865814-7102-42E7-B37B-CA58D3353398}"/>
-    <hyperlink ref="F804:F809" r:id="rId36" location="MendezWetal2016" display="https://mariantoc.github.io/geomorphology.html#MendezWetal2016" xr:uid="{95BBB3FB-FD0C-45A8-AC70-F0701C7298A9}"/>
-    <hyperlink ref="F803" r:id="rId37" location="MendezWetal2016" xr:uid="{1B09BE2C-B649-4077-894C-7087537D4113}"/>
-    <hyperlink ref="F802" r:id="rId38" location="RodriguezFetal2023" xr:uid="{B1D23617-DD69-49D2-A4A2-FE652BCEB840}"/>
-    <hyperlink ref="F801" r:id="rId39" location="GonzalezOetal2013" xr:uid="{A228DBD1-D75D-4B91-B7AF-D778B63F627D}"/>
-    <hyperlink ref="F800" r:id="rId40" location="CollettaBetal1996" xr:uid="{07E91938-FD61-4225-AF88-9C373CBEBEF3}"/>
-    <hyperlink ref="F799" r:id="rId41" location="GrandeS2024" xr:uid="{148C4CF1-A06A-4C61-9AF3-5A1A186D3598}"/>
-    <hyperlink ref="F798" r:id="rId42" location="LayaJC2010" xr:uid="{861106A8-5CD0-4A37-A3EE-067F28575762}"/>
-    <hyperlink ref="F796" r:id="rId43" location="RuizMetal2000" xr:uid="{175B5AC6-53C3-4C73-8153-8AAC53641206}"/>
-    <hyperlink ref="F795" r:id="rId44" location="NotiAcading2024" xr:uid="{DB40FAC4-15A5-447C-B858-24EA7DC13B87}"/>
-    <hyperlink ref="F794" r:id="rId45" location="PrietoD2006" xr:uid="{16CCA92B-84D4-4271-B586-45061CB0B498}"/>
-    <hyperlink ref="F793" r:id="rId46" location="MendezWetal2016" xr:uid="{1A594147-6BF8-4822-99E8-527EE25F9A3B}"/>
-    <hyperlink ref="F792" r:id="rId47" location="FoghinS2012" xr:uid="{B765A711-44F5-4C14-A22E-47DDB98ACE4E}"/>
-    <hyperlink ref="F791" r:id="rId48" location="FaracoALoboC2015" xr:uid="{A6083044-C2DE-46E5-AD8A-5C6452720EFB}"/>
-    <hyperlink ref="F790" r:id="rId49" location="RodriguezDetal2006" xr:uid="{A7BB9A94-FFAA-4B87-9670-5584EA4C1FB9}"/>
-    <hyperlink ref="F789" r:id="rId50" location="AmbroseWCutrightB2024" xr:uid="{17592340-0C68-49B8-B682-D89F6D2CBCF0}"/>
-    <hyperlink ref="F788" r:id="rId51" location="FoghinS2024" xr:uid="{6A55865F-5DB7-4A88-8CFA-B43948EBCE3F}"/>
-    <hyperlink ref="F787" r:id="rId52" location="BolliHKrauseH1964" xr:uid="{E400331B-9366-4FC4-9A26-03205671D4C0}"/>
-    <hyperlink ref="F786" r:id="rId53" location="CastroM2022" xr:uid="{220D7822-9DF0-48D7-8F5D-6508083FBA79}"/>
-    <hyperlink ref="F785" r:id="rId54" location="CasasJE2024a" xr:uid="{F665D1E8-68FE-44AB-A3A9-EE16E380E3A9}"/>
-    <hyperlink ref="F784" r:id="rId55" location="MacsotayoOlivaresI2015" xr:uid="{E6369229-8847-4229-846A-6A25BC56DB0D}"/>
-    <hyperlink ref="F783" r:id="rId56" location="UrbaniF1993" xr:uid="{31108101-3E02-4C28-A85F-3CE371111108}"/>
-    <hyperlink ref="F782" r:id="rId57" location="UrbaniP1983" xr:uid="{88CB4D86-EFA9-487D-8731-27E60556AF54}"/>
-    <hyperlink ref="F781" r:id="rId58" location="DuertoLetal2006" xr:uid="{714F9E8D-22A7-4879-A099-1C672763DA49}"/>
-    <hyperlink ref="F780" r:id="rId59" location="Toas2008" xr:uid="{DABEE26E-EC31-4BD9-A1E1-D123B6FCB5FF}"/>
-    <hyperlink ref="F779" r:id="rId60" location="CastroM2024" xr:uid="{5C832698-9D04-44A1-882F-4BD36033CA08}"/>
-    <hyperlink ref="F115" r:id="rId61" location="Recopilacion" xr:uid="{E9243540-70A1-439A-8BCA-12E1CD412570}"/>
-    <hyperlink ref="F839" r:id="rId62" location="AlbertVillanuevaetal2017" display="https://mariantoc.github.io/stratigraphy.html#AlbertVillanuevaetal2017" xr:uid="{9614EC51-2C3F-4638-9881-06B9BBC78336}"/>
-    <hyperlink ref="F840" r:id="rId63" location="RodriguezJACastroM2024" xr:uid="{F6C371B4-E117-40C7-B16F-991A878FB21B}"/>
-    <hyperlink ref="F841" r:id="rId64" location="CasasJ2024" xr:uid="{E190CE5F-4B4A-4D8E-AF30-0E65C79EC563}"/>
-    <hyperlink ref="F842" r:id="rId65" location="SapenaFetal1976" xr:uid="{EBB53158-3D5C-4820-9EDE-D6E519C31462}"/>
-    <hyperlink ref="F843" r:id="rId66" location="UrbaniFFurrerF1976" xr:uid="{380CCF99-43A7-4AC6-B04F-1BCD38652AEC}"/>
-    <hyperlink ref="F844" r:id="rId67" location="DhotDetal2002" xr:uid="{3136F9AC-B94F-4AAE-A066-00D27E621BDA}"/>
-    <hyperlink ref="F845" r:id="rId68" location="PadronVetal1993" xr:uid="{A0A91CF8-0265-4A23-ADC9-10826930ED18}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B6439-4B14-43E9-8946-6C6E7CE60288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A21D6-5A2E-4C94-8D1D-AECF05992CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="3138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="3162">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9496,6 +9496,78 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#RodriguezJA2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una visita al Museo Geológico José Rollo y Gómez de Bogotá (Colombia). </t>
+  </si>
+  <si>
+    <t>J.E. Casas</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Enero 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio climático, transición energética y desarrollo sostenible (características, impactos y proyecciones). </t>
+  </si>
+  <si>
+    <t>Griselda Ferrara de Giner</t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Habitat, Número 65, Octubre – Diciembre, 2024, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t>Laguna de Guanoco. Mitos y realidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Gregorio Tovar </t>
+  </si>
+  <si>
+    <t>PetroRenova. Enero 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Sistema Montaňoso del Caribe, norte de Suramérica: Un Resúmen. </t>
+  </si>
+  <si>
+    <t>Bellizzia, A.; Dengo, G.</t>
+  </si>
+  <si>
+    <t>INGEOMIN, Boletín de Geología, Publicación Especial Número 15, Alirio Bellizzia, Guía Insigne de la Geología Venezolana, Caracas, Venezuela 2008</t>
+  </si>
+  <si>
+    <t>Geología del área de Carúpano – Boca de Dragón, Estado Sucre: Comparación geológica entre las unidades Esquistos de Carúpano y Esquistos de Las Mercedes.</t>
+  </si>
+  <si>
+    <t>Cáceres, H.; Villarroel, S.</t>
+  </si>
+  <si>
+    <t>Tesis de grado presentada ante la ilustre Universidad Central de Venezuela para optar al título de ingeniero geólogo, 2019.</t>
+  </si>
+  <si>
+    <t>Contribución al estudio del sismo de Cumaná del aňo 1929. Compilación y notas.</t>
+  </si>
+  <si>
+    <t>Rodríguez Arteaga, J.A.; Chacín R., C.A.</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 58, Septiembre 1996.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CasasJE2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#FerraraG2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#TovarJG2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#BelliziaADengoG2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/igneous.html#CaceresHVillaroelS2019</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJAetal1996</t>
   </si>
 </sst>
 </file>
@@ -9881,10 +9953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H851"/>
+  <dimension ref="A1:H857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A833" workbookViewId="0">
-      <selection activeCell="A846" sqref="A846"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="A852" sqref="A852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12726,7 +12798,7 @@
       <c r="E115" t="s">
         <v>2879</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" t="s">
         <v>2880</v>
       </c>
       <c r="G115" s="3" t="str">
@@ -29288,7 +29360,7 @@
       <c r="E779" t="s">
         <v>2895</v>
       </c>
-      <c r="F779" s="4" t="s">
+      <c r="F779" t="s">
         <v>118</v>
       </c>
       <c r="G779" s="3" t="str">
@@ -29310,7 +29382,7 @@
       <c r="E780" t="s">
         <v>2893</v>
       </c>
-      <c r="F780" s="4" t="s">
+      <c r="F780" t="s">
         <v>2896</v>
       </c>
       <c r="G780" s="3" t="str">
@@ -29335,7 +29407,7 @@
       <c r="E781" t="s">
         <v>160</v>
       </c>
-      <c r="F781" s="4" t="s">
+      <c r="F781" t="s">
         <v>2897</v>
       </c>
       <c r="G781" s="3" t="str">
@@ -29360,7 +29432,7 @@
       <c r="E782" t="s">
         <v>2891</v>
       </c>
-      <c r="F782" s="4" t="s">
+      <c r="F782" t="s">
         <v>2898</v>
       </c>
       <c r="G782" s="3" t="str">
@@ -29385,7 +29457,7 @@
       <c r="E783" t="s">
         <v>2245</v>
       </c>
-      <c r="F783" s="4" t="s">
+      <c r="F783" t="s">
         <v>2899</v>
       </c>
       <c r="G783" s="3" t="str">
@@ -29410,7 +29482,7 @@
       <c r="E784" t="s">
         <v>2889</v>
       </c>
-      <c r="F784" s="4" t="s">
+      <c r="F784" t="s">
         <v>2900</v>
       </c>
       <c r="G784" s="3" t="str">
@@ -29435,7 +29507,7 @@
       <c r="E785" t="s">
         <v>2888</v>
       </c>
-      <c r="F785" s="4" t="s">
+      <c r="F785" t="s">
         <v>2901</v>
       </c>
       <c r="G785" s="3" t="str">
@@ -29460,7 +29532,7 @@
       <c r="E786" t="s">
         <v>2903</v>
       </c>
-      <c r="F786" s="4" t="s">
+      <c r="F786" t="s">
         <v>2916</v>
       </c>
       <c r="G786" s="3" t="str">
@@ -29485,7 +29557,7 @@
       <c r="E787" t="s">
         <v>2906</v>
       </c>
-      <c r="F787" s="4" t="s">
+      <c r="F787" t="s">
         <v>2917</v>
       </c>
       <c r="G787" s="3" t="str">
@@ -29510,7 +29582,7 @@
       <c r="E788" t="s">
         <v>2909</v>
       </c>
-      <c r="F788" s="4" t="s">
+      <c r="F788" t="s">
         <v>2918</v>
       </c>
       <c r="G788" s="3" t="str">
@@ -29535,7 +29607,7 @@
       <c r="E789" t="s">
         <v>2248</v>
       </c>
-      <c r="F789" s="4" t="s">
+      <c r="F789" t="s">
         <v>2919</v>
       </c>
       <c r="G789" s="3" t="str">
@@ -29560,7 +29632,7 @@
       <c r="E790" t="s">
         <v>35</v>
       </c>
-      <c r="F790" s="4" t="s">
+      <c r="F790" t="s">
         <v>2921</v>
       </c>
       <c r="G790" s="3" t="str">
@@ -29585,7 +29657,7 @@
       <c r="E791" t="s">
         <v>35</v>
       </c>
-      <c r="F791" s="4" t="s">
+      <c r="F791" t="s">
         <v>2920</v>
       </c>
       <c r="G791" s="3" t="str">
@@ -29610,7 +29682,7 @@
       <c r="E792" t="s">
         <v>2924</v>
       </c>
-      <c r="F792" s="4" t="s">
+      <c r="F792" t="s">
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
@@ -29635,7 +29707,7 @@
       <c r="E793" t="s">
         <v>2927</v>
       </c>
-      <c r="F793" s="4" t="s">
+      <c r="F793" t="s">
         <v>2940</v>
       </c>
       <c r="G793" s="3" t="str">
@@ -29660,7 +29732,7 @@
       <c r="E794" t="s">
         <v>2930</v>
       </c>
-      <c r="F794" s="4" t="s">
+      <c r="F794" t="s">
         <v>2941</v>
       </c>
       <c r="G794" s="3" t="str">
@@ -29685,7 +29757,7 @@
       <c r="E795" t="s">
         <v>2933</v>
       </c>
-      <c r="F795" s="4" t="s">
+      <c r="F795" t="s">
         <v>2942</v>
       </c>
       <c r="G795" s="3" t="str">
@@ -29710,7 +29782,7 @@
       <c r="E796" t="s">
         <v>2936</v>
       </c>
-      <c r="F796" s="4" t="s">
+      <c r="F796" t="s">
         <v>2943</v>
       </c>
       <c r="G796" s="3" t="str">
@@ -29760,7 +29832,7 @@
       <c r="E798" t="s">
         <v>2947</v>
       </c>
-      <c r="F798" s="4" t="s">
+      <c r="F798" t="s">
         <v>2963</v>
       </c>
       <c r="G798" s="3" t="str">
@@ -29785,7 +29857,7 @@
       <c r="E799" t="s">
         <v>2950</v>
       </c>
-      <c r="F799" s="4" t="s">
+      <c r="F799" t="s">
         <v>2964</v>
       </c>
       <c r="G799" s="3" t="str">
@@ -29810,7 +29882,7 @@
       <c r="E800" t="s">
         <v>2953</v>
       </c>
-      <c r="F800" s="4" t="s">
+      <c r="F800" t="s">
         <v>2965</v>
       </c>
       <c r="G800" s="3" t="str">
@@ -29835,7 +29907,7 @@
       <c r="E801" t="s">
         <v>2956</v>
       </c>
-      <c r="F801" s="4" t="s">
+      <c r="F801" t="s">
         <v>2966</v>
       </c>
       <c r="G801" s="3" t="str">
@@ -29860,7 +29932,7 @@
       <c r="E802" t="s">
         <v>2959</v>
       </c>
-      <c r="F802" s="4" t="s">
+      <c r="F802" t="s">
         <v>2967</v>
       </c>
       <c r="G802" s="3" t="str">
@@ -29885,7 +29957,7 @@
       <c r="E803" t="s">
         <v>2962</v>
       </c>
-      <c r="F803" s="4" t="s">
+      <c r="F803" t="s">
         <v>2940</v>
       </c>
       <c r="G803" s="3" t="str">
@@ -29910,7 +29982,7 @@
       <c r="E804" t="s">
         <v>2972</v>
       </c>
-      <c r="F804" s="4" t="s">
+      <c r="F804" t="s">
         <v>2986</v>
       </c>
       <c r="G804" s="3" t="str">
@@ -29935,7 +30007,7 @@
       <c r="E805" t="s">
         <v>2973</v>
       </c>
-      <c r="F805" s="4" t="s">
+      <c r="F805" t="s">
         <v>2987</v>
       </c>
       <c r="G805" s="3" t="str">
@@ -29960,7 +30032,7 @@
       <c r="E806" t="s">
         <v>2976</v>
       </c>
-      <c r="F806" s="4" t="s">
+      <c r="F806" t="s">
         <v>2988</v>
       </c>
       <c r="G806" s="3" t="str">
@@ -29985,7 +30057,7 @@
       <c r="E807" t="s">
         <v>2979</v>
       </c>
-      <c r="F807" s="4" t="s">
+      <c r="F807" t="s">
         <v>2989</v>
       </c>
       <c r="G807" s="3" t="str">
@@ -30010,7 +30082,7 @@
       <c r="E808" t="s">
         <v>2982</v>
       </c>
-      <c r="F808" s="4" t="s">
+      <c r="F808" t="s">
         <v>2990</v>
       </c>
       <c r="G808" s="3" t="str">
@@ -30035,7 +30107,7 @@
       <c r="E809" t="s">
         <v>2985</v>
       </c>
-      <c r="F809" s="4" t="s">
+      <c r="F809" t="s">
         <v>2991</v>
       </c>
       <c r="G809" s="3" t="str">
@@ -30060,7 +30132,7 @@
       <c r="E810" t="s">
         <v>2985</v>
       </c>
-      <c r="F810" s="4" t="s">
+      <c r="F810" t="s">
         <v>3007</v>
       </c>
       <c r="G810" s="3" t="str">
@@ -30082,7 +30154,7 @@
       <c r="E811" t="s">
         <v>2995</v>
       </c>
-      <c r="F811" s="4" t="s">
+      <c r="F811" t="s">
         <v>3008</v>
       </c>
       <c r="G811" s="3" t="str">
@@ -30107,7 +30179,7 @@
       <c r="E812" t="s">
         <v>2998</v>
       </c>
-      <c r="F812" s="4" t="s">
+      <c r="F812" t="s">
         <v>3009</v>
       </c>
       <c r="G812" s="3" t="str">
@@ -30132,7 +30204,7 @@
       <c r="E813" t="s">
         <v>3001</v>
       </c>
-      <c r="F813" s="4" t="s">
+      <c r="F813" t="s">
         <v>3010</v>
       </c>
       <c r="G813" s="3" t="str">
@@ -30157,7 +30229,7 @@
       <c r="E814" t="s">
         <v>3006</v>
       </c>
-      <c r="F814" s="4" t="s">
+      <c r="F814" t="s">
         <v>3011</v>
       </c>
       <c r="G814" s="3" t="str">
@@ -30182,7 +30254,7 @@
       <c r="E815" t="s">
         <v>3005</v>
       </c>
-      <c r="F815" s="4" t="s">
+      <c r="F815" t="s">
         <v>3012</v>
       </c>
       <c r="G815" s="3" t="str">
@@ -30207,7 +30279,7 @@
       <c r="E816" t="s">
         <v>3014</v>
       </c>
-      <c r="F816" s="4" t="s">
+      <c r="F816" t="s">
         <v>3028</v>
       </c>
       <c r="G816" s="3" t="str">
@@ -30232,7 +30304,7 @@
       <c r="E817" t="s">
         <v>3017</v>
       </c>
-      <c r="F817" s="4" t="s">
+      <c r="F817" t="s">
         <v>3029</v>
       </c>
       <c r="G817" s="3" t="str">
@@ -30257,7 +30329,7 @@
       <c r="E818" t="s">
         <v>3019</v>
       </c>
-      <c r="F818" s="4" t="s">
+      <c r="F818" t="s">
         <v>3030</v>
       </c>
       <c r="G818" s="3" t="str">
@@ -30282,7 +30354,7 @@
       <c r="E819" t="s">
         <v>3022</v>
       </c>
-      <c r="F819" s="4" t="s">
+      <c r="F819" t="s">
         <v>3031</v>
       </c>
       <c r="G819" s="3" t="str">
@@ -30307,7 +30379,7 @@
       <c r="E820" t="s">
         <v>3024</v>
       </c>
-      <c r="F820" s="4" t="s">
+      <c r="F820" t="s">
         <v>3032</v>
       </c>
       <c r="G820" s="3" t="str">
@@ -30332,7 +30404,7 @@
       <c r="E821" t="s">
         <v>3027</v>
       </c>
-      <c r="F821" s="4" t="s">
+      <c r="F821" t="s">
         <v>3033</v>
       </c>
       <c r="G821" s="3" t="str">
@@ -30357,7 +30429,7 @@
       <c r="E822" t="s">
         <v>3036</v>
       </c>
-      <c r="F822" s="4" t="s">
+      <c r="F822" t="s">
         <v>3048</v>
       </c>
       <c r="G822" s="3" t="str">
@@ -30382,7 +30454,7 @@
       <c r="E823" t="s">
         <v>3039</v>
       </c>
-      <c r="F823" s="4" t="s">
+      <c r="F823" t="s">
         <v>3049</v>
       </c>
       <c r="G823" s="3" t="str">
@@ -30404,7 +30476,7 @@
       <c r="E824" t="s">
         <v>3041</v>
       </c>
-      <c r="F824" s="4" t="s">
+      <c r="F824" t="s">
         <v>3050</v>
       </c>
       <c r="G824" s="3" t="str">
@@ -30426,7 +30498,7 @@
       <c r="E825" t="s">
         <v>3043</v>
       </c>
-      <c r="F825" s="4" t="s">
+      <c r="F825" t="s">
         <v>3051</v>
       </c>
       <c r="G825" s="3" t="str">
@@ -30451,7 +30523,7 @@
       <c r="E826" t="s">
         <v>3045</v>
       </c>
-      <c r="F826" s="4" t="s">
+      <c r="F826" t="s">
         <v>3052</v>
       </c>
       <c r="G826" s="3" t="str">
@@ -30476,7 +30548,7 @@
       <c r="E827" t="s">
         <v>3047</v>
       </c>
-      <c r="F827" s="4" t="s">
+      <c r="F827" t="s">
         <v>3053</v>
       </c>
       <c r="G827" s="3" t="str">
@@ -30501,7 +30573,7 @@
       <c r="E828" t="s">
         <v>3055</v>
       </c>
-      <c r="F828" s="4" t="s">
+      <c r="F828" t="s">
         <v>3070</v>
       </c>
       <c r="G828" s="3" t="str">
@@ -30526,7 +30598,7 @@
       <c r="E829" t="s">
         <v>3058</v>
       </c>
-      <c r="F829" s="4" t="s">
+      <c r="F829" t="s">
         <v>3071</v>
       </c>
       <c r="G829" s="3" t="str">
@@ -30551,7 +30623,7 @@
       <c r="E830" t="s">
         <v>3061</v>
       </c>
-      <c r="F830" s="4" t="s">
+      <c r="F830" t="s">
         <v>3072</v>
       </c>
       <c r="G830" s="3" t="str">
@@ -30576,7 +30648,7 @@
       <c r="E831" t="s">
         <v>3064</v>
       </c>
-      <c r="F831" s="4" t="s">
+      <c r="F831" t="s">
         <v>3073</v>
       </c>
       <c r="G831" s="3" t="str">
@@ -30601,7 +30673,7 @@
       <c r="E832" t="s">
         <v>3067</v>
       </c>
-      <c r="F832" s="4" t="s">
+      <c r="F832" t="s">
         <v>3074</v>
       </c>
       <c r="G832" s="3" t="str">
@@ -30626,7 +30698,7 @@
       <c r="E833" t="s">
         <v>3069</v>
       </c>
-      <c r="F833" s="4" t="s">
+      <c r="F833" t="s">
         <v>3075</v>
       </c>
       <c r="G833" s="3" t="str">
@@ -30648,11 +30720,11 @@
       <c r="E834" t="s">
         <v>3076</v>
       </c>
-      <c r="F834" s="4" t="s">
+      <c r="F834" t="s">
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G851" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G857" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30673,7 +30745,7 @@
       <c r="E835" t="s">
         <v>3080</v>
       </c>
-      <c r="F835" s="4" t="s">
+      <c r="F835" t="s">
         <v>3093</v>
       </c>
       <c r="G835" s="3" t="str">
@@ -30683,7 +30755,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A852" si="27">A835+1</f>
+        <f t="shared" ref="A836:A857" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -30698,7 +30770,7 @@
       <c r="E836" t="s">
         <v>3083</v>
       </c>
-      <c r="F836" s="4" t="s">
+      <c r="F836" t="s">
         <v>3094</v>
       </c>
       <c r="G836" s="3" t="str">
@@ -30723,7 +30795,7 @@
       <c r="E837" t="s">
         <v>3086</v>
       </c>
-      <c r="F837" s="4" t="s">
+      <c r="F837" t="s">
         <v>3095</v>
       </c>
       <c r="G837" s="3" t="str">
@@ -30748,7 +30820,7 @@
       <c r="E838" t="s">
         <v>3088</v>
       </c>
-      <c r="F838" s="4" t="s">
+      <c r="F838" t="s">
         <v>3096</v>
       </c>
       <c r="G838" s="3" t="str">
@@ -30773,7 +30845,7 @@
       <c r="E839" t="s">
         <v>3091</v>
       </c>
-      <c r="F839" s="4" t="s">
+      <c r="F839" t="s">
         <v>3097</v>
       </c>
       <c r="G839" s="3" t="str">
@@ -30798,7 +30870,7 @@
       <c r="E840" t="s">
         <v>3099</v>
       </c>
-      <c r="F840" s="4" t="s">
+      <c r="F840" t="s">
         <v>3112</v>
       </c>
       <c r="G840" s="3" t="str">
@@ -30823,7 +30895,7 @@
       <c r="E841" t="s">
         <v>3099</v>
       </c>
-      <c r="F841" s="4" t="s">
+      <c r="F841" t="s">
         <v>3113</v>
       </c>
       <c r="G841" s="3" t="str">
@@ -30848,7 +30920,7 @@
       <c r="E842" t="s">
         <v>3103</v>
       </c>
-      <c r="F842" s="4" t="s">
+      <c r="F842" t="s">
         <v>3114</v>
       </c>
       <c r="G842" s="3" t="str">
@@ -30873,7 +30945,7 @@
       <c r="E843" t="s">
         <v>3103</v>
       </c>
-      <c r="F843" s="4" t="s">
+      <c r="F843" t="s">
         <v>3115</v>
       </c>
       <c r="G843" s="3" t="str">
@@ -30898,7 +30970,7 @@
       <c r="E844" t="s">
         <v>3108</v>
       </c>
-      <c r="F844" s="4" t="s">
+      <c r="F844" t="s">
         <v>3116</v>
       </c>
       <c r="G844" s="3" t="str">
@@ -30923,7 +30995,7 @@
       <c r="E845" t="s">
         <v>3111</v>
       </c>
-      <c r="F845" s="4" t="s">
+      <c r="F845" t="s">
         <v>3117</v>
       </c>
       <c r="G845" s="3" t="str">
@@ -30948,7 +31020,7 @@
       <c r="E846" t="s">
         <v>3119</v>
       </c>
-      <c r="F846" s="4" t="s">
+      <c r="F846" t="s">
         <v>3132</v>
       </c>
       <c r="G846" s="3" t="str">
@@ -30973,7 +31045,7 @@
       <c r="E847" t="s">
         <v>3119</v>
       </c>
-      <c r="F847" s="4" t="s">
+      <c r="F847" t="s">
         <v>3133</v>
       </c>
       <c r="G847" s="3" t="str">
@@ -30998,7 +31070,7 @@
       <c r="E848" t="s">
         <v>3124</v>
       </c>
-      <c r="F848" s="4" t="s">
+      <c r="F848" t="s">
         <v>3134</v>
       </c>
       <c r="G848" s="3" t="str">
@@ -31023,7 +31095,7 @@
       <c r="E849" t="s">
         <v>3099</v>
       </c>
-      <c r="F849" s="4" t="s">
+      <c r="F849" t="s">
         <v>3135</v>
       </c>
       <c r="G849" s="3" t="str">
@@ -31048,7 +31120,7 @@
       <c r="E850" t="s">
         <v>3129</v>
       </c>
-      <c r="F850" s="4" t="s">
+      <c r="F850" t="s">
         <v>3136</v>
       </c>
       <c r="G850" s="3" t="str">
@@ -31073,12 +31145,162 @@
       <c r="E851" t="s">
         <v>3131</v>
       </c>
-      <c r="F851" s="4" t="s">
+      <c r="F851" t="s">
         <v>3137</v>
       </c>
       <c r="G851" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/biography.html#RodriguezJA2025</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <f t="shared" si="27"/>
+        <v>851</v>
+      </c>
+      <c r="B852" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C852" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D852">
+        <v>2025</v>
+      </c>
+      <c r="E852" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F852" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G852" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#CasasJE2025</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <f t="shared" si="27"/>
+        <v>852</v>
+      </c>
+      <c r="B853" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C853" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D853">
+        <v>2024</v>
+      </c>
+      <c r="E853" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F853" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G853" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/ecology.html#FerraraG2024</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <f t="shared" si="27"/>
+        <v>853</v>
+      </c>
+      <c r="B854" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C854" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D854">
+        <v>2025</v>
+      </c>
+      <c r="E854" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F854" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G854" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/fields.html#TovarJG2025</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <f t="shared" si="27"/>
+        <v>854</v>
+      </c>
+      <c r="B855" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C855" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D855">
+        <v>2008</v>
+      </c>
+      <c r="E855" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F855" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="G855" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/structural.html#BelliziaADengoG2008</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <f t="shared" si="27"/>
+        <v>855</v>
+      </c>
+      <c r="B856" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C856" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D856">
+        <v>2019</v>
+      </c>
+      <c r="E856" t="s">
+        <v>3152</v>
+      </c>
+      <c r="F856" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="G856" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/igneous.html#CaceresHVillaroelS2019</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <f t="shared" si="27"/>
+        <v>856</v>
+      </c>
+      <c r="B857" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C857" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D857">
+        <v>1996</v>
+      </c>
+      <c r="E857" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F857" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G857" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJAetal1996</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62A21D6-5A2E-4C94-8D1D-AECF05992CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C759F67-AAE6-44F0-ACF9-587E0E2FE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="3162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="3184">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9568,6 +9568,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#RodriguezJAetal1996</t>
+  </si>
+  <si>
+    <t>Macroalgas marinas del Estado Falcón, Venezuela.</t>
+  </si>
+  <si>
+    <t>Boletín del Instituto Oceanográfico de Venezuela, Volumen 62, Número 1, pp. 50 – 78, 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minerales enviados en 1777 al Real Gabinete de Historia Natural de Madrid desde Venezuela y Colombia. </t>
+  </si>
+  <si>
+    <t>Ardito–Mateo, S.; Vera–Vegas, B.; Polanco, Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbani, B.; Viloria, A. L.; Urbani, F. </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 73, pp. 11 – 15, Abril 2001.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A review of the Geology of Petroleum in Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond W. Fary Jr. </t>
+  </si>
+  <si>
+    <t>U.S. Geological Survey. Open File Report 80 - 782</t>
+  </si>
+  <si>
+    <t>Sellos postales geológicos: ¿Filatelia temática o patrimonio geológico – cultural?</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Edición Especial XXI, Enero Suplemento 2025.</t>
+  </si>
+  <si>
+    <t>El Givetiano – Frasniano (Devónico Tardío) en la Sierra de Perijá, Venezuela. Importancia paleontológica y paleogeográfica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casas, J. E.; Berry, C.; Moody, J.M.; Young, G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terreno Mérida: Un Cinturon Alóctono Herciniano en la Cordillera de Los Andes de Venezuela. </t>
+  </si>
+  <si>
+    <t>Bellizzia, A.; Pimentel de Bellizzia, N. 2008</t>
+  </si>
+  <si>
+    <t>INGEOMIN, Boletín de Geología, Publicación Especial Número 15, Alirio Bellizzia, Guía insigne de la Geología Venezolana, Caracas, Venezuela 2008.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#ArditoMetal2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#UrbaniRetal2001</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#FaryRW1980</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#PorrasJS2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#Casasetal2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#BelliziaAPimentelN2008</t>
   </si>
 </sst>
 </file>
@@ -9953,10 +10019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H857"/>
+  <dimension ref="A1:H863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
-      <selection activeCell="A852" sqref="A852"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="A858" sqref="A858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9965,7 +10031,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30724,7 +30790,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G857" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G863" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30755,7 +30821,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A857" si="27">A835+1</f>
+        <f t="shared" ref="A836:A863" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -31170,7 +31236,7 @@
       <c r="E852" t="s">
         <v>3140</v>
       </c>
-      <c r="F852" s="4" t="s">
+      <c r="F852" t="s">
         <v>3156</v>
       </c>
       <c r="G852" s="3" t="str">
@@ -31195,7 +31261,7 @@
       <c r="E853" t="s">
         <v>3143</v>
       </c>
-      <c r="F853" s="4" t="s">
+      <c r="F853" t="s">
         <v>3157</v>
       </c>
       <c r="G853" s="3" t="str">
@@ -31220,7 +31286,7 @@
       <c r="E854" t="s">
         <v>3146</v>
       </c>
-      <c r="F854" s="4" t="s">
+      <c r="F854" t="s">
         <v>3158</v>
       </c>
       <c r="G854" s="3" t="str">
@@ -31245,7 +31311,7 @@
       <c r="E855" t="s">
         <v>3149</v>
       </c>
-      <c r="F855" s="4" t="s">
+      <c r="F855" t="s">
         <v>3159</v>
       </c>
       <c r="G855" s="3" t="str">
@@ -31270,7 +31336,7 @@
       <c r="E856" t="s">
         <v>3152</v>
       </c>
-      <c r="F856" s="4" t="s">
+      <c r="F856" t="s">
         <v>3160</v>
       </c>
       <c r="G856" s="3" t="str">
@@ -31295,12 +31361,162 @@
       <c r="E857" t="s">
         <v>3155</v>
       </c>
-      <c r="F857" s="4" t="s">
+      <c r="F857" t="s">
         <v>3161</v>
       </c>
       <c r="G857" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/biography.html#RodriguezJAetal1996</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <f t="shared" si="27"/>
+        <v>857</v>
+      </c>
+      <c r="B858" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C858" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D858">
+        <v>2023</v>
+      </c>
+      <c r="E858" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F858" s="4" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G858" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#ArditoMetal2023</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <f t="shared" si="27"/>
+        <v>858</v>
+      </c>
+      <c r="B859" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C859" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D859">
+        <v>2001</v>
+      </c>
+      <c r="E859" t="s">
+        <v>3167</v>
+      </c>
+      <c r="F859" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G859" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#UrbaniRetal2001</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <f t="shared" si="27"/>
+        <v>859</v>
+      </c>
+      <c r="B860" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C860" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D860">
+        <v>1980</v>
+      </c>
+      <c r="E860" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F860" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="G860" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/fields.html#FaryRW1980</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <f t="shared" si="27"/>
+        <v>860</v>
+      </c>
+      <c r="B861" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D861">
+        <v>2025</v>
+      </c>
+      <c r="E861" t="s">
+        <v>3172</v>
+      </c>
+      <c r="F861" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G861" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/topics.html#PorrasJS2025</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <f t="shared" si="27"/>
+        <v>861</v>
+      </c>
+      <c r="B862" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C862" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D862">
+        <v>2025</v>
+      </c>
+      <c r="E862" t="s">
+        <v>3172</v>
+      </c>
+      <c r="F862" s="4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G862" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#Casasetal2025</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <f t="shared" si="27"/>
+        <v>862</v>
+      </c>
+      <c r="B863" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C863" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D863">
+        <v>2008</v>
+      </c>
+      <c r="E863" t="s">
+        <v>3177</v>
+      </c>
+      <c r="F863" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G863" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/structural.html#BelliziaAPimentelN2008</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C759F67-AAE6-44F0-ACF9-587E0E2FE49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE23F4-AFA7-4B5E-BE2B-E8C9C53A4213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -9698,12 +9698,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10021,7 +10020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
   <dimension ref="A1:H863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
       <selection activeCell="A858" sqref="A858"/>
     </sheetView>
   </sheetViews>
@@ -10031,7 +10030,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31386,7 +31385,7 @@
       <c r="E858" t="s">
         <v>3163</v>
       </c>
-      <c r="F858" s="4" t="s">
+      <c r="F858" t="s">
         <v>3178</v>
       </c>
       <c r="G858" s="3" t="str">
@@ -31411,7 +31410,7 @@
       <c r="E859" t="s">
         <v>3167</v>
       </c>
-      <c r="F859" s="4" t="s">
+      <c r="F859" t="s">
         <v>3179</v>
       </c>
       <c r="G859" s="3" t="str">
@@ -31436,7 +31435,7 @@
       <c r="E860" t="s">
         <v>3170</v>
       </c>
-      <c r="F860" s="4" t="s">
+      <c r="F860" t="s">
         <v>3180</v>
       </c>
       <c r="G860" s="3" t="str">
@@ -31461,7 +31460,7 @@
       <c r="E861" t="s">
         <v>3172</v>
       </c>
-      <c r="F861" s="4" t="s">
+      <c r="F861" t="s">
         <v>3181</v>
       </c>
       <c r="G861" s="3" t="str">
@@ -31486,7 +31485,7 @@
       <c r="E862" t="s">
         <v>3172</v>
       </c>
-      <c r="F862" s="4" t="s">
+      <c r="F862" t="s">
         <v>3182</v>
       </c>
       <c r="G862" s="3" t="str">
@@ -31511,7 +31510,7 @@
       <c r="E863" t="s">
         <v>3177</v>
       </c>
-      <c r="F863" s="4" t="s">
+      <c r="F863" t="s">
         <v>3183</v>
       </c>
       <c r="G863" s="3" t="str">

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE23F4-AFA7-4B5E-BE2B-E8C9C53A4213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0FC2A-AD6F-45D5-9146-0064015F93E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="3184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="3206">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9634,6 +9634,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/structural.html#BelliziaAPimentelN2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El naturalista Anton Goering en Mérida (1869) y su influencia en el establecimiento de una red de historia natural en los Andes Venezolanos. The naturalist Anton Goering in Merida (1869) and his influence in the establishment of a natural history network in the Venezuelan Andes. </t>
+  </si>
+  <si>
+    <t>Jorge Luis Avila Núñez</t>
+  </si>
+  <si>
+    <t>Revista Brasileira de Historia da Ciencia, Vol. 17, No. 2, July 2024.</t>
+  </si>
+  <si>
+    <t>Macroalgas bénticas asociadas a arrecifes coralinos y litorales rocosos del Parque Nacional Henry Pittier, Estado Aragua, Venezuela.</t>
+  </si>
+  <si>
+    <t>Gómez, S.; García, M.</t>
+  </si>
+  <si>
+    <t>Boletín del Instituto Oceanográfico de Venezuela, Volumen 62, Número 1, pp. 17 – 36, 2023.</t>
+  </si>
+  <si>
+    <t>Two new ammonite genera from the Lower Turonian of Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renz, O.; Galea Alvarez, F. A. </t>
+  </si>
+  <si>
+    <t>Nuestro querido Dr. Virgil Winkler: Su humildad y sentido del humor visto a través de dos anécdotas.</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 140, Abril 2023.</t>
+  </si>
+  <si>
+    <t>Eclogae Geol. Helv., Vol. 72/73, pp. 973 – 979, November 1979.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema Montañoso del Caribe, Borde Sur de la Placa del Caribe. ¿Es una cordillera alóctona? </t>
+  </si>
+  <si>
+    <t>INGEOMIN. Boletín de Geología, Publicación Especial Número 15, Alirio Bellizzia, Guía insigne de la Geología Venezolana, Caracas, Venezuela 2008.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petroleum Systems of Western South America assessed from oil geochemistry and basin redefinitions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiefelbein, C.; Urien, C.; Dickson, W.; Odegard, M.; Zumberge, J. </t>
+  </si>
+  <si>
+    <t>X Simposio Bolivariano de Exploración Petrolera de Cuencas Andinas y Subandinas, Cartagena de Indias, Colombia, 2009.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#AvilaJL2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GomezSGarciaM2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GomezRenzOGaleaF1979</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroM2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#BelliziaA2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#SchiefelbeinCetal2009</t>
   </si>
 </sst>
 </file>
@@ -9698,11 +9764,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10018,10 +10085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H863"/>
+  <dimension ref="A1:H869"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="A858" sqref="A858"/>
+      <selection activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30789,7 +30856,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G863" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G869" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30820,7 +30887,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A863" si="27">A835+1</f>
+        <f t="shared" ref="A836:A869" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -31516,6 +31583,156 @@
       <c r="G863" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/structural.html#BelliziaAPimentelN2008</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <f t="shared" si="27"/>
+        <v>863</v>
+      </c>
+      <c r="B864" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C864" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D864">
+        <v>2024</v>
+      </c>
+      <c r="E864" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F864" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G864" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#AvilaJL2024</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <f t="shared" si="27"/>
+        <v>864</v>
+      </c>
+      <c r="B865" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C865" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D865">
+        <v>2023</v>
+      </c>
+      <c r="E865" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F865" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="G865" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GomezSGarciaM2023</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <f t="shared" si="27"/>
+        <v>865</v>
+      </c>
+      <c r="B866" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C866" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D866">
+        <v>1979</v>
+      </c>
+      <c r="E866" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F866" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G866" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GomezRenzOGaleaF1979</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <f t="shared" si="27"/>
+        <v>866</v>
+      </c>
+      <c r="B867" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C867" t="s">
+        <v>22</v>
+      </c>
+      <c r="D867">
+        <v>2023</v>
+      </c>
+      <c r="E867" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F867" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G867" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2023</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <f t="shared" si="27"/>
+        <v>867</v>
+      </c>
+      <c r="B868" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C868" t="s">
+        <v>568</v>
+      </c>
+      <c r="D868">
+        <v>2008</v>
+      </c>
+      <c r="E868" t="s">
+        <v>3196</v>
+      </c>
+      <c r="F868" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G868" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/structural.html#BelliziaA2008</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <f t="shared" si="27"/>
+        <v>868</v>
+      </c>
+      <c r="B869" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C869" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D869">
+        <v>2009</v>
+      </c>
+      <c r="E869" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F869" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G869" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/geochemistry.html#SchiefelbeinCetal2009</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F0FC2A-AD6F-45D5-9146-0064015F93E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE62487-DD48-4200-9B31-47DF64735FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3459" uniqueCount="3206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="3229">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9701,12 +9701,104 @@
   <si>
     <t>https://mariantoc.github.io/geochemistry.html#SchiefelbeinCetal2009</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A first record of the Pleistocene saber-toothed cat </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smilodon populator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lund, 1842 (carnivora: Felidae: Machairodontinae) from Venezuela</t>
+    </r>
+  </si>
+  <si>
+    <t>AMEGHINIANA (Rev. Asoc. Paleontological Argentina) 43 (2), Buenos Aires 2006.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formaciones Cenozoicas de Paria: secciones detalladas, correlaciones, paleontología y paleoecología con descripción de nuevas especies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascanio D. Rincón </t>
+  </si>
+  <si>
+    <t>GEOS, UCV Caracas, Número 17, pp. 52 – 107, 19 ilustraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología y bioestratigrafía de los Cerros de Caigűire, Estado Sucre, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro J. Bermúdez </t>
+  </si>
+  <si>
+    <t>Memorias de la Sociedad de Ciencias Naturales de La Salle, Tomo 37, 1977.</t>
+  </si>
+  <si>
+    <t>Estudio para la explotación de las arcillas pirofilíticas de los Ejidos de Bobare, Municipio Aguedo Felipe Alvarado, Distrito Iribarren, Estado Lara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bereciartu, W.; Oliveros, O.; Ucar, R.; Alvarez, E. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volúmen VI, Número 2, Mayo – Agosto 1971.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofiolitas de Siquisique y Río Tocuyo y sus relaciones con la Falla de Oca. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellizzia, A.; Rodríguez, D.; Graterol, M. </t>
+  </si>
+  <si>
+    <t>INGEOMIN. Boletín de Geología, Publicación Especial Número 15. Alirio Bellizzia, Guía insigne de la Geología Venezolana, Caracas, Venezuela, 2008.</t>
+  </si>
+  <si>
+    <t>Bauxita en superficie de planación de la Guayana Venezolana (Bauxite on a planation Surface in Venezuelan Guayana)</t>
+  </si>
+  <si>
+    <t>Geology and Minerals Deposits of the Venezuela Guayana shield. US Geological Survey, Bulletin 2124, 1995.</t>
+  </si>
+  <si>
+    <t>Galo Yánez</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#AscanioR2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MacsotayO1968</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BermudezPJ1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#BereciartuWetal1971</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#BelliziaAetal2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#YanezG1995</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9738,6 +9830,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10085,15 +10185,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H869"/>
+  <dimension ref="A1:H875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="A864" sqref="A864"/>
+    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
+      <selection activeCell="A870" sqref="A870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
@@ -30856,7 +30956,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G869" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G875" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30887,7 +30987,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A869" si="27">A835+1</f>
+        <f t="shared" ref="A836:A875" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -31602,7 +31702,7 @@
       <c r="E864" t="s">
         <v>3186</v>
       </c>
-      <c r="F864" s="4" t="s">
+      <c r="F864" t="s">
         <v>3200</v>
       </c>
       <c r="G864" s="3" t="str">
@@ -31627,7 +31727,7 @@
       <c r="E865" t="s">
         <v>3189</v>
       </c>
-      <c r="F865" s="4" t="s">
+      <c r="F865" t="s">
         <v>3201</v>
       </c>
       <c r="G865" s="3" t="str">
@@ -31652,7 +31752,7 @@
       <c r="E866" t="s">
         <v>3194</v>
       </c>
-      <c r="F866" s="4" t="s">
+      <c r="F866" t="s">
         <v>3202</v>
       </c>
       <c r="G866" s="3" t="str">
@@ -31677,7 +31777,7 @@
       <c r="E867" t="s">
         <v>3193</v>
       </c>
-      <c r="F867" s="4" t="s">
+      <c r="F867" t="s">
         <v>3203</v>
       </c>
       <c r="G867" s="3" t="str">
@@ -31702,7 +31802,7 @@
       <c r="E868" t="s">
         <v>3196</v>
       </c>
-      <c r="F868" s="4" t="s">
+      <c r="F868" t="s">
         <v>3204</v>
       </c>
       <c r="G868" s="3" t="str">
@@ -31727,12 +31827,162 @@
       <c r="E869" t="s">
         <v>3199</v>
       </c>
-      <c r="F869" s="4" t="s">
+      <c r="F869" t="s">
         <v>3205</v>
       </c>
       <c r="G869" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/geochemistry.html#SchiefelbeinCetal2009</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <f t="shared" si="27"/>
+        <v>869</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C870" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D870">
+        <v>2006</v>
+      </c>
+      <c r="E870" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F870" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G870" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#AscanioR2006</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <f t="shared" si="27"/>
+        <v>870</v>
+      </c>
+      <c r="B871" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C871" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D871">
+        <v>1968</v>
+      </c>
+      <c r="E871" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F871" s="4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G871" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MacsotayO1968</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <f t="shared" si="27"/>
+        <v>871</v>
+      </c>
+      <c r="B872" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C872" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D872">
+        <v>1977</v>
+      </c>
+      <c r="E872" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F872" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="G872" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#BermudezPJ1977</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <f t="shared" si="27"/>
+        <v>872</v>
+      </c>
+      <c r="B873" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C873" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D873">
+        <v>1971</v>
+      </c>
+      <c r="E873" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F873" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="G873" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#BereciartuWetal1971</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <f t="shared" si="27"/>
+        <v>873</v>
+      </c>
+      <c r="B874" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C874" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D874">
+        <v>2008</v>
+      </c>
+      <c r="E874" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F874" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="G874" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/structural.html#BelliziaAetal2008</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <f t="shared" si="27"/>
+        <v>874</v>
+      </c>
+      <c r="B875" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C875" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D875">
+        <v>1995</v>
+      </c>
+      <c r="E875" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F875" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G875" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#YanezG1995</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE62487-DD48-4200-9B31-47DF64735FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DBD65-C088-4F53-845E-E84CFF17FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="3229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="3250">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9792,6 +9792,69 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#YanezG1995</t>
+  </si>
+  <si>
+    <t>Estratigrafía del Cretáceo Inferior en la Serranía del Interior, oriente de Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillaume, H. A.; Bolli, H. M.; Beckmann, J.P. </t>
+  </si>
+  <si>
+    <t>Separata de la Memoria del IV Congreso Geológico Venezolano, Tomo III, Boletín de Geología. Publicación Especial Número 5, Ministerio de Minas e Hidrocarburos, Caracas 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia de las explotaciones diamantíferas en Guaniamo, Estado Bolívar, Venezuela. </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 144, Diciembre 2024.</t>
+  </si>
+  <si>
+    <t>Las minas de oro de Buria y su relación con la fundación de Barquisimeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Méndez Tepedino, M. T.; Grande, S.; García, I.; Hernández, M.; Silva – Aguilera, C. </t>
+  </si>
+  <si>
+    <t>Estratigrafía y paleontología del Mioceno en la Península de Paraguaná, Estado Falcón, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simón E. Rodríguez </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 11, Número 5, Mayo 1968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología y literatura fantástica. ¿Una buena relación? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanca Martínez García </t>
+  </si>
+  <si>
+    <t>Interpretation of the soil geochemical expression of the mineralization within the El Callao Gold Mining District, Venezuela.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Febrero 2025</t>
+  </si>
+  <si>
+    <t>A Thesis submitted to the Faculty and the Board of Trustees of the Colorado School of Mines in partial fulfillment of the requirements for the degree of Doctor of Philosophy in Geochemistry.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GuillaumeHAetal1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#MendezMTetal2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#BritoI2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#RodriguezSE1968</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#MartinezB2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#PasqualiJ1972</t>
   </si>
 </sst>
 </file>
@@ -10185,10 +10248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H875"/>
+  <dimension ref="A1:H881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
-      <selection activeCell="A870" sqref="A870"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="A876" sqref="A876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30956,7 +31019,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G875" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G881" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -30987,7 +31050,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A875" si="27">A835+1</f>
+        <f t="shared" ref="A836:A881" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -31852,7 +31915,7 @@
       <c r="E870" t="s">
         <v>3207</v>
       </c>
-      <c r="F870" s="4" t="s">
+      <c r="F870" t="s">
         <v>3223</v>
       </c>
       <c r="G870" s="3" t="str">
@@ -31877,7 +31940,7 @@
       <c r="E871" t="s">
         <v>3210</v>
       </c>
-      <c r="F871" s="4" t="s">
+      <c r="F871" t="s">
         <v>3224</v>
       </c>
       <c r="G871" s="3" t="str">
@@ -31902,7 +31965,7 @@
       <c r="E872" t="s">
         <v>3213</v>
       </c>
-      <c r="F872" s="4" t="s">
+      <c r="F872" t="s">
         <v>3225</v>
       </c>
       <c r="G872" s="3" t="str">
@@ -31927,7 +31990,7 @@
       <c r="E873" t="s">
         <v>3216</v>
       </c>
-      <c r="F873" s="4" t="s">
+      <c r="F873" t="s">
         <v>3226</v>
       </c>
       <c r="G873" s="3" t="str">
@@ -31952,7 +32015,7 @@
       <c r="E874" t="s">
         <v>3219</v>
       </c>
-      <c r="F874" s="4" t="s">
+      <c r="F874" t="s">
         <v>3227</v>
       </c>
       <c r="G874" s="3" t="str">
@@ -31977,12 +32040,162 @@
       <c r="E875" t="s">
         <v>3221</v>
       </c>
-      <c r="F875" s="4" t="s">
+      <c r="F875" t="s">
         <v>3228</v>
       </c>
       <c r="G875" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/minerals.html#YanezG1995</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <f t="shared" si="27"/>
+        <v>875</v>
+      </c>
+      <c r="B876" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C876" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D876">
+        <v>1972</v>
+      </c>
+      <c r="E876" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F876" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="G876" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GuillaumeHAetal1972</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <f t="shared" si="27"/>
+        <v>876</v>
+      </c>
+      <c r="B877" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C877" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D877">
+        <v>2024</v>
+      </c>
+      <c r="E877" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F877" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G877" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#MendezMTetal2024</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <f t="shared" si="27"/>
+        <v>877</v>
+      </c>
+      <c r="B878" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D878">
+        <v>2024</v>
+      </c>
+      <c r="E878" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F878" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G878" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#BritoI2024</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <f t="shared" si="27"/>
+        <v>878</v>
+      </c>
+      <c r="B879" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C879" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D879">
+        <v>1968</v>
+      </c>
+      <c r="E879" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F879" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="G879" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#RodriguezSE1968</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <f t="shared" si="27"/>
+        <v>879</v>
+      </c>
+      <c r="B880" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C880" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D880">
+        <v>2025</v>
+      </c>
+      <c r="E880" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F880" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="G880" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/topics.html#MartinezB2025</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <f t="shared" si="27"/>
+        <v>880</v>
+      </c>
+      <c r="B881" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D881">
+        <v>1972</v>
+      </c>
+      <c r="E881" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F881" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G881" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/geochemistry.html#PasqualiJ1972</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DBD65-C088-4F53-845E-E84CFF17FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573B900-F6FE-4BD6-BA50-601A928E28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="3271">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9855,6 +9855,89 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/geochemistry.html#PasqualiJ1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venaipe. Historia de la arqueología aborigen de Venezuela. </t>
+  </si>
+  <si>
+    <t>Fundación Venezuela Submarina; Fundación Venezolana de Ecología y Arqueología; Fundación Nagua-Quiriquire; Centro Arqueológico Karimao. Separata del Acta Arqueológica submarina Número 2013.</t>
+  </si>
+  <si>
+    <t>Gaylussita de la Laguna de Urao, Mérida: Recopilación de la literatura selecta sobre este mineral y la Laguna de Urao.</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 64, Agosto 1998.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocas de playa en la costa entre Cabo Codera y Cabo San Román (Paraguaná) y en algunas islas de Venezuela. </t>
+  </si>
+  <si>
+    <t>Goddard, D.; Picard, X.</t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volumen 9, Número 1, Enero – Junio, 1974.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wattieza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The world’s oldest giant Cladoxylopsid tree and the first forest during Devonian times.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Berry, C.; Casas, J. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Febrero 2025.</t>
+  </si>
+  <si>
+    <t>Salt deposits in the Caribbean area (Aves Ridge).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James, K. H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio de una sección de la Formación Caujarao en el Anticlinal de La Vela, Estado Falcón. </t>
+  </si>
+  <si>
+    <t>Cecilia Kavanagh de Petzall</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 2, Número 10, Octubre 1959.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#PrietoMA2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#UrbaniF1998</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GoddardDPicardX1974</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BerryCCasasJ2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#JamesKH2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#KavanaghC1959</t>
   </si>
 </sst>
 </file>
@@ -10248,10 +10331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H881"/>
+  <dimension ref="A1:H887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
-      <selection activeCell="A876" sqref="A876"/>
+    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
+      <selection activeCell="A882" sqref="A882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31019,7 +31102,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G881" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G887" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -31050,7 +31133,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A881" si="27">A835+1</f>
+        <f t="shared" ref="A836:A887" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -32065,7 +32148,7 @@
       <c r="E876" t="s">
         <v>3231</v>
       </c>
-      <c r="F876" s="4" t="s">
+      <c r="F876" t="s">
         <v>3244</v>
       </c>
       <c r="G876" s="3" t="str">
@@ -32090,7 +32173,7 @@
       <c r="E877" t="s">
         <v>3233</v>
       </c>
-      <c r="F877" s="4" t="s">
+      <c r="F877" t="s">
         <v>3245</v>
       </c>
       <c r="G877" s="3" t="str">
@@ -32115,7 +32198,7 @@
       <c r="E878" t="s">
         <v>3233</v>
       </c>
-      <c r="F878" s="4" t="s">
+      <c r="F878" t="s">
         <v>3246</v>
       </c>
       <c r="G878" s="3" t="str">
@@ -32140,7 +32223,7 @@
       <c r="E879" t="s">
         <v>3238</v>
       </c>
-      <c r="F879" s="4" t="s">
+      <c r="F879" t="s">
         <v>3247</v>
       </c>
       <c r="G879" s="3" t="str">
@@ -32165,7 +32248,7 @@
       <c r="E880" t="s">
         <v>3242</v>
       </c>
-      <c r="F880" s="4" t="s">
+      <c r="F880" t="s">
         <v>3248</v>
       </c>
       <c r="G880" s="3" t="str">
@@ -32190,12 +32273,162 @@
       <c r="E881" t="s">
         <v>3243</v>
       </c>
-      <c r="F881" s="4" t="s">
+      <c r="F881" t="s">
         <v>3249</v>
       </c>
       <c r="G881" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/geochemistry.html#PasqualiJ1972</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <f t="shared" si="27"/>
+        <v>881</v>
+      </c>
+      <c r="B882" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C882" t="s">
+        <v>82</v>
+      </c>
+      <c r="D882">
+        <v>2023</v>
+      </c>
+      <c r="E882" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F882" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G882" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#PrietoMA2023</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <f t="shared" si="27"/>
+        <v>882</v>
+      </c>
+      <c r="B883" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C883" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D883">
+        <v>1998</v>
+      </c>
+      <c r="E883" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F883" s="4" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G883" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#UrbaniF1998</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <f t="shared" si="27"/>
+        <v>883</v>
+      </c>
+      <c r="B884" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C884" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D884">
+        <v>1974</v>
+      </c>
+      <c r="E884" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F884" s="4" t="s">
+        <v>3267</v>
+      </c>
+      <c r="G884" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GoddardDPicardX1974</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <f t="shared" si="27"/>
+        <v>884</v>
+      </c>
+      <c r="B885" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C885" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D885">
+        <v>2025</v>
+      </c>
+      <c r="E885" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F885" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G885" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#BerryCCasasJ2025</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <f t="shared" si="27"/>
+        <v>885</v>
+      </c>
+      <c r="B886" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C886" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D886">
+        <v>2025</v>
+      </c>
+      <c r="E886" t="s">
+        <v>3259</v>
+      </c>
+      <c r="F886" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="G886" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#JamesKH2025</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <f t="shared" si="27"/>
+        <v>886</v>
+      </c>
+      <c r="B887" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C887" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D887">
+        <v>1959</v>
+      </c>
+      <c r="E887" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F887" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G887" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#KavanaghC1959</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573B900-F6FE-4BD6-BA50-601A928E28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE992E-E24C-4713-AF4A-5189F4C281B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="3271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="3294">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -9938,6 +9938,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#KavanaghC1959</t>
+  </si>
+  <si>
+    <t>Zonation of Cretaceous to Pliocene marine sediments based on planktonic foraminifera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans H. Bolli </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 9, Número 1, Enero 1966.</t>
+  </si>
+  <si>
+    <t>Depósitos de yeso en la Península de Paria, Estado Sucre, Venezuela.</t>
+  </si>
+  <si>
+    <t>Neuman de Gamboa, A.; González de Juana, C.</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 9, Número 5, Mayo 1966.</t>
+  </si>
+  <si>
+    <t>H. Lavié</t>
+  </si>
+  <si>
+    <t>Boletín de Geología, Ministerio de Minas e Hidrocarburos, Dirección de Geología, Volumen VIII, Número 16, pp. 199 – 222, Mayo 1967.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Esmeraldas de Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de los yacimientos de lateritas niquelíferas en Loma de Hierro, estados Aragua y Miranda. </t>
+  </si>
+  <si>
+    <t>Emilio Menotti Spósito</t>
+  </si>
+  <si>
+    <t>Guardaminas del Estado Mérida, tipografía El Lápiz, 19 de Diciembre de 1933.</t>
+  </si>
+  <si>
+    <t>Estratigrafía del Grupo Roraima. Interpretación petrológica de la región noreste del Parque Nacional Canaima, Estado Bolívar, Venezuela. (Stratigraphy of the Roraima Group and petrologic interpretation in the northeast region of Canaima National Park, Bolivar State, Venezuela).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberdi, M.; Contreras, G. </t>
+  </si>
+  <si>
+    <t>Geology and Minerals Deposits of the Venezuela Guayana Shield, US Geological Survey, Bulletin 2124, 1995.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación Naricual: Un yacimiento carbonífero de origen turbidítico proximal del Mioceno de Venezuela. </t>
+  </si>
+  <si>
+    <t>Boletín del Ministerio de Energía y Minas, Volumen XIII, Número 24, Agosto 1978.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BolliHH1966</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/NeumanAGonzalezC1966</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#LavieH1967</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#MenottiE1933</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#AlberdiMContrerasG1995</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MacsotayO1978</t>
   </si>
 </sst>
 </file>
@@ -10331,10 +10400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H887"/>
+  <dimension ref="A1:H893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A871" workbookViewId="0">
-      <selection activeCell="A882" sqref="A882"/>
+    <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
+      <selection activeCell="A888" sqref="A888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31102,7 +31171,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G887" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G893" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -31133,7 +31202,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A887" si="27">A835+1</f>
+        <f t="shared" ref="A836:A893" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -32298,7 +32367,7 @@
       <c r="E882" t="s">
         <v>3251</v>
       </c>
-      <c r="F882" s="4" t="s">
+      <c r="F882" t="s">
         <v>3265</v>
       </c>
       <c r="G882" s="3" t="str">
@@ -32323,7 +32392,7 @@
       <c r="E883" t="s">
         <v>3253</v>
       </c>
-      <c r="F883" s="4" t="s">
+      <c r="F883" t="s">
         <v>3266</v>
       </c>
       <c r="G883" s="3" t="str">
@@ -32348,7 +32417,7 @@
       <c r="E884" t="s">
         <v>3256</v>
       </c>
-      <c r="F884" s="4" t="s">
+      <c r="F884" t="s">
         <v>3267</v>
       </c>
       <c r="G884" s="3" t="str">
@@ -32373,7 +32442,7 @@
       <c r="E885" t="s">
         <v>3259</v>
       </c>
-      <c r="F885" s="4" t="s">
+      <c r="F885" t="s">
         <v>3268</v>
       </c>
       <c r="G885" s="3" t="str">
@@ -32398,7 +32467,7 @@
       <c r="E886" t="s">
         <v>3259</v>
       </c>
-      <c r="F886" s="4" t="s">
+      <c r="F886" t="s">
         <v>3269</v>
       </c>
       <c r="G886" s="3" t="str">
@@ -32423,12 +32492,162 @@
       <c r="E887" t="s">
         <v>3264</v>
       </c>
-      <c r="F887" s="4" t="s">
+      <c r="F887" t="s">
         <v>3270</v>
       </c>
       <c r="G887" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/stratigraphy.html#KavanaghC1959</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <f t="shared" si="27"/>
+        <v>887</v>
+      </c>
+      <c r="B888" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C888" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D888">
+        <v>1966</v>
+      </c>
+      <c r="E888" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F888" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G888" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#BolliHH1966</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <f t="shared" si="27"/>
+        <v>888</v>
+      </c>
+      <c r="B889" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C889" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D889">
+        <v>1966</v>
+      </c>
+      <c r="E889" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F889" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G889" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/NeumanAGonzalezC1966</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <f t="shared" si="27"/>
+        <v>889</v>
+      </c>
+      <c r="B890" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C890" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D890">
+        <v>1967</v>
+      </c>
+      <c r="E890" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F890" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="G890" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#LavieH1967</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <f t="shared" si="27"/>
+        <v>890</v>
+      </c>
+      <c r="B891" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C891" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D891">
+        <v>1933</v>
+      </c>
+      <c r="E891" t="s">
+        <v>3282</v>
+      </c>
+      <c r="F891" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="G891" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/minerals.html#MenottiE1933</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <f t="shared" si="27"/>
+        <v>891</v>
+      </c>
+      <c r="B892" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C892" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D892">
+        <v>1995</v>
+      </c>
+      <c r="E892" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F892" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="G892" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#AlberdiMContrerasG1995</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <f t="shared" si="27"/>
+        <v>892</v>
+      </c>
+      <c r="B893" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C893" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D893">
+        <v>1978</v>
+      </c>
+      <c r="E893" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F893" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="G893" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MacsotayO1978</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE992E-E24C-4713-AF4A-5189F4C281B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD30DAD-96AE-46D8-818E-EA13BF7136BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -9994,9 +9994,6 @@
     <t>https://mariantoc.github.io/stratigraphy.html#BolliHH1966</t>
   </si>
   <si>
-    <t>https://mariantoc.github.io/NeumanAGonzalezC1966</t>
-  </si>
-  <si>
     <t>https://mariantoc.github.io/minerals.html#LavieH1967</t>
   </si>
   <si>
@@ -10007,6 +10004,9 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#MacsotayO1978</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#NeumanAGonzalezC1966</t>
   </si>
 </sst>
 </file>
@@ -32517,7 +32517,7 @@
       <c r="E888" t="s">
         <v>3273</v>
       </c>
-      <c r="F888" s="4" t="s">
+      <c r="F888" t="s">
         <v>3288</v>
       </c>
       <c r="G888" s="3" t="str">
@@ -32543,11 +32543,11 @@
         <v>3276</v>
       </c>
       <c r="F889" s="4" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="G889" s="3" t="str">
         <f t="shared" si="26"/>
-        <v>https://mariantoc.github.io/NeumanAGonzalezC1966</v>
+        <v>https://mariantoc.github.io/minerals.html#NeumanAGonzalezC1966</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.3">
@@ -32568,7 +32568,7 @@
         <v>3278</v>
       </c>
       <c r="F890" s="4" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="G890" s="3" t="str">
         <f t="shared" si="26"/>
@@ -32592,8 +32592,8 @@
       <c r="E891" t="s">
         <v>3282</v>
       </c>
-      <c r="F891" s="4" t="s">
-        <v>3291</v>
+      <c r="F891" t="s">
+        <v>3290</v>
       </c>
       <c r="G891" s="3" t="str">
         <f t="shared" si="26"/>
@@ -32617,8 +32617,8 @@
       <c r="E892" t="s">
         <v>3285</v>
       </c>
-      <c r="F892" s="4" t="s">
-        <v>3292</v>
+      <c r="F892" t="s">
+        <v>3291</v>
       </c>
       <c r="G892" s="3" t="str">
         <f t="shared" si="26"/>
@@ -32642,8 +32642,8 @@
       <c r="E893" t="s">
         <v>3287</v>
       </c>
-      <c r="F893" s="4" t="s">
-        <v>3293</v>
+      <c r="F893" t="s">
+        <v>3292</v>
       </c>
       <c r="G893" s="3" t="str">
         <f t="shared" si="26"/>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD30DAD-96AE-46D8-818E-EA13BF7136BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74009D-5B65-4694-B215-DCC1711B9E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="3294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="3313">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10007,6 +10007,86 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#NeumanAGonzalezC1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOMENAJE A EMIRA CABRERA DE MOLINA. Una geóloga venezolana de alto calibre. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Marzo 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La colección de Amonitas de Hermann Kartsen, Colombia y Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patarroyo, P. </t>
+  </si>
+  <si>
+    <t>XVII Congreso Colombiano de Geología. IV Simposio de Exploradores 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semblanza Bibliográfica de Sebastián Grande. Ingeniero geólogo y profesor de mineralogía y petrología. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roa, K.; Nieto, E. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuencas sedimentarias de Venezuela. </t>
+  </si>
+  <si>
+    <t>Kiser, D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolli, H. M.; Bermúdez, P. J. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A neotype for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Globorotalia margaritae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Bolli and Bermúdez.</t>
+    </r>
+  </si>
+  <si>
+    <t>Importancia de la Bioturbación ocasionada por el Meiobentos Intersticial en Sucesiones Sedimentarias Antiguas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhonny E. Casas </t>
+  </si>
+  <si>
+    <t>Memorias de I Congreso Latinoamericano de Sedimentología, Sociedad Venezolana de Geólogos, Tomo I, pp. 157 – 159, Noviembre 1997.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PatarroyoP2019</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RoaKNietoE2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#KiserD1992</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#CasasJE1997</t>
   </si>
 </sst>
 </file>
@@ -10400,10 +10480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H893"/>
+  <dimension ref="A1:H899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A878" workbookViewId="0">
-      <selection activeCell="A888" sqref="A888"/>
+    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
+      <selection activeCell="A894" sqref="A894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31171,7 +31251,7 @@
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
-        <f t="shared" ref="G834:G893" si="26">HYPERLINK(F834)</f>
+        <f t="shared" ref="G834:G897" si="26">HYPERLINK(F834)</f>
         <v>https://mariantoc.github.io/topics.html#Arqueologas2024a</v>
       </c>
     </row>
@@ -31202,7 +31282,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A893" si="27">A835+1</f>
+        <f t="shared" ref="A836:A899" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -32542,7 +32622,7 @@
       <c r="E889" t="s">
         <v>3276</v>
       </c>
-      <c r="F889" s="4" t="s">
+      <c r="F889" t="s">
         <v>3293</v>
       </c>
       <c r="G889" s="3" t="str">
@@ -32567,7 +32647,7 @@
       <c r="E890" t="s">
         <v>3278</v>
       </c>
-      <c r="F890" s="4" t="s">
+      <c r="F890" t="s">
         <v>3289</v>
       </c>
       <c r="G890" s="3" t="str">
@@ -32648,6 +32728,156 @@
       <c r="G893" s="3" t="str">
         <f t="shared" si="26"/>
         <v>https://mariantoc.github.io/stratigraphy.html#MacsotayO1978</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <f t="shared" si="27"/>
+        <v>893</v>
+      </c>
+      <c r="B894" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C894" t="s">
+        <v>22</v>
+      </c>
+      <c r="D894">
+        <v>2025</v>
+      </c>
+      <c r="E894" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F894" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="G894" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2025</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <f t="shared" si="27"/>
+        <v>894</v>
+      </c>
+      <c r="B895" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C895" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D895">
+        <v>2019</v>
+      </c>
+      <c r="E895" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F895" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G895" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PatarroyoP2019</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <f t="shared" si="27"/>
+        <v>895</v>
+      </c>
+      <c r="B896" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C896" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D896">
+        <v>2024</v>
+      </c>
+      <c r="E896" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F896" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G896" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/biography.html#RoaKNietoE2024</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <f t="shared" si="27"/>
+        <v>896</v>
+      </c>
+      <c r="B897" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C897" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D897">
+        <v>1992</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F897" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="G897" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#KiserD1992</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <f t="shared" si="27"/>
+        <v>897</v>
+      </c>
+      <c r="B898" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C898" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D898">
+        <v>1992</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F898" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="G898" s="3" t="str">
+        <f t="shared" ref="G898:G899" si="28">HYPERLINK(F898)</f>
+        <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <f t="shared" si="27"/>
+        <v>898</v>
+      </c>
+      <c r="B899" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C899" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D899">
+        <v>1997</v>
+      </c>
+      <c r="E899" t="s">
+        <v>3307</v>
+      </c>
+      <c r="F899" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="G899" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CasasJE1997</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74009D-5B65-4694-B215-DCC1711B9E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CED6B-2B6F-4E7C-A7A0-ED9737671770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3332">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10087,6 +10087,86 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#CasasJE1997</t>
+  </si>
+  <si>
+    <t>Bestias Prehistóricas de la Catedral de La Plata, Argentina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús S. Porras M. </t>
+  </si>
+  <si>
+    <t>MAYA, Revista de Geociencias, Marzo 2025.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El género </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Belonostomus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Aspidorhynchidae) en la Formación La Luna (Cretáceo Inferior), Sierra de Perijá, Venezuela.</t>
+    </r>
+  </si>
+  <si>
+    <t>Profundidad del Punto Curie en la esquina noroccidental de Suramerica y el Suroccidente del Mar Caribe y sus implicaciones en la geología del petróleo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idárraga – García, J. I.; Vargas, C.A.; Salazar,J. M. </t>
+  </si>
+  <si>
+    <t>XIV Congreso Colombiano de Geología. Primer Simposio de Exploradores, 3 de Julio al 2 de Agosto de 2013.</t>
+  </si>
+  <si>
+    <t>Arturo Hellmund Tello: 1898 – 1958. Un multifacético caraqueño.</t>
+  </si>
+  <si>
+    <t>MAYA, Revista de Geociencias, Marzo 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guayana’s Diamond Potential. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sojo R.,F. J.; Hernández F., M. E. </t>
+  </si>
+  <si>
+    <t>Ciencia en Revolución, Volumen 7, Número 21, pp. 46 -58, Marzo – Agosto 2021.</t>
+  </si>
+  <si>
+    <t>Resultados bioestratigráficos en el intervalo Aptiense – Mastrichtiense en la Cuenca del Lago de Maracaibo y sus implicaciones en la evolución tectónica del área.</t>
+  </si>
+  <si>
+    <t>Farias, A.; Medina, J.; Medina, Y.; Chacón, A.</t>
+  </si>
+  <si>
+    <t>IX Simposio Bolivariano de Exploración Petrolera en las Cuencas Andinas y Subandinas, Septiembre 2006.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#CasasJE2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geophysics.html#IdagarraJLetal2013</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#SojoFIHernandezFM2021</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#FariasAetal2006</t>
   </si>
 </sst>
 </file>
@@ -10480,10 +10560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H899"/>
+  <dimension ref="A1:H905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
-      <selection activeCell="A894" sqref="A894"/>
+    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
+      <selection activeCell="A900" sqref="A900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10492,7 +10572,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31282,7 +31362,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836">
-        <f t="shared" ref="A836:A899" si="27">A835+1</f>
+        <f t="shared" ref="A836:A900" si="27">A835+1</f>
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -32747,7 +32827,7 @@
       <c r="E894" t="s">
         <v>3295</v>
       </c>
-      <c r="F894" s="4" t="s">
+      <c r="F894" t="s">
         <v>3132</v>
       </c>
       <c r="G894" s="3" t="str">
@@ -32772,7 +32852,7 @@
       <c r="E895" t="s">
         <v>3298</v>
       </c>
-      <c r="F895" s="4" t="s">
+      <c r="F895" t="s">
         <v>3308</v>
       </c>
       <c r="G895" s="3" t="str">
@@ -32797,7 +32877,7 @@
       <c r="E896" t="s">
         <v>3233</v>
       </c>
-      <c r="F896" s="4" t="s">
+      <c r="F896" t="s">
         <v>3309</v>
       </c>
       <c r="G896" s="3" t="str">
@@ -32822,7 +32902,7 @@
       <c r="E897" t="s">
         <v>1159</v>
       </c>
-      <c r="F897" s="4" t="s">
+      <c r="F897" t="s">
         <v>3310</v>
       </c>
       <c r="G897" s="3" t="str">
@@ -32847,11 +32927,11 @@
       <c r="E898" t="s">
         <v>1159</v>
       </c>
-      <c r="F898" s="4" t="s">
+      <c r="F898" t="s">
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G899" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G905" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -32872,12 +32952,162 @@
       <c r="E899" t="s">
         <v>3307</v>
       </c>
-      <c r="F899" s="4" t="s">
+      <c r="F899" t="s">
         <v>3312</v>
       </c>
       <c r="G899" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/stratigraphy.html#CasasJE1997</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <f t="shared" si="27"/>
+        <v>899</v>
+      </c>
+      <c r="B900" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C900" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D900">
+        <v>2025</v>
+      </c>
+      <c r="E900" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F900" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G900" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#PorrasJS2025</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <f t="shared" ref="A901:A905" si="29">A900+1</f>
+        <v>900</v>
+      </c>
+      <c r="B901" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C901" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D901">
+        <v>2025</v>
+      </c>
+      <c r="E901" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F901" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G901" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CasasJE2025</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <f t="shared" si="29"/>
+        <v>901</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C902" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D902">
+        <v>2013</v>
+      </c>
+      <c r="E902" t="s">
+        <v>3319</v>
+      </c>
+      <c r="F902" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="G902" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geophysics.html#IdagarraJLetal2013</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <f t="shared" si="29"/>
+        <v>902</v>
+      </c>
+      <c r="B903" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C903" t="s">
+        <v>449</v>
+      </c>
+      <c r="D903">
+        <v>2025</v>
+      </c>
+      <c r="E903" t="s">
+        <v>3321</v>
+      </c>
+      <c r="F903" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G903" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2025</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <f t="shared" si="29"/>
+        <v>903</v>
+      </c>
+      <c r="B904" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C904" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D904">
+        <v>2021</v>
+      </c>
+      <c r="E904" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F904" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="G904" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#SojoFIHernandezFM2021</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <f t="shared" si="29"/>
+        <v>904</v>
+      </c>
+      <c r="B905" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C905" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D905">
+        <v>2006</v>
+      </c>
+      <c r="E905" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F905" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G905" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#FariasAetal2006</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CED6B-2B6F-4E7C-A7A0-ED9737671770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F6361A-C302-45AA-A408-88592F405106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -10239,12 +10239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10572,7 +10571,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32977,7 +32976,7 @@
       <c r="E900" t="s">
         <v>3315</v>
       </c>
-      <c r="F900" s="4" t="s">
+      <c r="F900" t="s">
         <v>3181</v>
       </c>
       <c r="G900" s="3" t="str">
@@ -33002,7 +33001,7 @@
       <c r="E901" t="s">
         <v>3315</v>
       </c>
-      <c r="F901" s="4" t="s">
+      <c r="F901" t="s">
         <v>3328</v>
       </c>
       <c r="G901" s="3" t="str">
@@ -33027,7 +33026,7 @@
       <c r="E902" t="s">
         <v>3319</v>
       </c>
-      <c r="F902" s="4" t="s">
+      <c r="F902" t="s">
         <v>3329</v>
       </c>
       <c r="G902" s="3" t="str">
@@ -33052,7 +33051,7 @@
       <c r="E903" t="s">
         <v>3321</v>
       </c>
-      <c r="F903" s="4" t="s">
+      <c r="F903" t="s">
         <v>3137</v>
       </c>
       <c r="G903" s="3" t="str">
@@ -33077,7 +33076,7 @@
       <c r="E904" t="s">
         <v>3324</v>
       </c>
-      <c r="F904" s="4" t="s">
+      <c r="F904" t="s">
         <v>3330</v>
       </c>
       <c r="G904" s="3" t="str">
@@ -33102,7 +33101,7 @@
       <c r="E905" t="s">
         <v>3327</v>
       </c>
-      <c r="F905" s="4" t="s">
+      <c r="F905" t="s">
         <v>3331</v>
       </c>
       <c r="G905" s="3" t="str">

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F6361A-C302-45AA-A408-88592F405106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6634A58D-04F6-4D49-9B0F-7CF4BFC8B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="3332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3352">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10167,6 +10167,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#FariasAetal2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aportes en la reconstrucción histórica del aprovechamiento minero, metalúrgico y orfebre aurífero en la región centro-norte de Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barboza, L.; Castillo, A.; Díaz Quintero, A.; Piña, A.; Cavada, J. </t>
+  </si>
+  <si>
+    <t>I Congreso Venezolano de Geociencias, Diciembre 2011.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía para la excursión C-8. Andes nororientales, Barquisimeto – Barbacoas, Estado Lara. </t>
+  </si>
+  <si>
+    <t>III Congreso Geológico Venezolano, Caracas, Venezuela, 6 p., 29 de Noviembre de 1959.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las rocas y minerales colectadas por Pehr Löfling en Venezuela: Una incógnita por resolver. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramiro Royero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metalogénesis de los depósitos de Fe, Au, y Al del Escudo de Guayana, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconocimiento Geológico de las Islas Venezolanas en el Mar Caribe, entre Los Roques y Los Testigos (Dependencias Federales). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schubert, C.; Moticska, P. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volúmen 8, Números 1 – 2, Enero – Agosto, 1973.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tectonic and Petroleum System of the eastern Maracaibo and Falcon Basin. Integrating outcrop geology with on and offshore subsurface seismic reflection and well data. Well Data Field Trip. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Bartok, Paul Mann, Alejandro Escalona </t>
+  </si>
+  <si>
+    <t>Jackson School of Geosciences, The University of Texas at Austin, October 29 to November 3, 2006</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#BarbozaLetal2011</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#RenzO1959</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RoyeroR2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#GrandeS2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/igneous.html#SchubertCMoticskaP1973</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#BartokPetal2006</t>
   </si>
 </sst>
 </file>
@@ -10239,11 +10299,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10559,10 +10620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H905"/>
+  <dimension ref="A1:H911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
-      <selection activeCell="A900" sqref="A900"/>
+    <sheetView tabSelected="1" topLeftCell="A899" workbookViewId="0">
+      <selection activeCell="A906" sqref="A906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32930,7 +32991,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G905" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G911" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -32986,7 +33047,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A905" si="29">A900+1</f>
+        <f t="shared" ref="A901:A911" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -33107,6 +33168,156 @@
       <c r="G905" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/stratigraphy.html#FariasAetal2006</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <f t="shared" si="29"/>
+        <v>905</v>
+      </c>
+      <c r="B906" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C906" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D906">
+        <v>2011</v>
+      </c>
+      <c r="E906" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F906" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="G906" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#BarbozaLetal2011</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <f t="shared" si="29"/>
+        <v>906</v>
+      </c>
+      <c r="B907" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D907">
+        <v>1959</v>
+      </c>
+      <c r="E907" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F907" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="G907" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#RenzO1959</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <f t="shared" si="29"/>
+        <v>907</v>
+      </c>
+      <c r="B908" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C908" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D908">
+        <v>2024</v>
+      </c>
+      <c r="E908" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F908" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G908" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#RoyeroR2024</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <f t="shared" si="29"/>
+        <v>908</v>
+      </c>
+      <c r="B909" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D909">
+        <v>2024</v>
+      </c>
+      <c r="E909" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F909" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="G909" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#GrandeS2024</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <f t="shared" si="29"/>
+        <v>909</v>
+      </c>
+      <c r="B910" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C910" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D910">
+        <v>1973</v>
+      </c>
+      <c r="E910" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F910" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G910" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/igneous.html#SchubertCMoticskaP1973</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <f t="shared" si="29"/>
+        <v>910</v>
+      </c>
+      <c r="B911" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C911" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D911">
+        <v>2006</v>
+      </c>
+      <c r="E911" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F911" s="4" t="s">
+        <v>3351</v>
+      </c>
+      <c r="G911" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#BartokPetal2006</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6634A58D-04F6-4D49-9B0F-7CF4BFC8B5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB2D3F-0203-49FB-A559-6E34C2B0E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="3352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="3375">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10227,6 +10227,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/excursions.html#BartokPetal2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crónicas, mudanzas y leyendas del puente colgante sobre el Río Cuyuní, en la población de El Dorado, Municipio Sifontes del Estado Bolívar. </t>
+  </si>
+  <si>
+    <t>Noel Mariño Pardo</t>
+  </si>
+  <si>
+    <t>Cretaceous and Paleogene sedimentation in the southwestern Venezuelan Andes.</t>
+  </si>
+  <si>
+    <t>Víctor Campos and Tito Boesi</t>
+  </si>
+  <si>
+    <t>Excursión de la Sociedad Venezolana de Geólogos liderizada por Víctor Campos y Tito Boesi, Field Trip No. 4, 14 al 17 de Marzo de 1993.</t>
+  </si>
+  <si>
+    <t>Níquel asociado a la Peridotita de Tinaquillo, Estado Cojedes.</t>
+  </si>
+  <si>
+    <t>Jean Pasquali Zanin</t>
+  </si>
+  <si>
+    <t>Boletín de Geología del Ministerio de Minas e Hidrocarburos, Volumen VIII, Número 16, pp. 227 – 235, Mayo 1967.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Guiana Shield Revewed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibbs, A. K.; Barron, C. N. </t>
+  </si>
+  <si>
+    <t>EPISODES, Vol. 1983, No. 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedes de la Escuela de Geología, Minas y Geofísica de la Universidad Central de Venezuela (1937 – actualidad). </t>
+  </si>
+  <si>
+    <t>Marín, O.; Silva Aguilera, C.</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 144, pp. 295 – 304, Diciembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve historia de los minerales descubiertos en Venezuela: Gaylusita, Sveita y Rossiantonite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">González V., A.; Grande, S.; Silva Aguilera, C. </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 144, pp. 138 – 156, Diciembre 2024.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MariñoN2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#CamposVBoesiT1993</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#PasqualiJ1967</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#GibbsABarronC1983</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MarinOAguileraC2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#GonzalezVetal2024</t>
   </si>
 </sst>
 </file>
@@ -10620,10 +10689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H911"/>
+  <dimension ref="A1:H917"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A899" workbookViewId="0">
-      <selection activeCell="A906" sqref="A906"/>
+      <selection activeCell="A912" sqref="A912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32991,7 +33060,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G911" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G917" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33047,7 +33116,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A911" si="29">A900+1</f>
+        <f t="shared" ref="A901:A917" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -33187,7 +33256,7 @@
       <c r="E906" t="s">
         <v>3334</v>
       </c>
-      <c r="F906" s="4" t="s">
+      <c r="F906" t="s">
         <v>3346</v>
       </c>
       <c r="G906" s="3" t="str">
@@ -33212,7 +33281,7 @@
       <c r="E907" t="s">
         <v>3336</v>
       </c>
-      <c r="F907" s="4" t="s">
+      <c r="F907" t="s">
         <v>3347</v>
       </c>
       <c r="G907" s="3" t="str">
@@ -33237,7 +33306,7 @@
       <c r="E908" t="s">
         <v>3233</v>
       </c>
-      <c r="F908" s="4" t="s">
+      <c r="F908" t="s">
         <v>3348</v>
       </c>
       <c r="G908" s="3" t="str">
@@ -33262,7 +33331,7 @@
       <c r="E909" t="s">
         <v>3233</v>
       </c>
-      <c r="F909" s="4" t="s">
+      <c r="F909" t="s">
         <v>3349</v>
       </c>
       <c r="G909" s="3" t="str">
@@ -33287,7 +33356,7 @@
       <c r="E910" t="s">
         <v>3342</v>
       </c>
-      <c r="F910" s="4" t="s">
+      <c r="F910" t="s">
         <v>3350</v>
       </c>
       <c r="G910" s="3" t="str">
@@ -33312,12 +33381,162 @@
       <c r="E911" t="s">
         <v>3345</v>
       </c>
-      <c r="F911" s="4" t="s">
+      <c r="F911" t="s">
         <v>3351</v>
       </c>
       <c r="G911" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/excursions.html#BartokPetal2006</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <f t="shared" si="29"/>
+        <v>911</v>
+      </c>
+      <c r="B912" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C912" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D912">
+        <v>2024</v>
+      </c>
+      <c r="E912" t="s">
+        <v>3099</v>
+      </c>
+      <c r="F912" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="G912" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#MariñoN2024</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <f t="shared" si="29"/>
+        <v>912</v>
+      </c>
+      <c r="B913" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C913" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D913">
+        <v>1993</v>
+      </c>
+      <c r="E913" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F913" s="4" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G913" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#CamposVBoesiT1993</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <f t="shared" si="29"/>
+        <v>913</v>
+      </c>
+      <c r="B914" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C914" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D914">
+        <v>1967</v>
+      </c>
+      <c r="E914" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F914" s="4" t="s">
+        <v>3371</v>
+      </c>
+      <c r="G914" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#PasqualiJ1967</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <f t="shared" si="29"/>
+        <v>914</v>
+      </c>
+      <c r="B915" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C915" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D915">
+        <v>1983</v>
+      </c>
+      <c r="E915" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F915" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="G915" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#GibbsABarronC1983</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <f t="shared" si="29"/>
+        <v>915</v>
+      </c>
+      <c r="B916" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C916" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D916">
+        <v>2024</v>
+      </c>
+      <c r="E916" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F916" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G916" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#MarinOAguileraC2024</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <f t="shared" si="29"/>
+        <v>916</v>
+      </c>
+      <c r="B917" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C917" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D917">
+        <v>2024</v>
+      </c>
+      <c r="E917" t="s">
+        <v>3368</v>
+      </c>
+      <c r="F917" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="G917" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#GonzalezVetal2024</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB2D3F-0203-49FB-A559-6E34C2B0E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB80F0-BC35-4157-8062-1E1DC07678C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="3375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="3395">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10296,6 +10296,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#GonzalezVetal2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión geológica alrededor de Margarita oriental. Excursión L-5-a. </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela. Memorias 1972, pp. 36 - 37.</t>
+  </si>
+  <si>
+    <t>María Antonieta Lorente, cuarenta y cuatro años de trayectoria en la industria petrolera Venezolana.</t>
+  </si>
+  <si>
+    <t>Yulimar Jansen</t>
+  </si>
+  <si>
+    <t>PetroRenova, Revista de la Energía, Volumen 12, Número 12, Agosto 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeros datos sobre las arenas pesadas de placer de la Isla de Margarita, Venezuela. </t>
+  </si>
+  <si>
+    <t>Yves Chevalier y Louis Chauris</t>
+  </si>
+  <si>
+    <t>Nota Geológica. Boletín de la Sociedad Venezolana de Geólogos, 29 de Abril de 1987.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descubrir lo invisible. Dr. Humberto Fernández Morán, el tecnólogo atómico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria G. Carvalho Kassar </t>
+  </si>
+  <si>
+    <t>Colección Venezuela Investiga. Ministerio del Poder Popular para la Ciencia y la Tecnología, FONICIT, Diciembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaciones entre la fundación de Caracas y las minas de oro de los Altos Mirandinos. </t>
+  </si>
+  <si>
+    <t>Bolívar y Humbolt: La Primera Escuela de Minería de la Gran Colombia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Calvo </t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#GonzalezC1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#JansenY2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#ChevalierYChaurisL1987</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CarvalhoG2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#BaritoJ2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CalvoA2024</t>
   </si>
 </sst>
 </file>
@@ -10689,10 +10749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H917"/>
+  <dimension ref="A1:H923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A899" workbookViewId="0">
-      <selection activeCell="A912" sqref="A912"/>
+    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="A918" sqref="A918"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33060,7 +33120,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G917" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G923" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33116,7 +33176,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A917" si="29">A900+1</f>
+        <f t="shared" ref="A901:A923" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -33406,7 +33466,7 @@
       <c r="E912" t="s">
         <v>3099</v>
       </c>
-      <c r="F912" s="4" t="s">
+      <c r="F912" t="s">
         <v>3369</v>
       </c>
       <c r="G912" s="3" t="str">
@@ -33431,7 +33491,7 @@
       <c r="E913" t="s">
         <v>3356</v>
       </c>
-      <c r="F913" s="4" t="s">
+      <c r="F913" t="s">
         <v>3370</v>
       </c>
       <c r="G913" s="3" t="str">
@@ -33456,7 +33516,7 @@
       <c r="E914" t="s">
         <v>3359</v>
       </c>
-      <c r="F914" s="4" t="s">
+      <c r="F914" t="s">
         <v>3371</v>
       </c>
       <c r="G914" s="3" t="str">
@@ -33481,7 +33541,7 @@
       <c r="E915" t="s">
         <v>3362</v>
       </c>
-      <c r="F915" s="4" t="s">
+      <c r="F915" t="s">
         <v>3372</v>
       </c>
       <c r="G915" s="3" t="str">
@@ -33506,7 +33566,7 @@
       <c r="E916" t="s">
         <v>3365</v>
       </c>
-      <c r="F916" s="4" t="s">
+      <c r="F916" t="s">
         <v>3373</v>
       </c>
       <c r="G916" s="3" t="str">
@@ -33531,12 +33591,162 @@
       <c r="E917" t="s">
         <v>3368</v>
       </c>
-      <c r="F917" s="4" t="s">
+      <c r="F917" t="s">
         <v>3374</v>
       </c>
       <c r="G917" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/minerals.html#GonzalezVetal2024</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <f t="shared" si="29"/>
+        <v>917</v>
+      </c>
+      <c r="B918" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C918" t="s">
+        <v>257</v>
+      </c>
+      <c r="D918">
+        <v>1972</v>
+      </c>
+      <c r="E918" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F918" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="G918" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#GonzalezC1972</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <f t="shared" si="29"/>
+        <v>918</v>
+      </c>
+      <c r="B919" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C919" t="s">
+        <v>3378</v>
+      </c>
+      <c r="D919">
+        <v>2024</v>
+      </c>
+      <c r="E919" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F919" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G919" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#JansenY2024</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <f t="shared" si="29"/>
+        <v>919</v>
+      </c>
+      <c r="B920" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C920" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D920">
+        <v>1987</v>
+      </c>
+      <c r="E920" t="s">
+        <v>3382</v>
+      </c>
+      <c r="F920" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="G920" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#ChevalierYChaurisL1987</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <f t="shared" si="29"/>
+        <v>920</v>
+      </c>
+      <c r="B921" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C921" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D921">
+        <v>2024</v>
+      </c>
+      <c r="E921" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F921" s="4" t="s">
+        <v>3392</v>
+      </c>
+      <c r="G921" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CarvalhoG2024</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <f t="shared" si="29"/>
+        <v>921</v>
+      </c>
+      <c r="B922" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D922">
+        <v>2024</v>
+      </c>
+      <c r="E922" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F922" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G922" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#BaritoJ2024</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <f t="shared" si="29"/>
+        <v>922</v>
+      </c>
+      <c r="B923" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C923" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D923">
+        <v>2024</v>
+      </c>
+      <c r="E923" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F923" s="4" t="s">
+        <v>3394</v>
+      </c>
+      <c r="G923" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CalvoA2024</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB80F0-BC35-4157-8062-1E1DC07678C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4053BE70-4A3D-4D00-96E6-4A4132C154B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="3416">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10356,6 +10356,92 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#CalvoA2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nesin Benaim Chocrón (1928 – 2021): Su valor e importancia en el estudio del Cratón de Guayana. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianto Castro Mora y José Antonio Rodríguez Arteaga </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Abril 2025.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Presencia de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chaetetes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Demospongea) en la Formación Río Palmar (Pensilvánico Medio), Sierra de Perijá, Venezuela. </t>
+    </r>
+  </si>
+  <si>
+    <t>Geología del área de Pertigalete y autopista Puerto La Cruz –  El Tigre. Guía de la excursión PC-4. Segunda Parte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iňaki Saizarbitoria </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela. Memorias 1972, pp. 58 – 62.</t>
+  </si>
+  <si>
+    <t>450 aňos del descubrimiento de las minas de oro de Petaquire, Litoral Central, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iván Baritto </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 144, Diciembre 2024, pp. 225 – 238.</t>
+  </si>
+  <si>
+    <t>Recursos minerales en la zona máfica – ultramáfica de Paraguaná, Estado Falcón, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendi, D. </t>
+  </si>
+  <si>
+    <t>GEOS 2009, pp. 25 – 28.</t>
+  </si>
+  <si>
+    <t>Determinación de las concentraciones de los elementos U, Th y tierras raras (REE) en los minerales pesados de los sedimentos del Río Arizo (afluente del Río Aro), Municipio Heres, Estado Bolívar, Venezuela.</t>
+  </si>
+  <si>
+    <t>Andrés Juan Hernández Torrealba</t>
+  </si>
+  <si>
+    <t>Tesis de grado presentada ante la ilustre Universidad Central de Venezuela como requisito para aprobar la asignatura Proyecto Geoquímico II y optar al título de Licenciado en Geoquímica.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastrMRodriguezJA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#SaizarbitoriaI1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#BaritoI2024a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#MendiD2009</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#HernandezAJ2013</t>
   </si>
 </sst>
 </file>
@@ -10749,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H923"/>
+  <dimension ref="A1:H929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
-      <selection activeCell="A918" sqref="A918"/>
+    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="A924" sqref="A924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33120,7 +33206,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G923" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G929" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33176,7 +33262,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A923" si="29">A900+1</f>
+        <f t="shared" ref="A901:A929" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -33616,7 +33702,7 @@
       <c r="E918" t="s">
         <v>3376</v>
       </c>
-      <c r="F918" s="4" t="s">
+      <c r="F918" t="s">
         <v>3389</v>
       </c>
       <c r="G918" s="3" t="str">
@@ -33641,7 +33727,7 @@
       <c r="E919" t="s">
         <v>3379</v>
       </c>
-      <c r="F919" s="4" t="s">
+      <c r="F919" t="s">
         <v>3390</v>
       </c>
       <c r="G919" s="3" t="str">
@@ -33666,7 +33752,7 @@
       <c r="E920" t="s">
         <v>3382</v>
       </c>
-      <c r="F920" s="4" t="s">
+      <c r="F920" t="s">
         <v>3391</v>
       </c>
       <c r="G920" s="3" t="str">
@@ -33691,7 +33777,7 @@
       <c r="E921" t="s">
         <v>3385</v>
       </c>
-      <c r="F921" s="4" t="s">
+      <c r="F921" t="s">
         <v>3392</v>
       </c>
       <c r="G921" s="3" t="str">
@@ -33716,7 +33802,7 @@
       <c r="E922" t="s">
         <v>3233</v>
       </c>
-      <c r="F922" s="4" t="s">
+      <c r="F922" t="s">
         <v>3393</v>
       </c>
       <c r="G922" s="3" t="str">
@@ -33741,12 +33827,162 @@
       <c r="E923" t="s">
         <v>3233</v>
       </c>
-      <c r="F923" s="4" t="s">
+      <c r="F923" t="s">
         <v>3394</v>
       </c>
       <c r="G923" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/biography.html#CalvoA2024</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <f t="shared" si="29"/>
+        <v>923</v>
+      </c>
+      <c r="B924" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C924" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D924">
+        <v>2025</v>
+      </c>
+      <c r="E924" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F924" s="4" t="s">
+        <v>3411</v>
+      </c>
+      <c r="G924" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CastrMRodriguezJA2025</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <f t="shared" si="29"/>
+        <v>924</v>
+      </c>
+      <c r="B925" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C925" t="s">
+        <v>127</v>
+      </c>
+      <c r="D925">
+        <v>2025</v>
+      </c>
+      <c r="E925" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F925" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G925" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CasasJE2025</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <f t="shared" si="29"/>
+        <v>925</v>
+      </c>
+      <c r="B926" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C926" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D926">
+        <v>1972</v>
+      </c>
+      <c r="E926" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F926" s="4" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G926" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#SaizarbitoriaI1972</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <f t="shared" si="29"/>
+        <v>926</v>
+      </c>
+      <c r="B927" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C927" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D927">
+        <v>2024</v>
+      </c>
+      <c r="E927" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F927" s="4" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G927" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#BaritoI2024a</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <f t="shared" si="29"/>
+        <v>927</v>
+      </c>
+      <c r="B928" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C928" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D928">
+        <v>2009</v>
+      </c>
+      <c r="E928" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F928" s="4" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G928" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#MendiD2009</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <f t="shared" si="29"/>
+        <v>928</v>
+      </c>
+      <c r="B929" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C929" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D929">
+        <v>2013</v>
+      </c>
+      <c r="E929" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F929" s="4" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G929" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geochemistry.html#HernandezAJ2013</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4053BE70-4A3D-4D00-96E6-4A4132C154B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A57EB0-692F-407A-BDBC-2C5A594F0259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="3416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="3438">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10442,6 +10442,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/geochemistry.html#HernandezAJ2013</t>
+  </si>
+  <si>
+    <t>Contribución de la Geología en Obras Subterráneas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feliziani S. P.; Urbani P., F.; Barrientos S., C.; Castillo Q., A. </t>
+  </si>
+  <si>
+    <t>II Jornadas de Geología de Rocas Igneas y Metamórficas, Universidad Central de Venezuela, Caracas, Venezuela, 2000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión Geológica – Urbana a la Formación El Milagro. </t>
+  </si>
+  <si>
+    <t>Banco de Piedras. Una monografía sobre la Formación El Milagro, Ediciones de Edreca para el Banco de Maracaibo, Maracaibo, Venezuela, 1982.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Médanos de Coro: Composición, granulometría y migración de arenas. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volumen VII, Número 3, 1972.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermann Karsten (1817 – 1908): A German naturalist in the Neotropics and the significance of his paleovertebrate collection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castillo – Briceňo, J. D.; Amson, E.; Zurita, A.; Sánchez-Villagra, M. R. </t>
+  </si>
+  <si>
+    <t>Fossil Record. Museum fűr naturkunde Berlin. University of Zurich, Main Library, 2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión a la Isla de Pato, noroeste del Golfo de Paria, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovidio Suarez Sosa </t>
+  </si>
+  <si>
+    <t>Excursión organizada por Shell de Venezuela en 1964.</t>
+  </si>
+  <si>
+    <t>Subsurface basement structure, stratigraphy, and timing of regional tectonic events affecting the Guajira Margin of northern Colombia.</t>
+  </si>
+  <si>
+    <t>Vence, E.; Mann, P.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Marzo 2021.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#FelizianiSetal2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#MartinezA1982</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GoddardDPicardX1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#Castilloetal2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#SuarezO1964</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#VenceEMannP2021</t>
   </si>
 </sst>
 </file>
@@ -10835,10 +10901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H929"/>
+  <dimension ref="A1:H935"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="A924" sqref="A924"/>
+    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
+      <selection activeCell="A930" sqref="A930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33206,7 +33272,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G929" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G935" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33262,7 +33328,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A929" si="29">A900+1</f>
+        <f t="shared" ref="A901:A935" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -33852,7 +33918,7 @@
       <c r="E924" t="s">
         <v>3397</v>
       </c>
-      <c r="F924" s="4" t="s">
+      <c r="F924" t="s">
         <v>3411</v>
       </c>
       <c r="G924" s="3" t="str">
@@ -33877,7 +33943,7 @@
       <c r="E925" t="s">
         <v>3397</v>
       </c>
-      <c r="F925" s="4" t="s">
+      <c r="F925" t="s">
         <v>3328</v>
       </c>
       <c r="G925" s="3" t="str">
@@ -33902,7 +33968,7 @@
       <c r="E926" t="s">
         <v>3401</v>
       </c>
-      <c r="F926" s="4" t="s">
+      <c r="F926" t="s">
         <v>3412</v>
       </c>
       <c r="G926" s="3" t="str">
@@ -33927,7 +33993,7 @@
       <c r="E927" t="s">
         <v>3404</v>
       </c>
-      <c r="F927" s="4" t="s">
+      <c r="F927" t="s">
         <v>3413</v>
       </c>
       <c r="G927" s="3" t="str">
@@ -33952,7 +34018,7 @@
       <c r="E928" t="s">
         <v>3407</v>
       </c>
-      <c r="F928" s="4" t="s">
+      <c r="F928" t="s">
         <v>3414</v>
       </c>
       <c r="G928" s="3" t="str">
@@ -33977,12 +34043,162 @@
       <c r="E929" t="s">
         <v>3410</v>
       </c>
-      <c r="F929" s="4" t="s">
+      <c r="F929" t="s">
         <v>3415</v>
       </c>
       <c r="G929" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/geochemistry.html#HernandezAJ2013</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <f t="shared" si="29"/>
+        <v>929</v>
+      </c>
+      <c r="B930" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C930" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D930">
+        <v>2000</v>
+      </c>
+      <c r="E930" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F930" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G930" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#FelizianiSetal2000</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <f t="shared" si="29"/>
+        <v>930</v>
+      </c>
+      <c r="B931" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D931">
+        <v>1982</v>
+      </c>
+      <c r="E931" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F931" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="G931" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#MartinezA1982</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <f t="shared" si="29"/>
+        <v>931</v>
+      </c>
+      <c r="B932" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C932" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D932">
+        <v>1972</v>
+      </c>
+      <c r="E932" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F932" s="4" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G932" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GoddardDPicardX1972</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <f t="shared" si="29"/>
+        <v>932</v>
+      </c>
+      <c r="B933" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C933" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D933">
+        <v>2016</v>
+      </c>
+      <c r="E933" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F933" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="G933" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#Castilloetal2016</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <f t="shared" si="29"/>
+        <v>933</v>
+      </c>
+      <c r="B934" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C934" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D934">
+        <v>1964</v>
+      </c>
+      <c r="E934" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F934" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G934" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#SuarezO1964</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <f t="shared" si="29"/>
+        <v>934</v>
+      </c>
+      <c r="B935" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C935" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D935">
+        <v>2021</v>
+      </c>
+      <c r="E935" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F935" s="4" t="s">
+        <v>3437</v>
+      </c>
+      <c r="G935" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#VenceEMannP2021</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A57EB0-692F-407A-BDBC-2C5A594F0259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79A811-AB73-456B-9D0C-7B9B9FBA9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="3438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="3460">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10508,6 +10508,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/structural.html#VenceEMannP2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metales pesados: De las estrellas a su mesa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrillo – Chávez, A.; Muňoz Torres, C. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Suplemento Especial Abril 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Diamante “El Libertador” o “Bolívar”. La historia de Barrabás. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Suplemento Especial Abril 2025, pp. 47 – 59.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El caso del hundimiento de origen minero en El Callao 1890. </t>
+  </si>
+  <si>
+    <t>X Jornadas de Geociencias 2023. Publicado en el Boletín de Historia de las Geociencias en Venezuela, Número 144, Diciembre 2024</t>
+  </si>
+  <si>
+    <t>Igneous rocks of the Siquisique Region, Lara State.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucía Barboza – Sin </t>
+  </si>
+  <si>
+    <t>Compañia Shell de Venezuela</t>
+  </si>
+  <si>
+    <t>Tomado del Boletín Informativo de la Asociación Venezolana de Minería y Petróleo, Octubre 1965.</t>
+  </si>
+  <si>
+    <t>Local phosphate resources for sustainable development in Central and South America.</t>
+  </si>
+  <si>
+    <t>Appleton, J. D.; Notholt, J. G.</t>
+  </si>
+  <si>
+    <t>British Geological Survey, Department for International Development, Economic Minerals and Geochemical Baseline Program, Report CR/02/122/N.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración geológica de la Isla de Margarita, Estado Nueva Esparta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morante, R.; Annette, F.; Rivas, L. </t>
+  </si>
+  <si>
+    <t>Trabajo Especial de Grado presentado ante la ilustre Universidad Central de Venezuela para optar al título de Ingeniero Geólogo.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CarrilloAMunozC2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#BarbozaS2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#Shell1965</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#AppletonJDNotholtJG2002</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MoranteRetal2005</t>
   </si>
 </sst>
 </file>
@@ -10901,10 +10967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H935"/>
+  <dimension ref="A1:H941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A925" workbookViewId="0">
-      <selection activeCell="A930" sqref="A930"/>
+    <sheetView tabSelected="1" topLeftCell="A931" workbookViewId="0">
+      <selection activeCell="A936" sqref="A936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33272,7 +33338,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G935" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G941" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33328,7 +33394,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A935" si="29">A900+1</f>
+        <f t="shared" ref="A901:A941" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -34068,7 +34134,7 @@
       <c r="E930" t="s">
         <v>3418</v>
       </c>
-      <c r="F930" s="4" t="s">
+      <c r="F930" t="s">
         <v>3432</v>
       </c>
       <c r="G930" s="3" t="str">
@@ -34093,7 +34159,7 @@
       <c r="E931" t="s">
         <v>3420</v>
       </c>
-      <c r="F931" s="4" t="s">
+      <c r="F931" t="s">
         <v>3433</v>
       </c>
       <c r="G931" s="3" t="str">
@@ -34118,7 +34184,7 @@
       <c r="E932" t="s">
         <v>3422</v>
       </c>
-      <c r="F932" s="4" t="s">
+      <c r="F932" t="s">
         <v>3434</v>
       </c>
       <c r="G932" s="3" t="str">
@@ -34143,7 +34209,7 @@
       <c r="E933" t="s">
         <v>3425</v>
       </c>
-      <c r="F933" s="4" t="s">
+      <c r="F933" t="s">
         <v>3435</v>
       </c>
       <c r="G933" s="3" t="str">
@@ -34168,7 +34234,7 @@
       <c r="E934" t="s">
         <v>3428</v>
       </c>
-      <c r="F934" s="4" t="s">
+      <c r="F934" t="s">
         <v>3436</v>
       </c>
       <c r="G934" s="3" t="str">
@@ -34193,12 +34259,162 @@
       <c r="E935" t="s">
         <v>3431</v>
       </c>
-      <c r="F935" s="4" t="s">
+      <c r="F935" t="s">
         <v>3437</v>
       </c>
       <c r="G935" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/structural.html#VenceEMannP2021</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <f t="shared" si="29"/>
+        <v>935</v>
+      </c>
+      <c r="B936" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C936" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D936">
+        <v>2025</v>
+      </c>
+      <c r="E936" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F936" s="4" t="s">
+        <v>3455</v>
+      </c>
+      <c r="G936" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#CarrilloAMunozC2025</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <f t="shared" si="29"/>
+        <v>936</v>
+      </c>
+      <c r="B937" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C937" t="s">
+        <v>22</v>
+      </c>
+      <c r="D937">
+        <v>2025</v>
+      </c>
+      <c r="E937" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F937" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="G937" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2025</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <f t="shared" si="29"/>
+        <v>937</v>
+      </c>
+      <c r="B938" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C938" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D938">
+        <v>2024</v>
+      </c>
+      <c r="E938" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F938" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G938" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#BarbozaS2024</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <f t="shared" si="29"/>
+        <v>938</v>
+      </c>
+      <c r="B939" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C939" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D939">
+        <v>1965</v>
+      </c>
+      <c r="E939" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F939" s="4" t="s">
+        <v>3457</v>
+      </c>
+      <c r="G939" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#Shell1965</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <f t="shared" si="29"/>
+        <v>939</v>
+      </c>
+      <c r="B940" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C940" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D940">
+        <v>2002</v>
+      </c>
+      <c r="E940" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F940" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="G940" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/minerals.html#AppletonJDNotholtJG2002</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <f t="shared" si="29"/>
+        <v>940</v>
+      </c>
+      <c r="B941" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C941" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D941">
+        <v>2005</v>
+      </c>
+      <c r="E941" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F941" s="4" t="s">
+        <v>3459</v>
+      </c>
+      <c r="G941" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MoranteRetal2005</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D79A811-AB73-456B-9D0C-7B9B9FBA9228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F4407-20D6-45B6-8B99-677BD61E9E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="3460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="3482">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10574,6 +10574,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#MoranteRetal2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fósiles de la localidad de La Aguada de Los Chivos, Barbacoas, estado Lara. La localidad representa una unidad de referencia para la Formación Maraca y sección tipo para el Miembro La Aguada de la Formación La Luna. </t>
+  </si>
+  <si>
+    <t>Información recopilada por Tulio Peraza 1997. Trabajo Inédito, 1997.</t>
+  </si>
+  <si>
+    <t>Entre “ciudades perdidas” y barcos hundidos: el patrimonio submarino y la necesidad de reconocer la arqueología y las comunidades del Caribe Venezolano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez Velásquez, F.; Antczak, O. </t>
+  </si>
+  <si>
+    <t>Junta de Andalucía, Consejería de Cultura y Deporte, Sección Debate, Revista PH 115, Junio 2025. Textos Provisionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión Geológica del Precámbrico de Amazonas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tepedino, V.; Sosa Siso, C.; Yánez Pintado, G. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Número 41, pp. 29 – 46, 1991.</t>
+  </si>
+  <si>
+    <t>Patterns of recent deformation of Western Maracaibo Block, Northern Colombia and Western Venezuela, based on integration of geomorphic indices with regional geology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez, J.; Mann, P. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Agosto 2021.</t>
+  </si>
+  <si>
+    <t>Quantitative petrographic analysis in thin section images using supervised classification machine learning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja, M. A.; Tritlla, J. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Agosto 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morro de Barcelona, Venezuela Oriental: Reconocimiento geológico y nuevas contribuciones. </t>
+  </si>
+  <si>
+    <t>Porras M. , J. S.; Porras M., L. R.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PerazaT1997</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#TepedinoVetal1991</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezFAntczakO2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/structural.html#SanchezJMannP2021</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CajaMTrillaJ2021</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PorrasMPorrasM2025</t>
   </si>
 </sst>
 </file>
@@ -10967,10 +11033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H941"/>
+  <dimension ref="A1:H947"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A931" workbookViewId="0">
-      <selection activeCell="A936" sqref="A936"/>
+      <selection activeCell="A942" sqref="A942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33338,7 +33404,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G941" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G947" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33394,7 +33460,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A941" si="29">A900+1</f>
+        <f t="shared" ref="A901:A947" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -34284,7 +34350,7 @@
       <c r="E936" t="s">
         <v>3440</v>
       </c>
-      <c r="F936" s="4" t="s">
+      <c r="F936" t="s">
         <v>3455</v>
       </c>
       <c r="G936" s="3" t="str">
@@ -34309,7 +34375,7 @@
       <c r="E937" t="s">
         <v>3442</v>
       </c>
-      <c r="F937" s="4" t="s">
+      <c r="F937" t="s">
         <v>3132</v>
       </c>
       <c r="G937" s="3" t="str">
@@ -34334,7 +34400,7 @@
       <c r="E938" t="s">
         <v>3444</v>
       </c>
-      <c r="F938" s="4" t="s">
+      <c r="F938" t="s">
         <v>3456</v>
       </c>
       <c r="G938" s="3" t="str">
@@ -34359,7 +34425,7 @@
       <c r="E939" t="s">
         <v>3448</v>
       </c>
-      <c r="F939" s="4" t="s">
+      <c r="F939" t="s">
         <v>3457</v>
       </c>
       <c r="G939" s="3" t="str">
@@ -34384,7 +34450,7 @@
       <c r="E940" t="s">
         <v>3451</v>
       </c>
-      <c r="F940" s="4" t="s">
+      <c r="F940" t="s">
         <v>3458</v>
       </c>
       <c r="G940" s="3" t="str">
@@ -34409,12 +34475,162 @@
       <c r="E941" t="s">
         <v>3454</v>
       </c>
-      <c r="F941" s="4" t="s">
+      <c r="F941" t="s">
         <v>3459</v>
       </c>
       <c r="G941" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/stratigraphy.html#MoranteRetal2005</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <f t="shared" si="29"/>
+        <v>941</v>
+      </c>
+      <c r="B942" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C942" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D942">
+        <v>1997</v>
+      </c>
+      <c r="E942" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F942" s="4" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G942" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PerazaT1997</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <f t="shared" si="29"/>
+        <v>942</v>
+      </c>
+      <c r="B943" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C943" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D943">
+        <v>2025</v>
+      </c>
+      <c r="E943" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F943" s="4" t="s">
+        <v>3478</v>
+      </c>
+      <c r="G943" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezFAntczakO2025</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <f t="shared" si="29"/>
+        <v>943</v>
+      </c>
+      <c r="B944" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C944" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D944">
+        <v>1991</v>
+      </c>
+      <c r="E944" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F944" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="G944" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#TepedinoVetal1991</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <f t="shared" si="29"/>
+        <v>944</v>
+      </c>
+      <c r="B945" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C945" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D945">
+        <v>2021</v>
+      </c>
+      <c r="E945" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F945" s="4" t="s">
+        <v>3479</v>
+      </c>
+      <c r="G945" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/structural.html#SanchezJMannP2021</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <f t="shared" si="29"/>
+        <v>945</v>
+      </c>
+      <c r="B946" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C946" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D946">
+        <v>2021</v>
+      </c>
+      <c r="E946" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F946" s="4" t="s">
+        <v>3480</v>
+      </c>
+      <c r="G946" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#CajaMTrillaJ2021</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <f t="shared" si="29"/>
+        <v>946</v>
+      </c>
+      <c r="B947" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C947" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D947">
+        <v>2025</v>
+      </c>
+      <c r="E947" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F947" s="4" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G947" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PorrasMPorrasM2025</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F4407-20D6-45B6-8B99-677BD61E9E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD7FE3-C25B-4CCA-ABF0-7F34A0720633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3771" uniqueCount="3482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="3505">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10640,6 +10640,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#PorrasMPorrasM2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fósiles de la localidad de Guinimita, costa sur de la Península de Paria. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Scherer y Tulio Peraza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa geológico esquemático de la Formación Querales. </t>
+  </si>
+  <si>
+    <t>Díaz de Gamero, M. L.; Mittachione, V.; Ruíz, M.</t>
+  </si>
+  <si>
+    <t>Modificado por Tulio Peraza 2000.</t>
+  </si>
+  <si>
+    <t>Trabajo inédito 1999.</t>
+  </si>
+  <si>
+    <t>Homenaje a Juan Humberto Ríos Fernández.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Antonio Rodríguez Arteaga y Marianto Castro Mora </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Mayo 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarrabubba crater, one of the world’s oldest impact crater. </t>
+  </si>
+  <si>
+    <t>Jhonny E. Casas 2025</t>
+  </si>
+  <si>
+    <t>Propuesta metodológica para la selección, evaluación y conservación de sitios geológicos. Caso de estudio: Estado Falcón, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soraya Yánes </t>
+  </si>
+  <si>
+    <t>Universidad Industrial de Santander, Boletín de Geología, Volumen 37, Número 2, Julio – Diciembre, 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbon distribution in the Maracaibo Basin (Poster). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfgang Scherer </t>
+  </si>
+  <si>
+    <t>II AAPG / SVG Caracas, Venezuela, September 1996.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SchererWPerazaT1999</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#GameroMLetal1998</t>
+  </si>
+  <si>
+    <t>https://biography.html#RodriguezJACastroM2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#YanezS2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#SchererW1996</t>
   </si>
 </sst>
 </file>
@@ -10712,12 +10781,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11033,10 +11101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H947"/>
+  <dimension ref="A1:H953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A931" workbookViewId="0">
-      <selection activeCell="A942" sqref="A942"/>
+    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
+      <selection activeCell="A948" sqref="A948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33404,7 +33472,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G947" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G953" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33460,7 +33528,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A947" si="29">A900+1</f>
+        <f t="shared" ref="A901:A953" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -34500,7 +34568,7 @@
       <c r="E942" t="s">
         <v>3461</v>
       </c>
-      <c r="F942" s="4" t="s">
+      <c r="F942" t="s">
         <v>3476</v>
       </c>
       <c r="G942" s="3" t="str">
@@ -34525,7 +34593,7 @@
       <c r="E943" t="s">
         <v>3464</v>
       </c>
-      <c r="F943" s="4" t="s">
+      <c r="F943" t="s">
         <v>3478</v>
       </c>
       <c r="G943" s="3" t="str">
@@ -34550,7 +34618,7 @@
       <c r="E944" t="s">
         <v>3467</v>
       </c>
-      <c r="F944" s="4" t="s">
+      <c r="F944" t="s">
         <v>3477</v>
       </c>
       <c r="G944" s="3" t="str">
@@ -34575,7 +34643,7 @@
       <c r="E945" t="s">
         <v>3470</v>
       </c>
-      <c r="F945" s="4" t="s">
+      <c r="F945" t="s">
         <v>3479</v>
       </c>
       <c r="G945" s="3" t="str">
@@ -34600,7 +34668,7 @@
       <c r="E946" t="s">
         <v>3473</v>
       </c>
-      <c r="F946" s="4" t="s">
+      <c r="F946" t="s">
         <v>3480</v>
       </c>
       <c r="G946" s="3" t="str">
@@ -34625,12 +34693,162 @@
       <c r="E947" t="s">
         <v>3397</v>
       </c>
-      <c r="F947" s="4" t="s">
+      <c r="F947" t="s">
         <v>3481</v>
       </c>
       <c r="G947" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/stratigraphy.html#PorrasMPorrasM2025</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <f t="shared" si="29"/>
+        <v>947</v>
+      </c>
+      <c r="B948" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C948" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D948">
+        <v>1999</v>
+      </c>
+      <c r="E948" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F948" t="s">
+        <v>3499</v>
+      </c>
+      <c r="G948" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SchererWPerazaT1999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <f t="shared" si="29"/>
+        <v>948</v>
+      </c>
+      <c r="B949" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C949" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D949">
+        <v>1998</v>
+      </c>
+      <c r="E949" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F949" t="s">
+        <v>3500</v>
+      </c>
+      <c r="G949" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/maps.html#GameroMLetal1998</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <f t="shared" si="29"/>
+        <v>949</v>
+      </c>
+      <c r="B950" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C950" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D950">
+        <v>2025</v>
+      </c>
+      <c r="E950" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F950" t="s">
+        <v>3501</v>
+      </c>
+      <c r="G950" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://biography.html#RodriguezJACastroM2025</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <f t="shared" si="29"/>
+        <v>950</v>
+      </c>
+      <c r="B951" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C951" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D951">
+        <v>2025</v>
+      </c>
+      <c r="E951" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F951" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G951" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <f t="shared" si="29"/>
+        <v>951</v>
+      </c>
+      <c r="B952" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C952" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D952">
+        <v>2015</v>
+      </c>
+      <c r="E952" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F952" t="s">
+        <v>3503</v>
+      </c>
+      <c r="G952" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/ecology.html#YanezS2015</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <f t="shared" si="29"/>
+        <v>952</v>
+      </c>
+      <c r="B953" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C953" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D953">
+        <v>1996</v>
+      </c>
+      <c r="E953" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F953" t="s">
+        <v>3504</v>
+      </c>
+      <c r="G953" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geochemistry.html#SchererW1996</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CD7FE3-C25B-4CCA-ABF0-7F34A0720633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFC508-3DCF-4582-A705-9965CD5A2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -10699,9 +10699,6 @@
     <t>https://mariantoc.github.io/maps.html#GameroMLetal1998</t>
   </si>
   <si>
-    <t>https://biography.html#RodriguezJACastroM2025</t>
-  </si>
-  <si>
     <t>https://mariantoc.github.io/topics.html#CasasJE2025</t>
   </si>
   <si>
@@ -10709,6 +10706,9 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/geochemistry.html#SchererW1996</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJACastroM2025</t>
   </si>
 </sst>
 </file>
@@ -10781,11 +10781,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11104,7 +11105,7 @@
   <dimension ref="A1:H953"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="A948" sqref="A948"/>
+      <selection activeCell="B948" sqref="B948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34743,7 +34744,7 @@
       <c r="E949" t="s">
         <v>3486</v>
       </c>
-      <c r="F949" t="s">
+      <c r="F949" s="4" t="s">
         <v>3500</v>
       </c>
       <c r="G949" s="3" t="str">
@@ -34768,12 +34769,12 @@
       <c r="E950" t="s">
         <v>3490</v>
       </c>
-      <c r="F950" t="s">
-        <v>3501</v>
+      <c r="F950" s="4" t="s">
+        <v>3504</v>
       </c>
       <c r="G950" s="3" t="str">
         <f t="shared" si="28"/>
-        <v>https://biography.html#RodriguezJACastroM2025</v>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJACastroM2025</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.3">
@@ -34794,7 +34795,7 @@
         <v>3490</v>
       </c>
       <c r="F951" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="G951" s="3" t="str">
         <f t="shared" si="28"/>
@@ -34819,7 +34820,7 @@
         <v>3495</v>
       </c>
       <c r="F952" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="G952" s="3" t="str">
         <f t="shared" si="28"/>
@@ -34844,7 +34845,7 @@
         <v>3498</v>
       </c>
       <c r="F953" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="G953" s="3" t="str">
         <f t="shared" si="28"/>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFC508-3DCF-4582-A705-9965CD5A2F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F861E4-1120-49E3-BF5D-3D2E731655CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="3505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="3529">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10709,6 +10709,78 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#RodriguezJACastroM2025</t>
+  </si>
+  <si>
+    <t>Metales pesados y carbono orgánico en sedimentos del Delta del Orinoco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanez, C.; Méndez, J.; Delgado, J. F.; Morales, F. </t>
+  </si>
+  <si>
+    <t>Poster Intevep</t>
+  </si>
+  <si>
+    <t>Jungle Oil. Hazardous times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernest Avery </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 70, Agosto 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía de la excursión No. 7: Canaima – Puerto Ordaz – Guri – Cerro Bolívar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascanio, G.; Araujo Q., E.; Zuloaga, G. </t>
+  </si>
+  <si>
+    <t>V Congreso Geológico Venezolano, Caracas, 24 – 26 de Noviembre de 1977, pp. 234 – 241. Guías de la excursión Gustavo Ascanio, Enrique Araujo Q. Asesor: Dr. Guillermo Zuloaga.</t>
+  </si>
+  <si>
+    <t>Mapa Geológico de La Vela de Coro – Taratara. Trabajos de campo ejecutados entre 1948 – 1953 – 1961.</t>
+  </si>
+  <si>
+    <t>Recopilados por el Dr. Clemente González de Juana, 1969. Modificado por Tulio Peraza.</t>
+  </si>
+  <si>
+    <t>Universidad Central de Venezuela, Departamento de Geología.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Central de Venezuela. 50 aňos de la Escuela de Ingeniería de Petróleo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alí Vivas Vivas </t>
+  </si>
+  <si>
+    <t>PetroRenova, Mayo 2025</t>
+  </si>
+  <si>
+    <t>Predation, propitiation and performance: Etnographic analogy in the study of rock paintings from the Lower Parguaza River Basin, Bolivar State, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarble de Scaramelli, K.; Scaramelli, F. </t>
+  </si>
+  <si>
+    <t>Arts 14, 51. https://doi.org/10.3390/arts14030051</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#YanezCetal2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#AveryE1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#AscanioGetal1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#GonzalezC1969</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#VivasA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#TarbleKScaramelliF2025</t>
   </si>
 </sst>
 </file>
@@ -11102,10 +11174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H953"/>
+  <dimension ref="A1:H959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A940" workbookViewId="0">
-      <selection activeCell="B948" sqref="B948"/>
+    <sheetView tabSelected="1" topLeftCell="A943" workbookViewId="0">
+      <selection activeCell="A954" sqref="A954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33473,7 +33545,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G953" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G959" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33529,7 +33601,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A953" si="29">A900+1</f>
+        <f t="shared" ref="A901:A959" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -34744,7 +34816,7 @@
       <c r="E949" t="s">
         <v>3486</v>
       </c>
-      <c r="F949" s="4" t="s">
+      <c r="F949" t="s">
         <v>3500</v>
       </c>
       <c r="G949" s="3" t="str">
@@ -34769,7 +34841,7 @@
       <c r="E950" t="s">
         <v>3490</v>
       </c>
-      <c r="F950" s="4" t="s">
+      <c r="F950" t="s">
         <v>3504</v>
       </c>
       <c r="G950" s="3" t="str">
@@ -34850,6 +34922,156 @@
       <c r="G953" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/geochemistry.html#SchererW1996</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <f t="shared" si="29"/>
+        <v>953</v>
+      </c>
+      <c r="B954" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C954" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D954">
+        <v>2000</v>
+      </c>
+      <c r="E954" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F954" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G954" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/geochemistry.html#YanezCetal2000</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <f t="shared" si="29"/>
+        <v>954</v>
+      </c>
+      <c r="B955" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C955" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D955">
+        <v>1981</v>
+      </c>
+      <c r="E955" t="s">
+        <v>3510</v>
+      </c>
+      <c r="F955" s="4" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G955" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#AveryE1981</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <f t="shared" si="29"/>
+        <v>955</v>
+      </c>
+      <c r="B956" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C956" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D956">
+        <v>1977</v>
+      </c>
+      <c r="E956" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F956" s="4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G956" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#AscanioGetal1977</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <f t="shared" si="29"/>
+        <v>956</v>
+      </c>
+      <c r="B957" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C957" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D957">
+        <v>1999</v>
+      </c>
+      <c r="E957" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F957" s="4" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G957" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/maps.html#GonzalezC1969</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <f t="shared" si="29"/>
+        <v>957</v>
+      </c>
+      <c r="B958" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C958" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D958">
+        <v>2025</v>
+      </c>
+      <c r="E958" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F958" s="4" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G958" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#VivasA2025</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <f t="shared" si="29"/>
+        <v>958</v>
+      </c>
+      <c r="B959" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C959" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D959">
+        <v>2025</v>
+      </c>
+      <c r="E959" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F959" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G959" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#TarbleKScaramelliF2025</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F861E4-1120-49E3-BF5D-3D2E731655CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE537E6E-17D2-44C8-9818-77A03B096C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="3529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3549">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10781,6 +10781,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#TarbleKScaramelliF2025</t>
+  </si>
+  <si>
+    <t>Manuel Gaitán de Torres, Aroa 1621. El primer impreso de minas de Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía de la excursión al Flysch Eoceno de la Isla de Margarita. </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Guía de la excursión L-3, 6 al 11 de Julio de 1971.</t>
+  </si>
+  <si>
+    <t>Nicolás Gerardo Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 años de la hazaña de Los Pijiguaos. Historia de la explotación y prospección de la bauxita. </t>
+  </si>
+  <si>
+    <t>Carlos Schwarck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía de la excursión Maiquetía – Ciudad Guayana – El Pao – Upata – Guasipati – Tumeremo – Santa Elena de Uairén – Canaima – Maiquetía. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan H. Ríos y Nesin Benaim </t>
+  </si>
+  <si>
+    <t>V Congreso Geológico Venezolano, Memorias, Tomo V, pp. 77 – 124, 1977.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitios de interés geológico de Iberoamérica. </t>
+  </si>
+  <si>
+    <t>Carcavilla, L.; Faraone, M.; Miranda, F.; Vargas, M. Editores</t>
+  </si>
+  <si>
+    <t>ASGMI. Asociación de Servicios Geológicos y Minería de Iberoamérica, 2024.</t>
+  </si>
+  <si>
+    <t>Larger foraminifera from Central Falcon (Venezuela).</t>
+  </si>
+  <si>
+    <t>Leidse Geologische Mededelingen 4 (1), pp. 94 – 122, 1931.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#UrbaniF2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#MunozNG1971</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#SchwarckC2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#RiosJHBenaimN1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CarcavillaLetal2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GorterNEVanderVlerkM1931</t>
   </si>
 </sst>
 </file>
@@ -11174,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H959"/>
+  <dimension ref="A1:H965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A943" workbookViewId="0">
-      <selection activeCell="A954" sqref="A954"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="A960" sqref="A960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33545,7 +33605,7 @@
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
-        <f t="shared" ref="G898:G959" si="28">HYPERLINK(F898)</f>
+        <f t="shared" ref="G898:G961" si="28">HYPERLINK(F898)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#BolliHMBermudezPJ1992</v>
       </c>
     </row>
@@ -33601,7 +33661,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901">
-        <f t="shared" ref="A901:A959" si="29">A900+1</f>
+        <f t="shared" ref="A901:A964" si="29">A900+1</f>
         <v>900</v>
       </c>
       <c r="B901" t="s">
@@ -34941,7 +35001,7 @@
       <c r="E954" t="s">
         <v>3507</v>
       </c>
-      <c r="F954" s="4" t="s">
+      <c r="F954" t="s">
         <v>3523</v>
       </c>
       <c r="G954" s="3" t="str">
@@ -34966,7 +35026,7 @@
       <c r="E955" t="s">
         <v>3510</v>
       </c>
-      <c r="F955" s="4" t="s">
+      <c r="F955" t="s">
         <v>3524</v>
       </c>
       <c r="G955" s="3" t="str">
@@ -34991,7 +35051,7 @@
       <c r="E956" t="s">
         <v>3513</v>
       </c>
-      <c r="F956" s="4" t="s">
+      <c r="F956" t="s">
         <v>3525</v>
       </c>
       <c r="G956" s="3" t="str">
@@ -35016,7 +35076,7 @@
       <c r="E957" t="s">
         <v>3516</v>
       </c>
-      <c r="F957" s="4" t="s">
+      <c r="F957" t="s">
         <v>3526</v>
       </c>
       <c r="G957" s="3" t="str">
@@ -35041,7 +35101,7 @@
       <c r="E958" t="s">
         <v>3519</v>
       </c>
-      <c r="F958" s="4" t="s">
+      <c r="F958" t="s">
         <v>3527</v>
       </c>
       <c r="G958" s="3" t="str">
@@ -35066,12 +35126,162 @@
       <c r="E959" t="s">
         <v>3522</v>
       </c>
-      <c r="F959" s="4" t="s">
+      <c r="F959" t="s">
         <v>3528</v>
       </c>
       <c r="G959" s="3" t="str">
         <f t="shared" si="28"/>
         <v>https://mariantoc.github.io/biography.html#TarbleKScaramelliF2025</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <f t="shared" si="29"/>
+        <v>959</v>
+      </c>
+      <c r="B960" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D960">
+        <v>2024</v>
+      </c>
+      <c r="E960" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F960" s="4" t="s">
+        <v>3543</v>
+      </c>
+      <c r="G960" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/biography.html#UrbaniF2024</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <f t="shared" si="29"/>
+        <v>960</v>
+      </c>
+      <c r="B961" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C961" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D961">
+        <v>1971</v>
+      </c>
+      <c r="E961" t="s">
+        <v>3531</v>
+      </c>
+      <c r="F961" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="G961" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v>https://mariantoc.github.io/excursions.html#MunozNG1971</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <f t="shared" si="29"/>
+        <v>961</v>
+      </c>
+      <c r="B962" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C962" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D962">
+        <v>2024</v>
+      </c>
+      <c r="E962" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F962" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="G962" s="3" t="str">
+        <f t="shared" ref="G962:G965" si="30">HYPERLINK(F962)</f>
+        <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <f t="shared" si="29"/>
+        <v>962</v>
+      </c>
+      <c r="B963" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C963" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D963">
+        <v>1977</v>
+      </c>
+      <c r="E963" t="s">
+        <v>3537</v>
+      </c>
+      <c r="F963" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="G963" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#RiosJHBenaimN1977</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <f t="shared" si="29"/>
+        <v>963</v>
+      </c>
+      <c r="B964" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C964" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D964">
+        <v>2024</v>
+      </c>
+      <c r="E964" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F964" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G964" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#CarcavillaLetal2024</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <f t="shared" ref="A965" si="31">A964+1</f>
+        <v>964</v>
+      </c>
+      <c r="B965" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D965">
+        <v>1931</v>
+      </c>
+      <c r="E965" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F965" s="4" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G965" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GorterNEVanderVlerkM1931</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE537E6E-17D2-44C8-9818-77A03B096C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995C6FE-61B0-4D31-9296-A889273C27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="3549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="3568">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10841,6 +10841,63 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#GorterNEVanderVlerkM1931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museo Geológico Vial en Venezuela. Una idea de un museo abierto en las carreteras venezolanas que se gestó en la década de los 80 y que puso la cultura geológica al alcance de todos. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Junio 2025.</t>
+  </si>
+  <si>
+    <t>Pigmentos minerales. Los colores de la tierra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huellas, Ashiato, Paulkhuma. La impronta asiática en la ciencia y tecnología en Venezuela durante el siglo XX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José G. Alvarez - Cornett </t>
+  </si>
+  <si>
+    <t>Universidad de Los Andes, Centro de Estudios de Africa, Asia y diásporas Latinoamericanas y Caribeňas, “Dr. José Manuel Briceňo Monzillo”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piero Feliziani Serafini: 1939 – 2025. Un singular geólogo y geotecnista venezolano. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, pp. 8 – 10, Junio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fósiles de la localidad de Bobare – Churuguara, entre los estados Lara y Falcón, Venezuela. </t>
+  </si>
+  <si>
+    <t>Tulio Pereza</t>
+  </si>
+  <si>
+    <t>Informe inédito 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Devonian System in Western Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. Norman E. Weisbord </t>
+  </si>
+  <si>
+    <t>International Symposium on the Devonian System, Alberta, Canada, 2: 215 – 226.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroM2025b</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#PorrasJS2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#AlvarezJG2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2025b</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#WeisbordNE1967</t>
   </si>
 </sst>
 </file>
@@ -11234,10 +11291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H965"/>
+  <dimension ref="A1:H971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="A960" sqref="A960"/>
+    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
+      <selection activeCell="A966" sqref="A966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35151,7 +35208,7 @@
       <c r="E960" t="s">
         <v>3233</v>
       </c>
-      <c r="F960" s="4" t="s">
+      <c r="F960" t="s">
         <v>3543</v>
       </c>
       <c r="G960" s="3" t="str">
@@ -35176,7 +35233,7 @@
       <c r="E961" t="s">
         <v>3531</v>
       </c>
-      <c r="F961" s="4" t="s">
+      <c r="F961" t="s">
         <v>3544</v>
       </c>
       <c r="G961" s="3" t="str">
@@ -35201,11 +35258,11 @@
       <c r="E962" t="s">
         <v>3233</v>
       </c>
-      <c r="F962" s="4" t="s">
+      <c r="F962" t="s">
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G965" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G971" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35226,7 +35283,7 @@
       <c r="E963" t="s">
         <v>3537</v>
       </c>
-      <c r="F963" s="4" t="s">
+      <c r="F963" t="s">
         <v>3546</v>
       </c>
       <c r="G963" s="3" t="str">
@@ -35251,7 +35308,7 @@
       <c r="E964" t="s">
         <v>3540</v>
       </c>
-      <c r="F964" s="4" t="s">
+      <c r="F964" t="s">
         <v>3547</v>
       </c>
       <c r="G964" s="3" t="str">
@@ -35261,7 +35318,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965" si="31">A964+1</f>
+        <f t="shared" ref="A965:A971" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -35276,12 +35333,162 @@
       <c r="E965" t="s">
         <v>3542</v>
       </c>
-      <c r="F965" s="4" t="s">
+      <c r="F965" t="s">
         <v>3548</v>
       </c>
       <c r="G965" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/stratigraphy.html#GorterNEVanderVlerkM1931</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <f t="shared" si="31"/>
+        <v>965</v>
+      </c>
+      <c r="B966" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C966" t="s">
+        <v>22</v>
+      </c>
+      <c r="D966">
+        <v>2025</v>
+      </c>
+      <c r="E966" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F966" s="4" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G966" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#CastroM2025b</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <f t="shared" si="31"/>
+        <v>966</v>
+      </c>
+      <c r="B967" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C967" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D967">
+        <v>2025</v>
+      </c>
+      <c r="E967" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F967" s="4" t="s">
+        <v>3564</v>
+      </c>
+      <c r="G967" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/minerals.html#PorrasJS2025</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <f t="shared" si="31"/>
+        <v>967</v>
+      </c>
+      <c r="B968" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C968" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D968">
+        <v>2025</v>
+      </c>
+      <c r="E968" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F968" s="4" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G968" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#AlvarezJG2025</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <f t="shared" si="31"/>
+        <v>968</v>
+      </c>
+      <c r="B969" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C969" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D969">
+        <v>2025</v>
+      </c>
+      <c r="E969" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F969" s="4" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G969" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2025b</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <f t="shared" si="31"/>
+        <v>969</v>
+      </c>
+      <c r="B970" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D970">
+        <v>1997</v>
+      </c>
+      <c r="E970" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F970" s="4" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G970" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PerazaT1997</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <f t="shared" si="31"/>
+        <v>970</v>
+      </c>
+      <c r="B971" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C971" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D971">
+        <v>1967</v>
+      </c>
+      <c r="E971" t="s">
+        <v>3562</v>
+      </c>
+      <c r="F971" s="4" t="s">
+        <v>3567</v>
+      </c>
+      <c r="G971" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#WeisbordNE1967</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995C6FE-61B0-4D31-9296-A889273C27C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F151A7-3BAC-4707-8BC8-8A43C8294F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="3568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="3587">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10879,9 +10879,6 @@
     <t xml:space="preserve">The Devonian System in Western Venezuela. </t>
   </si>
   <si>
-    <t xml:space="preserve">. Norman E. Weisbord </t>
-  </si>
-  <si>
     <t>International Symposium on the Devonian System, Alberta, Canada, 2: 215 – 226.</t>
   </si>
   <si>
@@ -10898,6 +10895,66 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#WeisbordNE1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas noticias sobre Nueva Cádiz (Isla de Cubagua), Venezuela. Excursión Geológica L-5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. M. Cruxent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman E. Weisbord </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela, Memorias pp. 33 - 35, 1972.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vida y obra de José Rafael Ricard en minería. </t>
+  </si>
+  <si>
+    <t>Sedimentación y tectónica de la Napa Piemontina y del Frente de Montaña en la región de Altagracia de Orituco, Estado Guárico, Venezuela. Excursión Geológica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beck, C. M. </t>
+  </si>
+  <si>
+    <t>Excursión geológica del V Congreso Geológico Venezolano, Memorias, Tomo V, pp. 147 – 157, 1977.</t>
+  </si>
+  <si>
+    <t>The first US president who collected vertebrated fossils.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformación de la materia orgánica ayer y hoy para formar combustibles. </t>
+  </si>
+  <si>
+    <t>Demetrio Marcos Santamaría Orozco</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Mayo 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología de la localidad de Punta Macolla, Península de Paraguaná, Venezuela. </t>
+  </si>
+  <si>
+    <t>Informe inédito 2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#CruxentJM1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#BaritoI2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#BeckCM1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2025b</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#SantamariaDM2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PerazaT2000</t>
   </si>
 </sst>
 </file>
@@ -11291,10 +11348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H971"/>
+  <dimension ref="A1:H977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A955" workbookViewId="0">
-      <selection activeCell="A966" sqref="A966"/>
+    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
+      <selection activeCell="A972" sqref="A972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35262,7 +35319,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G971" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G977" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35318,7 +35375,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A971" si="31">A964+1</f>
+        <f t="shared" ref="A965:A977" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -35358,8 +35415,8 @@
       <c r="E966" t="s">
         <v>3550</v>
       </c>
-      <c r="F966" s="4" t="s">
-        <v>3563</v>
+      <c r="F966" t="s">
+        <v>3562</v>
       </c>
       <c r="G966" s="3" t="str">
         <f t="shared" si="30"/>
@@ -35383,8 +35440,8 @@
       <c r="E967" t="s">
         <v>3550</v>
       </c>
-      <c r="F967" s="4" t="s">
-        <v>3564</v>
+      <c r="F967" t="s">
+        <v>3563</v>
       </c>
       <c r="G967" s="3" t="str">
         <f t="shared" si="30"/>
@@ -35408,8 +35465,8 @@
       <c r="E968" t="s">
         <v>3554</v>
       </c>
-      <c r="F968" s="4" t="s">
-        <v>3565</v>
+      <c r="F968" t="s">
+        <v>3564</v>
       </c>
       <c r="G968" s="3" t="str">
         <f t="shared" si="30"/>
@@ -35433,8 +35490,8 @@
       <c r="E969" t="s">
         <v>3556</v>
       </c>
-      <c r="F969" s="4" t="s">
-        <v>3566</v>
+      <c r="F969" t="s">
+        <v>3565</v>
       </c>
       <c r="G969" s="3" t="str">
         <f t="shared" si="30"/>
@@ -35458,7 +35515,7 @@
       <c r="E970" t="s">
         <v>3559</v>
       </c>
-      <c r="F970" s="4" t="s">
+      <c r="F970" t="s">
         <v>3476</v>
       </c>
       <c r="G970" s="3" t="str">
@@ -35475,20 +35532,170 @@
         <v>3560</v>
       </c>
       <c r="C971" t="s">
-        <v>3561</v>
+        <v>3569</v>
       </c>
       <c r="D971">
         <v>1967</v>
       </c>
       <c r="E971" t="s">
-        <v>3562</v>
-      </c>
-      <c r="F971" s="4" t="s">
-        <v>3567</v>
+        <v>3561</v>
+      </c>
+      <c r="F971" t="s">
+        <v>3566</v>
       </c>
       <c r="G971" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/stratigraphy.html#WeisbordNE1967</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <f t="shared" si="31"/>
+        <v>971</v>
+      </c>
+      <c r="B972" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C972" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D972">
+        <v>1972</v>
+      </c>
+      <c r="E972" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F972" s="4" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G972" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#CruxentJM1972</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <f t="shared" si="31"/>
+        <v>972</v>
+      </c>
+      <c r="B973" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C973" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D973">
+        <v>2024</v>
+      </c>
+      <c r="E973" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F973" s="4" t="s">
+        <v>3582</v>
+      </c>
+      <c r="G973" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#BaritoI2024</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <f t="shared" si="31"/>
+        <v>973</v>
+      </c>
+      <c r="B974" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C974" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D974">
+        <v>1977</v>
+      </c>
+      <c r="E974" t="s">
+        <v>3574</v>
+      </c>
+      <c r="F974" s="4" t="s">
+        <v>3583</v>
+      </c>
+      <c r="G974" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#BeckCM1977</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <f t="shared" si="31"/>
+        <v>974</v>
+      </c>
+      <c r="B975" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C975" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D975">
+        <v>2025</v>
+      </c>
+      <c r="E975" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F975" s="4" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G975" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025b</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <f t="shared" si="31"/>
+        <v>975</v>
+      </c>
+      <c r="B976" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C976" t="s">
+        <v>3577</v>
+      </c>
+      <c r="D976">
+        <v>2025</v>
+      </c>
+      <c r="E976" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F976" s="4" t="s">
+        <v>3585</v>
+      </c>
+      <c r="G976" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/geochemistry.html#SantamariaDM2025</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <f t="shared" si="31"/>
+        <v>976</v>
+      </c>
+      <c r="B977" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C977" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D977">
+        <v>2000</v>
+      </c>
+      <c r="E977" t="s">
+        <v>3580</v>
+      </c>
+      <c r="F977" s="4" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G977" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PerazaT2000</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F151A7-3BAC-4707-8BC8-8A43C8294F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E85D4D-6286-4CBE-97DB-4BEA1A723869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="3587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="3608">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -10955,6 +10955,92 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#PerazaT2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Pliocene – Pleistocene continental biota from Venezuela. </t>
+  </si>
+  <si>
+    <t>Jorge D. Carrillo-Briceño,; Rodolfo Sánchez; Torsten M. Scheyer; Juan D. Carrillo; Massimo Delfino; Georgios L. Georgalis; Leonardo Kerber; Damián Ruiz-Ramoni,; José L. O. Birindelli; Edwin-Alberto Cadena; Aldo F. Rincón; Martin Chavez-Hoffmeister; Alfredo A. Carlini; Mónica R. Carvalho; Raúl Trejos-Tamayo; Felipe Vallejo; Carlos Jaramillo; Douglas S. Jones; Marcelo R. Sánchez-Villagra.</t>
+  </si>
+  <si>
+    <t>Swiss Journal of Paleontology, April 23, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crónicas y comentarios del terremoto de Caracas de 1900 en el Diario La Religión, Caracas, Venezuela. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Julio 2024. Suplemento Especial</t>
+  </si>
+  <si>
+    <t>Geologic Map of the Venezuela Part of Puerto Ayacucho 2 x 3 Quadrangle, Amazonas, Federal Territory, Venezuela.</t>
+  </si>
+  <si>
+    <t>Wynn, J. C.; Olmore, S. D.; Mendoza, V.; García, A.; Rendón, I.; Estanga, Y.; Rincón, H.; , Martínez, F.; Lugo, E.; Rivero, N.; Schruben, P.</t>
+  </si>
+  <si>
+    <t>U. S. Geological Survey, U.S. Department of the Interior. Preparado en colaboración con la Corporación Venezolana de Guayana, Técnica Minera C. A. 1994.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primera descripción del Género </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Belonostomus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la Formación La Luna (Cretácico) Sierra de Perijá (Pisces: Aspidorhynchidae).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Casas, J. E.; Moody, J. M. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volumen 22, Número1, pp. 51 – 55, 1997.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión a la Falla de Boconó entre Santo Domingo y San Cristóbal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schubert, C.; Singer, A.; Soulas, J. R. </t>
+  </si>
+  <si>
+    <t>FUNVISIS. Simposio de Neotectónica, Sismicidad y Riesgo Geológico en Venezuela y en el Caribe, XXXIII Convención ASOVAC, 62 p.</t>
+  </si>
+  <si>
+    <t>Fósiles de la localidad de Caňo Colorado, Perijá, Estado Zulia.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#CarrilloJDetal2021</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2024a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#WynnJCetal1994</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#CasasJEMoodyJM1997</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#SchubertCetal1983</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PerazaT1997b</t>
   </si>
 </sst>
 </file>
@@ -11348,10 +11434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H977"/>
+  <dimension ref="A1:H983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
-      <selection activeCell="A972" sqref="A972"/>
+    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+      <selection activeCell="A978" sqref="A978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35319,7 +35405,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G977" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G983" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35375,7 +35461,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A977" si="31">A964+1</f>
+        <f t="shared" ref="A965:A983" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -35565,7 +35651,7 @@
       <c r="E972" t="s">
         <v>3570</v>
       </c>
-      <c r="F972" s="4" t="s">
+      <c r="F972" t="s">
         <v>3581</v>
       </c>
       <c r="G972" s="3" t="str">
@@ -35590,7 +35676,7 @@
       <c r="E973" t="s">
         <v>3233</v>
       </c>
-      <c r="F973" s="4" t="s">
+      <c r="F973" t="s">
         <v>3582</v>
       </c>
       <c r="G973" s="3" t="str">
@@ -35615,7 +35701,7 @@
       <c r="E974" t="s">
         <v>3574</v>
       </c>
-      <c r="F974" s="4" t="s">
+      <c r="F974" t="s">
         <v>3583</v>
       </c>
       <c r="G974" s="3" t="str">
@@ -35640,7 +35726,7 @@
       <c r="E975" t="s">
         <v>3490</v>
       </c>
-      <c r="F975" s="4" t="s">
+      <c r="F975" t="s">
         <v>3584</v>
       </c>
       <c r="G975" s="3" t="str">
@@ -35665,7 +35751,7 @@
       <c r="E976" t="s">
         <v>3578</v>
       </c>
-      <c r="F976" s="4" t="s">
+      <c r="F976" t="s">
         <v>3585</v>
       </c>
       <c r="G976" s="3" t="str">
@@ -35696,6 +35782,156 @@
       <c r="G977" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/stratigraphy.html#PerazaT2000</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <f t="shared" si="31"/>
+        <v>977</v>
+      </c>
+      <c r="B978" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C978" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D978">
+        <v>2021</v>
+      </c>
+      <c r="E978" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F978" s="4" t="s">
+        <v>3602</v>
+      </c>
+      <c r="G978" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CarrilloJDetal2021</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <f t="shared" si="31"/>
+        <v>978</v>
+      </c>
+      <c r="B979" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C979" t="s">
+        <v>449</v>
+      </c>
+      <c r="D979">
+        <v>2024</v>
+      </c>
+      <c r="E979" t="s">
+        <v>3591</v>
+      </c>
+      <c r="F979" s="4" t="s">
+        <v>3603</v>
+      </c>
+      <c r="G979" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2024a</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <f t="shared" si="31"/>
+        <v>979</v>
+      </c>
+      <c r="B980" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C980" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D980">
+        <v>1994</v>
+      </c>
+      <c r="E980" t="s">
+        <v>3594</v>
+      </c>
+      <c r="F980" s="4" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G980" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/maps.html#WynnJCetal1994</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <f t="shared" si="31"/>
+        <v>980</v>
+      </c>
+      <c r="B981" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C981" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D981">
+        <v>1997</v>
+      </c>
+      <c r="E981" t="s">
+        <v>3597</v>
+      </c>
+      <c r="F981" s="4" t="s">
+        <v>3605</v>
+      </c>
+      <c r="G981" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CasasJEMoodyJM1997</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <f t="shared" si="31"/>
+        <v>981</v>
+      </c>
+      <c r="B982" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C982" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D982">
+        <v>1983</v>
+      </c>
+      <c r="E982" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F982" s="4" t="s">
+        <v>3606</v>
+      </c>
+      <c r="G982" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#SchubertCetal1983</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <f t="shared" si="31"/>
+        <v>982</v>
+      </c>
+      <c r="B983" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C983" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D983">
+        <v>1997</v>
+      </c>
+      <c r="E983" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F983" s="4" t="s">
+        <v>3607</v>
+      </c>
+      <c r="G983" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PerazaT1997b</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E85D4D-6286-4CBE-97DB-4BEA1A723869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FDE00-A075-4C3B-BD3D-0C25CD1B2AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="3608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="3632">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11041,6 +11041,78 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#PerazaT1997b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo geológico y tiempo humano: El tiempo del universo y el tiempo de la conciencia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Ortuňo Arzate </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Suplemento Junio 2025, pp. 39 – 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedimentación y tectónica del frente de montañas y de la faja piemontina de la región de Boca de Uchire, Estado Anzoátegui. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Campos y Saúl Osuna </t>
+  </si>
+  <si>
+    <t>V Congreso Geológico Venezolano, Memorias, Tomo V, 1977, pp. 159 – 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristl Palme. Vida y obra de Cristl Palme, física y sismóloga. </t>
+  </si>
+  <si>
+    <t>José Antonio Rodríguez Arteaga y Alejandra F. Leal Guzmán</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Julio 2025</t>
+  </si>
+  <si>
+    <t>Hidrógeno, perspectivas de almacenamiento subterráneo.</t>
+  </si>
+  <si>
+    <t>Dávila Serrano, M.; Martín, C.; Meléndez, A.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Suplemento Junio 2025, pp. 7 – 22</t>
+  </si>
+  <si>
+    <t>Geologic map of Venezuela, part of the Río Mavaca 2 x 3 Quadrangle, Amazonas, Federal Territory, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wynn, J. C.; Olmon, S. D.; Mendoza, V.; García, A.; Martínez, M.; Schruben, P. </t>
+  </si>
+  <si>
+    <t>U. S. Geological Survey, U.S. Department of the Interior. Preparado en colaboración con la Corporación Venezolana de Guayana, Técnica Minera C. A. 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología y Minería de los depósitos de magnesita de la Isla de Margarita. </t>
+  </si>
+  <si>
+    <t>José Pantín Herrera 1967</t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volumen 10, Número 3, Marzo 1967</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#OrtunoS2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#CamposVOsunaS1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodrigezJALealAF2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#DavilaMMelendezA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#WynnJCetal1994a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#PantinJ1967</t>
   </si>
 </sst>
 </file>
@@ -11434,10 +11506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H983"/>
+  <dimension ref="A1:H989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
-      <selection activeCell="A978" sqref="A978"/>
+    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="A984" sqref="A984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35405,7 +35477,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G983" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G989" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35461,7 +35533,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A983" si="31">A964+1</f>
+        <f t="shared" ref="A965:A989" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -35776,7 +35848,7 @@
       <c r="E977" t="s">
         <v>3580</v>
       </c>
-      <c r="F977" s="4" t="s">
+      <c r="F977" t="s">
         <v>3586</v>
       </c>
       <c r="G977" s="3" t="str">
@@ -35801,7 +35873,7 @@
       <c r="E978" t="s">
         <v>3589</v>
       </c>
-      <c r="F978" s="4" t="s">
+      <c r="F978" t="s">
         <v>3602</v>
       </c>
       <c r="G978" s="3" t="str">
@@ -35826,7 +35898,7 @@
       <c r="E979" t="s">
         <v>3591</v>
       </c>
-      <c r="F979" s="4" t="s">
+      <c r="F979" t="s">
         <v>3603</v>
       </c>
       <c r="G979" s="3" t="str">
@@ -35851,7 +35923,7 @@
       <c r="E980" t="s">
         <v>3594</v>
       </c>
-      <c r="F980" s="4" t="s">
+      <c r="F980" t="s">
         <v>3604</v>
       </c>
       <c r="G980" s="3" t="str">
@@ -35876,7 +35948,7 @@
       <c r="E981" t="s">
         <v>3597</v>
       </c>
-      <c r="F981" s="4" t="s">
+      <c r="F981" t="s">
         <v>3605</v>
       </c>
       <c r="G981" s="3" t="str">
@@ -35901,7 +35973,7 @@
       <c r="E982" t="s">
         <v>3600</v>
       </c>
-      <c r="F982" s="4" t="s">
+      <c r="F982" t="s">
         <v>3606</v>
       </c>
       <c r="G982" s="3" t="str">
@@ -35926,12 +35998,162 @@
       <c r="E983" t="s">
         <v>3559</v>
       </c>
-      <c r="F983" s="4" t="s">
+      <c r="F983" t="s">
         <v>3607</v>
       </c>
       <c r="G983" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/stratigraphy.html#PerazaT1997b</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <f t="shared" si="31"/>
+        <v>983</v>
+      </c>
+      <c r="B984" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C984" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D984">
+        <v>2025</v>
+      </c>
+      <c r="E984" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F984" s="4" t="s">
+        <v>3626</v>
+      </c>
+      <c r="G984" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#OrtunoS2025</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <f t="shared" si="31"/>
+        <v>984</v>
+      </c>
+      <c r="B985" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C985" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D985">
+        <v>1997</v>
+      </c>
+      <c r="E985" t="s">
+        <v>3613</v>
+      </c>
+      <c r="F985" s="4" t="s">
+        <v>3627</v>
+      </c>
+      <c r="G985" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#CamposVOsunaS1977</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <f t="shared" si="31"/>
+        <v>985</v>
+      </c>
+      <c r="B986" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C986" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D986">
+        <v>2025</v>
+      </c>
+      <c r="E986" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F986" s="4" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G986" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodrigezJALealAF2025</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <f t="shared" si="31"/>
+        <v>986</v>
+      </c>
+      <c r="B987" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C987" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D987">
+        <v>2025</v>
+      </c>
+      <c r="E987" t="s">
+        <v>3619</v>
+      </c>
+      <c r="F987" s="4" t="s">
+        <v>3629</v>
+      </c>
+      <c r="G987" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#DavilaMMelendezA2025</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <f t="shared" si="31"/>
+        <v>987</v>
+      </c>
+      <c r="B988" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C988" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D988">
+        <v>1994</v>
+      </c>
+      <c r="E988" t="s">
+        <v>3622</v>
+      </c>
+      <c r="F988" s="4" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G988" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/maps.html#WynnJCetal1994a</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <f t="shared" si="31"/>
+        <v>988</v>
+      </c>
+      <c r="B989" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C989" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D989">
+        <v>1967</v>
+      </c>
+      <c r="E989" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F989" s="4" t="s">
+        <v>3631</v>
+      </c>
+      <c r="G989" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/minerals.html#PantinJ1967</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FDE00-A075-4C3B-BD3D-0C25CD1B2AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5213C-1665-470D-BCBB-4299CC00313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="3632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="3657">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11113,6 +11113,81 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#PantinJ1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastón Siroit </t>
+  </si>
+  <si>
+    <t>OLADE 2024</t>
+  </si>
+  <si>
+    <t>Estratigrafía Secuencial del Oligoceno – Mioceno, bloques Oritupano – Leona y Mata – Acema, área Mayor de Oficina, Cuenca Oriental de Venezuela.</t>
+  </si>
+  <si>
+    <t>Jesús Salvador Porras Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los minerales críticos para las transiciones energéticas de América Latina y del Caribe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartografía geoquímica de Venezuela. Parte 1. Elementos: Si, Al, Fe, Mg, Ca, Na, K, Ti, Mn y S en sedimentos fluviales finos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasquali, J.; Gutierrez, J. V.; Lira, A.; López, C. J.; Marrero, S.; Sifontes, R. S.; Tapia, J. J.; Tommaso, T., Yánez, C. </t>
+  </si>
+  <si>
+    <t>Catálogos Sismológicos de Venezuela: Una actualización.</t>
+  </si>
+  <si>
+    <t>José Antonio Rodríguez Arteaga y Alejandra Leal Guzmán</t>
+  </si>
+  <si>
+    <t>Machu Pichu. Una maravilla Inca de la arquitectura y la ingeniería, pero también de la geología.</t>
+  </si>
+  <si>
+    <t>Tesis de Grado para obtener el Magister Scientiarum en Ciencias Geológicas en la ilustre Universidad Central de Venezuela, Julio 2003</t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Volumen 25, Número 1, pp. 9 – 36, 2000</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Junio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión geológica, zona de sobrecorrimiento del norte de Guárico y Anzoátegui (Sedimentación y Tectonismo). </t>
+  </si>
+  <si>
+    <t>Campos V.; Zapata, E.; Macsotay, O.</t>
+  </si>
+  <si>
+    <t>Excursión auspiciada por la Sociedad Venezolana de Geólogos entre los días 27 al 29 de Noviembre de 1981. Guías de la excursión Víctor Campos, Eglée Zapata y Oliver Macsotay. Comisión de Excursiones: Don Kiser Víctor Campos, John DeSisto y Carlos Schubert, 1981.</t>
+  </si>
+  <si>
+    <t>Bibliografía Geológica Venezolana. Catálogo parcial (A – S) de la colección del Dr. Franco Urbani P., depositada en el Laboratorio 330 de la Escuela de Geología, Minas y Geofísica de la ilustre Universidad Central de Venezuela.</t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Historia de las Geociencias, Septiembre 2023.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#SiroitG2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PorrasJ2003</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#PasqualiJetal2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJALealA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2025a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#CamposVetal1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#FUrbaniUCV2023</t>
   </si>
 </sst>
 </file>
@@ -11506,10 +11581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H989"/>
+  <dimension ref="A1:H996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
-      <selection activeCell="A984" sqref="A984"/>
+    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
+      <selection activeCell="A990" sqref="A990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35477,7 +35552,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G989" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G996" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35533,7 +35608,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A989" si="31">A964+1</f>
+        <f t="shared" ref="A965:A996" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -36023,7 +36098,7 @@
       <c r="E984" t="s">
         <v>3610</v>
       </c>
-      <c r="F984" s="4" t="s">
+      <c r="F984" t="s">
         <v>3626</v>
       </c>
       <c r="G984" s="3" t="str">
@@ -36048,7 +36123,7 @@
       <c r="E985" t="s">
         <v>3613</v>
       </c>
-      <c r="F985" s="4" t="s">
+      <c r="F985" t="s">
         <v>3627</v>
       </c>
       <c r="G985" s="3" t="str">
@@ -36073,7 +36148,7 @@
       <c r="E986" t="s">
         <v>3616</v>
       </c>
-      <c r="F986" s="4" t="s">
+      <c r="F986" t="s">
         <v>3628</v>
       </c>
       <c r="G986" s="3" t="str">
@@ -36098,7 +36173,7 @@
       <c r="E987" t="s">
         <v>3619</v>
       </c>
-      <c r="F987" s="4" t="s">
+      <c r="F987" t="s">
         <v>3629</v>
       </c>
       <c r="G987" s="3" t="str">
@@ -36123,7 +36198,7 @@
       <c r="E988" t="s">
         <v>3622</v>
       </c>
-      <c r="F988" s="4" t="s">
+      <c r="F988" t="s">
         <v>3630</v>
       </c>
       <c r="G988" s="3" t="str">
@@ -36148,12 +36223,184 @@
       <c r="E989" t="s">
         <v>3625</v>
       </c>
-      <c r="F989" s="4" t="s">
+      <c r="F989" t="s">
         <v>3631</v>
       </c>
       <c r="G989" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/minerals.html#PantinJ1967</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <f t="shared" si="31"/>
+        <v>989</v>
+      </c>
+      <c r="B990" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C990" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D990">
+        <v>2024</v>
+      </c>
+      <c r="E990" t="s">
+        <v>3633</v>
+      </c>
+      <c r="F990" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="G990" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/minerals.html#SiroitG2024</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <f t="shared" si="31"/>
+        <v>990</v>
+      </c>
+      <c r="B991" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C991" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D991">
+        <v>2003</v>
+      </c>
+      <c r="E991" t="s">
+        <v>3642</v>
+      </c>
+      <c r="F991" s="4" t="s">
+        <v>3651</v>
+      </c>
+      <c r="G991" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PorrasJ2003</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <f t="shared" si="31"/>
+        <v>991</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D992">
+        <v>2000</v>
+      </c>
+      <c r="E992" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F992" s="4" t="s">
+        <v>3652</v>
+      </c>
+      <c r="G992" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/geochemistry.html#PasqualiJetal2000</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <f t="shared" si="31"/>
+        <v>992</v>
+      </c>
+      <c r="B993" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C993" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D993">
+        <v>2025</v>
+      </c>
+      <c r="E993" t="s">
+        <v>3644</v>
+      </c>
+      <c r="F993" s="4" t="s">
+        <v>3653</v>
+      </c>
+      <c r="G993" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJALealA2025</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <f t="shared" si="31"/>
+        <v>993</v>
+      </c>
+      <c r="B994" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C994" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D994">
+        <v>2025</v>
+      </c>
+      <c r="E994" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F994" s="4" t="s">
+        <v>3654</v>
+      </c>
+      <c r="G994" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025a</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <f t="shared" si="31"/>
+        <v>994</v>
+      </c>
+      <c r="B995" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C995" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D995">
+        <v>1981</v>
+      </c>
+      <c r="E995" t="s">
+        <v>3647</v>
+      </c>
+      <c r="F995" s="4" t="s">
+        <v>3655</v>
+      </c>
+      <c r="G995" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#CamposVetal1981</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <f t="shared" si="31"/>
+        <v>995</v>
+      </c>
+      <c r="B996" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D996">
+        <v>2023</v>
+      </c>
+      <c r="E996" t="s">
+        <v>3649</v>
+      </c>
+      <c r="F996" s="4" t="s">
+        <v>3656</v>
+      </c>
+      <c r="G996" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#FUrbaniUCV2023</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F5213C-1665-470D-BCBB-4299CC00313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35680B6-0255-41B2-99C1-213E48BC79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="3657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3683">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11188,6 +11188,84 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#FUrbaniUCV2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canacol Energy and Lewis Energy – Hocol Discoveries 2023, support predictive corridor model to find new oil and gas reservoirs. Sinu San Jacinto SSJJ, and Valle Inferior del Magdalena VIM Basin, Colombia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edison Alvarez </t>
+  </si>
+  <si>
+    <t>Trabajo enviado gentilmente por Edison Alvarez a Notas de Geología de Venezuela, Julio 2025. Paper kindly sent by Edison Alvarez to Notas de Geología de Venezuela, July 2025</t>
+  </si>
+  <si>
+    <t>Historia Gráfica de la Arqueología en Venezuela.</t>
+  </si>
+  <si>
+    <t>Lino Meneses Pacheco y Gladys Gordones Rojas</t>
+  </si>
+  <si>
+    <t>Museo Arqueológico Gonzalo Rincón Gutierrez, Universidad de Los Andes. Ediciones Dabánatáá, 2007.</t>
+  </si>
+  <si>
+    <t>Integración Estratigráfica Secuencial del Miembro Guardulio (Formación Guafita), Mioceno Inferior, Campo Guafita, Estado Apure, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esdras Rodríguez y Jhonny Edgar Casas </t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Caracas, Número 67, Abril – Junio 2025, pp. 11 – 30.</t>
+  </si>
+  <si>
+    <t>: Cornelie Marguerite Bramine Caudri (1904 – 1991): the Caribbean’s micropaleontologist.</t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Caracas, Número 67, Abril – Junio 2025, pp. 31 – 57</t>
+  </si>
+  <si>
+    <t>Historia de los estudios de Ingeniería de Minas en la Universidad Central de Venezuela.</t>
+  </si>
+  <si>
+    <t>Falcón, M. A.; Barboza, L.; Silva – Aguilera, C.; Marín, O.</t>
+  </si>
+  <si>
+    <t>67 Aniversario del Departamento de Minas de la ilustre Universidad Central de Venezuela. Trabajo presentado durante las X Jornadas Venezolanas de Historia de las Geociencias 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geología de la localidad de El Vínculo – Las Camaraguas, Península de Paraguaná, Venezuela. </t>
+  </si>
+  <si>
+    <t>Reporte inédito de Tulio Peraza para el Código Estratigráfico de Venezuela, 1997.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neotectónica de las fallas de Boconó, Valera, Turame y Mene Grande. </t>
+  </si>
+  <si>
+    <t>Singer, A.; Beltrán, C.; Lugo, M.</t>
+  </si>
+  <si>
+    <t>Excursión realizada gracias a las contribuciones de INTEVEP S.A., Maraven S.A. y FUNVISIS. Octubre 1986</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#AlvarezA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MenesesLGordonesG2007</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#RodriguezECasasJE2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#BaritoI2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#FalconMetal2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PerazaT1997a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#SingerAetal1986</t>
   </si>
 </sst>
 </file>
@@ -11581,10 +11659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H996"/>
+  <dimension ref="A1:H1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A980" workbookViewId="0">
-      <selection activeCell="A990" sqref="A990"/>
+    <sheetView tabSelected="1" topLeftCell="A989" workbookViewId="0">
+      <selection activeCell="A997" sqref="A997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35552,7 +35630,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G996" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G1003" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35608,7 +35686,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A996" si="31">A964+1</f>
+        <f t="shared" ref="A965:A1003" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -36248,7 +36326,7 @@
       <c r="E990" t="s">
         <v>3633</v>
       </c>
-      <c r="F990" s="4" t="s">
+      <c r="F990" t="s">
         <v>3650</v>
       </c>
       <c r="G990" s="3" t="str">
@@ -36273,7 +36351,7 @@
       <c r="E991" t="s">
         <v>3642</v>
       </c>
-      <c r="F991" s="4" t="s">
+      <c r="F991" t="s">
         <v>3651</v>
       </c>
       <c r="G991" s="3" t="str">
@@ -36298,7 +36376,7 @@
       <c r="E992" t="s">
         <v>3643</v>
       </c>
-      <c r="F992" s="4" t="s">
+      <c r="F992" t="s">
         <v>3652</v>
       </c>
       <c r="G992" s="3" t="str">
@@ -36323,7 +36401,7 @@
       <c r="E993" t="s">
         <v>3644</v>
       </c>
-      <c r="F993" s="4" t="s">
+      <c r="F993" t="s">
         <v>3653</v>
       </c>
       <c r="G993" s="3" t="str">
@@ -36348,7 +36426,7 @@
       <c r="E994" t="s">
         <v>3616</v>
       </c>
-      <c r="F994" s="4" t="s">
+      <c r="F994" t="s">
         <v>3654</v>
       </c>
       <c r="G994" s="3" t="str">
@@ -36373,7 +36451,7 @@
       <c r="E995" t="s">
         <v>3647</v>
       </c>
-      <c r="F995" s="4" t="s">
+      <c r="F995" t="s">
         <v>3655</v>
       </c>
       <c r="G995" s="3" t="str">
@@ -36395,12 +36473,187 @@
       <c r="E996" t="s">
         <v>3649</v>
       </c>
-      <c r="F996" s="4" t="s">
+      <c r="F996" t="s">
         <v>3656</v>
       </c>
       <c r="G996" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/biography.html#FUrbaniUCV2023</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <f t="shared" si="31"/>
+        <v>996</v>
+      </c>
+      <c r="B997" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C997" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D997">
+        <v>2025</v>
+      </c>
+      <c r="E997" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F997" s="4" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G997" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#AlvarezA2025</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <f t="shared" si="31"/>
+        <v>997</v>
+      </c>
+      <c r="B998" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C998" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D998">
+        <v>2007</v>
+      </c>
+      <c r="E998" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F998" s="4" t="s">
+        <v>3677</v>
+      </c>
+      <c r="G998" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#MenesesLGordonesG2007</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <f t="shared" si="31"/>
+        <v>998</v>
+      </c>
+      <c r="B999" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C999" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D999">
+        <v>2025</v>
+      </c>
+      <c r="E999" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F999" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="G999" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#RodriguezECasasJE2025</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <f t="shared" si="31"/>
+        <v>999</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>3666</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1000">
+        <v>2025</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>3667</v>
+      </c>
+      <c r="F1000" s="4" t="s">
+        <v>3679</v>
+      </c>
+      <c r="G1000" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#BaritoI2025</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <f t="shared" si="31"/>
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D1001">
+        <v>2023</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>3670</v>
+      </c>
+      <c r="F1001" s="4" t="s">
+        <v>3680</v>
+      </c>
+      <c r="G1001" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#FalconMetal2023</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <f t="shared" si="31"/>
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1002">
+        <v>1997</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F1002" s="4" t="s">
+        <v>3681</v>
+      </c>
+      <c r="G1002" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PerazaT1997a</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <f t="shared" si="31"/>
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D1003">
+        <v>1986</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F1003" s="4" t="s">
+        <v>3682</v>
+      </c>
+      <c r="G1003" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#SingerAetal1986</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35680B6-0255-41B2-99C1-213E48BC79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D993B55-F5BD-498F-8E1F-9CE0F3BFA183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -11217,9 +11217,6 @@
     <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Caracas, Número 67, Abril – Junio 2025, pp. 11 – 30.</t>
   </si>
   <si>
-    <t>: Cornelie Marguerite Bramine Caudri (1904 – 1991): the Caribbean’s micropaleontologist.</t>
-  </si>
-  <si>
     <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Caracas, Número 67, Abril – Junio 2025, pp. 31 – 57</t>
   </si>
   <si>
@@ -11266,6 +11263,9 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/excursions.html#SingerAetal1986</t>
+  </si>
+  <si>
+    <t>Cornelie Marguerite Bramine Caudri (1904 – 1991): the Caribbean’s micropaleontologist.</t>
   </si>
 </sst>
 </file>
@@ -11338,12 +11338,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11662,7 +11661,7 @@
   <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A989" workbookViewId="0">
-      <selection activeCell="A997" sqref="A997"/>
+      <selection activeCell="B1000" sqref="B1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36498,8 +36497,8 @@
       <c r="E997" t="s">
         <v>3659</v>
       </c>
-      <c r="F997" s="4" t="s">
-        <v>3676</v>
+      <c r="F997" t="s">
+        <v>3675</v>
       </c>
       <c r="G997" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36523,8 +36522,8 @@
       <c r="E998" t="s">
         <v>3662</v>
       </c>
-      <c r="F998" s="4" t="s">
-        <v>3677</v>
+      <c r="F998" t="s">
+        <v>3676</v>
       </c>
       <c r="G998" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36548,8 +36547,8 @@
       <c r="E999" t="s">
         <v>3665</v>
       </c>
-      <c r="F999" s="4" t="s">
-        <v>3678</v>
+      <c r="F999" t="s">
+        <v>3677</v>
       </c>
       <c r="G999" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36562,7 +36561,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="s">
-        <v>3666</v>
+        <v>3682</v>
       </c>
       <c r="C1000" t="s">
         <v>1378</v>
@@ -36571,10 +36570,10 @@
         <v>2025</v>
       </c>
       <c r="E1000" t="s">
-        <v>3667</v>
-      </c>
-      <c r="F1000" s="4" t="s">
-        <v>3679</v>
+        <v>3666</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>3678</v>
       </c>
       <c r="G1000" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36587,19 +36586,19 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C1001" t="s">
         <v>3668</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>3669</v>
       </c>
       <c r="D1001">
         <v>2023</v>
       </c>
       <c r="E1001" t="s">
-        <v>3670</v>
-      </c>
-      <c r="F1001" s="4" t="s">
-        <v>3680</v>
+        <v>3669</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>3679</v>
       </c>
       <c r="G1001" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36612,7 +36611,7 @@
         <v>1001</v>
       </c>
       <c r="B1002" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="C1002" t="s">
         <v>2599</v>
@@ -36621,10 +36620,10 @@
         <v>1997</v>
       </c>
       <c r="E1002" t="s">
-        <v>3672</v>
-      </c>
-      <c r="F1002" s="4" t="s">
-        <v>3681</v>
+        <v>3671</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>3680</v>
       </c>
       <c r="G1002" s="3" t="str">
         <f t="shared" si="30"/>
@@ -36637,19 +36636,19 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C1003" t="s">
         <v>3673</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>3674</v>
       </c>
       <c r="D1003">
         <v>1986</v>
       </c>
       <c r="E1003" t="s">
-        <v>3675</v>
-      </c>
-      <c r="F1003" s="4" t="s">
-        <v>3682</v>
+        <v>3674</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>3681</v>
       </c>
       <c r="G1003" s="3" t="str">
         <f t="shared" si="30"/>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D993B55-F5BD-498F-8E1F-9CE0F3BFA183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B109D-98E6-4B0A-B557-9479B9146CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="3683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="3707">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11266,6 +11266,78 @@
   </si>
   <si>
     <t>Cornelie Marguerite Bramine Caudri (1904 – 1991): the Caribbean’s micropaleontologist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo desarrollo científico, tecnológico e innovador para Venezuela. Reflexiones y propuestas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Manuel Martínez </t>
+  </si>
+  <si>
+    <t>Academia Nacional de la Ingeniería y el Hábitat, República Bolivariana de Venezuela, Caracas, 82 p. Marzo 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Memoriam: Carlos Galán Vásquez (1949 – 2023). </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Septiembre 2023</t>
+  </si>
+  <si>
+    <t>Tabla del Tiempo Geológico.</t>
+  </si>
+  <si>
+    <t>Ángel Caballero García de Arévalo</t>
+  </si>
+  <si>
+    <t>CSIC. Instituto Andaluz de Ciencias de la Tierra (IACT), España, Noviembre 2015</t>
+  </si>
+  <si>
+    <t>Toas Island: a unique geological treasure in Western Venezuela.</t>
+  </si>
+  <si>
+    <t>Jesús S. Porras M</t>
+  </si>
+  <si>
+    <t>Presentación cortesía de Jesús S. Porras 2022</t>
+  </si>
+  <si>
+    <t>Thomas Carroll Wilson (1906 – 1969). La vida de un geólogo pionero y sus exploraciones en Venezuela y en Colombia.</t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Número 66, Caracas, pp. 89 – 101, Enero - Marzo 2025</t>
+  </si>
+  <si>
+    <t>Sostenibilidad en la transición energética. ¿Es el litio todavía un cuello de botella para la transición energética?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia Silva Cruz </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Agosto 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noticias sobre minería ilegal de oro en Yaracuy (2018 – 2020). Recopilado de medios noticiosos digitales. </t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Septiembre 2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MartinezJM2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/correlation.html#CaballeroA2015</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#PorrasJS2022</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#SilvaN2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#UrbaniF2023</t>
   </si>
 </sst>
 </file>
@@ -11338,11 +11410,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11658,10 +11731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1003"/>
+  <dimension ref="A1:H1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A989" workbookViewId="0">
-      <selection activeCell="B1000" sqref="B1000"/>
+    <sheetView tabSelected="1" topLeftCell="A998" workbookViewId="0">
+      <selection activeCell="A1004" sqref="A1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35629,7 +35702,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G1003" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G1010" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35685,7 +35758,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A1003" si="31">A964+1</f>
+        <f t="shared" ref="A965:A1010" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -36653,6 +36726,181 @@
       <c r="G1003" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/excursions.html#SingerAetal1986</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <f t="shared" si="31"/>
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D1004">
+        <v>2025</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F1004" s="4" t="s">
+        <v>3701</v>
+      </c>
+      <c r="G1004" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#MartinezJM2025</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <f t="shared" si="31"/>
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1005">
+        <v>2023</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>3687</v>
+      </c>
+      <c r="F1005" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="G1005" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2023</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <f t="shared" si="31"/>
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D1006">
+        <v>2015</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F1006" s="4" t="s">
+        <v>3703</v>
+      </c>
+      <c r="G1006" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/correlation.html#CaballeroA2015</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <f t="shared" si="31"/>
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D1007">
+        <v>2022</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>3693</v>
+      </c>
+      <c r="F1007" s="4" t="s">
+        <v>3704</v>
+      </c>
+      <c r="G1007" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#PorrasJS2022</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <f t="shared" si="31"/>
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1008">
+        <v>2025</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>3695</v>
+      </c>
+      <c r="F1008" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="G1008" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#CasasJE2025</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <f t="shared" si="31"/>
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D1009">
+        <v>2025</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1009" s="4" t="s">
+        <v>3705</v>
+      </c>
+      <c r="G1009" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/minerals.html#SilvaN2025</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <f t="shared" si="31"/>
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1010">
+        <v>2023</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F1010" s="4" t="s">
+        <v>3706</v>
+      </c>
+      <c r="G1010" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/minerals.html#UrbaniF2023</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6B109D-98E6-4B0A-B557-9479B9146CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919E570-ACC6-4418-9428-946069B72308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="3707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="3732">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11338,6 +11338,81 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/minerals.html#UrbaniF2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidite Systems: An outcrop – based analysis. </t>
+  </si>
+  <si>
+    <t>Emiliano Mutti</t>
+  </si>
+  <si>
+    <t>Petrología de los cuerpos ígneo – metamórficos de la Península de la Guajira, Isla de Toas y Archipiélago de Los Monjes, Estado Zulia y Dependencias Federales.</t>
+  </si>
+  <si>
+    <t>Manuel Azancot R.</t>
+  </si>
+  <si>
+    <t>Biomarcadores. Aplicaciones en la geoquímica del petróleo. Segunda Edición.</t>
+  </si>
+  <si>
+    <t>Liliana Lopez</t>
+  </si>
+  <si>
+    <t>Academia de Ciencias Físicas, Matemáticas y Naturales, Trabajo de Incorporación 2025</t>
+  </si>
+  <si>
+    <t>Petrobras first publication in 2023, Río de Janeiro, Brazil</t>
+  </si>
+  <si>
+    <t>Trabajo Especial de Grado presentado ante la ilustre Universidad Central de Venezuela para obtener el título de Ingeniero Geólogo, Noviembre 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paleoantropología. Evolución de los Homínidos. </t>
+  </si>
+  <si>
+    <t>Angel Caballero García de Arévalo</t>
+  </si>
+  <si>
+    <t>CSIC. Instituto Andaluz de Ciencias de la Tierra (IACT), Espaňa, Mayo 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Antropoceno: Será la última época de la historia geológica de la Tierra. La crisis ambiental: ¿Problemática Geológica ó Humana? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Ortuño Arzate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vida y obra profesional de Oswaldo De Sola Ricardo (1922 – 2014): Una visión personal. </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Febrero 2023</t>
+  </si>
+  <si>
+    <t>ANARTIA. Publicación del Museo de Biología de la Universidad del Zulia. ANARTIA 35, Diciembre 2022, pp. 46 – 53</t>
+  </si>
+  <si>
+    <t>Different lives in one. A collection of memories: Reseña</t>
+  </si>
+  <si>
+    <t>Viloria, A.L.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MutiE2023</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/igneous.html#AzancotM2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#LopezL2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CaballeroA2018</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#OrtunoS2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MoodyJM2022</t>
   </si>
 </sst>
 </file>
@@ -11731,10 +11806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1010"/>
+  <dimension ref="A1:H1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A998" workbookViewId="0">
-      <selection activeCell="A1004" sqref="A1004"/>
+    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
+      <selection activeCell="A1011" sqref="A1011"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35702,7 +35777,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G1010" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G1017" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35758,7 +35833,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A1010" si="31">A964+1</f>
+        <f t="shared" ref="A965:A1017" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -36745,7 +36820,7 @@
       <c r="E1004" t="s">
         <v>3685</v>
       </c>
-      <c r="F1004" s="4" t="s">
+      <c r="F1004" t="s">
         <v>3701</v>
       </c>
       <c r="G1004" s="3" t="str">
@@ -36770,7 +36845,7 @@
       <c r="E1005" t="s">
         <v>3687</v>
       </c>
-      <c r="F1005" s="4" t="s">
+      <c r="F1005" t="s">
         <v>3702</v>
       </c>
       <c r="G1005" s="3" t="str">
@@ -36795,7 +36870,7 @@
       <c r="E1006" t="s">
         <v>3690</v>
       </c>
-      <c r="F1006" s="4" t="s">
+      <c r="F1006" t="s">
         <v>3703</v>
       </c>
       <c r="G1006" s="3" t="str">
@@ -36820,7 +36895,7 @@
       <c r="E1007" t="s">
         <v>3693</v>
       </c>
-      <c r="F1007" s="4" t="s">
+      <c r="F1007" t="s">
         <v>3704</v>
       </c>
       <c r="G1007" s="3" t="str">
@@ -36845,7 +36920,7 @@
       <c r="E1008" t="s">
         <v>3695</v>
       </c>
-      <c r="F1008" s="4" t="s">
+      <c r="F1008" t="s">
         <v>3156</v>
       </c>
       <c r="G1008" s="3" t="str">
@@ -36870,7 +36945,7 @@
       <c r="E1009" t="s">
         <v>3698</v>
       </c>
-      <c r="F1009" s="4" t="s">
+      <c r="F1009" t="s">
         <v>3705</v>
       </c>
       <c r="G1009" s="3" t="str">
@@ -36895,12 +36970,187 @@
       <c r="E1010" t="s">
         <v>3700</v>
       </c>
-      <c r="F1010" s="4" t="s">
+      <c r="F1010" t="s">
         <v>3706</v>
       </c>
       <c r="G1010" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/minerals.html#UrbaniF2023</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <f t="shared" si="31"/>
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D1011">
+        <v>2023</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F1011" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="G1011" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MutiE2023</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <f t="shared" si="31"/>
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D1012">
+        <v>2008</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>3715</v>
+      </c>
+      <c r="F1012" s="4" t="s">
+        <v>3727</v>
+      </c>
+      <c r="G1012" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/igneous.html#AzancotM2008</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <f t="shared" si="31"/>
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D1013">
+        <v>2025</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F1013" s="4" t="s">
+        <v>3728</v>
+      </c>
+      <c r="G1013" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/geochemistry.html#LopezL2025</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <f t="shared" si="31"/>
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1014">
+        <v>2018</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>3718</v>
+      </c>
+      <c r="F1014" s="4" t="s">
+        <v>3729</v>
+      </c>
+      <c r="G1014" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#CaballeroA2018</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <f t="shared" si="31"/>
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1015">
+        <v>2025</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1015" s="4" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G1015" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/ecology.html#OrtunoS2025</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <f t="shared" si="31"/>
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D1016">
+        <v>2023</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>3722</v>
+      </c>
+      <c r="F1016" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="G1016" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2023</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <f t="shared" si="31"/>
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D1017">
+        <v>2022</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>3723</v>
+      </c>
+      <c r="F1017" s="4" t="s">
+        <v>3731</v>
+      </c>
+      <c r="G1017" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#MoodyJM2022</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919E570-ACC6-4418-9428-946069B72308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BCE7A-0A62-4FD3-9270-6686695D51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="3732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="3758">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11413,6 +11413,84 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#MoodyJM2022</t>
+  </si>
+  <si>
+    <t>Field trip to The Rinconada Group. Guide of Excursion L-1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. V. Maresh </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela. Memorias 1972, pp. 20 – 21</t>
+  </si>
+  <si>
+    <t>Caracterización sedimentológica y geoquímica de las arenas productoras del Mioceno Inferior en el área de Pato, Cuenca Oriental de Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoudi, M.; Riverón de Gruber, I.; Sequera, Z.; Aquino, R. </t>
+  </si>
+  <si>
+    <t>Poster, PDVSA Exploración, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigación en geoquímica orgánica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana López </t>
+  </si>
+  <si>
+    <t>Academia de Ciencias Físicas, Matemáticas y Naturales. Trabajo de Incorporación 2025</t>
+  </si>
+  <si>
+    <t>Mount Vesuvius. A monument to nature’s raw power and humanity vulnerability.</t>
+  </si>
+  <si>
+    <t>Jhony E, Casas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa de unidades Cuaternarias en la Península de Paraguaná. </t>
+  </si>
+  <si>
+    <t>Modificado de Audemard</t>
+  </si>
+  <si>
+    <t>Código Geológico de Venezuela 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El petróleo en la Toponimia Americana. </t>
+  </si>
+  <si>
+    <t>Luis García Mata</t>
+  </si>
+  <si>
+    <t>Fondo Editorial del Caribe. Gobierno del Estado Anzoátegui, Venezuela</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#MareshMV1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MahmoudiMetal2000</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#LopezL2025a</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/maps.html#Audemard1996</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#GarciaL2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedimentos del Terciario Superior y Cuaternario del sur de la Península de Macanao. Guía de la excursión L-4. </t>
+  </si>
+  <si>
+    <t>Claus Graf</t>
+  </si>
+  <si>
+    <t>: VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela, Memorias 1972, pp. 28 – 32</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#GrafC1972</t>
   </si>
 </sst>
 </file>
@@ -11806,10 +11884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1017"/>
+  <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1006" workbookViewId="0">
-      <selection activeCell="A1011" sqref="A1011"/>
+    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
+      <selection activeCell="A1018" sqref="A1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35777,7 +35855,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G1017" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G1024" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35833,7 +35911,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A1017" si="31">A964+1</f>
+        <f t="shared" ref="A965:A1024" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -36995,7 +37073,7 @@
       <c r="E1011" t="s">
         <v>3714</v>
       </c>
-      <c r="F1011" s="4" t="s">
+      <c r="F1011" t="s">
         <v>3726</v>
       </c>
       <c r="G1011" s="3" t="str">
@@ -37020,7 +37098,7 @@
       <c r="E1012" t="s">
         <v>3715</v>
       </c>
-      <c r="F1012" s="4" t="s">
+      <c r="F1012" t="s">
         <v>3727</v>
       </c>
       <c r="G1012" s="3" t="str">
@@ -37045,7 +37123,7 @@
       <c r="E1013" t="s">
         <v>3713</v>
       </c>
-      <c r="F1013" s="4" t="s">
+      <c r="F1013" t="s">
         <v>3728</v>
       </c>
       <c r="G1013" s="3" t="str">
@@ -37070,7 +37148,7 @@
       <c r="E1014" t="s">
         <v>3718</v>
       </c>
-      <c r="F1014" s="4" t="s">
+      <c r="F1014" t="s">
         <v>3729</v>
       </c>
       <c r="G1014" s="3" t="str">
@@ -37095,7 +37173,7 @@
       <c r="E1015" t="s">
         <v>3698</v>
       </c>
-      <c r="F1015" s="4" t="s">
+      <c r="F1015" t="s">
         <v>3730</v>
       </c>
       <c r="G1015" s="3" t="str">
@@ -37120,7 +37198,7 @@
       <c r="E1016" t="s">
         <v>3722</v>
       </c>
-      <c r="F1016" s="4" t="s">
+      <c r="F1016" t="s">
         <v>3702</v>
       </c>
       <c r="G1016" s="3" t="str">
@@ -37145,12 +37223,187 @@
       <c r="E1017" t="s">
         <v>3723</v>
       </c>
-      <c r="F1017" s="4" t="s">
+      <c r="F1017" t="s">
         <v>3731</v>
       </c>
       <c r="G1017" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/biography.html#MoodyJM2022</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <f t="shared" si="31"/>
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D1018">
+        <v>1972</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>3749</v>
+      </c>
+      <c r="G1018" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#MareshMV1972</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <f t="shared" si="31"/>
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D1019">
+        <v>2000</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>3750</v>
+      </c>
+      <c r="G1019" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MahmoudiMetal2000</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <f t="shared" si="31"/>
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D1020">
+        <v>1972</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>3756</v>
+      </c>
+      <c r="F1020" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="G1020" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/excursions.html#GrafC1972</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <f t="shared" si="31"/>
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D1021">
+        <v>2025</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>3740</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>3751</v>
+      </c>
+      <c r="G1021" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/geochemistry.html#LopezL2025a</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <f t="shared" si="31"/>
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D1022">
+        <v>2025</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>3654</v>
+      </c>
+      <c r="G1022" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025a</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <f t="shared" si="31"/>
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1023">
+        <v>1997</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>3745</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>3752</v>
+      </c>
+      <c r="G1023" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/maps.html#Audemard1996</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <f t="shared" si="31"/>
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1024">
+        <v>2009</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>3748</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G1024" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#GarciaL2009</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BCE7A-0A62-4FD3-9270-6686695D51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC5336-7675-4795-94CB-8191D26EFC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="3758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="3780">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11491,6 +11491,72 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/excursions.html#GrafC1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El problema minero y el establecimiento de una asociación minera en la Venezuela de los años 30’s. </t>
+  </si>
+  <si>
+    <t>X Jornadas de Historia de las Geociencias, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinco localidades fosilíferas de la Isla de Margarita, Venezuela oriental, </t>
+  </si>
+  <si>
+    <t>Recopilación a través del Código Estratigráfico de Venezuela, 2001</t>
+  </si>
+  <si>
+    <t>Poisoned Arrows. The history of the Motilone warriors fired curare arrows.</t>
+  </si>
+  <si>
+    <t>R. King Pettigrew</t>
+  </si>
+  <si>
+    <t>Boletín de Historia de las Geociencias en Venezuela, Número 69, Abril 2000</t>
+  </si>
+  <si>
+    <t>Sedimentología y estratigrafía comparativa en las secuencias Paleogenas aflorantes en las localidades de San Félix y San Pedro del Río, Estado Táchira, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delgado, Y.; Pinto, D.; Guerrero, O.; Guerrero, E.; Toro, R.; Mattie, E. </t>
+  </si>
+  <si>
+    <t>Geominas, Volumen 49, Número 79, Agosto 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidebook to the geology of Western Tachira. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trump, G. W.; Salvador, A. </t>
+  </si>
+  <si>
+    <t>Asociación Venezolana de Geología, Minería y Petróleo and Creole Petroleum Corporation, 24 – 26 October, 1964, Caracas, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencial daño a la red satelital si se llega a producir un impacto del asteroide 2024 YR4 contra La Luna. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los inicios de la enseñanza de la geología en Latinoamérica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor A. Ramos </t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Abril 2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#PettigrewRK1952</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#DelgadoYetal2019</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#TrumpGWSalvadorA1964</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RamosVA2025</t>
   </si>
 </sst>
 </file>
@@ -11884,10 +11950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1024"/>
+  <dimension ref="A1:H1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
-      <selection activeCell="A1018" sqref="A1018"/>
+    <sheetView tabSelected="1" topLeftCell="A1020" workbookViewId="0">
+      <selection activeCell="A1025" sqref="A1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35855,7 +35921,7 @@
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
-        <f t="shared" ref="G962:G1024" si="30">HYPERLINK(F962)</f>
+        <f t="shared" ref="G962:G1025" si="30">HYPERLINK(F962)</f>
         <v>https://mariantoc.github.io/minerals.html#SchwarckC2024</v>
       </c>
     </row>
@@ -35911,7 +35977,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965">
-        <f t="shared" ref="A965:A1024" si="31">A964+1</f>
+        <f t="shared" ref="A965:A1028" si="31">A964+1</f>
         <v>964</v>
       </c>
       <c r="B965" t="s">
@@ -37298,7 +37364,7 @@
       <c r="E1020" t="s">
         <v>3756</v>
       </c>
-      <c r="F1020" s="4" t="s">
+      <c r="F1020" t="s">
         <v>3757</v>
       </c>
       <c r="G1020" s="3" t="str">
@@ -37404,6 +37470,178 @@
       <c r="G1024" s="3" t="str">
         <f t="shared" si="30"/>
         <v>https://mariantoc.github.io/biography.html#GarciaL2009</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <f>A1024+1</f>
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1025">
+        <v>2024</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F1025" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="G1025" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2024</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <f t="shared" si="31"/>
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D1026">
+        <v>2001</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F1026" s="4" t="s">
+        <v>3775</v>
+      </c>
+      <c r="G1026" s="3" t="str">
+        <f t="shared" ref="G1026:G1031" si="32">HYPERLINK(F1026)</f>
+        <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <f t="shared" si="31"/>
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D1027">
+        <v>1952</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F1027" s="4" t="s">
+        <v>3776</v>
+      </c>
+      <c r="G1027" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#PettigrewRK1952</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <f t="shared" si="31"/>
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1028">
+        <v>2019</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F1028" s="4" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G1028" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#DelgadoYetal2019</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <f t="shared" ref="A1029:A1031" si="33">A1028+1</f>
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D1029">
+        <v>1964</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>3770</v>
+      </c>
+      <c r="F1029" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="G1029" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#TrumpGWSalvadorA1964</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <f t="shared" si="33"/>
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1030">
+        <v>2025</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1030" s="4" t="s">
+        <v>3584</v>
+      </c>
+      <c r="G1030" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025b</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <f t="shared" si="33"/>
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D1031">
+        <v>2025</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>3774</v>
+      </c>
+      <c r="F1031" s="4" t="s">
+        <v>3779</v>
+      </c>
+      <c r="G1031" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#RamosVA2025</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DC5336-7675-4795-94CB-8191D26EFC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889CA0C-BE66-47C2-AB5B-91D76FD06C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="3780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="3805">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11557,6 +11557,81 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/biography.html#RamosVA2025</t>
+  </si>
+  <si>
+    <t>Heavy oil reservoirs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis, C.; Kopper, R.; Decoster, E.; Guzmán – García, A.; Huggins, C.; Knauer, L.; Minner, M.; Kupsch, N.; Linares, L. M.; Rough, H.; Waite, M. </t>
+  </si>
+  <si>
+    <t>Oilfield Review, Autum 2002, pp. 30 – 51.</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/petrophysics.html#CurtisCetal2002</t>
+  </si>
+  <si>
+    <t>El Palafito. ¿Puede considerarse una obra de ingeniería y arquitectónica?</t>
+  </si>
+  <si>
+    <t>NotiACADING. Noticiero Digital Mensual de la Academia Nacional de la Ingeniería y el Habitat (ANIH), Número 5, Caracas, Mayo 2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#Notiacading2025</t>
+  </si>
+  <si>
+    <t>X Jornadas de Historia de las Geociencias 2023, publicado en el Boletín de la Sociedad Venezolana de Historia de las Geociencias 2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#MirandaE2024</t>
+  </si>
+  <si>
+    <t>Francisco de Miranda (1750 – 1816). Visita las minas metálicas de Escandinavia, 1787.</t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Caracas, Número 66, Enero – Marzo 2025, pp. 39 – 81</t>
+  </si>
+  <si>
+    <t>Petróleo en Venezuela</t>
+  </si>
+  <si>
+    <t>Edwin Lieuwen</t>
+  </si>
+  <si>
+    <t>Juan Pablo Pérez Alfonzo Biblioteca, Edición digital 2016. Fundación Editorial El Perro y La Rana, Centro Simón Bolívar, Gobierno Bolivariano de Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia de la carrera de minas en la UNELLEZ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Miranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field trip to Toas, San Carlos and Zapara Islands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaser, R.; Dusenbury Jr., A.N. </t>
+  </si>
+  <si>
+    <t>Shell de Venezuela and Creole Petroleum Corporation. Sociedad Geológica de Venezuela Occidental, Guidebook No. 2, April 3, 1960</t>
+  </si>
+  <si>
+    <t>Guía de la excursión geológica a la zona de Carúpano – La Esmeralda, Distrito Bermúdez y Rivero, Estado Sucre, Venezuela.</t>
+  </si>
+  <si>
+    <t>Ramón S. Sifontes y Francisco J. Seijas 1972.</t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela, Memorias 1972, pp. 38 – 43</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#LieuwenE2016</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#BlaserRDusenburyA1960</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#SifontesRSeijasF1972</t>
   </si>
 </sst>
 </file>
@@ -11950,10 +12025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1031"/>
+  <dimension ref="A1:H1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1020" workbookViewId="0">
-      <selection activeCell="A1025" sqref="A1025"/>
+    <sheetView tabSelected="1" topLeftCell="A1026" workbookViewId="0">
+      <selection activeCell="A1032" sqref="A1032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37489,7 +37564,7 @@
       <c r="E1025" t="s">
         <v>3759</v>
       </c>
-      <c r="F1025" s="4" t="s">
+      <c r="F1025" t="s">
         <v>3053</v>
       </c>
       <c r="G1025" s="3" t="str">
@@ -37511,11 +37586,11 @@
       <c r="E1026" t="s">
         <v>3761</v>
       </c>
-      <c r="F1026" s="4" t="s">
+      <c r="F1026" t="s">
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1031" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1038" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37536,7 +37611,7 @@
       <c r="E1027" t="s">
         <v>3764</v>
       </c>
-      <c r="F1027" s="4" t="s">
+      <c r="F1027" t="s">
         <v>3776</v>
       </c>
       <c r="G1027" s="3" t="str">
@@ -37561,7 +37636,7 @@
       <c r="E1028" t="s">
         <v>3767</v>
       </c>
-      <c r="F1028" s="4" t="s">
+      <c r="F1028" t="s">
         <v>3777</v>
       </c>
       <c r="G1028" s="3" t="str">
@@ -37571,7 +37646,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1031" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1038" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -37586,7 +37661,7 @@
       <c r="E1029" t="s">
         <v>3770</v>
       </c>
-      <c r="F1029" s="4" t="s">
+      <c r="F1029" t="s">
         <v>3778</v>
       </c>
       <c r="G1029" s="3" t="str">
@@ -37611,7 +37686,7 @@
       <c r="E1030" t="s">
         <v>3698</v>
       </c>
-      <c r="F1030" s="4" t="s">
+      <c r="F1030" t="s">
         <v>3584</v>
       </c>
       <c r="G1030" s="3" t="str">
@@ -37636,12 +37711,184 @@
       <c r="E1031" t="s">
         <v>3774</v>
       </c>
-      <c r="F1031" s="4" t="s">
+      <c r="F1031" t="s">
         <v>3779</v>
       </c>
       <c r="G1031" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/biography.html#RamosVA2025</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <f t="shared" si="33"/>
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D1032">
+        <v>2002</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1032" s="4" t="s">
+        <v>3783</v>
+      </c>
+      <c r="G1032" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/petrophysics.html#CurtisCetal2002</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <f t="shared" si="33"/>
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D1033">
+        <v>2025</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>3785</v>
+      </c>
+      <c r="F1033" s="4" t="s">
+        <v>3786</v>
+      </c>
+      <c r="G1033" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#Notiacading2025</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <f t="shared" si="33"/>
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D1034">
+        <v>2025</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F1034" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="G1034" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#BaritoI2025</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <f t="shared" si="33"/>
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D1035">
+        <v>2016</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F1035" s="4" t="s">
+        <v>3802</v>
+      </c>
+      <c r="G1035" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#LieuwenE2016</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <f t="shared" si="33"/>
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D1036">
+        <v>1960</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>3798</v>
+      </c>
+      <c r="F1036" s="4" t="s">
+        <v>3803</v>
+      </c>
+      <c r="G1036" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#BlaserRDusenburyA1960</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <f t="shared" si="33"/>
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D1037">
+        <v>1972</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>3801</v>
+      </c>
+      <c r="F1037" s="4" t="s">
+        <v>3804</v>
+      </c>
+      <c r="G1037" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#SifontesRSeijasF1972</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <f t="shared" si="33"/>
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D1038">
+        <v>2024</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>3787</v>
+      </c>
+      <c r="F1038" s="4" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G1038" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#MirandaE2024</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889CA0C-BE66-47C2-AB5B-91D76FD06C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8421C6D-2B69-49F4-942D-A7D438219B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
+    <workbookView xWindow="0" yWindow="948" windowWidth="21600" windowHeight="11232" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="3805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="3828">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11632,6 +11632,75 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/excursions.html#SifontesRSeijasF1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio mineralógico de los sedimentos del fondo del Golfo de Cariaco, Estado Sucre, Venezuela. </t>
+  </si>
+  <si>
+    <t>Boletín de la Sociedad Venezolana de Geólogos, Número 29, Abril 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión geológica al extremo occidental de Araya. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Vignali </t>
+  </si>
+  <si>
+    <t>VI Conferencia Geológica del Caribe, Isla de Margarita, Venezuela. Memorias, pp. 44 – 47, 1972</t>
+  </si>
+  <si>
+    <t>Los inicios del Observatorio Cajigal de Venezuela, sus estudios y el primer mapa de isosistas nacional: Octubre 29, 1900.</t>
+  </si>
+  <si>
+    <t>Nuevas posibles evidencias de rocas madres en la Cuenca Oriental de Venezuela</t>
+  </si>
+  <si>
+    <t>El Souki, N.; Huc, A. Y.; Rodríguez, J.</t>
+  </si>
+  <si>
+    <t>XI Congreso Latinoamericano de Geoquímica Orgánica, 2 – 6 de Noviembre de 2008, Isla de Margarita, Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panorama socio – económico de la minería en Venezuela (1970 – 2014) y comparaciones entre períodos gubernamentales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valladares, R.; Rojas S., A.; Mora, E.; Sandía, L. </t>
+  </si>
+  <si>
+    <t>Revista Geográfica Venezolana, Volumen 59, Número 2, pp. 412 – 432, Julio – Diciembre, 2018</t>
+  </si>
+  <si>
+    <t>Pioneros de la sismología en Venezuela en el siglo XIX: Una visión personal.</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias, Septiembre 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La automatización. Pilar fundamental para la sostenibilidad en la industria petrolera. </t>
+  </si>
+  <si>
+    <t>Kenny Medina</t>
+  </si>
+  <si>
+    <t>PetroRenova. Revista de Energía, Edición Segundo Aniversario, Volumen 2, Número 25, Septiembre 2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#GoddardD1987</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#VignaliM1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#RodriguezJA2025c</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/geochemistry.html#ElSoukiNetal2008</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#ValladaresRetal2018</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#MedinaK2025</t>
   </si>
 </sst>
 </file>
@@ -12025,10 +12094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1038"/>
+  <dimension ref="A1:H1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1026" workbookViewId="0">
-      <selection activeCell="A1032" sqref="A1032"/>
+    <sheetView tabSelected="1" topLeftCell="A1033" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1039" sqref="A1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37590,7 +37659,7 @@
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1038" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1045" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37646,7 +37715,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1038" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1045" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -37736,7 +37805,7 @@
       <c r="E1032" t="s">
         <v>3782</v>
       </c>
-      <c r="F1032" s="4" t="s">
+      <c r="F1032" t="s">
         <v>3783</v>
       </c>
       <c r="G1032" s="3" t="str">
@@ -37758,7 +37827,7 @@
       <c r="E1033" t="s">
         <v>3785</v>
       </c>
-      <c r="F1033" s="4" t="s">
+      <c r="F1033" t="s">
         <v>3786</v>
       </c>
       <c r="G1033" s="3" t="str">
@@ -37783,7 +37852,7 @@
       <c r="E1034" t="s">
         <v>3790</v>
       </c>
-      <c r="F1034" s="4" t="s">
+      <c r="F1034" t="s">
         <v>3678</v>
       </c>
       <c r="G1034" s="3" t="str">
@@ -37808,7 +37877,7 @@
       <c r="E1035" t="s">
         <v>3793</v>
       </c>
-      <c r="F1035" s="4" t="s">
+      <c r="F1035" t="s">
         <v>3802</v>
       </c>
       <c r="G1035" s="3" t="str">
@@ -37833,7 +37902,7 @@
       <c r="E1036" t="s">
         <v>3798</v>
       </c>
-      <c r="F1036" s="4" t="s">
+      <c r="F1036" t="s">
         <v>3803</v>
       </c>
       <c r="G1036" s="3" t="str">
@@ -37858,7 +37927,7 @@
       <c r="E1037" t="s">
         <v>3801</v>
       </c>
-      <c r="F1037" s="4" t="s">
+      <c r="F1037" t="s">
         <v>3804</v>
       </c>
       <c r="G1037" s="3" t="str">
@@ -37883,12 +37952,187 @@
       <c r="E1038" t="s">
         <v>3787</v>
       </c>
-      <c r="F1038" s="4" t="s">
+      <c r="F1038" t="s">
         <v>3788</v>
       </c>
       <c r="G1038" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/biography.html#MirandaE2024</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <f t="shared" si="33"/>
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1039">
+        <v>1987</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F1039" s="4" t="s">
+        <v>3822</v>
+      </c>
+      <c r="G1039" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#GoddardD1987</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <f t="shared" si="33"/>
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D1040">
+        <v>1972</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F1040" s="4" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G1040" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#VignaliM1972</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <f t="shared" si="33"/>
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1041">
+        <v>2025</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F1041" s="4" t="s">
+        <v>3824</v>
+      </c>
+      <c r="G1041" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2025c</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <f t="shared" si="33"/>
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D1042">
+        <v>2008</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F1042" s="4" t="s">
+        <v>3825</v>
+      </c>
+      <c r="G1042" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/geochemistry.html#ElSoukiNetal2008</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <f t="shared" si="33"/>
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D1043">
+        <v>2008</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>3816</v>
+      </c>
+      <c r="F1043" s="4" t="s">
+        <v>3826</v>
+      </c>
+      <c r="G1043" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/minerals.html#ValladaresRetal2018</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <f t="shared" si="33"/>
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D1044">
+        <v>2025</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F1044" s="4" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G1044" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#RodriguezJA2025b</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <f t="shared" si="33"/>
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D1045">
+        <v>2025</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F1045" s="4" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G1045" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#MedinaK2025</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8421C6D-2B69-49F4-942D-A7D438219B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268F611-86ED-417B-B72F-41C6B32839D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="948" windowWidth="21600" windowHeight="11232" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4160" uniqueCount="3828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="3853">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11701,6 +11701,81 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/topics.html#MedinaK2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Marín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palinología aplicada en los estudios de los sedimentos Eocenos en la Cuenca de Maracaibo. </t>
+  </si>
+  <si>
+    <t>John A. Sulek</t>
+  </si>
+  <si>
+    <t>IV Congreso Geológico Venezolano, Memoria, Tomo II, Publicación Especial Número 5, 1972</t>
+  </si>
+  <si>
+    <t>Petróleo Costa Afuera en Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aníbal Martínez </t>
+  </si>
+  <si>
+    <t>Semana del Mar. Reafirmación Marítima de Venezuela, 20 años después. Universidad Simón Bolívar, 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía para el análisis de los ambientes de las facies clásticas. </t>
+  </si>
+  <si>
+    <t>D. C. Swanson y Carlos E. Key</t>
+  </si>
+  <si>
+    <t>Escuela de Facies Clásticas, Lagoven S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Lake Bosumtwi impact structure, Ghana. </t>
+  </si>
+  <si>
+    <t>Guía de la Excursión No. 6: Cordillera de Los Andes y Surco de Barquisimeto.</t>
+  </si>
+  <si>
+    <t>Stephan, J. F.; Rondón L., F.; Canelón C., G.; Fierro S., I.; Giegengack, R.</t>
+  </si>
+  <si>
+    <t>V Congreso Geológico Venezolano, Memorias, Tomo V, pp. 191 – 231, 1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egresados de la UCV 1725 – 1983. </t>
+  </si>
+  <si>
+    <t>Secretaría de la Universidad Central de Venezuela</t>
+  </si>
+  <si>
+    <t>Ediciones de la Secretaría de la Universidad Central de Venezuela, Caracas, 1984. Breve reseňa histórica de Ildefonso Leal</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#MarinA2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SulekJA1972</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/fields.html#MartinezA1994</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/tstratigraphy.html#SwansonDCKeyCE1976</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2025c</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#StephanJEetal1977</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#UCV1984</t>
+  </si>
+  <si>
+    <t>Transición energética en Venezuela (Parte 2). ¿Cómo armonizar el legado petrolero con visión de futuro basado en energías?</t>
   </si>
 </sst>
 </file>
@@ -11778,7 +11853,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12094,10 +12171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1045"/>
+  <dimension ref="A1:H1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1033" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1039" sqref="A1039"/>
+    <sheetView tabSelected="1" topLeftCell="A1034" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1046" sqref="B1046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12106,7 +12183,7 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12126,7 +12203,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -12150,7 +12227,7 @@
       <c r="E2" t="s">
         <v>2801</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>2798</v>
       </c>
       <c r="G2" s="3" t="str">
@@ -12175,7 +12252,7 @@
       <c r="E3" t="s">
         <v>2857</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>2856</v>
       </c>
       <c r="G3" s="3" t="str">
@@ -12200,7 +12277,7 @@
       <c r="E4" t="s">
         <v>2795</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2793</v>
       </c>
       <c r="G4" s="3" t="str">
@@ -12225,7 +12302,7 @@
       <c r="E5" t="s">
         <v>2791</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>2792</v>
       </c>
       <c r="G5" s="3" t="str">
@@ -12250,7 +12327,7 @@
       <c r="E6" t="s">
         <v>2777</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>2788</v>
       </c>
       <c r="G6" s="3" t="str">
@@ -12275,7 +12352,7 @@
       <c r="E7" t="s">
         <v>2777</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>2786</v>
       </c>
       <c r="G7" s="3" t="str">
@@ -12300,7 +12377,7 @@
       <c r="E8" t="s">
         <v>2777</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>2783</v>
       </c>
       <c r="G8" s="3" t="str">
@@ -12325,7 +12402,7 @@
       <c r="E9" t="s">
         <v>2777</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>2781</v>
       </c>
       <c r="G9" s="3" t="str">
@@ -12350,7 +12427,7 @@
       <c r="E10" t="s">
         <v>2777</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>2780</v>
       </c>
       <c r="G10" s="3" t="str">
@@ -12375,7 +12452,7 @@
       <c r="E11" t="s">
         <v>2777</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>2774</v>
       </c>
       <c r="G11" s="3" t="str">
@@ -12400,7 +12477,7 @@
       <c r="E12" t="s">
         <v>2772</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>2773</v>
       </c>
       <c r="G12" s="3" t="str">
@@ -12425,7 +12502,7 @@
       <c r="E13" t="s">
         <v>2769</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>2770</v>
       </c>
       <c r="G13" s="3" t="str">
@@ -12450,7 +12527,7 @@
       <c r="E14" t="s">
         <v>2766</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>2855</v>
       </c>
       <c r="G14" s="3" t="str">
@@ -12472,7 +12549,7 @@
       <c r="E15" t="s">
         <v>2765</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>2764</v>
       </c>
       <c r="G15" s="3" t="str">
@@ -12497,7 +12574,7 @@
       <c r="E16" t="s">
         <v>2762</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>2804</v>
       </c>
       <c r="G16" s="3" t="str">
@@ -12522,7 +12599,7 @@
       <c r="E17" t="s">
         <v>2760</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>2761</v>
       </c>
       <c r="G17" s="3" t="str">
@@ -12547,7 +12624,7 @@
       <c r="E18" t="s">
         <v>2756</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>2757</v>
       </c>
       <c r="G18" s="3" t="str">
@@ -12572,7 +12649,7 @@
       <c r="E19" t="s">
         <v>2754</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>2851</v>
       </c>
       <c r="G19" s="3" t="str">
@@ -12597,7 +12674,7 @@
       <c r="E20" t="s">
         <v>2752</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>2751</v>
       </c>
       <c r="G20" s="3" t="str">
@@ -12622,7 +12699,7 @@
       <c r="E21" t="s">
         <v>2749</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>2850</v>
       </c>
       <c r="G21" s="3" t="str">
@@ -12647,7 +12724,7 @@
       <c r="E22" t="s">
         <v>2745</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>2849</v>
       </c>
       <c r="G22" s="3" t="str">
@@ -12672,7 +12749,7 @@
       <c r="E23" t="s">
         <v>2742</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>2743</v>
       </c>
       <c r="G23" s="3" t="str">
@@ -12697,7 +12774,7 @@
       <c r="E24" t="s">
         <v>2739</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>2848</v>
       </c>
       <c r="G24" s="3" t="str">
@@ -12722,7 +12799,7 @@
       <c r="E25" t="s">
         <v>2736</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>2847</v>
       </c>
       <c r="G25" s="3" t="str">
@@ -12747,7 +12824,7 @@
       <c r="E26" t="s">
         <v>2734</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>2846</v>
       </c>
       <c r="G26" s="3" t="str">
@@ -12772,7 +12849,7 @@
       <c r="E27" t="s">
         <v>2731</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>2845</v>
       </c>
       <c r="G27" s="3" t="str">
@@ -12797,7 +12874,7 @@
       <c r="E28" t="s">
         <v>2728</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>2844</v>
       </c>
       <c r="G28" s="3" t="str">
@@ -12822,7 +12899,7 @@
       <c r="E29" t="s">
         <v>2726</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>2843</v>
       </c>
       <c r="G29" s="3" t="str">
@@ -12847,7 +12924,7 @@
       <c r="E30" t="s">
         <v>2723</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="4" t="s">
         <v>2842</v>
       </c>
       <c r="G30" s="3" t="str">
@@ -12872,7 +12949,7 @@
       <c r="E31" t="s">
         <v>2720</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="4" t="s">
         <v>2841</v>
       </c>
       <c r="G31" s="3" t="str">
@@ -12897,7 +12974,7 @@
       <c r="E32" t="s">
         <v>2716</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>2840</v>
       </c>
       <c r="G32" s="3" t="str">
@@ -12922,7 +12999,7 @@
       <c r="E33" t="s">
         <v>2714</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>2839</v>
       </c>
       <c r="G33" s="3" t="str">
@@ -12947,7 +13024,7 @@
       <c r="E34" t="s">
         <v>2711</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>2838</v>
       </c>
       <c r="G34" s="3" t="str">
@@ -12972,7 +13049,7 @@
       <c r="E35" t="s">
         <v>2708</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>2854</v>
       </c>
       <c r="G35" s="3" t="str">
@@ -12997,7 +13074,7 @@
       <c r="E36" t="s">
         <v>2705</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>2837</v>
       </c>
       <c r="G36" s="3" t="str">
@@ -13022,7 +13099,7 @@
       <c r="E37" t="s">
         <v>2703</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>2836</v>
       </c>
       <c r="G37" s="3" t="str">
@@ -13047,7 +13124,7 @@
       <c r="E38" t="s">
         <v>2701</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>2835</v>
       </c>
       <c r="G38" s="3" t="str">
@@ -13072,7 +13149,7 @@
       <c r="E39" t="s">
         <v>2698</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="4" t="s">
         <v>2834</v>
       </c>
       <c r="G39" s="3" t="str">
@@ -13097,7 +13174,7 @@
       <c r="E40" t="s">
         <v>2695</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="4" t="s">
         <v>2806</v>
       </c>
       <c r="G40" s="3" t="str">
@@ -13122,7 +13199,7 @@
       <c r="E41" t="s">
         <v>2691</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="4" t="s">
         <v>2692</v>
       </c>
       <c r="G41" s="3" t="str">
@@ -13147,7 +13224,7 @@
       <c r="E42" t="s">
         <v>2688</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>2833</v>
       </c>
       <c r="G42" s="3" t="str">
@@ -13172,7 +13249,7 @@
       <c r="E43" t="s">
         <v>2685</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="4" t="s">
         <v>2832</v>
       </c>
       <c r="G43" s="3" t="str">
@@ -13197,7 +13274,7 @@
       <c r="E44" t="s">
         <v>2683</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="4" t="s">
         <v>2831</v>
       </c>
       <c r="G44" s="3" t="str">
@@ -13222,7 +13299,7 @@
       <c r="E45" t="s">
         <v>2680</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="4" t="s">
         <v>2830</v>
       </c>
       <c r="G45" s="3" t="str">
@@ -13247,7 +13324,7 @@
       <c r="E46" t="s">
         <v>2661</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="4" t="s">
         <v>2829</v>
       </c>
       <c r="G46" s="3" t="str">
@@ -13272,7 +13349,7 @@
       <c r="E47" t="s">
         <v>2675</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>2828</v>
       </c>
       <c r="G47" s="3" t="str">
@@ -13297,7 +13374,7 @@
       <c r="E48" t="s">
         <v>2672</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="4" t="s">
         <v>2827</v>
       </c>
       <c r="G48" s="3" t="str">
@@ -13322,7 +13399,7 @@
       <c r="E49" t="s">
         <v>2669</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="4" t="s">
         <v>2826</v>
       </c>
       <c r="G49" s="3" t="str">
@@ -13347,7 +13424,7 @@
       <c r="E50" t="s">
         <v>2853</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="4" t="s">
         <v>2852</v>
       </c>
       <c r="G50" s="3" t="str">
@@ -13372,7 +13449,7 @@
       <c r="E51" t="s">
         <v>2664</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>2825</v>
       </c>
       <c r="G51" s="3" t="str">
@@ -13397,7 +13474,7 @@
       <c r="E52" t="s">
         <v>2661</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="4" t="s">
         <v>2660</v>
       </c>
       <c r="G52" s="3" t="str">
@@ -13422,7 +13499,7 @@
       <c r="E53" t="s">
         <v>2657</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="4" t="s">
         <v>2824</v>
       </c>
       <c r="G53" s="3" t="str">
@@ -13447,7 +13524,7 @@
       <c r="E54" t="s">
         <v>2655</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="4" t="s">
         <v>2822</v>
       </c>
       <c r="G54" s="3" t="str">
@@ -13472,7 +13549,7 @@
       <c r="E55" t="s">
         <v>2652</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>2821</v>
       </c>
       <c r="G55" s="3" t="str">
@@ -13497,7 +13574,7 @@
       <c r="E56" t="s">
         <v>2649</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
         <v>2137</v>
       </c>
       <c r="G56" s="3" t="str">
@@ -13522,7 +13599,7 @@
       <c r="E57" t="s">
         <v>2646</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="G57" s="3" t="str">
@@ -13547,7 +13624,7 @@
       <c r="E58" t="s">
         <v>2643</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>2206</v>
       </c>
       <c r="G58" s="3" t="str">
@@ -13572,7 +13649,7 @@
       <c r="E59" t="s">
         <v>2640</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>2820</v>
       </c>
       <c r="G59" s="3" t="str">
@@ -13597,7 +13674,7 @@
       <c r="E60" t="s">
         <v>2637</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>2819</v>
       </c>
       <c r="G60" s="3" t="str">
@@ -13622,7 +13699,7 @@
       <c r="E61" t="s">
         <v>2634</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>2818</v>
       </c>
       <c r="G61" s="3" t="str">
@@ -13647,7 +13724,7 @@
       <c r="E62" t="s">
         <v>2631</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
         <v>2817</v>
       </c>
       <c r="G62" s="3" t="str">
@@ -13672,7 +13749,7 @@
       <c r="E63" t="s">
         <v>2628</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>2816</v>
       </c>
       <c r="G63" s="3" t="str">
@@ -13697,7 +13774,7 @@
       <c r="E64" t="s">
         <v>2625</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>2815</v>
       </c>
       <c r="G64" s="3" t="str">
@@ -13722,7 +13799,7 @@
       <c r="E65" t="s">
         <v>2622</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
         <v>580</v>
       </c>
       <c r="G65" s="3" t="str">
@@ -13747,7 +13824,7 @@
       <c r="E66" t="s">
         <v>2621</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
         <v>2575</v>
       </c>
       <c r="G66" s="3" t="str">
@@ -13772,7 +13849,7 @@
       <c r="E67" t="s">
         <v>2618</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
         <v>2814</v>
       </c>
       <c r="G67" s="3" t="str">
@@ -13797,7 +13874,7 @@
       <c r="E68" t="s">
         <v>2615</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="G68" s="3" t="str">
@@ -13822,7 +13899,7 @@
       <c r="E69" t="s">
         <v>2613</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
         <v>2813</v>
       </c>
       <c r="G69" s="3" t="str">
@@ -13847,7 +13924,7 @@
       <c r="E70" t="s">
         <v>2610</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>2812</v>
       </c>
       <c r="G70" s="3" t="str">
@@ -13869,7 +13946,7 @@
       <c r="E71" t="s">
         <v>2607</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
         <v>2811</v>
       </c>
       <c r="G71" s="3" t="str">
@@ -13894,7 +13971,7 @@
       <c r="E72" t="s">
         <v>2605</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="4" t="s">
         <v>2810</v>
       </c>
       <c r="G72" s="3" t="str">
@@ -13916,7 +13993,7 @@
       <c r="E73" t="s">
         <v>2602</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>2809</v>
       </c>
       <c r="G73" s="3" t="str">
@@ -13941,7 +14018,7 @@
       <c r="E74" t="s">
         <v>2600</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>2808</v>
       </c>
       <c r="G74" s="3" t="str">
@@ -13966,7 +14043,7 @@
       <c r="E75" t="s">
         <v>2597</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="4" t="s">
         <v>2807</v>
       </c>
       <c r="G75" s="3" t="str">
@@ -13991,7 +14068,7 @@
       <c r="E76" t="s">
         <v>2573</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="4" t="s">
         <v>2594</v>
       </c>
       <c r="G76" s="3" t="str">
@@ -14013,7 +14090,7 @@
       <c r="E77" t="s">
         <v>2570</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>2586</v>
       </c>
       <c r="G77" s="3" t="str">
@@ -14029,7 +14106,7 @@
       <c r="B78" t="s">
         <v>2568</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="4" t="s">
         <v>2585</v>
       </c>
       <c r="G78" s="3" t="str">
@@ -14054,7 +14131,7 @@
       <c r="E79" t="s">
         <v>2567</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>2584</v>
       </c>
       <c r="G79" s="3" t="str">
@@ -14079,7 +14156,7 @@
       <c r="E80" t="s">
         <v>2564</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>2583</v>
       </c>
       <c r="G80" s="3" t="str">
@@ -14104,7 +14181,7 @@
       <c r="E81" t="s">
         <v>2561</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>2576</v>
       </c>
       <c r="G81" s="3" t="str">
@@ -14126,7 +14203,7 @@
       <c r="D82">
         <v>1989</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="4" t="s">
         <v>2558</v>
       </c>
       <c r="G82" s="3" t="str">
@@ -14151,7 +14228,7 @@
       <c r="E83" t="s">
         <v>2556</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="4" t="s">
         <v>2582</v>
       </c>
       <c r="G83" s="3" t="str">
@@ -14176,7 +14253,7 @@
       <c r="E84" t="s">
         <v>2553</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="4" t="s">
         <v>2581</v>
       </c>
       <c r="G84" s="3" t="str">
@@ -14201,7 +14278,7 @@
       <c r="E85" t="s">
         <v>2550</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="4" t="s">
         <v>2549</v>
       </c>
       <c r="G85" s="3" t="str">
@@ -14226,7 +14303,7 @@
       <c r="E86" t="s">
         <v>2547</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>2580</v>
       </c>
       <c r="G86" s="3" t="str">
@@ -14251,7 +14328,7 @@
       <c r="E87" t="s">
         <v>2544</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="4" t="s">
         <v>2579</v>
       </c>
       <c r="G87" s="3" t="str">
@@ -14276,7 +14353,7 @@
       <c r="E88" t="s">
         <v>2542</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="4" t="s">
         <v>2578</v>
       </c>
       <c r="G88" s="3" t="str">
@@ -14301,7 +14378,7 @@
       <c r="E89" t="s">
         <v>2539</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="4" t="s">
         <v>2593</v>
       </c>
       <c r="G89" s="3" t="str">
@@ -14326,7 +14403,7 @@
       <c r="E90" t="s">
         <v>2537</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="4" t="s">
         <v>2577</v>
       </c>
       <c r="G90" s="3" t="str">
@@ -14351,7 +14428,7 @@
       <c r="E91" t="s">
         <v>2534</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="4" t="s">
         <v>2576</v>
       </c>
       <c r="G91" s="3" t="str">
@@ -14376,7 +14453,7 @@
       <c r="E92" t="s">
         <v>2532</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="4" t="s">
         <v>2575</v>
       </c>
       <c r="G92" s="3" t="str">
@@ -14401,7 +14478,7 @@
       <c r="E93" t="s">
         <v>2529</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="4" t="s">
         <v>2591</v>
       </c>
       <c r="G93" s="3" t="str">
@@ -14426,7 +14503,7 @@
       <c r="E94" t="s">
         <v>2527</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="4" t="s">
         <v>2574</v>
       </c>
       <c r="G94" s="3" t="str">
@@ -14451,7 +14528,7 @@
       <c r="E95" t="s">
         <v>2524</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>2590</v>
       </c>
       <c r="G95" s="3" t="str">
@@ -14476,7 +14553,7 @@
       <c r="E96" t="s">
         <v>2522</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>2589</v>
       </c>
       <c r="G96" s="3" t="str">
@@ -14501,7 +14578,7 @@
       <c r="E97" t="s">
         <v>2519</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="4" t="s">
         <v>2588</v>
       </c>
       <c r="G97" s="3" t="str">
@@ -14523,7 +14600,7 @@
       <c r="D98">
         <v>2003</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>2517</v>
       </c>
       <c r="G98" s="3" t="str">
@@ -14548,7 +14625,7 @@
       <c r="E99" t="s">
         <v>2514</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>2587</v>
       </c>
       <c r="G99" s="3" t="str">
@@ -14573,7 +14650,7 @@
       <c r="E100" t="s">
         <v>2447</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>2505</v>
       </c>
       <c r="G100" s="3" t="str">
@@ -14595,7 +14672,7 @@
       <c r="E101" t="s">
         <v>2443</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>2504</v>
       </c>
       <c r="G101" s="3" t="str">
@@ -14620,7 +14697,7 @@
       <c r="E102" t="s">
         <v>2441</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="4" t="s">
         <v>2503</v>
       </c>
       <c r="G102" s="3" t="str">
@@ -14645,7 +14722,7 @@
       <c r="E103" t="s">
         <v>2438</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="4" t="s">
         <v>2502</v>
       </c>
       <c r="G103" s="3" t="str">
@@ -14670,7 +14747,7 @@
       <c r="E104" t="s">
         <v>2435</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>2501</v>
       </c>
       <c r="G104" s="3" t="str">
@@ -14695,7 +14772,7 @@
       <c r="E105" t="s">
         <v>2432</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="4" t="s">
         <v>2500</v>
       </c>
       <c r="G105" s="3" t="str">
@@ -14717,7 +14794,7 @@
       <c r="E106" t="s">
         <v>2428</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="4" t="s">
         <v>2499</v>
       </c>
       <c r="G106" s="3" t="str">
@@ -14742,7 +14819,7 @@
       <c r="E107" t="s">
         <v>2426</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>2498</v>
       </c>
       <c r="G107" s="3" t="str">
@@ -14767,7 +14844,7 @@
       <c r="E108" t="s">
         <v>2424</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>2511</v>
       </c>
       <c r="G108" s="3" t="str">
@@ -14792,7 +14869,7 @@
       <c r="E109" t="s">
         <v>2421</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="4" t="s">
         <v>2208</v>
       </c>
       <c r="G109" s="3" t="str">
@@ -14817,7 +14894,7 @@
       <c r="E110" t="s">
         <v>2418</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="4" t="s">
         <v>2207</v>
       </c>
       <c r="G110" s="3" t="str">
@@ -14839,7 +14916,7 @@
       <c r="E111" t="s">
         <v>2414</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>2497</v>
       </c>
       <c r="G111" s="3" t="str">
@@ -14864,7 +14941,7 @@
       <c r="E112" t="s">
         <v>2412</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="4" t="s">
         <v>2496</v>
       </c>
       <c r="G112" s="3" t="str">
@@ -14889,7 +14966,7 @@
       <c r="E113" t="s">
         <v>2408</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="4" t="s">
         <v>2409</v>
       </c>
       <c r="G113" s="3" t="str">
@@ -14914,7 +14991,7 @@
       <c r="E114" t="s">
         <v>2406</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="4" t="s">
         <v>2495</v>
       </c>
       <c r="G114" s="3" t="str">
@@ -14939,7 +15016,7 @@
       <c r="E115" t="s">
         <v>2879</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>2880</v>
       </c>
       <c r="G115" s="3" t="str">
@@ -14964,7 +15041,7 @@
       <c r="E116" t="s">
         <v>2400</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>2494</v>
       </c>
       <c r="G116" s="3" t="str">
@@ -14989,7 +15066,7 @@
       <c r="E117" t="s">
         <v>2397</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>2493</v>
       </c>
       <c r="G117" s="3" t="str">
@@ -15014,7 +15091,7 @@
       <c r="E118" t="s">
         <v>2394</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>2492</v>
       </c>
       <c r="G118" s="3" t="str">
@@ -15039,7 +15116,7 @@
       <c r="E119" t="s">
         <v>2389</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="4" t="s">
         <v>2491</v>
       </c>
       <c r="G119" s="3" t="str">
@@ -15064,7 +15141,7 @@
       <c r="E120" t="s">
         <v>2387</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="4" t="s">
         <v>2490</v>
       </c>
       <c r="G120" s="3" t="str">
@@ -15089,7 +15166,7 @@
       <c r="E121" t="s">
         <v>2385</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="4" t="s">
         <v>2489</v>
       </c>
       <c r="G121" s="3" t="str">
@@ -15114,7 +15191,7 @@
       <c r="E122" t="s">
         <v>2383</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="4" t="s">
         <v>2488</v>
       </c>
       <c r="G122" s="3" t="str">
@@ -15139,7 +15216,7 @@
       <c r="E123" t="s">
         <v>2380</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="4" t="s">
         <v>2487</v>
       </c>
       <c r="G123" s="3" t="str">
@@ -15164,7 +15241,7 @@
       <c r="E124" t="s">
         <v>2377</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="4" t="s">
         <v>2510</v>
       </c>
       <c r="G124" s="3" t="str">
@@ -15189,7 +15266,7 @@
       <c r="E125" t="s">
         <v>2371</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="4" t="s">
         <v>2486</v>
       </c>
       <c r="G125" s="3" t="str">
@@ -15214,7 +15291,7 @@
       <c r="E126" t="s">
         <v>2370</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="4" t="s">
         <v>2484</v>
       </c>
       <c r="G126" s="3" t="str">
@@ -15239,7 +15316,7 @@
       <c r="E127" t="s">
         <v>2367</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>2509</v>
       </c>
       <c r="G127" s="3" t="str">
@@ -15264,7 +15341,7 @@
       <c r="E128" t="s">
         <v>2363</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="4" t="s">
         <v>2508</v>
       </c>
       <c r="G128" s="3" t="str">
@@ -15289,7 +15366,7 @@
       <c r="E129" t="s">
         <v>2361</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="4" t="s">
         <v>2485</v>
       </c>
       <c r="G129" s="3" t="str">
@@ -15314,7 +15391,7 @@
       <c r="E130" t="s">
         <v>2358</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="4" t="s">
         <v>2484</v>
       </c>
       <c r="G130" s="3" t="str">
@@ -15339,7 +15416,7 @@
       <c r="E131" t="s">
         <v>2355</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>2483</v>
       </c>
       <c r="G131" s="3" t="str">
@@ -15364,7 +15441,7 @@
       <c r="E132" t="s">
         <v>2353</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="4" t="s">
         <v>2482</v>
       </c>
       <c r="G132" s="3" t="str">
@@ -15389,7 +15466,7 @@
       <c r="E133" t="s">
         <v>2350</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="4" t="s">
         <v>2481</v>
       </c>
       <c r="G133" s="3" t="str">
@@ -15414,7 +15491,7 @@
       <c r="E134" t="s">
         <v>2347</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="4" t="s">
         <v>2480</v>
       </c>
       <c r="G134" s="3" t="str">
@@ -15439,7 +15516,7 @@
       <c r="E135" t="s">
         <v>2344</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="4" t="s">
         <v>2479</v>
       </c>
       <c r="G135" s="3" t="str">
@@ -15464,7 +15541,7 @@
       <c r="E136" t="s">
         <v>2341</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="4" t="s">
         <v>2478</v>
       </c>
       <c r="G136" s="3" t="str">
@@ -15489,7 +15566,7 @@
       <c r="E137" t="s">
         <v>2338</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>2477</v>
       </c>
       <c r="G137" s="3" t="str">
@@ -15514,7 +15591,7 @@
       <c r="E138" t="s">
         <v>2335</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>2476</v>
       </c>
       <c r="G138" s="3" t="str">
@@ -15539,7 +15616,7 @@
       <c r="E139" t="s">
         <v>1597</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="4" t="s">
         <v>2475</v>
       </c>
       <c r="G139" s="3" t="str">
@@ -15561,7 +15638,7 @@
       <c r="E140" t="s">
         <v>2330</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="4" t="s">
         <v>2474</v>
       </c>
       <c r="G140" s="3" t="str">
@@ -15586,7 +15663,7 @@
       <c r="E141" t="s">
         <v>2328</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>2473</v>
       </c>
       <c r="G141" s="3" t="str">
@@ -15611,7 +15688,7 @@
       <c r="E142" t="s">
         <v>2326</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="4" t="s">
         <v>2472</v>
       </c>
       <c r="G142" s="3" t="str">
@@ -15636,7 +15713,7 @@
       <c r="E143" t="s">
         <v>2323</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="4" t="s">
         <v>2471</v>
       </c>
       <c r="G143" s="3" t="str">
@@ -15661,7 +15738,7 @@
       <c r="E144" t="s">
         <v>2320</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="4" t="s">
         <v>2470</v>
       </c>
       <c r="G144" s="3" t="str">
@@ -15686,7 +15763,7 @@
       <c r="E145" t="s">
         <v>2317</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="4" t="s">
         <v>2469</v>
       </c>
       <c r="G145" s="3" t="str">
@@ -15711,7 +15788,7 @@
       <c r="E146" t="s">
         <v>2314</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="4" t="s">
         <v>2468</v>
       </c>
       <c r="G146" s="3" t="str">
@@ -15736,7 +15813,7 @@
       <c r="E147" t="s">
         <v>2311</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="4" t="s">
         <v>2467</v>
       </c>
       <c r="G147" s="3" t="str">
@@ -15761,7 +15838,7 @@
       <c r="E148" t="s">
         <v>2308</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="4" t="s">
         <v>2466</v>
       </c>
       <c r="G148" s="3" t="str">
@@ -15786,7 +15863,7 @@
       <c r="E149" t="s">
         <v>2305</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="4" t="s">
         <v>2465</v>
       </c>
       <c r="G149" s="3" t="str">
@@ -15811,7 +15888,7 @@
       <c r="E150" t="s">
         <v>2303</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="4" t="s">
         <v>2464</v>
       </c>
       <c r="G150" s="3" t="str">
@@ -15836,7 +15913,7 @@
       <c r="E151" t="s">
         <v>2300</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="4" t="s">
         <v>2463</v>
       </c>
       <c r="G151" s="3" t="str">
@@ -15861,7 +15938,7 @@
       <c r="E152" t="s">
         <v>2297</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="4" t="s">
         <v>2462</v>
       </c>
       <c r="G152" s="3" t="str">
@@ -15886,7 +15963,7 @@
       <c r="E153" t="s">
         <v>2294</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="4" t="s">
         <v>2461</v>
       </c>
       <c r="G153" s="3" t="str">
@@ -15911,7 +15988,7 @@
       <c r="E154" t="s">
         <v>337</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="4" t="s">
         <v>2460</v>
       </c>
       <c r="G154" s="3" t="str">
@@ -15936,7 +16013,7 @@
       <c r="E155" t="s">
         <v>2290</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="4" t="s">
         <v>2507</v>
       </c>
       <c r="G155" s="3" t="str">
@@ -15961,7 +16038,7 @@
       <c r="E156" t="s">
         <v>2288</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="4" t="s">
         <v>2506</v>
       </c>
       <c r="G156" s="3" t="str">
@@ -15986,7 +16063,7 @@
       <c r="E157" t="s">
         <v>2285</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="4" t="s">
         <v>2459</v>
       </c>
       <c r="G157" s="3" t="str">
@@ -16011,7 +16088,7 @@
       <c r="E158" t="s">
         <v>2282</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="4" t="s">
         <v>2458</v>
       </c>
       <c r="G158" s="3" t="str">
@@ -16036,7 +16113,7 @@
       <c r="E159" t="s">
         <v>2279</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="4" t="s">
         <v>2457</v>
       </c>
       <c r="G159" s="3" t="str">
@@ -16061,7 +16138,7 @@
       <c r="E160" t="s">
         <v>2276</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="4" t="s">
         <v>2456</v>
       </c>
       <c r="G160" s="3" t="str">
@@ -16086,7 +16163,7 @@
       <c r="E161" t="s">
         <v>2273</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="4" t="s">
         <v>2455</v>
       </c>
       <c r="G161" s="3" t="str">
@@ -16111,7 +16188,7 @@
       <c r="E162" t="s">
         <v>2270</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="4" t="s">
         <v>2454</v>
       </c>
       <c r="G162" s="3" t="str">
@@ -16136,7 +16213,7 @@
       <c r="E163" t="s">
         <v>2267</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="4" t="s">
         <v>2454</v>
       </c>
       <c r="G163" s="3" t="str">
@@ -16161,7 +16238,7 @@
       <c r="E164" t="s">
         <v>2264</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="4" t="s">
         <v>2453</v>
       </c>
       <c r="G164" s="3" t="str">
@@ -16186,7 +16263,7 @@
       <c r="E165" t="s">
         <v>2261</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="4" t="s">
         <v>2452</v>
       </c>
       <c r="G165" s="3" t="str">
@@ -16211,7 +16288,7 @@
       <c r="E166" t="s">
         <v>2451</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="4" t="s">
         <v>2450</v>
       </c>
       <c r="G166" s="3" t="str">
@@ -16236,7 +16313,7 @@
       <c r="E167" t="s">
         <v>2256</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="4" t="s">
         <v>2449</v>
       </c>
       <c r="G167" s="3" t="str">
@@ -16261,7 +16338,7 @@
       <c r="E168" t="s">
         <v>2253</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="4" t="s">
         <v>2448</v>
       </c>
       <c r="G168" s="3" t="str">
@@ -16286,7 +16363,7 @@
       <c r="E169" t="s">
         <v>2131</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="4" t="s">
         <v>2225</v>
       </c>
       <c r="G169" s="3" t="str">
@@ -16311,7 +16388,7 @@
       <c r="E170" t="s">
         <v>2128</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="4" t="s">
         <v>2250</v>
       </c>
       <c r="G170" s="3" t="str">
@@ -16336,7 +16413,7 @@
       <c r="E171" t="s">
         <v>2125</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="4" t="s">
         <v>2224</v>
       </c>
       <c r="G171" s="3" t="str">
@@ -16361,7 +16438,7 @@
       <c r="E172" t="s">
         <v>2122</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="4" t="s">
         <v>2223</v>
       </c>
       <c r="G172" s="3" t="str">
@@ -16386,7 +16463,7 @@
       <c r="E173" t="s">
         <v>2119</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="4" t="s">
         <v>2222</v>
       </c>
       <c r="G173" s="3" t="str">
@@ -16411,7 +16488,7 @@
       <c r="E174" t="s">
         <v>2117</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="4" t="s">
         <v>2221</v>
       </c>
       <c r="G174" s="3" t="str">
@@ -16436,7 +16513,7 @@
       <c r="E175" t="s">
         <v>2114</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="4" t="s">
         <v>2220</v>
       </c>
       <c r="G175" s="3" t="str">
@@ -16461,7 +16538,7 @@
       <c r="E176" t="s">
         <v>2111</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="4" t="s">
         <v>2219</v>
       </c>
       <c r="G176" s="3" t="str">
@@ -16483,7 +16560,7 @@
       <c r="E177" t="s">
         <v>2109</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="4" t="s">
         <v>2218</v>
       </c>
       <c r="G177" s="3" t="str">
@@ -16508,7 +16585,7 @@
       <c r="E178" t="s">
         <v>2107</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="4" t="s">
         <v>2217</v>
       </c>
       <c r="G178" s="3" t="str">
@@ -16530,7 +16607,7 @@
       <c r="E179" t="s">
         <v>2104</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="4" t="s">
         <v>2216</v>
       </c>
       <c r="G179" s="3" t="str">
@@ -16555,7 +16632,7 @@
       <c r="E180" t="s">
         <v>2102</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="4" t="s">
         <v>2215</v>
       </c>
       <c r="G180" s="3" t="str">
@@ -16580,7 +16657,7 @@
       <c r="E181" t="s">
         <v>2099</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="4" t="s">
         <v>2214</v>
       </c>
       <c r="G181" s="3" t="str">
@@ -16605,7 +16682,7 @@
       <c r="E182" t="s">
         <v>2096</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="4" t="s">
         <v>2213</v>
       </c>
       <c r="G182" s="3" t="str">
@@ -16630,7 +16707,7 @@
       <c r="E183" t="s">
         <v>2093</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="4" t="s">
         <v>2212</v>
       </c>
       <c r="G183" s="3" t="str">
@@ -16655,7 +16732,7 @@
       <c r="E184" t="s">
         <v>2090</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="4" t="s">
         <v>2211</v>
       </c>
       <c r="G184" s="3" t="str">
@@ -16680,7 +16757,7 @@
       <c r="E185" t="s">
         <v>2087</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="4" t="s">
         <v>2210</v>
       </c>
       <c r="G185" s="3" t="str">
@@ -16705,7 +16782,7 @@
       <c r="E186" t="s">
         <v>2084</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="4" t="s">
         <v>2209</v>
       </c>
       <c r="G186" s="3" t="str">
@@ -16730,7 +16807,7 @@
       <c r="E187" t="s">
         <v>2081</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="4" t="s">
         <v>2208</v>
       </c>
       <c r="G187" s="3" t="str">
@@ -16755,7 +16832,7 @@
       <c r="E188" t="s">
         <v>2078</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="4" t="s">
         <v>2207</v>
       </c>
       <c r="G188" s="3" t="str">
@@ -16780,7 +16857,7 @@
       <c r="E189" t="s">
         <v>2075</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="4" t="s">
         <v>2206</v>
       </c>
       <c r="G189" s="3" t="str">
@@ -16805,7 +16882,7 @@
       <c r="E190" t="s">
         <v>2067</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="4" t="s">
         <v>2205</v>
       </c>
       <c r="G190" s="3" t="str">
@@ -16830,7 +16907,7 @@
       <c r="E191" t="s">
         <v>2070</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="4" t="s">
         <v>2204</v>
       </c>
       <c r="G191" s="3" t="str">
@@ -16855,7 +16932,7 @@
       <c r="E192" t="s">
         <v>2067</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="4" t="s">
         <v>2203</v>
       </c>
       <c r="G192" s="3" t="str">
@@ -16880,7 +16957,7 @@
       <c r="E193" t="s">
         <v>2065</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="4" t="s">
         <v>2202</v>
       </c>
       <c r="G193" s="3" t="str">
@@ -16905,7 +16982,7 @@
       <c r="E194" t="s">
         <v>1870</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="4" t="s">
         <v>2201</v>
       </c>
       <c r="G194" s="3" t="str">
@@ -16930,7 +17007,7 @@
       <c r="E195" t="s">
         <v>1356</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="4" t="s">
         <v>2200</v>
       </c>
       <c r="G195" s="3" t="str">
@@ -16955,7 +17032,7 @@
       <c r="E196" t="s">
         <v>2058</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="4" t="s">
         <v>2199</v>
       </c>
       <c r="G196" s="3" t="str">
@@ -16980,7 +17057,7 @@
       <c r="E197" t="s">
         <v>2055</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="4" t="s">
         <v>2198</v>
       </c>
       <c r="G197" s="3" t="str">
@@ -17005,7 +17082,7 @@
       <c r="E198" t="s">
         <v>2052</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="4" t="s">
         <v>2197</v>
       </c>
       <c r="G198" s="3" t="str">
@@ -17030,7 +17107,7 @@
       <c r="E199" t="s">
         <v>2049</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="4" t="s">
         <v>2196</v>
       </c>
       <c r="G199" s="3" t="str">
@@ -17055,7 +17132,7 @@
       <c r="E200" t="s">
         <v>2046</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="4" t="s">
         <v>2195</v>
       </c>
       <c r="G200" s="3" t="str">
@@ -17080,7 +17157,7 @@
       <c r="E201" t="s">
         <v>2043</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="4" t="s">
         <v>2194</v>
       </c>
       <c r="G201" s="3" t="str">
@@ -17105,7 +17182,7 @@
       <c r="E202" t="s">
         <v>2040</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="4" t="s">
         <v>2193</v>
       </c>
       <c r="G202" s="3" t="str">
@@ -17130,7 +17207,7 @@
       <c r="E203" t="s">
         <v>2037</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="4" t="s">
         <v>2192</v>
       </c>
       <c r="G203" s="3" t="str">
@@ -17155,7 +17232,7 @@
       <c r="E204" t="s">
         <v>2034</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="4" t="s">
         <v>2191</v>
       </c>
       <c r="G204" s="3" t="str">
@@ -17180,7 +17257,7 @@
       <c r="E205" t="s">
         <v>2031</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="4" t="s">
         <v>2190</v>
       </c>
       <c r="G205" s="3" t="str">
@@ -17205,7 +17282,7 @@
       <c r="E206" t="s">
         <v>2028</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="4" t="s">
         <v>2189</v>
       </c>
       <c r="G206" s="3" t="str">
@@ -17230,7 +17307,7 @@
       <c r="E207" t="s">
         <v>2025</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="4" t="s">
         <v>2188</v>
       </c>
       <c r="G207" s="3" t="str">
@@ -17255,7 +17332,7 @@
       <c r="E208" t="s">
         <v>2022</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="4" t="s">
         <v>2187</v>
       </c>
       <c r="G208" s="3" t="str">
@@ -17280,7 +17357,7 @@
       <c r="E209" t="s">
         <v>2018</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="4" t="s">
         <v>2186</v>
       </c>
       <c r="G209" s="3" t="str">
@@ -17305,7 +17382,7 @@
       <c r="E210" t="s">
         <v>2019</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="4" t="s">
         <v>2185</v>
       </c>
       <c r="G210" s="3" t="str">
@@ -17330,7 +17407,7 @@
       <c r="E211" t="s">
         <v>2012</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="4" t="s">
         <v>2184</v>
       </c>
       <c r="G211" s="3" t="str">
@@ -17355,7 +17432,7 @@
       <c r="E212" t="s">
         <v>2009</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="4" t="s">
         <v>2183</v>
       </c>
       <c r="G212" s="3" t="str">
@@ -17380,7 +17457,7 @@
       <c r="E213" t="s">
         <v>2006</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="4" t="s">
         <v>2182</v>
       </c>
       <c r="G213" s="3" t="str">
@@ -17405,7 +17482,7 @@
       <c r="E214" t="s">
         <v>2003</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="4" t="s">
         <v>2181</v>
       </c>
       <c r="G214" s="3" t="str">
@@ -17430,7 +17507,7 @@
       <c r="E215" t="s">
         <v>2000</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="4" t="s">
         <v>2180</v>
       </c>
       <c r="G215" s="3" t="str">
@@ -17455,7 +17532,7 @@
       <c r="E216" t="s">
         <v>1997</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="4" t="s">
         <v>2179</v>
       </c>
       <c r="G216" s="3" t="str">
@@ -17480,7 +17557,7 @@
       <c r="E217" t="s">
         <v>1995</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="4" t="s">
         <v>2178</v>
       </c>
       <c r="G217" s="3" t="str">
@@ -17505,7 +17582,7 @@
       <c r="E218" t="s">
         <v>1992</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="4" t="s">
         <v>2177</v>
       </c>
       <c r="G218" s="3" t="str">
@@ -17530,7 +17607,7 @@
       <c r="E219" t="s">
         <v>1989</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="4" t="s">
         <v>2176</v>
       </c>
       <c r="G219" s="3" t="str">
@@ -17555,7 +17632,7 @@
       <c r="E220" t="s">
         <v>1986</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="4" t="s">
         <v>2175</v>
       </c>
       <c r="G220" s="3" t="str">
@@ -17580,7 +17657,7 @@
       <c r="E221" t="s">
         <v>1969</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="4" t="s">
         <v>2174</v>
       </c>
       <c r="G221" s="3" t="str">
@@ -17605,7 +17682,7 @@
       <c r="E222" t="s">
         <v>1981</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="4" t="s">
         <v>2173</v>
       </c>
       <c r="G222" s="3" t="str">
@@ -17630,7 +17707,7 @@
       <c r="E223" t="s">
         <v>1978</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="4" t="s">
         <v>2172</v>
       </c>
       <c r="G223" s="3" t="str">
@@ -17655,7 +17732,7 @@
       <c r="E224" t="s">
         <v>1975</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="4" t="s">
         <v>2171</v>
       </c>
       <c r="G224" s="3" t="str">
@@ -17680,7 +17757,7 @@
       <c r="E225" t="s">
         <v>1972</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="4" t="s">
         <v>2170</v>
       </c>
       <c r="G225" s="3" t="str">
@@ -17705,7 +17782,7 @@
       <c r="E226" t="s">
         <v>1969</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="4" t="s">
         <v>2169</v>
       </c>
       <c r="G226" s="3" t="str">
@@ -17730,7 +17807,7 @@
       <c r="E227" t="s">
         <v>1967</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="4" t="s">
         <v>2168</v>
       </c>
       <c r="G227" s="3" t="str">
@@ -17755,7 +17832,7 @@
       <c r="E228" t="s">
         <v>1964</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="4" t="s">
         <v>2167</v>
       </c>
       <c r="G228" s="3" t="str">
@@ -17780,7 +17857,7 @@
       <c r="E229" t="s">
         <v>1961</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="4" t="s">
         <v>2166</v>
       </c>
       <c r="G229" s="3" t="str">
@@ -17805,7 +17882,7 @@
       <c r="E230" t="s">
         <v>1958</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="4" t="s">
         <v>2165</v>
       </c>
       <c r="G230" s="3" t="str">
@@ -17830,7 +17907,7 @@
       <c r="E231" t="s">
         <v>1955</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="4" t="s">
         <v>2164</v>
       </c>
       <c r="G231" s="3" t="str">
@@ -17855,7 +17932,7 @@
       <c r="E232" t="s">
         <v>1952</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="4" t="s">
         <v>2163</v>
       </c>
       <c r="G232" s="3" t="str">
@@ -17880,7 +17957,7 @@
       <c r="E233" t="s">
         <v>1949</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="4" t="s">
         <v>2162</v>
       </c>
       <c r="G233" s="3" t="str">
@@ -17905,7 +17982,7 @@
       <c r="E234" t="s">
         <v>1947</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="4" t="s">
         <v>2161</v>
       </c>
       <c r="G234" s="3" t="str">
@@ -17930,7 +18007,7 @@
       <c r="E235" t="s">
         <v>1944</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="4" t="s">
         <v>2160</v>
       </c>
       <c r="G235" s="3" t="str">
@@ -17955,7 +18032,7 @@
       <c r="E236" t="s">
         <v>1941</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="4" t="s">
         <v>2159</v>
       </c>
       <c r="G236" s="3" t="str">
@@ -17980,7 +18057,7 @@
       <c r="E237" t="s">
         <v>1938</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="4" t="s">
         <v>2158</v>
       </c>
       <c r="G237" s="3" t="str">
@@ -18005,7 +18082,7 @@
       <c r="E238" t="s">
         <v>1936</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="4" t="s">
         <v>2157</v>
       </c>
       <c r="G238" s="3" t="str">
@@ -18030,7 +18107,7 @@
       <c r="E239" t="s">
         <v>1933</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="4" t="s">
         <v>2156</v>
       </c>
       <c r="G239" s="3" t="str">
@@ -18055,7 +18132,7 @@
       <c r="E240" t="s">
         <v>1930</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="4" t="s">
         <v>2155</v>
       </c>
       <c r="G240" s="3" t="str">
@@ -18080,7 +18157,7 @@
       <c r="E241" t="s">
         <v>1915</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="4" t="s">
         <v>2154</v>
       </c>
       <c r="G241" s="3" t="str">
@@ -18105,7 +18182,7 @@
       <c r="E242" t="s">
         <v>1927</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="4" t="s">
         <v>2153</v>
       </c>
       <c r="G242" s="3" t="str">
@@ -18130,7 +18207,7 @@
       <c r="E243" t="s">
         <v>1925</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="4" t="s">
         <v>2152</v>
       </c>
       <c r="G243" s="3" t="str">
@@ -18155,7 +18232,7 @@
       <c r="E244" t="s">
         <v>1922</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="4" t="s">
         <v>2151</v>
       </c>
       <c r="G244" s="3" t="str">
@@ -18180,7 +18257,7 @@
       <c r="E245" t="s">
         <v>1920</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="4" t="s">
         <v>2150</v>
       </c>
       <c r="G245" s="3" t="str">
@@ -18205,7 +18282,7 @@
       <c r="E246" t="s">
         <v>1917</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="4" t="s">
         <v>2149</v>
       </c>
       <c r="G246" s="3" t="str">
@@ -18230,7 +18307,7 @@
       <c r="E247" t="s">
         <v>1915</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="4" t="s">
         <v>2148</v>
       </c>
       <c r="G247" s="3" t="str">
@@ -18255,7 +18332,7 @@
       <c r="E248" t="s">
         <v>1912</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="4" t="s">
         <v>1261</v>
       </c>
       <c r="G248" s="3" t="str">
@@ -18280,7 +18357,7 @@
       <c r="E249" t="s">
         <v>1910</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="4" t="s">
         <v>2147</v>
       </c>
       <c r="G249" s="3" t="str">
@@ -18305,7 +18382,7 @@
       <c r="E250" t="s">
         <v>1907</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="4" t="s">
         <v>2146</v>
       </c>
       <c r="G250" s="3" t="str">
@@ -18330,7 +18407,7 @@
       <c r="E251" t="s">
         <v>1904</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="4" t="s">
         <v>2145</v>
       </c>
       <c r="G251" s="3" t="str">
@@ -18355,7 +18432,7 @@
       <c r="E252" t="s">
         <v>1892</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="4" t="s">
         <v>2144</v>
       </c>
       <c r="G252" s="3" t="str">
@@ -18380,7 +18457,7 @@
       <c r="E253" t="s">
         <v>1899</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="4" t="s">
         <v>2143</v>
       </c>
       <c r="G253" s="3" t="str">
@@ -18405,7 +18482,7 @@
       <c r="E254" t="s">
         <v>1897</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="4" t="s">
         <v>2142</v>
       </c>
       <c r="G254" s="3" t="str">
@@ -18430,7 +18507,7 @@
       <c r="E255" t="s">
         <v>1894</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="4" t="s">
         <v>2142</v>
       </c>
       <c r="G255" s="3" t="str">
@@ -18455,7 +18532,7 @@
       <c r="E256" t="s">
         <v>1892</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="4" t="s">
         <v>2141</v>
       </c>
       <c r="G256" s="3" t="str">
@@ -18480,7 +18557,7 @@
       <c r="E257" t="s">
         <v>1890</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="4" t="s">
         <v>2140</v>
       </c>
       <c r="G257" s="3" t="str">
@@ -18505,7 +18582,7 @@
       <c r="E258" t="s">
         <v>1887</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="4" t="s">
         <v>2139</v>
       </c>
       <c r="G258" s="3" t="str">
@@ -18530,7 +18607,7 @@
       <c r="E259" t="s">
         <v>1885</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="4" t="s">
         <v>2138</v>
       </c>
       <c r="G259" s="3" t="str">
@@ -18555,7 +18632,7 @@
       <c r="E260" t="s">
         <v>1883</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="4" t="s">
         <v>2137</v>
       </c>
       <c r="G260" s="3" t="str">
@@ -18580,7 +18657,7 @@
       <c r="E261" t="s">
         <v>1880</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="4" t="s">
         <v>2136</v>
       </c>
       <c r="G261" s="3" t="str">
@@ -18605,7 +18682,7 @@
       <c r="E262" t="s">
         <v>1878</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="4" t="s">
         <v>2135</v>
       </c>
       <c r="G262" s="3" t="str">
@@ -18630,7 +18707,7 @@
       <c r="E263" t="s">
         <v>1875</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="4" t="s">
         <v>2134</v>
       </c>
       <c r="G263" s="3" t="str">
@@ -18655,7 +18732,7 @@
       <c r="E264" t="s">
         <v>1873</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="4" t="s">
         <v>2133</v>
       </c>
       <c r="G264" s="3" t="str">
@@ -18680,7 +18757,7 @@
       <c r="E265" t="s">
         <v>1870</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="4" t="s">
         <v>2132</v>
       </c>
       <c r="G265" s="3" t="str">
@@ -18705,7 +18782,7 @@
       <c r="E266" t="s">
         <v>1867</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="4" t="s">
         <v>2249</v>
       </c>
       <c r="G266" s="3" t="str">
@@ -18730,7 +18807,7 @@
       <c r="E267" t="s">
         <v>1842</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="4" t="s">
         <v>1864</v>
       </c>
       <c r="G267" s="3" t="str">
@@ -18755,7 +18832,7 @@
       <c r="E268" t="s">
         <v>1840</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="4" t="s">
         <v>1863</v>
       </c>
       <c r="G268" s="3" t="str">
@@ -18780,7 +18857,7 @@
       <c r="E269" t="s">
         <v>1837</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="4" t="s">
         <v>1862</v>
       </c>
       <c r="G269" s="3" t="str">
@@ -18805,7 +18882,7 @@
       <c r="E270" t="s">
         <v>1834</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="4" t="s">
         <v>1861</v>
       </c>
       <c r="G270" s="3" t="str">
@@ -18830,7 +18907,7 @@
       <c r="E271" t="s">
         <v>1831</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="4" t="s">
         <v>1860</v>
       </c>
       <c r="G271" s="3" t="str">
@@ -18855,7 +18932,7 @@
       <c r="E272" t="s">
         <v>1828</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="4" t="s">
         <v>1859</v>
       </c>
       <c r="G272" s="3" t="str">
@@ -18880,7 +18957,7 @@
       <c r="E273" t="s">
         <v>1825</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="G273" s="3" t="str">
@@ -18905,7 +18982,7 @@
       <c r="E274" t="s">
         <v>1822</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F274" s="4" t="s">
         <v>1857</v>
       </c>
       <c r="G274" s="3" t="str">
@@ -18930,7 +19007,7 @@
       <c r="E275" t="s">
         <v>1819</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="4" t="s">
         <v>1856</v>
       </c>
       <c r="G275" s="3" t="str">
@@ -18955,7 +19032,7 @@
       <c r="E276" t="s">
         <v>1816</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="4" t="s">
         <v>1855</v>
       </c>
       <c r="G276" s="3" t="str">
@@ -18980,7 +19057,7 @@
       <c r="E277" t="s">
         <v>1813</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="4" t="s">
         <v>1854</v>
       </c>
       <c r="G277" s="3" t="str">
@@ -19005,7 +19082,7 @@
       <c r="E278" t="s">
         <v>1811</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="4" t="s">
         <v>1853</v>
       </c>
       <c r="G278" s="3" t="str">
@@ -19030,7 +19107,7 @@
       <c r="E279" t="s">
         <v>1808</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="4" t="s">
         <v>1852</v>
       </c>
       <c r="G279" s="3" t="str">
@@ -19055,7 +19132,7 @@
       <c r="E280" t="s">
         <v>1805</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="4" t="s">
         <v>1851</v>
       </c>
       <c r="G280" s="3" t="str">
@@ -19080,7 +19157,7 @@
       <c r="E281" t="s">
         <v>1802</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="4" t="s">
         <v>1850</v>
       </c>
       <c r="G281" s="3" t="str">
@@ -19105,7 +19182,7 @@
       <c r="E282" t="s">
         <v>1799</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="4" t="s">
         <v>1849</v>
       </c>
       <c r="G282" s="3" t="str">
@@ -19130,7 +19207,7 @@
       <c r="E283" t="s">
         <v>1796</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F283" s="4" t="s">
         <v>1848</v>
       </c>
       <c r="G283" s="3" t="str">
@@ -19155,7 +19232,7 @@
       <c r="E284" t="s">
         <v>1794</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F284" s="4" t="s">
         <v>1847</v>
       </c>
       <c r="G284" s="3" t="str">
@@ -19180,7 +19257,7 @@
       <c r="E285" t="s">
         <v>1791</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F285" s="4" t="s">
         <v>1846</v>
       </c>
       <c r="G285" s="3" t="str">
@@ -19205,7 +19282,7 @@
       <c r="E286" t="s">
         <v>1788</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="4" t="s">
         <v>1845</v>
       </c>
       <c r="G286" s="3" t="str">
@@ -19230,7 +19307,7 @@
       <c r="E287" t="s">
         <v>1785</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="G287" s="3" t="str">
@@ -19255,7 +19332,7 @@
       <c r="E288" t="s">
         <v>1782</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="4" t="s">
         <v>1844</v>
       </c>
       <c r="G288" s="3" t="str">
@@ -19280,7 +19357,7 @@
       <c r="E289" t="s">
         <v>1779</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F289" s="4" t="s">
         <v>1843</v>
       </c>
       <c r="G289" s="3" t="str">
@@ -19305,7 +19382,7 @@
       <c r="E290" t="s">
         <v>1714</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="4" t="s">
         <v>1776</v>
       </c>
       <c r="G290" s="3" t="str">
@@ -19330,7 +19407,7 @@
       <c r="E291" t="s">
         <v>1711</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="4" t="s">
         <v>1775</v>
       </c>
       <c r="G291" s="3" t="str">
@@ -19355,7 +19432,7 @@
       <c r="E292" t="s">
         <v>1709</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="4" t="s">
         <v>1774</v>
       </c>
       <c r="G292" s="3" t="str">
@@ -19380,7 +19457,7 @@
       <c r="E293" t="s">
         <v>1706</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="4" t="s">
         <v>1773</v>
       </c>
       <c r="G293" s="3" t="str">
@@ -19405,7 +19482,7 @@
       <c r="E294" t="s">
         <v>1702</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="4" t="s">
         <v>1703</v>
       </c>
       <c r="G294" s="3" t="str">
@@ -19430,7 +19507,7 @@
       <c r="E295" t="s">
         <v>1700</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F295" s="4" t="s">
         <v>1772</v>
       </c>
       <c r="G295" s="3" t="str">
@@ -19455,7 +19532,7 @@
       <c r="E296" t="s">
         <v>1697</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="4" t="s">
         <v>1771</v>
       </c>
       <c r="G296" s="3" t="str">
@@ -19480,7 +19557,7 @@
       <c r="E297" t="s">
         <v>1694</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="4" t="s">
         <v>1770</v>
       </c>
       <c r="G297" s="3" t="str">
@@ -19505,7 +19582,7 @@
       <c r="E298" t="s">
         <v>1691</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="4" t="s">
         <v>1769</v>
       </c>
       <c r="G298" s="3" t="str">
@@ -19530,7 +19607,7 @@
       <c r="E299" t="s">
         <v>1689</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="4" t="s">
         <v>1768</v>
       </c>
       <c r="G299" s="3" t="str">
@@ -19555,7 +19632,7 @@
       <c r="E300" t="s">
         <v>1687</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="4" t="s">
         <v>1767</v>
       </c>
       <c r="G300" s="3" t="str">
@@ -19580,7 +19657,7 @@
       <c r="E301" t="s">
         <v>1684</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="4" t="s">
         <v>1766</v>
       </c>
       <c r="G301" s="3" t="str">
@@ -19605,7 +19682,7 @@
       <c r="E302" t="s">
         <v>1682</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="4" t="s">
         <v>1765</v>
       </c>
       <c r="G302" s="3" t="str">
@@ -19630,7 +19707,7 @@
       <c r="E303" t="s">
         <v>1679</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="4" t="s">
         <v>1764</v>
       </c>
       <c r="G303" s="3" t="str">
@@ -19655,7 +19732,7 @@
       <c r="E304" t="s">
         <v>1676</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="4" t="s">
         <v>1763</v>
       </c>
       <c r="G304" s="3" t="str">
@@ -19680,7 +19757,7 @@
       <c r="E305" t="s">
         <v>1673</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="4" t="s">
         <v>1762</v>
       </c>
       <c r="G305" s="3" t="str">
@@ -19699,7 +19776,7 @@
       <c r="E306" t="s">
         <v>1670</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="4" t="s">
         <v>1669</v>
       </c>
       <c r="G306" s="3" t="str">
@@ -19724,7 +19801,7 @@
       <c r="E307" t="s">
         <v>1667</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="4" t="s">
         <v>1761</v>
       </c>
       <c r="G307" s="3" t="str">
@@ -19749,7 +19826,7 @@
       <c r="E308" t="s">
         <v>1664</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="4" t="s">
         <v>1760</v>
       </c>
       <c r="G308" s="3" t="str">
@@ -19774,7 +19851,7 @@
       <c r="E309" t="s">
         <v>1661</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="4" t="s">
         <v>1759</v>
       </c>
       <c r="G309" s="3" t="str">
@@ -19799,7 +19876,7 @@
       <c r="E310" t="s">
         <v>1659</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="4" t="s">
         <v>1758</v>
       </c>
       <c r="G310" s="3" t="str">
@@ -19824,7 +19901,7 @@
       <c r="E311" t="s">
         <v>1656</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="4" t="s">
         <v>1757</v>
       </c>
       <c r="G311" s="3" t="str">
@@ -19849,7 +19926,7 @@
       <c r="E312" t="s">
         <v>1654</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="4" t="s">
         <v>1756</v>
       </c>
       <c r="G312" s="3" t="str">
@@ -19874,7 +19951,7 @@
       <c r="E313" t="s">
         <v>1651</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="4" t="s">
         <v>1755</v>
       </c>
       <c r="G313" s="3" t="str">
@@ -19899,7 +19976,7 @@
       <c r="E314" t="s">
         <v>1648</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="4" t="s">
         <v>1754</v>
       </c>
       <c r="G314" s="3" t="str">
@@ -19924,7 +20001,7 @@
       <c r="E315" t="s">
         <v>1646</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="4" t="s">
         <v>1753</v>
       </c>
       <c r="G315" s="3" t="str">
@@ -19949,7 +20026,7 @@
       <c r="E316" t="s">
         <v>1643</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="4" t="s">
         <v>1752</v>
       </c>
       <c r="G316" s="3" t="str">
@@ -19974,7 +20051,7 @@
       <c r="E317" t="s">
         <v>1641</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="4" t="s">
         <v>1751</v>
       </c>
       <c r="G317" s="3" t="str">
@@ -19999,7 +20076,7 @@
       <c r="E318" t="s">
         <v>1638</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="4" t="s">
         <v>1750</v>
       </c>
       <c r="G318" s="3" t="str">
@@ -20024,7 +20101,7 @@
       <c r="E319" t="s">
         <v>1635</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="4" t="s">
         <v>1749</v>
       </c>
       <c r="G319" s="3" t="str">
@@ -20049,7 +20126,7 @@
       <c r="E320" t="s">
         <v>1632</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="G320" s="3" t="str">
@@ -20074,7 +20151,7 @@
       <c r="E321" t="s">
         <v>1629</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="4" t="s">
         <v>1748</v>
       </c>
       <c r="G321" s="3" t="str">
@@ -20099,7 +20176,7 @@
       <c r="E322" t="s">
         <v>1626</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="4" t="s">
         <v>1747</v>
       </c>
       <c r="G322" s="3" t="str">
@@ -20124,7 +20201,7 @@
       <c r="E323" t="s">
         <v>1623</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="4" t="s">
         <v>1746</v>
       </c>
       <c r="G323" s="3" t="str">
@@ -20149,7 +20226,7 @@
       <c r="E324" t="s">
         <v>1620</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="4" t="s">
         <v>1745</v>
       </c>
       <c r="G324" s="3" t="str">
@@ -20174,7 +20251,7 @@
       <c r="E325" t="s">
         <v>1617</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="4" t="s">
         <v>1744</v>
       </c>
       <c r="G325" s="3" t="str">
@@ -20199,7 +20276,7 @@
       <c r="E326" t="s">
         <v>1614</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="4" t="s">
         <v>1743</v>
       </c>
       <c r="G326" s="3" t="str">
@@ -20224,7 +20301,7 @@
       <c r="E327" t="s">
         <v>1611</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="4" t="s">
         <v>1742</v>
       </c>
       <c r="G327" s="3" t="str">
@@ -20249,7 +20326,7 @@
       <c r="E328" t="s">
         <v>1608</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="4" t="s">
         <v>1741</v>
       </c>
       <c r="G328" s="3" t="str">
@@ -20274,7 +20351,7 @@
       <c r="E329" t="s">
         <v>1606</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="4" t="s">
         <v>1740</v>
       </c>
       <c r="G329" s="3" t="str">
@@ -20299,7 +20376,7 @@
       <c r="E330" t="s">
         <v>1603</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="4" t="s">
         <v>1739</v>
       </c>
       <c r="G330" s="3" t="str">
@@ -20324,7 +20401,7 @@
       <c r="E331" t="s">
         <v>1600</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="4" t="s">
         <v>1738</v>
       </c>
       <c r="G331" s="3" t="str">
@@ -20349,7 +20426,7 @@
       <c r="E332" t="s">
         <v>1597</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="4" t="s">
         <v>1737</v>
       </c>
       <c r="G332" s="3" t="str">
@@ -20374,7 +20451,7 @@
       <c r="E333" t="s">
         <v>1594</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="4" t="s">
         <v>1736</v>
       </c>
       <c r="G333" s="3" t="str">
@@ -20399,7 +20476,7 @@
       <c r="E334" t="s">
         <v>1591</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="4" t="s">
         <v>1735</v>
       </c>
       <c r="G334" s="3" t="str">
@@ -20424,7 +20501,7 @@
       <c r="E335" t="s">
         <v>1589</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="4" t="s">
         <v>1734</v>
       </c>
       <c r="G335" s="3" t="str">
@@ -20449,7 +20526,7 @@
       <c r="E336" t="s">
         <v>1586</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="4" t="s">
         <v>1733</v>
       </c>
       <c r="G336" s="3" t="str">
@@ -20471,7 +20548,7 @@
       <c r="E337" t="s">
         <v>1582</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="G337" s="3" t="str">
@@ -20496,7 +20573,7 @@
       <c r="E338" t="s">
         <v>1580</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="4" t="s">
         <v>1732</v>
       </c>
       <c r="G338" s="3" t="str">
@@ -20521,7 +20598,7 @@
       <c r="E339" t="s">
         <v>1577</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="4" t="s">
         <v>1731</v>
       </c>
       <c r="G339" s="3" t="str">
@@ -20546,7 +20623,7 @@
       <c r="E340" t="s">
         <v>1574</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="G340" s="3" t="str">
@@ -20571,7 +20648,7 @@
       <c r="E341" t="s">
         <v>395</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="4" t="s">
         <v>1729</v>
       </c>
       <c r="G341" s="3" t="str">
@@ -20596,7 +20673,7 @@
       <c r="E342" t="s">
         <v>1570</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="4" t="s">
         <v>1728</v>
       </c>
       <c r="G342" s="3" t="str">
@@ -20621,7 +20698,7 @@
       <c r="E343" t="s">
         <v>1567</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="4" t="s">
         <v>1727</v>
       </c>
       <c r="G343" s="3" t="str">
@@ -20646,7 +20723,7 @@
       <c r="E344" t="s">
         <v>1564</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="4" t="s">
         <v>1726</v>
       </c>
       <c r="G344" s="3" t="str">
@@ -20671,7 +20748,7 @@
       <c r="E345" t="s">
         <v>1561</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="4" t="s">
         <v>1725</v>
       </c>
       <c r="G345" s="3" t="str">
@@ -20696,7 +20773,7 @@
       <c r="E346" t="s">
         <v>1558</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="4" t="s">
         <v>1724</v>
       </c>
       <c r="G346" s="3" t="str">
@@ -20721,7 +20798,7 @@
       <c r="E347" t="s">
         <v>1556</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="4" t="s">
         <v>1723</v>
       </c>
       <c r="G347" s="3" t="str">
@@ -20746,7 +20823,7 @@
       <c r="E348" t="s">
         <v>1554</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="4" t="s">
         <v>1722</v>
       </c>
       <c r="G348" s="3" t="str">
@@ -20771,7 +20848,7 @@
       <c r="E349" t="s">
         <v>1551</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="4" t="s">
         <v>1721</v>
       </c>
       <c r="G349" s="3" t="str">
@@ -20796,7 +20873,7 @@
       <c r="E350" t="s">
         <v>1548</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="4" t="s">
         <v>1720</v>
       </c>
       <c r="G350" s="3" t="str">
@@ -20821,7 +20898,7 @@
       <c r="E351" t="s">
         <v>1545</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="4" t="s">
         <v>1719</v>
       </c>
       <c r="G351" s="3" t="str">
@@ -20846,7 +20923,7 @@
       <c r="E352" t="s">
         <v>1348</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="4" t="s">
         <v>1718</v>
       </c>
       <c r="G352" s="3" t="str">
@@ -20871,7 +20948,7 @@
       <c r="E353" t="s">
         <v>1540</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="4" t="s">
         <v>1717</v>
       </c>
       <c r="G353" s="3" t="str">
@@ -20896,7 +20973,7 @@
       <c r="E354" t="s">
         <v>1538</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="4" t="s">
         <v>1716</v>
       </c>
       <c r="G354" s="3" t="str">
@@ -20921,7 +20998,7 @@
       <c r="E355" t="s">
         <v>1348</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="G355" s="3" t="str">
@@ -20946,7 +21023,7 @@
       <c r="E356" t="s">
         <v>1531</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="G356" s="3" t="str">
@@ -20971,7 +21048,7 @@
       <c r="E357" t="s">
         <v>1528</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="4" t="s">
         <v>1529</v>
       </c>
       <c r="G357" s="3" t="str">
@@ -20996,7 +21073,7 @@
       <c r="E358" t="s">
         <v>1348</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="G358" s="3" t="str">
@@ -21021,7 +21098,7 @@
       <c r="E359" t="s">
         <v>1521</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="G359" s="3" t="str">
@@ -21046,7 +21123,7 @@
       <c r="E360" t="s">
         <v>1517</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="4" t="s">
         <v>1518</v>
       </c>
       <c r="G360" s="3" t="str">
@@ -21071,7 +21148,7 @@
       <c r="E361" t="s">
         <v>1514</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="G361" s="3" t="str">
@@ -21096,7 +21173,7 @@
       <c r="E362" t="s">
         <v>1511</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="4" t="s">
         <v>1715</v>
       </c>
       <c r="G362" s="3" t="str">
@@ -21121,7 +21198,7 @@
       <c r="E363" t="s">
         <v>1508</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="G363" s="3" t="str">
@@ -21146,7 +21223,7 @@
       <c r="E364" t="s">
         <v>1504</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="4" t="s">
         <v>1505</v>
       </c>
       <c r="G364" s="3" t="str">
@@ -21171,7 +21248,7 @@
       <c r="E365" t="s">
         <v>1500</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="4" t="s">
         <v>1501</v>
       </c>
       <c r="G365" s="3" t="str">
@@ -21196,7 +21273,7 @@
       <c r="E366" t="s">
         <v>22</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="4" t="s">
         <v>1497</v>
       </c>
       <c r="G366" s="3" t="str">
@@ -21221,7 +21298,7 @@
       <c r="E367" t="s">
         <v>22</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="4" t="s">
         <v>1495</v>
       </c>
       <c r="G367" s="3" t="str">
@@ -21246,7 +21323,7 @@
       <c r="E368" t="s">
         <v>1492</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="4" t="s">
         <v>1493</v>
       </c>
       <c r="G368" s="3" t="str">
@@ -21271,7 +21348,7 @@
       <c r="E369" t="s">
         <v>1488</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="4" t="s">
         <v>1489</v>
       </c>
       <c r="G369" s="3" t="str">
@@ -21296,7 +21373,7 @@
       <c r="E370" t="s">
         <v>1485</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="4" t="s">
         <v>1486</v>
       </c>
       <c r="G370" s="3" t="str">
@@ -21321,7 +21398,7 @@
       <c r="E371" t="s">
         <v>1481</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="G371" s="3" t="str">
@@ -21346,7 +21423,7 @@
       <c r="E372" t="s">
         <v>1477</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="4" t="s">
         <v>1478</v>
       </c>
       <c r="G372" s="3" t="str">
@@ -21371,7 +21448,7 @@
       <c r="E373" t="s">
         <v>1474</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="4" t="s">
         <v>1475</v>
       </c>
       <c r="G373" s="3" t="str">
@@ -21393,7 +21470,7 @@
       <c r="E374" t="s">
         <v>1348</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="G374" s="3" t="str">
@@ -21418,7 +21495,7 @@
       <c r="E375" t="s">
         <v>1468</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="G375" s="3" t="str">
@@ -21443,7 +21520,7 @@
       <c r="E376" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="4" t="s">
         <v>1465</v>
       </c>
       <c r="G376" s="3" t="str">
@@ -21468,7 +21545,7 @@
       <c r="E377" t="s">
         <v>1462</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="G377" s="3" t="str">
@@ -21493,7 +21570,7 @@
       <c r="E378" t="s">
         <v>1348</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="4" t="s">
         <v>1459</v>
       </c>
       <c r="G378" s="3" t="str">
@@ -21518,7 +21595,7 @@
       <c r="E379" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="4" t="s">
         <v>1456</v>
       </c>
       <c r="G379" s="3" t="str">
@@ -21543,7 +21620,7 @@
       <c r="E380" t="s">
         <v>1453</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F380" s="4" t="s">
         <v>1454</v>
       </c>
       <c r="G380" s="3" t="str">
@@ -21568,7 +21645,7 @@
       <c r="E381" t="s">
         <v>1450</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F381" s="4" t="s">
         <v>1451</v>
       </c>
       <c r="G381" s="3" t="str">
@@ -21593,7 +21670,7 @@
       <c r="E382" t="s">
         <v>1446</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F382" s="4" t="s">
         <v>1447</v>
       </c>
       <c r="G382" s="3" t="str">
@@ -21618,7 +21695,7 @@
       <c r="E383" t="s">
         <v>1442</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="4" t="s">
         <v>1443</v>
       </c>
       <c r="G383" s="3" t="str">
@@ -21643,7 +21720,7 @@
       <c r="E384" t="s">
         <v>1438</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="4" t="s">
         <v>1439</v>
       </c>
       <c r="G384" s="3" t="str">
@@ -21668,7 +21745,7 @@
       <c r="E385" t="s">
         <v>1435</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="4" t="s">
         <v>1434</v>
       </c>
       <c r="G385" s="3" t="str">
@@ -21693,7 +21770,7 @@
       <c r="E386" t="s">
         <v>1430</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F386" s="4" t="s">
         <v>1431</v>
       </c>
       <c r="G386" s="3" t="str">
@@ -21718,7 +21795,7 @@
       <c r="E387" t="s">
         <v>1390</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F387" s="4" t="s">
         <v>1427</v>
       </c>
       <c r="G387" s="3" t="str">
@@ -21743,7 +21820,7 @@
       <c r="E388" t="s">
         <v>1423</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="4" t="s">
         <v>1424</v>
       </c>
       <c r="G388" s="3" t="str">
@@ -21768,7 +21845,7 @@
       <c r="E389" t="s">
         <v>1419</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="4" t="s">
         <v>1420</v>
       </c>
       <c r="G389" s="3" t="str">
@@ -21790,7 +21867,7 @@
       <c r="E390" t="s">
         <v>1415</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="4" t="s">
         <v>1416</v>
       </c>
       <c r="G390" s="3" t="str">
@@ -21815,7 +21892,7 @@
       <c r="E391" t="s">
         <v>1412</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="4" t="s">
         <v>1413</v>
       </c>
       <c r="G391" s="3" t="str">
@@ -21840,7 +21917,7 @@
       <c r="E392" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="G392" s="3" t="str">
@@ -21865,7 +21942,7 @@
       <c r="E393" t="s">
         <v>1405</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="4" t="s">
         <v>1406</v>
       </c>
       <c r="G393" s="3" t="str">
@@ -21890,7 +21967,7 @@
       <c r="E394" t="s">
         <v>1401</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="G394" s="3" t="str">
@@ -21915,7 +21992,7 @@
       <c r="E395" t="s">
         <v>1398</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="G395" s="3" t="str">
@@ -21940,7 +22017,7 @@
       <c r="E396" t="s">
         <v>1394</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="4" t="s">
         <v>1395</v>
       </c>
       <c r="G396" s="3" t="str">
@@ -21965,7 +22042,7 @@
       <c r="E397" t="s">
         <v>1390</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="4" t="s">
         <v>1391</v>
       </c>
       <c r="G397" s="3" t="str">
@@ -21990,7 +22067,7 @@
       <c r="E398" t="s">
         <v>1386</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="4" t="s">
         <v>1387</v>
       </c>
       <c r="G398" s="3" t="str">
@@ -22015,7 +22092,7 @@
       <c r="E399" t="s">
         <v>1348</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="4" t="s">
         <v>1383</v>
       </c>
       <c r="G399" s="3" t="str">
@@ -22040,7 +22117,7 @@
       <c r="E400" t="s">
         <v>1379</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="4" t="s">
         <v>1380</v>
       </c>
       <c r="G400" s="3" t="str">
@@ -22065,7 +22142,7 @@
       <c r="E401" t="s">
         <v>1375</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="4" t="s">
         <v>1376</v>
       </c>
       <c r="G401" s="3" t="str">
@@ -22090,7 +22167,7 @@
       <c r="E402" t="s">
         <v>1371</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="G402" s="3" t="str">
@@ -22115,7 +22192,7 @@
       <c r="E403" t="s">
         <v>1368</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="G403" s="3" t="str">
@@ -22140,7 +22217,7 @@
       <c r="E404" t="s">
         <v>1364</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="4" t="s">
         <v>1365</v>
       </c>
       <c r="G404" s="3" t="str">
@@ -22165,7 +22242,7 @@
       <c r="E405" t="s">
         <v>1360</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F405" s="4" t="s">
         <v>1361</v>
       </c>
       <c r="G405" s="3" t="str">
@@ -22190,7 +22267,7 @@
       <c r="E406" t="s">
         <v>1356</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F406" s="4" t="s">
         <v>1357</v>
       </c>
       <c r="G406" s="3" t="str">
@@ -22215,7 +22292,7 @@
       <c r="E407" t="s">
         <v>1352</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F407" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="G407" s="3" t="str">
@@ -22240,7 +22317,7 @@
       <c r="E408" t="s">
         <v>1348</v>
       </c>
-      <c r="F408" t="s">
+      <c r="F408" s="4" t="s">
         <v>1349</v>
       </c>
       <c r="G408" s="3" t="str">
@@ -22265,7 +22342,7 @@
       <c r="E409" t="s">
         <v>1345</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F409" s="4" t="s">
         <v>1346</v>
       </c>
       <c r="G409" s="3" t="str">
@@ -22290,7 +22367,7 @@
       <c r="E410" t="s">
         <v>1342</v>
       </c>
-      <c r="F410" t="s">
+      <c r="F410" s="4" t="s">
         <v>1343</v>
       </c>
       <c r="G410" s="3" t="str">
@@ -22315,7 +22392,7 @@
       <c r="E411" t="s">
         <v>1338</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F411" s="4" t="s">
         <v>1339</v>
       </c>
       <c r="G411" s="3" t="str">
@@ -22340,7 +22417,7 @@
       <c r="E412" t="s">
         <v>948</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F412" s="4" t="s">
         <v>1335</v>
       </c>
       <c r="G412" s="3" t="str">
@@ -22365,7 +22442,7 @@
       <c r="E413" t="s">
         <v>1331</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F413" s="4" t="s">
         <v>1332</v>
       </c>
       <c r="G413" s="3" t="str">
@@ -22390,7 +22467,7 @@
       <c r="E414" t="s">
         <v>1327</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F414" s="4" t="s">
         <v>1326</v>
       </c>
       <c r="G414" s="3" t="str">
@@ -22415,7 +22492,7 @@
       <c r="E415" t="s">
         <v>1323</v>
       </c>
-      <c r="F415" t="s">
+      <c r="F415" s="4" t="s">
         <v>1324</v>
       </c>
       <c r="G415" s="3" t="str">
@@ -22440,7 +22517,7 @@
       <c r="E416" t="s">
         <v>1319</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F416" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="G416" s="3" t="str">
@@ -22465,7 +22542,7 @@
       <c r="E417" t="s">
         <v>1316</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F417" s="4" t="s">
         <v>1317</v>
       </c>
       <c r="G417" s="3" t="str">
@@ -22490,7 +22567,7 @@
       <c r="E418" t="s">
         <v>1312</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F418" s="4" t="s">
         <v>1313</v>
       </c>
       <c r="G418" s="3" t="str">
@@ -22515,7 +22592,7 @@
       <c r="E419" t="s">
         <v>1308</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F419" s="4" t="s">
         <v>1309</v>
       </c>
       <c r="G419" s="3" t="str">
@@ -22540,7 +22617,7 @@
       <c r="E420" t="s">
         <v>1305</v>
       </c>
-      <c r="F420" t="s">
+      <c r="F420" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="G420" s="3" t="str">
@@ -22565,7 +22642,7 @@
       <c r="E421" t="s">
         <v>1301</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F421" s="4" t="s">
         <v>1302</v>
       </c>
       <c r="G421" s="3" t="str">
@@ -22590,7 +22667,7 @@
       <c r="E422" t="s">
         <v>1297</v>
       </c>
-      <c r="F422" t="s">
+      <c r="F422" s="4" t="s">
         <v>1298</v>
       </c>
       <c r="G422" s="3" t="str">
@@ -22615,7 +22692,7 @@
       <c r="E423" t="s">
         <v>1294</v>
       </c>
-      <c r="F423" t="s">
+      <c r="F423" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="G423" s="3" t="str">
@@ -22640,7 +22717,7 @@
       <c r="E424" t="s">
         <v>1290</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F424" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="G424" s="3" t="str">
@@ -22665,7 +22742,7 @@
       <c r="E425" t="s">
         <v>1286</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F425" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="G425" s="3" t="str">
@@ -22690,7 +22767,7 @@
       <c r="E426" t="s">
         <v>1282</v>
       </c>
-      <c r="F426" t="s">
+      <c r="F426" s="4" t="s">
         <v>1283</v>
       </c>
       <c r="G426" s="3" t="str">
@@ -22715,7 +22792,7 @@
       <c r="E427" t="s">
         <v>1278</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F427" s="4" t="s">
         <v>1279</v>
       </c>
       <c r="G427" s="3" t="str">
@@ -22740,7 +22817,7 @@
       <c r="E428" t="s">
         <v>1274</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F428" s="4" t="s">
         <v>1275</v>
       </c>
       <c r="G428" s="3" t="str">
@@ -22765,7 +22842,7 @@
       <c r="E429" t="s">
         <v>1270</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F429" s="4" t="s">
         <v>1271</v>
       </c>
       <c r="G429" s="3" t="str">
@@ -22790,7 +22867,7 @@
       <c r="E430" t="s">
         <v>1266</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="4" t="s">
         <v>1267</v>
       </c>
       <c r="G430" s="3" t="str">
@@ -22815,7 +22892,7 @@
       <c r="E431" t="s">
         <v>1263</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F431" s="4" t="s">
         <v>1264</v>
       </c>
       <c r="G431" s="3" t="str">
@@ -22840,7 +22917,7 @@
       <c r="E432" t="s">
         <v>1260</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F432" s="4" t="s">
         <v>1261</v>
       </c>
       <c r="G432" s="3" t="str">
@@ -22865,7 +22942,7 @@
       <c r="E433" t="s">
         <v>1256</v>
       </c>
-      <c r="F433" t="s">
+      <c r="F433" s="4" t="s">
         <v>1257</v>
       </c>
       <c r="G433" s="3" t="str">
@@ -22890,7 +22967,7 @@
       <c r="E434" t="s">
         <v>1252</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F434" s="4" t="s">
         <v>1253</v>
       </c>
       <c r="G434" s="3" t="str">
@@ -22915,7 +22992,7 @@
       <c r="E435" t="s">
         <v>1249</v>
       </c>
-      <c r="F435" t="s">
+      <c r="F435" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="G435" s="3" t="str">
@@ -22940,7 +23017,7 @@
       <c r="E436" t="s">
         <v>1189</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F436" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="G436" s="3" t="str">
@@ -22965,7 +23042,7 @@
       <c r="E437" t="s">
         <v>1246</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F437" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="G437" s="3" t="str">
@@ -22990,7 +23067,7 @@
       <c r="E438" t="s">
         <v>1242</v>
       </c>
-      <c r="F438" t="s">
+      <c r="F438" s="4" t="s">
         <v>1243</v>
       </c>
       <c r="G438" s="3" t="str">
@@ -23015,7 +23092,7 @@
       <c r="E439" t="s">
         <v>1238</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F439" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="G439" s="3" t="str">
@@ -23040,7 +23117,7 @@
       <c r="E440" t="s">
         <v>1235</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F440" s="4" t="s">
         <v>1236</v>
       </c>
       <c r="G440" s="3" t="str">
@@ -23065,7 +23142,7 @@
       <c r="E441" t="s">
         <v>1231</v>
       </c>
-      <c r="F441" t="s">
+      <c r="F441" s="4" t="s">
         <v>1232</v>
       </c>
       <c r="G441" s="3" t="str">
@@ -23090,7 +23167,7 @@
       <c r="E442" t="s">
         <v>1227</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F442" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="G442" s="3" t="str">
@@ -23115,7 +23192,7 @@
       <c r="E443" t="s">
         <v>1223</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F443" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="G443" s="3" t="str">
@@ -23140,7 +23217,7 @@
       <c r="E444" t="s">
         <v>1220</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F444" s="4" t="s">
         <v>1221</v>
       </c>
       <c r="G444" s="3" t="str">
@@ -23165,7 +23242,7 @@
       <c r="E445" t="s">
         <v>1217</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F445" s="4" t="s">
         <v>1218</v>
       </c>
       <c r="G445" s="3" t="str">
@@ -23190,7 +23267,7 @@
       <c r="E446" t="s">
         <v>1213</v>
       </c>
-      <c r="F446" t="s">
+      <c r="F446" s="4" t="s">
         <v>1214</v>
       </c>
       <c r="G446" s="3" t="str">
@@ -23215,7 +23292,7 @@
       <c r="E447" t="s">
         <v>1209</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F447" s="4" t="s">
         <v>1210</v>
       </c>
       <c r="G447" s="3" t="str">
@@ -23240,7 +23317,7 @@
       <c r="E448" t="s">
         <v>1205</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F448" s="4" t="s">
         <v>1206</v>
       </c>
       <c r="G448" s="3" t="str">
@@ -23265,7 +23342,7 @@
       <c r="E449" t="s">
         <v>1201</v>
       </c>
-      <c r="F449" t="s">
+      <c r="F449" s="4" t="s">
         <v>1202</v>
       </c>
       <c r="G449" s="3" t="str">
@@ -23290,7 +23367,7 @@
       <c r="E450" t="s">
         <v>1197</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F450" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="G450" s="3" t="str">
@@ -23315,7 +23392,7 @@
       <c r="E451" t="s">
         <v>1193</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F451" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="G451" s="3" t="str">
@@ -23340,7 +23417,7 @@
       <c r="E452" t="s">
         <v>1189</v>
       </c>
-      <c r="F452" t="s">
+      <c r="F452" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="G452" s="3" t="str">
@@ -23365,7 +23442,7 @@
       <c r="E453" t="s">
         <v>1185</v>
       </c>
-      <c r="F453" t="s">
+      <c r="F453" s="4" t="s">
         <v>1186</v>
       </c>
       <c r="G453" s="3" t="str">
@@ -23390,7 +23467,7 @@
       <c r="E454" t="s">
         <v>1181</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F454" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="G454" s="3" t="str">
@@ -23415,7 +23492,7 @@
       <c r="E455" t="s">
         <v>1182</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F455" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="G455" s="3" t="str">
@@ -23440,7 +23517,7 @@
       <c r="E456" t="s">
         <v>1174</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F456" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="G456" s="3" t="str">
@@ -23465,7 +23542,7 @@
       <c r="E457" t="s">
         <v>1171</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F457" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="G457" s="3" t="str">
@@ -23490,7 +23567,7 @@
       <c r="E458" t="s">
         <v>1167</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F458" s="4" t="s">
         <v>1168</v>
       </c>
       <c r="G458" s="3" t="str">
@@ -23515,7 +23592,7 @@
       <c r="E459" t="s">
         <v>1163</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F459" s="4" t="s">
         <v>1164</v>
       </c>
       <c r="G459" s="3" t="str">
@@ -23540,7 +23617,7 @@
       <c r="E460" t="s">
         <v>1159</v>
       </c>
-      <c r="F460" t="s">
+      <c r="F460" s="4" t="s">
         <v>1160</v>
       </c>
       <c r="G460" s="3" t="str">
@@ -23565,7 +23642,7 @@
       <c r="E461" t="s">
         <v>1155</v>
       </c>
-      <c r="F461" t="s">
+      <c r="F461" s="4" t="s">
         <v>1156</v>
       </c>
       <c r="G461" s="3" t="str">
@@ -23590,7 +23667,7 @@
       <c r="E462" t="s">
         <v>1152</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F462" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="G462" s="3" t="str">
@@ -23615,7 +23692,7 @@
       <c r="E463" t="s">
         <v>1147</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F463" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="G463" s="3" t="str">
@@ -23640,7 +23717,7 @@
       <c r="E464" t="s">
         <v>1143</v>
       </c>
-      <c r="F464" t="s">
+      <c r="F464" s="4" t="s">
         <v>1144</v>
       </c>
       <c r="G464" s="3" t="str">
@@ -23665,7 +23742,7 @@
       <c r="E465" t="s">
         <v>1139</v>
       </c>
-      <c r="F465" t="s">
+      <c r="F465" s="4" t="s">
         <v>1140</v>
       </c>
       <c r="G465" s="3" t="str">
@@ -23690,7 +23767,7 @@
       <c r="E466" t="s">
         <v>1134</v>
       </c>
-      <c r="F466" t="s">
+      <c r="F466" s="4" t="s">
         <v>1135</v>
       </c>
       <c r="G466" s="3" t="str">
@@ -23715,7 +23792,7 @@
       <c r="E467" t="s">
         <v>1130</v>
       </c>
-      <c r="F467" t="s">
+      <c r="F467" s="4" t="s">
         <v>1131</v>
       </c>
       <c r="G467" s="3" t="str">
@@ -23740,7 +23817,7 @@
       <c r="E468" t="s">
         <v>1126</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F468" s="4" t="s">
         <v>1127</v>
       </c>
       <c r="G468" s="3" t="str">
@@ -23765,7 +23842,7 @@
       <c r="E469" t="s">
         <v>1122</v>
       </c>
-      <c r="F469" t="s">
+      <c r="F469" s="4" t="s">
         <v>1123</v>
       </c>
       <c r="G469" s="3" t="str">
@@ -23790,7 +23867,7 @@
       <c r="E470" t="s">
         <v>1118</v>
       </c>
-      <c r="F470" t="s">
+      <c r="F470" s="4" t="s">
         <v>1119</v>
       </c>
       <c r="G470" s="3" t="str">
@@ -23815,7 +23892,7 @@
       <c r="E471" t="s">
         <v>1114</v>
       </c>
-      <c r="F471" t="s">
+      <c r="F471" s="4" t="s">
         <v>1115</v>
       </c>
       <c r="G471" s="3" t="str">
@@ -23840,7 +23917,7 @@
       <c r="E472" t="s">
         <v>1110</v>
       </c>
-      <c r="F472" t="s">
+      <c r="F472" s="4" t="s">
         <v>1111</v>
       </c>
       <c r="G472" s="3" t="str">
@@ -23865,7 +23942,7 @@
       <c r="E473" t="s">
         <v>913</v>
       </c>
-      <c r="F473" t="s">
+      <c r="F473" s="4" t="s">
         <v>1107</v>
       </c>
       <c r="G473" s="3" t="str">
@@ -23890,7 +23967,7 @@
       <c r="E474" t="s">
         <v>1103</v>
       </c>
-      <c r="F474" t="s">
+      <c r="F474" s="4" t="s">
         <v>1104</v>
       </c>
       <c r="G474" s="3" t="str">
@@ -23915,7 +23992,7 @@
       <c r="E475" t="s">
         <v>1099</v>
       </c>
-      <c r="F475" t="s">
+      <c r="F475" s="4" t="s">
         <v>1100</v>
       </c>
       <c r="G475" s="3" t="str">
@@ -23940,7 +24017,7 @@
       <c r="E476" t="s">
         <v>1096</v>
       </c>
-      <c r="F476" t="s">
+      <c r="F476" s="4" t="s">
         <v>1097</v>
       </c>
       <c r="G476" s="3" t="str">
@@ -23965,7 +24042,7 @@
       <c r="E477" t="s">
         <v>1092</v>
       </c>
-      <c r="F477" t="s">
+      <c r="F477" s="4" t="s">
         <v>1093</v>
       </c>
       <c r="G477" s="3" t="str">
@@ -23990,7 +24067,7 @@
       <c r="E478" t="s">
         <v>1088</v>
       </c>
-      <c r="F478" t="s">
+      <c r="F478" s="4" t="s">
         <v>1089</v>
       </c>
       <c r="G478" s="3" t="str">
@@ -24015,7 +24092,7 @@
       <c r="E479" t="s">
         <v>1085</v>
       </c>
-      <c r="F479" t="s">
+      <c r="F479" s="4" t="s">
         <v>1086</v>
       </c>
       <c r="G479" s="3" t="str">
@@ -24040,7 +24117,7 @@
       <c r="E480" t="s">
         <v>1082</v>
       </c>
-      <c r="F480" t="s">
+      <c r="F480" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="G480" s="3" t="str">
@@ -24065,7 +24142,7 @@
       <c r="E481" t="s">
         <v>1079</v>
       </c>
-      <c r="F481" t="s">
+      <c r="F481" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="G481" s="3" t="str">
@@ -24090,7 +24167,7 @@
       <c r="E482" t="s">
         <v>572</v>
       </c>
-      <c r="F482" t="s">
+      <c r="F482" s="4" t="s">
         <v>1076</v>
       </c>
       <c r="G482" s="3" t="str">
@@ -24115,7 +24192,7 @@
       <c r="E483" t="s">
         <v>1072</v>
       </c>
-      <c r="F483" t="s">
+      <c r="F483" s="4" t="s">
         <v>1073</v>
       </c>
       <c r="G483" s="3" t="str">
@@ -24140,7 +24217,7 @@
       <c r="E484" t="s">
         <v>1068</v>
       </c>
-      <c r="F484" t="s">
+      <c r="F484" s="4" t="s">
         <v>1069</v>
       </c>
       <c r="G484" s="3" t="str">
@@ -24165,7 +24242,7 @@
       <c r="E485" t="s">
         <v>1064</v>
       </c>
-      <c r="F485" t="s">
+      <c r="F485" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="G485" s="3" t="str">
@@ -24190,7 +24267,7 @@
       <c r="E486" t="s">
         <v>1060</v>
       </c>
-      <c r="F486" t="s">
+      <c r="F486" s="4" t="s">
         <v>1061</v>
       </c>
       <c r="G486" s="3" t="str">
@@ -24215,7 +24292,7 @@
       <c r="E487" t="s">
         <v>1034</v>
       </c>
-      <c r="F487" t="s">
+      <c r="F487" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="G487" s="3" t="str">
@@ -24240,7 +24317,7 @@
       <c r="E488" t="s">
         <v>1053</v>
       </c>
-      <c r="F488" t="s">
+      <c r="F488" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="G488" s="3" t="str">
@@ -24265,7 +24342,7 @@
       <c r="E489" t="s">
         <v>1049</v>
       </c>
-      <c r="F489" t="s">
+      <c r="F489" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G489" s="3" t="str">
@@ -24290,7 +24367,7 @@
       <c r="E490" t="s">
         <v>1046</v>
       </c>
-      <c r="F490" t="s">
+      <c r="F490" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="G490" s="3" t="str">
@@ -24315,7 +24392,7 @@
       <c r="E491" t="s">
         <v>1042</v>
       </c>
-      <c r="F491" t="s">
+      <c r="F491" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="G491" s="3" t="str">
@@ -24340,7 +24417,7 @@
       <c r="E492" t="s">
         <v>1038</v>
       </c>
-      <c r="F492" t="s">
+      <c r="F492" s="4" t="s">
         <v>1039</v>
       </c>
       <c r="G492" s="3" t="str">
@@ -24365,7 +24442,7 @@
       <c r="E493" t="s">
         <v>1034</v>
       </c>
-      <c r="F493" t="s">
+      <c r="F493" s="4" t="s">
         <v>1035</v>
       </c>
       <c r="G493" s="3" t="str">
@@ -24390,7 +24467,7 @@
       <c r="E494" t="s">
         <v>1031</v>
       </c>
-      <c r="F494" t="s">
+      <c r="F494" s="4" t="s">
         <v>1032</v>
       </c>
       <c r="G494" s="3" t="str">
@@ -24415,7 +24492,7 @@
       <c r="E495" t="s">
         <v>1027</v>
       </c>
-      <c r="F495" t="s">
+      <c r="F495" s="4" t="s">
         <v>1028</v>
       </c>
       <c r="G495" s="3" t="str">
@@ -24440,7 +24517,7 @@
       <c r="E496" t="s">
         <v>1023</v>
       </c>
-      <c r="F496" t="s">
+      <c r="F496" s="4" t="s">
         <v>1024</v>
       </c>
       <c r="G496" s="3" t="str">
@@ -24465,7 +24542,7 @@
       <c r="E497" t="s">
         <v>1019</v>
       </c>
-      <c r="F497" t="s">
+      <c r="F497" s="4" t="s">
         <v>1020</v>
       </c>
       <c r="G497" s="3" t="str">
@@ -24490,7 +24567,7 @@
       <c r="E498" t="s">
         <v>1015</v>
       </c>
-      <c r="F498" t="s">
+      <c r="F498" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="G498" s="3" t="str">
@@ -24515,7 +24592,7 @@
       <c r="E499" t="s">
         <v>1011</v>
       </c>
-      <c r="F499" t="s">
+      <c r="F499" s="4" t="s">
         <v>1012</v>
       </c>
       <c r="G499" s="3" t="str">
@@ -24540,7 +24617,7 @@
       <c r="E500" t="s">
         <v>1008</v>
       </c>
-      <c r="F500" t="s">
+      <c r="F500" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="G500" s="3" t="str">
@@ -24565,7 +24642,7 @@
       <c r="E501" t="s">
         <v>1004</v>
       </c>
-      <c r="F501" t="s">
+      <c r="F501" s="4" t="s">
         <v>1005</v>
       </c>
       <c r="G501" s="3" t="str">
@@ -24590,7 +24667,7 @@
       <c r="E502" t="s">
         <v>1000</v>
       </c>
-      <c r="F502" t="s">
+      <c r="F502" s="4" t="s">
         <v>1001</v>
       </c>
       <c r="G502" s="3" t="str">
@@ -24615,7 +24692,7 @@
       <c r="E503" t="s">
         <v>996</v>
       </c>
-      <c r="F503" t="s">
+      <c r="F503" s="4" t="s">
         <v>997</v>
       </c>
       <c r="G503" s="3" t="str">
@@ -24640,7 +24717,7 @@
       <c r="E504" t="s">
         <v>992</v>
       </c>
-      <c r="F504" t="s">
+      <c r="F504" s="4" t="s">
         <v>993</v>
       </c>
       <c r="G504" s="3" t="str">
@@ -24665,7 +24742,7 @@
       <c r="E505" t="s">
         <v>988</v>
       </c>
-      <c r="F505" t="s">
+      <c r="F505" s="4" t="s">
         <v>989</v>
       </c>
       <c r="G505" s="3" t="str">
@@ -24681,7 +24758,7 @@
       <c r="B506" t="s">
         <v>984</v>
       </c>
-      <c r="F506" t="s">
+      <c r="F506" s="4" t="s">
         <v>985</v>
       </c>
       <c r="G506" s="3" t="str">
@@ -24706,7 +24783,7 @@
       <c r="E507" t="s">
         <v>982</v>
       </c>
-      <c r="F507" t="s">
+      <c r="F507" s="4" t="s">
         <v>983</v>
       </c>
       <c r="G507" s="3" t="str">
@@ -24731,7 +24808,7 @@
       <c r="E508" t="s">
         <v>978</v>
       </c>
-      <c r="F508" t="s">
+      <c r="F508" s="4" t="s">
         <v>979</v>
       </c>
       <c r="G508" s="3" t="str">
@@ -24756,7 +24833,7 @@
       <c r="E509" t="s">
         <v>974</v>
       </c>
-      <c r="F509" t="s">
+      <c r="F509" s="4" t="s">
         <v>975</v>
       </c>
       <c r="G509" s="3" t="str">
@@ -24781,7 +24858,7 @@
       <c r="E510" t="s">
         <v>572</v>
       </c>
-      <c r="F510" t="s">
+      <c r="F510" s="4" t="s">
         <v>971</v>
       </c>
       <c r="G510" s="3" t="str">
@@ -24806,7 +24883,7 @@
       <c r="E511" t="s">
         <v>967</v>
       </c>
-      <c r="F511" t="s">
+      <c r="F511" s="4" t="s">
         <v>968</v>
       </c>
       <c r="G511" s="3" t="str">
@@ -24831,7 +24908,7 @@
       <c r="E512" t="s">
         <v>962</v>
       </c>
-      <c r="F512" t="s">
+      <c r="F512" s="4" t="s">
         <v>964</v>
       </c>
       <c r="G512" s="3" t="str">
@@ -24856,7 +24933,7 @@
       <c r="E513" t="s">
         <v>959</v>
       </c>
-      <c r="F513" t="s">
+      <c r="F513" s="4" t="s">
         <v>960</v>
       </c>
       <c r="G513" s="3" t="str">
@@ -24881,7 +24958,7 @@
       <c r="E514" t="s">
         <v>955</v>
       </c>
-      <c r="F514" t="s">
+      <c r="F514" s="4" t="s">
         <v>956</v>
       </c>
       <c r="G514" s="3" t="str">
@@ -24906,7 +24983,7 @@
       <c r="E515" t="s">
         <v>572</v>
       </c>
-      <c r="F515" t="s">
+      <c r="F515" s="4" t="s">
         <v>952</v>
       </c>
       <c r="G515" s="3" t="str">
@@ -24931,7 +25008,7 @@
       <c r="E516" t="s">
         <v>948</v>
       </c>
-      <c r="F516" t="s">
+      <c r="F516" s="4" t="s">
         <v>949</v>
       </c>
       <c r="G516" s="3" t="str">
@@ -24956,7 +25033,7 @@
       <c r="E517" t="s">
         <v>944</v>
       </c>
-      <c r="F517" t="s">
+      <c r="F517" s="4" t="s">
         <v>945</v>
       </c>
       <c r="G517" s="3" t="str">
@@ -24981,7 +25058,7 @@
       <c r="E518" t="s">
         <v>940</v>
       </c>
-      <c r="F518" t="s">
+      <c r="F518" s="4" t="s">
         <v>941</v>
       </c>
       <c r="G518" s="3" t="str">
@@ -25006,7 +25083,7 @@
       <c r="E519" t="s">
         <v>936</v>
       </c>
-      <c r="F519" t="s">
+      <c r="F519" s="4" t="s">
         <v>937</v>
       </c>
       <c r="G519" s="3" t="str">
@@ -25031,7 +25108,7 @@
       <c r="E520" t="s">
         <v>932</v>
       </c>
-      <c r="F520" t="s">
+      <c r="F520" s="4" t="s">
         <v>933</v>
       </c>
       <c r="G520" s="3" t="str">
@@ -25056,7 +25133,7 @@
       <c r="E521" t="s">
         <v>929</v>
       </c>
-      <c r="F521" t="s">
+      <c r="F521" s="4" t="s">
         <v>930</v>
       </c>
       <c r="G521" s="3" t="str">
@@ -25081,7 +25158,7 @@
       <c r="E522" t="s">
         <v>925</v>
       </c>
-      <c r="F522" t="s">
+      <c r="F522" s="4" t="s">
         <v>926</v>
       </c>
       <c r="G522" s="3" t="str">
@@ -25106,7 +25183,7 @@
       <c r="E523" t="s">
         <v>921</v>
       </c>
-      <c r="F523" t="s">
+      <c r="F523" s="4" t="s">
         <v>922</v>
       </c>
       <c r="G523" s="3" t="str">
@@ -25131,7 +25208,7 @@
       <c r="E524" t="s">
         <v>917</v>
       </c>
-      <c r="F524" t="s">
+      <c r="F524" s="4" t="s">
         <v>918</v>
       </c>
       <c r="G524" s="3" t="str">
@@ -25156,7 +25233,7 @@
       <c r="E525" t="s">
         <v>913</v>
       </c>
-      <c r="F525" t="s">
+      <c r="F525" s="4" t="s">
         <v>914</v>
       </c>
       <c r="G525" s="3" t="str">
@@ -25181,7 +25258,7 @@
       <c r="E526" t="s">
         <v>910</v>
       </c>
-      <c r="F526" t="s">
+      <c r="F526" s="4" t="s">
         <v>911</v>
       </c>
       <c r="G526" s="3" t="str">
@@ -25206,7 +25283,7 @@
       <c r="E527" t="s">
         <v>906</v>
       </c>
-      <c r="F527" t="s">
+      <c r="F527" s="4" t="s">
         <v>907</v>
       </c>
       <c r="G527" s="3" t="str">
@@ -25231,7 +25308,7 @@
       <c r="E528" t="s">
         <v>902</v>
       </c>
-      <c r="F528" t="s">
+      <c r="F528" s="4" t="s">
         <v>903</v>
       </c>
       <c r="G528" s="3" t="str">
@@ -25256,7 +25333,7 @@
       <c r="E529" t="s">
         <v>881</v>
       </c>
-      <c r="F529" t="s">
+      <c r="F529" s="4" t="s">
         <v>899</v>
       </c>
       <c r="G529" s="3" t="str">
@@ -25281,7 +25358,7 @@
       <c r="E530" t="s">
         <v>896</v>
       </c>
-      <c r="F530" t="s">
+      <c r="F530" s="4" t="s">
         <v>897</v>
       </c>
       <c r="G530" s="3" t="str">
@@ -25306,7 +25383,7 @@
       <c r="E531" t="s">
         <v>892</v>
       </c>
-      <c r="F531" t="s">
+      <c r="F531" s="4" t="s">
         <v>893</v>
       </c>
       <c r="G531" s="3" t="str">
@@ -25331,7 +25408,7 @@
       <c r="E532" t="s">
         <v>888</v>
       </c>
-      <c r="F532" t="s">
+      <c r="F532" s="4" t="s">
         <v>889</v>
       </c>
       <c r="G532" s="3" t="str">
@@ -25356,7 +25433,7 @@
       <c r="E533" t="s">
         <v>885</v>
       </c>
-      <c r="F533" t="s">
+      <c r="F533" s="4" t="s">
         <v>886</v>
       </c>
       <c r="G533" s="3" t="str">
@@ -25381,7 +25458,7 @@
       <c r="E534" t="s">
         <v>881</v>
       </c>
-      <c r="F534" t="s">
+      <c r="F534" s="4" t="s">
         <v>882</v>
       </c>
       <c r="G534" s="3" t="str">
@@ -25406,7 +25483,7 @@
       <c r="E535" t="s">
         <v>878</v>
       </c>
-      <c r="F535" t="s">
+      <c r="F535" s="4" t="s">
         <v>879</v>
       </c>
       <c r="G535" s="3" t="str">
@@ -25431,7 +25508,7 @@
       <c r="E536" t="s">
         <v>874</v>
       </c>
-      <c r="F536" t="s">
+      <c r="F536" s="4" t="s">
         <v>875</v>
       </c>
       <c r="G536" s="3" t="str">
@@ -25456,7 +25533,7 @@
       <c r="E537" t="s">
         <v>870</v>
       </c>
-      <c r="F537" t="s">
+      <c r="F537" s="4" t="s">
         <v>871</v>
       </c>
       <c r="G537" s="3" t="str">
@@ -25481,7 +25558,7 @@
       <c r="E538" t="s">
         <v>866</v>
       </c>
-      <c r="F538" t="s">
+      <c r="F538" s="4" t="s">
         <v>867</v>
       </c>
       <c r="G538" s="3" t="str">
@@ -25506,7 +25583,7 @@
       <c r="E539" t="s">
         <v>862</v>
       </c>
-      <c r="F539" t="s">
+      <c r="F539" s="4" t="s">
         <v>863</v>
       </c>
       <c r="G539" s="3" t="str">
@@ -25531,7 +25608,7 @@
       <c r="E540" t="s">
         <v>859</v>
       </c>
-      <c r="F540" t="s">
+      <c r="F540" s="4" t="s">
         <v>860</v>
       </c>
       <c r="G540" s="3" t="str">
@@ -25556,7 +25633,7 @@
       <c r="E541" t="s">
         <v>825</v>
       </c>
-      <c r="F541" t="s">
+      <c r="F541" s="4" t="s">
         <v>826</v>
       </c>
       <c r="G541" s="3" t="str">
@@ -25581,7 +25658,7 @@
       <c r="E542" t="s">
         <v>458</v>
       </c>
-      <c r="F542" t="s">
+      <c r="F542" s="4" t="s">
         <v>823</v>
       </c>
       <c r="G542" s="3" t="str">
@@ -25607,7 +25684,7 @@
       <c r="E543" t="s">
         <v>819</v>
       </c>
-      <c r="F543" t="s">
+      <c r="F543" s="4" t="s">
         <v>820</v>
       </c>
       <c r="G543" s="3" t="str">
@@ -25632,7 +25709,7 @@
       <c r="E544" t="s">
         <v>815</v>
       </c>
-      <c r="F544" t="s">
+      <c r="F544" s="4" t="s">
         <v>816</v>
       </c>
       <c r="G544" s="3" t="str">
@@ -25657,7 +25734,7 @@
       <c r="E545" t="s">
         <v>811</v>
       </c>
-      <c r="F545" t="s">
+      <c r="F545" s="4" t="s">
         <v>812</v>
       </c>
       <c r="G545" s="3" t="str">
@@ -25682,7 +25759,7 @@
       <c r="E546" t="s">
         <v>807</v>
       </c>
-      <c r="F546" t="s">
+      <c r="F546" s="4" t="s">
         <v>808</v>
       </c>
       <c r="G546" s="3" t="str">
@@ -25707,7 +25784,7 @@
       <c r="E547" t="s">
         <v>803</v>
       </c>
-      <c r="F547" t="s">
+      <c r="F547" s="4" t="s">
         <v>804</v>
       </c>
       <c r="G547" s="3" t="str">
@@ -25732,7 +25809,7 @@
       <c r="E548" t="s">
         <v>799</v>
       </c>
-      <c r="F548" t="s">
+      <c r="F548" s="4" t="s">
         <v>800</v>
       </c>
       <c r="G548" s="3" t="str">
@@ -25757,7 +25834,7 @@
       <c r="E549" t="s">
         <v>795</v>
       </c>
-      <c r="F549" t="s">
+      <c r="F549" s="4" t="s">
         <v>796</v>
       </c>
       <c r="G549" s="3" t="str">
@@ -25782,7 +25859,7 @@
       <c r="E550" t="s">
         <v>791</v>
       </c>
-      <c r="F550" t="s">
+      <c r="F550" s="4" t="s">
         <v>792</v>
       </c>
       <c r="G550" s="3" t="str">
@@ -25807,7 +25884,7 @@
       <c r="E551" t="s">
         <v>788</v>
       </c>
-      <c r="F551" t="s">
+      <c r="F551" s="4" t="s">
         <v>789</v>
       </c>
       <c r="G551" s="3" t="str">
@@ -25832,7 +25909,7 @@
       <c r="E552" t="s">
         <v>784</v>
       </c>
-      <c r="F552" t="s">
+      <c r="F552" s="4" t="s">
         <v>785</v>
       </c>
       <c r="G552" s="3" t="str">
@@ -25857,7 +25934,7 @@
       <c r="E553" t="s">
         <v>781</v>
       </c>
-      <c r="F553" t="s">
+      <c r="F553" s="4" t="s">
         <v>782</v>
       </c>
       <c r="G553" s="3" t="str">
@@ -25882,7 +25959,7 @@
       <c r="E554" t="s">
         <v>709</v>
       </c>
-      <c r="F554" t="s">
+      <c r="F554" s="4" t="s">
         <v>778</v>
       </c>
       <c r="G554" s="3" t="str">
@@ -25907,7 +25984,7 @@
       <c r="E555" t="s">
         <v>647</v>
       </c>
-      <c r="F555" t="s">
+      <c r="F555" s="4" t="s">
         <v>775</v>
       </c>
       <c r="G555" s="3" t="str">
@@ -25932,7 +26009,7 @@
       <c r="E556" t="s">
         <v>771</v>
       </c>
-      <c r="F556" t="s">
+      <c r="F556" s="4" t="s">
         <v>772</v>
       </c>
       <c r="G556" s="3" t="str">
@@ -25957,7 +26034,7 @@
       <c r="E557" t="s">
         <v>767</v>
       </c>
-      <c r="F557" t="s">
+      <c r="F557" s="4" t="s">
         <v>768</v>
       </c>
       <c r="G557" s="3" t="str">
@@ -25982,7 +26059,7 @@
       <c r="E558" t="s">
         <v>764</v>
       </c>
-      <c r="F558" t="s">
+      <c r="F558" s="4" t="s">
         <v>765</v>
       </c>
       <c r="G558" s="3" t="str">
@@ -26007,7 +26084,7 @@
       <c r="E559" t="s">
         <v>761</v>
       </c>
-      <c r="F559" t="s">
+      <c r="F559" s="4" t="s">
         <v>762</v>
       </c>
       <c r="G559" s="3" t="str">
@@ -26032,7 +26109,7 @@
       <c r="E560" t="s">
         <v>757</v>
       </c>
-      <c r="F560" t="s">
+      <c r="F560" s="4" t="s">
         <v>758</v>
       </c>
       <c r="G560" s="3" t="str">
@@ -26057,7 +26134,7 @@
       <c r="E561" t="s">
         <v>743</v>
       </c>
-      <c r="F561" t="s">
+      <c r="F561" s="4" t="s">
         <v>754</v>
       </c>
       <c r="G561" s="3" t="str">
@@ -26082,7 +26159,7 @@
       <c r="E562" t="s">
         <v>750</v>
       </c>
-      <c r="F562" t="s">
+      <c r="F562" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G562" s="3" t="str">
@@ -26107,7 +26184,7 @@
       <c r="E563" t="s">
         <v>647</v>
       </c>
-      <c r="F563" t="s">
+      <c r="F563" s="4" t="s">
         <v>747</v>
       </c>
       <c r="G563" s="3" t="str">
@@ -26132,7 +26209,7 @@
       <c r="E564" t="s">
         <v>743</v>
       </c>
-      <c r="F564" t="s">
+      <c r="F564" s="4" t="s">
         <v>744</v>
       </c>
       <c r="G564" s="3" t="str">
@@ -26157,7 +26234,7 @@
       <c r="E565" t="s">
         <v>739</v>
       </c>
-      <c r="F565" t="s">
+      <c r="F565" s="4" t="s">
         <v>740</v>
       </c>
       <c r="G565" s="3" t="str">
@@ -26182,7 +26259,7 @@
       <c r="E566" t="s">
         <v>735</v>
       </c>
-      <c r="F566" t="s">
+      <c r="F566" s="4" t="s">
         <v>736</v>
       </c>
       <c r="G566" s="3" t="str">
@@ -26207,7 +26284,7 @@
       <c r="E567" t="s">
         <v>732</v>
       </c>
-      <c r="F567" t="s">
+      <c r="F567" s="4" t="s">
         <v>733</v>
       </c>
       <c r="G567" s="3" t="str">
@@ -26232,7 +26309,7 @@
       <c r="E568" t="s">
         <v>165</v>
       </c>
-      <c r="F568" t="s">
+      <c r="F568" s="4" t="s">
         <v>729</v>
       </c>
       <c r="G568" s="3" t="str">
@@ -26257,7 +26334,7 @@
       <c r="E569" t="s">
         <v>725</v>
       </c>
-      <c r="F569" t="s">
+      <c r="F569" s="4" t="s">
         <v>726</v>
       </c>
       <c r="G569" s="3" t="str">
@@ -26282,7 +26359,7 @@
       <c r="E570" t="s">
         <v>721</v>
       </c>
-      <c r="F570" t="s">
+      <c r="F570" s="4" t="s">
         <v>722</v>
       </c>
       <c r="G570" s="3" t="str">
@@ -26307,7 +26384,7 @@
       <c r="E571" t="s">
         <v>717</v>
       </c>
-      <c r="F571" t="s">
+      <c r="F571" s="4" t="s">
         <v>718</v>
       </c>
       <c r="G571" s="3" t="str">
@@ -26332,7 +26409,7 @@
       <c r="E572" t="s">
         <v>713</v>
       </c>
-      <c r="F572" t="s">
+      <c r="F572" s="4" t="s">
         <v>714</v>
       </c>
       <c r="G572" s="3" t="str">
@@ -26357,7 +26434,7 @@
       <c r="E573" t="s">
         <v>709</v>
       </c>
-      <c r="F573" t="s">
+      <c r="F573" s="4" t="s">
         <v>710</v>
       </c>
       <c r="G573" s="3" t="str">
@@ -26382,7 +26459,7 @@
       <c r="E574" t="s">
         <v>705</v>
       </c>
-      <c r="F574" t="s">
+      <c r="F574" s="4" t="s">
         <v>706</v>
       </c>
       <c r="G574" s="3" t="str">
@@ -26407,7 +26484,7 @@
       <c r="E575" t="s">
         <v>701</v>
       </c>
-      <c r="F575" t="s">
+      <c r="F575" s="4" t="s">
         <v>702</v>
       </c>
       <c r="G575" s="3" t="str">
@@ -26432,7 +26509,7 @@
       <c r="E576" t="s">
         <v>697</v>
       </c>
-      <c r="F576" t="s">
+      <c r="F576" s="4" t="s">
         <v>698</v>
       </c>
       <c r="G576" s="3" t="str">
@@ -26457,7 +26534,7 @@
       <c r="E577" t="s">
         <v>694</v>
       </c>
-      <c r="F577" t="s">
+      <c r="F577" s="4" t="s">
         <v>695</v>
       </c>
       <c r="G577" s="3" t="str">
@@ -26482,7 +26559,7 @@
       <c r="E578" t="s">
         <v>690</v>
       </c>
-      <c r="F578" t="s">
+      <c r="F578" s="4" t="s">
         <v>691</v>
       </c>
       <c r="G578" s="3" t="str">
@@ -26507,7 +26584,7 @@
       <c r="E579" t="s">
         <v>686</v>
       </c>
-      <c r="F579" t="s">
+      <c r="F579" s="4" t="s">
         <v>687</v>
       </c>
       <c r="G579" s="3" t="str">
@@ -26532,7 +26609,7 @@
       <c r="E580" t="s">
         <v>683</v>
       </c>
-      <c r="F580" t="s">
+      <c r="F580" s="4" t="s">
         <v>684</v>
       </c>
       <c r="G580" s="3" t="str">
@@ -26557,7 +26634,7 @@
       <c r="E581" t="s">
         <v>679</v>
       </c>
-      <c r="F581" t="s">
+      <c r="F581" s="4" t="s">
         <v>680</v>
       </c>
       <c r="G581" s="3" t="str">
@@ -26582,7 +26659,7 @@
       <c r="E582" t="s">
         <v>675</v>
       </c>
-      <c r="F582" t="s">
+      <c r="F582" s="4" t="s">
         <v>676</v>
       </c>
       <c r="G582" s="3" t="str">
@@ -26604,7 +26681,7 @@
       <c r="E583" t="s">
         <v>671</v>
       </c>
-      <c r="F583" t="s">
+      <c r="F583" s="4" t="s">
         <v>672</v>
       </c>
       <c r="G583" s="3" t="str">
@@ -26629,7 +26706,7 @@
       <c r="E584" t="s">
         <v>647</v>
       </c>
-      <c r="F584" t="s">
+      <c r="F584" s="4" t="s">
         <v>669</v>
       </c>
       <c r="G584" s="3" t="str">
@@ -26654,7 +26731,7 @@
       <c r="E585" t="s">
         <v>665</v>
       </c>
-      <c r="F585" t="s">
+      <c r="F585" s="4" t="s">
         <v>666</v>
       </c>
       <c r="G585" s="3" t="str">
@@ -26679,7 +26756,7 @@
       <c r="E586" t="s">
         <v>661</v>
       </c>
-      <c r="F586" t="s">
+      <c r="F586" s="4" t="s">
         <v>662</v>
       </c>
       <c r="G586" s="3" t="str">
@@ -26704,7 +26781,7 @@
       <c r="E587" t="s">
         <v>657</v>
       </c>
-      <c r="F587" t="s">
+      <c r="F587" s="4" t="s">
         <v>658</v>
       </c>
       <c r="G587" s="3" t="str">
@@ -26729,7 +26806,7 @@
       <c r="E588" t="s">
         <v>654</v>
       </c>
-      <c r="F588" t="s">
+      <c r="F588" s="4" t="s">
         <v>655</v>
       </c>
       <c r="G588" s="3" t="str">
@@ -26754,7 +26831,7 @@
       <c r="E589" t="s">
         <v>651</v>
       </c>
-      <c r="F589" t="s">
+      <c r="F589" s="4" t="s">
         <v>652</v>
       </c>
       <c r="G589" s="3" t="str">
@@ -26779,7 +26856,7 @@
       <c r="E590" t="s">
         <v>647</v>
       </c>
-      <c r="F590" t="s">
+      <c r="F590" s="4" t="s">
         <v>648</v>
       </c>
       <c r="G590" s="3" t="str">
@@ -26804,7 +26881,7 @@
       <c r="E591" t="s">
         <v>643</v>
       </c>
-      <c r="F591" t="s">
+      <c r="F591" s="4" t="s">
         <v>644</v>
       </c>
       <c r="G591" s="3" t="str">
@@ -26829,7 +26906,7 @@
       <c r="E592" t="s">
         <v>639</v>
       </c>
-      <c r="F592" t="s">
+      <c r="F592" s="4" t="s">
         <v>640</v>
       </c>
       <c r="G592" s="3" t="str">
@@ -26854,7 +26931,7 @@
       <c r="E593" t="s">
         <v>635</v>
       </c>
-      <c r="F593" t="s">
+      <c r="F593" s="4" t="s">
         <v>636</v>
       </c>
       <c r="G593" s="3" t="str">
@@ -26879,7 +26956,7 @@
       <c r="E594" t="s">
         <v>631</v>
       </c>
-      <c r="F594" t="s">
+      <c r="F594" s="4" t="s">
         <v>632</v>
       </c>
       <c r="G594" s="3" t="str">
@@ -26904,7 +26981,7 @@
       <c r="E595" t="s">
         <v>627</v>
       </c>
-      <c r="F595" t="s">
+      <c r="F595" s="4" t="s">
         <v>628</v>
       </c>
       <c r="G595" s="3" t="str">
@@ -26929,7 +27006,7 @@
       <c r="E596" t="s">
         <v>623</v>
       </c>
-      <c r="F596" t="s">
+      <c r="F596" s="4" t="s">
         <v>624</v>
       </c>
       <c r="G596" s="3" t="str">
@@ -26954,7 +27031,7 @@
       <c r="E597" t="s">
         <v>619</v>
       </c>
-      <c r="F597" t="s">
+      <c r="F597" s="4" t="s">
         <v>620</v>
       </c>
       <c r="G597" s="3" t="str">
@@ -26979,7 +27056,7 @@
       <c r="E598" t="s">
         <v>615</v>
       </c>
-      <c r="F598" t="s">
+      <c r="F598" s="4" t="s">
         <v>616</v>
       </c>
       <c r="G598" s="3" t="str">
@@ -27004,7 +27081,7 @@
       <c r="E599" t="s">
         <v>611</v>
       </c>
-      <c r="F599" t="s">
+      <c r="F599" s="4" t="s">
         <v>612</v>
       </c>
       <c r="G599" s="3" t="str">
@@ -27029,7 +27106,7 @@
       <c r="E600" t="s">
         <v>607</v>
       </c>
-      <c r="F600" t="s">
+      <c r="F600" s="4" t="s">
         <v>608</v>
       </c>
       <c r="G600" s="3" t="str">
@@ -27054,7 +27131,7 @@
       <c r="E601" t="s">
         <v>603</v>
       </c>
-      <c r="F601" t="s">
+      <c r="F601" s="4" t="s">
         <v>604</v>
       </c>
       <c r="G601" s="3" t="str">
@@ -27079,7 +27156,7 @@
       <c r="E602" t="s">
         <v>599</v>
       </c>
-      <c r="F602" t="s">
+      <c r="F602" s="4" t="s">
         <v>600</v>
       </c>
       <c r="G602" s="3" t="str">
@@ -27104,7 +27181,7 @@
       <c r="E603" t="s">
         <v>595</v>
       </c>
-      <c r="F603" t="s">
+      <c r="F603" s="4" t="s">
         <v>596</v>
       </c>
       <c r="G603" s="3" t="str">
@@ -27129,7 +27206,7 @@
       <c r="E604" t="s">
         <v>591</v>
       </c>
-      <c r="F604" t="s">
+      <c r="F604" s="4" t="s">
         <v>592</v>
       </c>
       <c r="G604" s="3" t="str">
@@ -27154,7 +27231,7 @@
       <c r="E605" t="s">
         <v>587</v>
       </c>
-      <c r="F605" t="s">
+      <c r="F605" s="4" t="s">
         <v>588</v>
       </c>
       <c r="G605" s="3" t="str">
@@ -27179,7 +27256,7 @@
       <c r="E606" t="s">
         <v>583</v>
       </c>
-      <c r="F606" t="s">
+      <c r="F606" s="4" t="s">
         <v>584</v>
       </c>
       <c r="G606" s="3" t="str">
@@ -27204,7 +27281,7 @@
       <c r="E607" t="s">
         <v>579</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F607" s="4" t="s">
         <v>580</v>
       </c>
       <c r="G607" s="3" t="str">
@@ -27229,7 +27306,7 @@
       <c r="E608" t="s">
         <v>372</v>
       </c>
-      <c r="F608" t="s">
+      <c r="F608" s="4" t="s">
         <v>576</v>
       </c>
       <c r="G608" s="3" t="str">
@@ -27254,7 +27331,7 @@
       <c r="E609" t="s">
         <v>572</v>
       </c>
-      <c r="F609" t="s">
+      <c r="F609" s="4" t="s">
         <v>573</v>
       </c>
       <c r="G609" s="3" t="str">
@@ -27279,7 +27356,7 @@
       <c r="E610" t="s">
         <v>565</v>
       </c>
-      <c r="F610" t="s">
+      <c r="F610" s="4" t="s">
         <v>569</v>
       </c>
       <c r="G610" s="3" t="str">
@@ -27304,7 +27381,7 @@
       <c r="E611" t="s">
         <v>565</v>
       </c>
-      <c r="F611" t="s">
+      <c r="F611" s="4" t="s">
         <v>566</v>
       </c>
       <c r="G611" s="3" t="str">
@@ -27329,7 +27406,7 @@
       <c r="E612" t="s">
         <v>458</v>
       </c>
-      <c r="F612" t="s">
+      <c r="F612" s="4" t="s">
         <v>562</v>
       </c>
       <c r="G612" s="3" t="str">
@@ -27354,7 +27431,7 @@
       <c r="E613" t="s">
         <v>558</v>
       </c>
-      <c r="F613" t="s">
+      <c r="F613" s="4" t="s">
         <v>559</v>
       </c>
       <c r="G613" s="3" t="str">
@@ -27379,7 +27456,7 @@
       <c r="E614" t="s">
         <v>337</v>
       </c>
-      <c r="F614" t="s">
+      <c r="F614" s="4" t="s">
         <v>555</v>
       </c>
       <c r="G614" s="3" t="str">
@@ -27404,7 +27481,7 @@
       <c r="E615" t="s">
         <v>551</v>
       </c>
-      <c r="F615" t="s">
+      <c r="F615" s="4" t="s">
         <v>552</v>
       </c>
       <c r="G615" s="3" t="str">
@@ -27429,7 +27506,7 @@
       <c r="E616" t="s">
         <v>548</v>
       </c>
-      <c r="F616" t="s">
+      <c r="F616" s="4" t="s">
         <v>549</v>
       </c>
       <c r="G616" s="3" t="str">
@@ -27454,7 +27531,7 @@
       <c r="E617" t="s">
         <v>544</v>
       </c>
-      <c r="F617" t="s">
+      <c r="F617" s="4" t="s">
         <v>545</v>
       </c>
       <c r="G617" s="3" t="str">
@@ -27479,7 +27556,7 @@
       <c r="E618" t="s">
         <v>540</v>
       </c>
-      <c r="F618" t="s">
+      <c r="F618" s="4" t="s">
         <v>541</v>
       </c>
       <c r="G618" s="3" t="str">
@@ -27504,7 +27581,7 @@
       <c r="E619" t="s">
         <v>536</v>
       </c>
-      <c r="F619" t="s">
+      <c r="F619" s="4" t="s">
         <v>537</v>
       </c>
       <c r="G619" s="3" t="str">
@@ -27529,7 +27606,7 @@
       <c r="E620" t="s">
         <v>454</v>
       </c>
-      <c r="F620" t="s">
+      <c r="F620" s="4" t="s">
         <v>533</v>
       </c>
       <c r="G620" s="3" t="str">
@@ -27554,7 +27631,7 @@
       <c r="E621" t="s">
         <v>519</v>
       </c>
-      <c r="F621" t="s">
+      <c r="F621" s="4" t="s">
         <v>530</v>
       </c>
       <c r="G621" s="3" t="str">
@@ -27579,7 +27656,7 @@
       <c r="E622" t="s">
         <v>526</v>
       </c>
-      <c r="F622" t="s">
+      <c r="F622" s="4" t="s">
         <v>527</v>
       </c>
       <c r="G622" s="3" t="str">
@@ -27604,7 +27681,7 @@
       <c r="E623" t="s">
         <v>454</v>
       </c>
-      <c r="F623" t="s">
+      <c r="F623" s="4" t="s">
         <v>523</v>
       </c>
       <c r="G623" s="3" t="str">
@@ -27629,7 +27706,7 @@
       <c r="E624" t="s">
         <v>519</v>
       </c>
-      <c r="F624" t="s">
+      <c r="F624" s="4" t="s">
         <v>520</v>
       </c>
       <c r="G624" s="3" t="str">
@@ -27654,7 +27731,7 @@
       <c r="E625" t="s">
         <v>515</v>
       </c>
-      <c r="F625" t="s">
+      <c r="F625" s="4" t="s">
         <v>516</v>
       </c>
       <c r="G625" s="3" t="str">
@@ -27679,7 +27756,7 @@
       <c r="E626" t="s">
         <v>512</v>
       </c>
-      <c r="F626" t="s">
+      <c r="F626" s="4" t="s">
         <v>513</v>
       </c>
       <c r="G626" s="3" t="str">
@@ -27704,7 +27781,7 @@
       <c r="E627" t="s">
         <v>508</v>
       </c>
-      <c r="F627" t="s">
+      <c r="F627" s="4" t="s">
         <v>509</v>
       </c>
       <c r="G627" s="3" t="str">
@@ -27726,7 +27803,7 @@
       <c r="E628" t="s">
         <v>504</v>
       </c>
-      <c r="F628" t="s">
+      <c r="F628" s="4" t="s">
         <v>505</v>
       </c>
       <c r="G628" s="3" t="str">
@@ -27751,7 +27828,7 @@
       <c r="E629" t="s">
         <v>458</v>
       </c>
-      <c r="F629" t="s">
+      <c r="F629" s="4" t="s">
         <v>502</v>
       </c>
       <c r="G629" s="3" t="str">
@@ -27776,7 +27853,7 @@
       <c r="E630" t="s">
         <v>498</v>
       </c>
-      <c r="F630" t="s">
+      <c r="F630" s="4" t="s">
         <v>499</v>
       </c>
       <c r="G630" s="3" t="str">
@@ -27801,7 +27878,7 @@
       <c r="E631" t="s">
         <v>495</v>
       </c>
-      <c r="F631" t="s">
+      <c r="F631" s="4" t="s">
         <v>494</v>
       </c>
       <c r="G631" s="3" t="str">
@@ -27826,7 +27903,7 @@
       <c r="E632" t="s">
         <v>490</v>
       </c>
-      <c r="F632" t="s">
+      <c r="F632" s="4" t="s">
         <v>491</v>
       </c>
       <c r="G632" s="3" t="str">
@@ -27851,7 +27928,7 @@
       <c r="E633" t="s">
         <v>486</v>
       </c>
-      <c r="F633" t="s">
+      <c r="F633" s="4" t="s">
         <v>487</v>
       </c>
       <c r="G633" s="3" t="str">
@@ -27876,7 +27953,7 @@
       <c r="E634" t="s">
         <v>372</v>
       </c>
-      <c r="F634" t="s">
+      <c r="F634" s="4" t="s">
         <v>483</v>
       </c>
       <c r="G634" s="3" t="str">
@@ -27901,7 +27978,7 @@
       <c r="E635" t="s">
         <v>165</v>
       </c>
-      <c r="F635" t="s">
+      <c r="F635" s="4" t="s">
         <v>480</v>
       </c>
       <c r="G635" s="3" t="str">
@@ -27926,7 +28003,7 @@
       <c r="E636" t="s">
         <v>454</v>
       </c>
-      <c r="F636" t="s">
+      <c r="F636" s="4" t="s">
         <v>477</v>
       </c>
       <c r="G636" s="3" t="str">
@@ -27951,7 +28028,7 @@
       <c r="E637" t="s">
         <v>473</v>
       </c>
-      <c r="F637" t="s">
+      <c r="F637" s="4" t="s">
         <v>474</v>
       </c>
       <c r="G637" s="3" t="str">
@@ -27976,7 +28053,7 @@
       <c r="E638" t="s">
         <v>416</v>
       </c>
-      <c r="F638" t="s">
+      <c r="F638" s="4" t="s">
         <v>470</v>
       </c>
       <c r="G638" s="3" t="str">
@@ -28001,7 +28078,7 @@
       <c r="E639" t="s">
         <v>466</v>
       </c>
-      <c r="F639" t="s">
+      <c r="F639" s="4" t="s">
         <v>467</v>
       </c>
       <c r="G639" s="3" t="str">
@@ -28026,7 +28103,7 @@
       <c r="E640" t="s">
         <v>462</v>
       </c>
-      <c r="F640" t="s">
+      <c r="F640" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G640" s="3" t="str">
@@ -28051,7 +28128,7 @@
       <c r="E641" t="s">
         <v>458</v>
       </c>
-      <c r="F641" t="s">
+      <c r="F641" s="4" t="s">
         <v>459</v>
       </c>
       <c r="G641" s="3" t="str">
@@ -28076,7 +28153,7 @@
       <c r="E642" t="s">
         <v>454</v>
       </c>
-      <c r="F642" t="s">
+      <c r="F642" s="4" t="s">
         <v>455</v>
       </c>
       <c r="G642" s="3" t="str">
@@ -28101,7 +28178,7 @@
       <c r="E643" t="s">
         <v>450</v>
       </c>
-      <c r="F643" t="s">
+      <c r="F643" s="4" t="s">
         <v>451</v>
       </c>
       <c r="G643" s="3" t="str">
@@ -28126,7 +28203,7 @@
       <c r="E644" t="s">
         <v>447</v>
       </c>
-      <c r="F644" t="s">
+      <c r="F644" s="4" t="s">
         <v>446</v>
       </c>
       <c r="G644" s="3" t="str">
@@ -28151,7 +28228,7 @@
       <c r="E645" t="s">
         <v>442</v>
       </c>
-      <c r="F645" t="s">
+      <c r="F645" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G645" s="3" t="str">
@@ -28176,7 +28253,7 @@
       <c r="E646" t="s">
         <v>439</v>
       </c>
-      <c r="F646" t="s">
+      <c r="F646" s="4" t="s">
         <v>440</v>
       </c>
       <c r="G646" s="3" t="str">
@@ -28201,7 +28278,7 @@
       <c r="E647" t="s">
         <v>435</v>
       </c>
-      <c r="F647" t="s">
+      <c r="F647" s="4" t="s">
         <v>436</v>
       </c>
       <c r="G647" s="3" t="str">
@@ -28226,7 +28303,7 @@
       <c r="E648" t="s">
         <v>432</v>
       </c>
-      <c r="F648" t="s">
+      <c r="F648" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G648" s="3" t="str">
@@ -28251,7 +28328,7 @@
       <c r="E649" t="s">
         <v>428</v>
       </c>
-      <c r="F649" t="s">
+      <c r="F649" s="4" t="s">
         <v>429</v>
       </c>
       <c r="G649" s="3" t="str">
@@ -28276,7 +28353,7 @@
       <c r="E650" t="s">
         <v>424</v>
       </c>
-      <c r="F650" t="s">
+      <c r="F650" s="4" t="s">
         <v>425</v>
       </c>
       <c r="G650" s="3" t="str">
@@ -28301,7 +28378,7 @@
       <c r="E651" t="s">
         <v>420</v>
       </c>
-      <c r="F651" t="s">
+      <c r="F651" s="4" t="s">
         <v>421</v>
       </c>
       <c r="G651" s="3" t="str">
@@ -28326,7 +28403,7 @@
       <c r="E652" t="s">
         <v>416</v>
       </c>
-      <c r="F652" t="s">
+      <c r="F652" s="4" t="s">
         <v>417</v>
       </c>
       <c r="G652" s="3" t="str">
@@ -28351,7 +28428,7 @@
       <c r="E653" t="s">
         <v>165</v>
       </c>
-      <c r="F653" t="s">
+      <c r="F653" s="4" t="s">
         <v>413</v>
       </c>
       <c r="G653" s="3" t="str">
@@ -28376,7 +28453,7 @@
       <c r="E654" t="s">
         <v>315</v>
       </c>
-      <c r="F654" t="s">
+      <c r="F654" s="4" t="s">
         <v>411</v>
       </c>
       <c r="G654" s="3" t="str">
@@ -28401,7 +28478,7 @@
       <c r="E655" t="s">
         <v>407</v>
       </c>
-      <c r="F655" t="s">
+      <c r="F655" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G655" s="3" t="str">
@@ -28426,7 +28503,7 @@
       <c r="E656" t="s">
         <v>403</v>
       </c>
-      <c r="F656" t="s">
+      <c r="F656" s="4" t="s">
         <v>404</v>
       </c>
       <c r="G656" s="3" t="str">
@@ -28451,7 +28528,7 @@
       <c r="E657" t="s">
         <v>399</v>
       </c>
-      <c r="F657" t="s">
+      <c r="F657" s="4" t="s">
         <v>400</v>
       </c>
       <c r="G657" s="3" t="str">
@@ -28476,7 +28553,7 @@
       <c r="E658" t="s">
         <v>395</v>
       </c>
-      <c r="F658" t="s">
+      <c r="F658" s="4" t="s">
         <v>396</v>
       </c>
       <c r="G658" s="3" t="str">
@@ -28501,7 +28578,7 @@
       <c r="E659" t="s">
         <v>391</v>
       </c>
-      <c r="F659" t="s">
+      <c r="F659" s="4" t="s">
         <v>392</v>
       </c>
       <c r="G659" s="3" t="str">
@@ -28526,7 +28603,7 @@
       <c r="E660" t="s">
         <v>387</v>
       </c>
-      <c r="F660" t="s">
+      <c r="F660" s="4" t="s">
         <v>388</v>
       </c>
       <c r="G660" s="3" t="str">
@@ -28551,7 +28628,7 @@
       <c r="E661" t="s">
         <v>383</v>
       </c>
-      <c r="F661" t="s">
+      <c r="F661" s="4" t="s">
         <v>384</v>
       </c>
       <c r="G661" s="3" t="str">
@@ -28576,7 +28653,7 @@
       <c r="E662" t="s">
         <v>165</v>
       </c>
-      <c r="F662" t="s">
+      <c r="F662" s="4" t="s">
         <v>380</v>
       </c>
       <c r="G662" s="3" t="str">
@@ -28601,7 +28678,7 @@
       <c r="E663" t="s">
         <v>376</v>
       </c>
-      <c r="F663" t="s">
+      <c r="F663" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G663" s="3" t="str">
@@ -28626,7 +28703,7 @@
       <c r="E664" t="s">
         <v>372</v>
       </c>
-      <c r="F664" t="s">
+      <c r="F664" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G664" s="3" t="str">
@@ -28651,7 +28728,7 @@
       <c r="E665" t="s">
         <v>368</v>
       </c>
-      <c r="F665" t="s">
+      <c r="F665" s="4" t="s">
         <v>369</v>
       </c>
       <c r="G665" s="3" t="str">
@@ -28676,7 +28753,7 @@
       <c r="E666" t="s">
         <v>364</v>
       </c>
-      <c r="F666" t="s">
+      <c r="F666" s="4" t="s">
         <v>365</v>
       </c>
       <c r="G666" s="3" t="str">
@@ -28701,7 +28778,7 @@
       <c r="E667" t="s">
         <v>360</v>
       </c>
-      <c r="F667" t="s">
+      <c r="F667" s="4" t="s">
         <v>361</v>
       </c>
       <c r="G667" s="3" t="str">
@@ -28726,7 +28803,7 @@
       <c r="E668" t="s">
         <v>356</v>
       </c>
-      <c r="F668" t="s">
+      <c r="F668" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G668" s="3" t="str">
@@ -28751,7 +28828,7 @@
       <c r="E669" t="s">
         <v>329</v>
       </c>
-      <c r="F669" t="s">
+      <c r="F669" s="4" t="s">
         <v>353</v>
       </c>
       <c r="G669" s="3" t="str">
@@ -28776,7 +28853,7 @@
       <c r="E670" t="s">
         <v>349</v>
       </c>
-      <c r="F670" t="s">
+      <c r="F670" s="4" t="s">
         <v>350</v>
       </c>
       <c r="G670" s="3" t="str">
@@ -28801,7 +28878,7 @@
       <c r="E671" t="s">
         <v>345</v>
       </c>
-      <c r="F671" t="s">
+      <c r="F671" s="4" t="s">
         <v>346</v>
       </c>
       <c r="G671" s="3" t="str">
@@ -28826,7 +28903,7 @@
       <c r="E672" t="s">
         <v>341</v>
       </c>
-      <c r="F672" t="s">
+      <c r="F672" s="4" t="s">
         <v>342</v>
       </c>
       <c r="G672" s="3" t="str">
@@ -28851,7 +28928,7 @@
       <c r="E673" t="s">
         <v>337</v>
       </c>
-      <c r="F673" t="s">
+      <c r="F673" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G673" s="3" t="str">
@@ -28876,7 +28953,7 @@
       <c r="E674" t="s">
         <v>333</v>
       </c>
-      <c r="F674" t="s">
+      <c r="F674" s="4" t="s">
         <v>334</v>
       </c>
       <c r="G674" s="3" t="str">
@@ -28901,7 +28978,7 @@
       <c r="E675" t="s">
         <v>329</v>
       </c>
-      <c r="F675" t="s">
+      <c r="F675" s="4" t="s">
         <v>330</v>
       </c>
       <c r="G675" s="3" t="str">
@@ -28926,7 +29003,7 @@
       <c r="E676" t="s">
         <v>326</v>
       </c>
-      <c r="F676" t="s">
+      <c r="F676" s="4" t="s">
         <v>327</v>
       </c>
       <c r="G676" s="3" t="str">
@@ -28951,7 +29028,7 @@
       <c r="E677" t="s">
         <v>322</v>
       </c>
-      <c r="F677" t="s">
+      <c r="F677" s="4" t="s">
         <v>323</v>
       </c>
       <c r="G677" s="3" t="str">
@@ -28976,7 +29053,7 @@
       <c r="E678" t="s">
         <v>318</v>
       </c>
-      <c r="F678" t="s">
+      <c r="F678" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G678" s="3" t="str">
@@ -29001,7 +29078,7 @@
       <c r="E679" t="s">
         <v>315</v>
       </c>
-      <c r="F679" t="s">
+      <c r="F679" s="4" t="s">
         <v>304</v>
       </c>
       <c r="G679" s="3" t="str">
@@ -29026,7 +29103,7 @@
       <c r="E680" t="s">
         <v>311</v>
       </c>
-      <c r="F680" t="s">
+      <c r="F680" s="4" t="s">
         <v>312</v>
       </c>
       <c r="G680" s="3" t="str">
@@ -29051,7 +29128,7 @@
       <c r="E681" t="s">
         <v>307</v>
       </c>
-      <c r="F681" t="s">
+      <c r="F681" s="4" t="s">
         <v>308</v>
       </c>
       <c r="G681" s="3" t="str">
@@ -29076,7 +29153,7 @@
       <c r="E682" t="s">
         <v>303</v>
       </c>
-      <c r="F682" t="s">
+      <c r="F682" s="4" t="s">
         <v>304</v>
       </c>
       <c r="G682" s="3" t="str">
@@ -29101,7 +29178,7 @@
       <c r="E683" t="s">
         <v>299</v>
       </c>
-      <c r="F683" t="s">
+      <c r="F683" s="4" t="s">
         <v>300</v>
       </c>
       <c r="G683" s="3" t="str">
@@ -29126,7 +29203,7 @@
       <c r="E684" t="s">
         <v>286</v>
       </c>
-      <c r="F684" t="s">
+      <c r="F684" s="4" t="s">
         <v>287</v>
       </c>
       <c r="G684" s="3" t="str">
@@ -29151,7 +29228,7 @@
       <c r="E685" t="s">
         <v>296</v>
       </c>
-      <c r="F685" t="s">
+      <c r="F685" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G685" s="3" t="str">
@@ -29176,7 +29253,7 @@
       <c r="E686" t="s">
         <v>165</v>
       </c>
-      <c r="F686" t="s">
+      <c r="F686" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G686" s="3" t="str">
@@ -29201,7 +29278,7 @@
       <c r="E687" t="s">
         <v>289</v>
       </c>
-      <c r="F687" t="s">
+      <c r="F687" s="4" t="s">
         <v>290</v>
       </c>
       <c r="G687" s="3" t="str">
@@ -29226,7 +29303,7 @@
       <c r="E688" t="s">
         <v>283</v>
       </c>
-      <c r="F688" t="s">
+      <c r="F688" s="4" t="s">
         <v>282</v>
       </c>
       <c r="G688" s="3" t="str">
@@ -29251,7 +29328,7 @@
       <c r="E689" t="s">
         <v>278</v>
       </c>
-      <c r="F689" t="s">
+      <c r="F689" s="4" t="s">
         <v>279</v>
       </c>
       <c r="G689" s="3" t="str">
@@ -29276,7 +29353,7 @@
       <c r="E690" t="s">
         <v>274</v>
       </c>
-      <c r="F690" t="s">
+      <c r="F690" s="4" t="s">
         <v>275</v>
       </c>
       <c r="G690" s="3" t="str">
@@ -29301,7 +29378,7 @@
       <c r="E691" t="s">
         <v>269</v>
       </c>
-      <c r="F691" t="s">
+      <c r="F691" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G691" s="3" t="str">
@@ -29326,7 +29403,7 @@
       <c r="E692" t="s">
         <v>266</v>
       </c>
-      <c r="F692" t="s">
+      <c r="F692" s="4" t="s">
         <v>267</v>
       </c>
       <c r="G692" s="3" t="str">
@@ -29351,7 +29428,7 @@
       <c r="E693" t="s">
         <v>262</v>
       </c>
-      <c r="F693" t="s">
+      <c r="F693" s="4" t="s">
         <v>263</v>
       </c>
       <c r="G693" s="3" t="str">
@@ -29376,7 +29453,7 @@
       <c r="E694" t="s">
         <v>258</v>
       </c>
-      <c r="F694" t="s">
+      <c r="F694" s="4" t="s">
         <v>259</v>
       </c>
       <c r="G694" s="3" t="str">
@@ -29401,7 +29478,7 @@
       <c r="E695" t="s">
         <v>254</v>
       </c>
-      <c r="F695" t="s">
+      <c r="F695" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G695" s="3" t="str">
@@ -29426,7 +29503,7 @@
       <c r="E696" t="s">
         <v>250</v>
       </c>
-      <c r="F696" t="s">
+      <c r="F696" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G696" s="3" t="str">
@@ -29451,7 +29528,7 @@
       <c r="E697" t="s">
         <v>246</v>
       </c>
-      <c r="F697" t="s">
+      <c r="F697" s="4" t="s">
         <v>247</v>
       </c>
       <c r="G697" s="3" t="str">
@@ -29476,7 +29553,7 @@
       <c r="E698" t="s">
         <v>243</v>
       </c>
-      <c r="F698" t="s">
+      <c r="F698" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G698" s="3" t="str">
@@ -29501,7 +29578,7 @@
       <c r="E699" t="s">
         <v>240</v>
       </c>
-      <c r="F699" t="s">
+      <c r="F699" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G699" s="3" t="str">
@@ -29526,7 +29603,7 @@
       <c r="E700" t="s">
         <v>179</v>
       </c>
-      <c r="F700" t="s">
+      <c r="F700" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G700" s="3" t="str">
@@ -29551,7 +29628,7 @@
       <c r="E701" t="s">
         <v>233</v>
       </c>
-      <c r="F701" t="s">
+      <c r="F701" s="4" t="s">
         <v>234</v>
       </c>
       <c r="G701" s="3" t="str">
@@ -29576,7 +29653,7 @@
       <c r="E702" t="s">
         <v>229</v>
       </c>
-      <c r="F702" t="s">
+      <c r="F702" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G702" s="3" t="str">
@@ -29601,7 +29678,7 @@
       <c r="E703" t="s">
         <v>225</v>
       </c>
-      <c r="F703" t="s">
+      <c r="F703" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G703" s="3" t="str">
@@ -29626,7 +29703,7 @@
       <c r="E704" t="s">
         <v>221</v>
       </c>
-      <c r="F704" t="s">
+      <c r="F704" s="4" t="s">
         <v>222</v>
       </c>
       <c r="G704" s="3" t="str">
@@ -29651,7 +29728,7 @@
       <c r="E705" t="s">
         <v>217</v>
       </c>
-      <c r="F705" t="s">
+      <c r="F705" s="4" t="s">
         <v>218</v>
       </c>
       <c r="G705" s="3" t="str">
@@ -29676,7 +29753,7 @@
       <c r="E706" t="s">
         <v>213</v>
       </c>
-      <c r="F706" t="s">
+      <c r="F706" s="4" t="s">
         <v>214</v>
       </c>
       <c r="G706" s="3" t="str">
@@ -29701,7 +29778,7 @@
       <c r="E707" t="s">
         <v>209</v>
       </c>
-      <c r="F707" t="s">
+      <c r="F707" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G707" s="3" t="str">
@@ -29726,7 +29803,7 @@
       <c r="E708" t="s">
         <v>205</v>
       </c>
-      <c r="F708" t="s">
+      <c r="F708" s="4" t="s">
         <v>206</v>
       </c>
       <c r="G708" s="3" t="str">
@@ -29751,7 +29828,7 @@
       <c r="E709" t="s">
         <v>201</v>
       </c>
-      <c r="F709" t="s">
+      <c r="F709" s="4" t="s">
         <v>202</v>
       </c>
       <c r="G709" s="3" t="str">
@@ -29776,7 +29853,7 @@
       <c r="E710" t="s">
         <v>197</v>
       </c>
-      <c r="F710" t="s">
+      <c r="F710" s="4" t="s">
         <v>198</v>
       </c>
       <c r="G710" s="3" t="str">
@@ -29801,7 +29878,7 @@
       <c r="E711" t="s">
         <v>193</v>
       </c>
-      <c r="F711" t="s">
+      <c r="F711" s="4" t="s">
         <v>194</v>
       </c>
       <c r="G711" s="3" t="str">
@@ -29826,7 +29903,7 @@
       <c r="E712" t="s">
         <v>179</v>
       </c>
-      <c r="F712" t="s">
+      <c r="F712" s="4" t="s">
         <v>190</v>
       </c>
       <c r="G712" s="3" t="str">
@@ -29851,7 +29928,7 @@
       <c r="E713" t="s">
         <v>165</v>
       </c>
-      <c r="F713" t="s">
+      <c r="F713" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G713" s="3" t="str">
@@ -29876,7 +29953,7 @@
       <c r="E714" t="s">
         <v>183</v>
       </c>
-      <c r="F714" t="s">
+      <c r="F714" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G714" s="3" t="str">
@@ -29901,7 +29978,7 @@
       <c r="E715" t="s">
         <v>179</v>
       </c>
-      <c r="F715" t="s">
+      <c r="F715" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G715" s="3" t="str">
@@ -29926,7 +30003,7 @@
       <c r="E716" t="s">
         <v>175</v>
       </c>
-      <c r="F716" t="s">
+      <c r="F716" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G716" s="3" t="str">
@@ -29951,7 +30028,7 @@
       <c r="E717" t="s">
         <v>171</v>
       </c>
-      <c r="F717" t="s">
+      <c r="F717" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G717" s="3" t="str">
@@ -29976,7 +30053,7 @@
       <c r="E718" t="s">
         <v>165</v>
       </c>
-      <c r="F718" t="s">
+      <c r="F718" s="4" t="s">
         <v>168</v>
       </c>
       <c r="G718" s="3" t="str">
@@ -30001,7 +30078,7 @@
       <c r="E719" t="s">
         <v>163</v>
       </c>
-      <c r="F719" t="s">
+      <c r="F719" s="4" t="s">
         <v>164</v>
       </c>
       <c r="G719" s="3" t="str">
@@ -30026,7 +30103,7 @@
       <c r="E720" t="s">
         <v>160</v>
       </c>
-      <c r="F720" t="s">
+      <c r="F720" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G720" s="3" t="str">
@@ -30051,7 +30128,7 @@
       <c r="E721" t="s">
         <v>156</v>
       </c>
-      <c r="F721" t="s">
+      <c r="F721" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G721" s="3" t="str">
@@ -30076,7 +30153,7 @@
       <c r="E722" t="s">
         <v>151</v>
       </c>
-      <c r="F722" t="s">
+      <c r="F722" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G722" s="3" t="str">
@@ -30101,7 +30178,7 @@
       <c r="E723" t="s">
         <v>148</v>
       </c>
-      <c r="F723" t="s">
+      <c r="F723" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G723" s="3" t="str">
@@ -30126,7 +30203,7 @@
       <c r="E724" t="s">
         <v>144</v>
       </c>
-      <c r="F724" t="s">
+      <c r="F724" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G724" s="3" t="str">
@@ -30151,7 +30228,7 @@
       <c r="E725" t="s">
         <v>140</v>
       </c>
-      <c r="F725" t="s">
+      <c r="F725" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G725" s="3" t="str">
@@ -30176,7 +30253,7 @@
       <c r="E726" t="s">
         <v>136</v>
       </c>
-      <c r="F726" t="s">
+      <c r="F726" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G726" s="3" t="str">
@@ -30201,7 +30278,7 @@
       <c r="E727" t="s">
         <v>132</v>
       </c>
-      <c r="F727" t="s">
+      <c r="F727" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G727" s="3" t="str">
@@ -30226,7 +30303,7 @@
       <c r="E728" t="s">
         <v>128</v>
       </c>
-      <c r="F728" t="s">
+      <c r="F728" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G728" s="3" t="str">
@@ -30251,7 +30328,7 @@
       <c r="E729" t="s">
         <v>110</v>
       </c>
-      <c r="F729" t="s">
+      <c r="F729" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G729" s="3" t="str">
@@ -30276,7 +30353,7 @@
       <c r="E730" t="s">
         <v>121</v>
       </c>
-      <c r="F730" t="s">
+      <c r="F730" s="4" t="s">
         <v>122</v>
       </c>
       <c r="G730" s="3" t="str">
@@ -30301,7 +30378,7 @@
       <c r="E731" t="s">
         <v>117</v>
       </c>
-      <c r="F731" t="s">
+      <c r="F731" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G731" s="3" t="str">
@@ -30326,7 +30403,7 @@
       <c r="E732" t="s">
         <v>114</v>
       </c>
-      <c r="F732" t="s">
+      <c r="F732" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G732" s="3" t="str">
@@ -30351,7 +30428,7 @@
       <c r="E733" t="s">
         <v>110</v>
       </c>
-      <c r="F733" t="s">
+      <c r="F733" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G733" s="3" t="str">
@@ -30376,7 +30453,7 @@
       <c r="E734" t="s">
         <v>106</v>
       </c>
-      <c r="F734" t="s">
+      <c r="F734" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G734" s="3" t="str">
@@ -30401,7 +30478,7 @@
       <c r="E735" t="s">
         <v>102</v>
       </c>
-      <c r="F735" t="s">
+      <c r="F735" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G735" s="3" t="str">
@@ -30426,7 +30503,7 @@
       <c r="E736" t="s">
         <v>35</v>
       </c>
-      <c r="F736" t="s">
+      <c r="F736" s="4" t="s">
         <v>99</v>
       </c>
       <c r="G736" s="3" t="str">
@@ -30451,7 +30528,7 @@
       <c r="E737" t="s">
         <v>95</v>
       </c>
-      <c r="F737" t="s">
+      <c r="F737" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G737" s="3" t="str">
@@ -30476,7 +30553,7 @@
       <c r="E738" t="s">
         <v>91</v>
       </c>
-      <c r="F738" t="s">
+      <c r="F738" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G738" s="3" t="str">
@@ -30501,7 +30578,7 @@
       <c r="E739" t="s">
         <v>87</v>
       </c>
-      <c r="F739" t="s">
+      <c r="F739" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G739" s="3" t="str">
@@ -30526,7 +30603,7 @@
       <c r="E740" t="s">
         <v>83</v>
       </c>
-      <c r="F740" t="s">
+      <c r="F740" s="4" t="s">
         <v>84</v>
       </c>
       <c r="G740" s="3" t="str">
@@ -30551,7 +30628,7 @@
       <c r="E741" t="s">
         <v>79</v>
       </c>
-      <c r="F741" t="s">
+      <c r="F741" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G741" s="3" t="str">
@@ -30576,7 +30653,7 @@
       <c r="E742" t="s">
         <v>75</v>
       </c>
-      <c r="F742" t="s">
+      <c r="F742" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G742" s="3" t="str">
@@ -30601,7 +30678,7 @@
       <c r="E743" t="s">
         <v>71</v>
       </c>
-      <c r="F743" t="s">
+      <c r="F743" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G743" s="3" t="str">
@@ -30626,7 +30703,7 @@
       <c r="E744" t="s">
         <v>67</v>
       </c>
-      <c r="F744" t="s">
+      <c r="F744" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G744" s="3" t="str">
@@ -30651,7 +30728,7 @@
       <c r="E745" t="s">
         <v>63</v>
       </c>
-      <c r="F745" t="s">
+      <c r="F745" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G745" s="3" t="str">
@@ -30676,7 +30753,7 @@
       <c r="E746" t="s">
         <v>59</v>
       </c>
-      <c r="F746" t="s">
+      <c r="F746" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G746" s="3" t="str">
@@ -30701,7 +30778,7 @@
       <c r="E747" t="s">
         <v>55</v>
       </c>
-      <c r="F747" t="s">
+      <c r="F747" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G747" s="3" t="str">
@@ -30726,7 +30803,7 @@
       <c r="E748" t="s">
         <v>51</v>
       </c>
-      <c r="F748" t="s">
+      <c r="F748" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G748" s="3" t="str">
@@ -30751,7 +30828,7 @@
       <c r="E749" t="s">
         <v>47</v>
       </c>
-      <c r="F749" t="s">
+      <c r="F749" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G749" s="3" t="str">
@@ -30776,7 +30853,7 @@
       <c r="E750" t="s">
         <v>43</v>
       </c>
-      <c r="F750" t="s">
+      <c r="F750" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G750" s="3" t="str">
@@ -30801,7 +30878,7 @@
       <c r="E751" t="s">
         <v>39</v>
       </c>
-      <c r="F751" t="s">
+      <c r="F751" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G751" s="3" t="str">
@@ -30826,7 +30903,7 @@
       <c r="E752" t="s">
         <v>35</v>
       </c>
-      <c r="F752" t="s">
+      <c r="F752" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G752" s="3" t="str">
@@ -30851,7 +30928,7 @@
       <c r="E753" t="s">
         <v>31</v>
       </c>
-      <c r="F753" t="s">
+      <c r="F753" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G753" s="3" t="str">
@@ -30876,7 +30953,7 @@
       <c r="E754" t="s">
         <v>27</v>
       </c>
-      <c r="F754" t="s">
+      <c r="F754" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G754" s="3" t="str">
@@ -30901,7 +30978,7 @@
       <c r="E755" t="s">
         <v>23</v>
       </c>
-      <c r="F755" t="s">
+      <c r="F755" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G755" s="3" t="str">
@@ -30926,7 +31003,7 @@
       <c r="E756" t="s">
         <v>19</v>
       </c>
-      <c r="F756" t="s">
+      <c r="F756" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G756" s="3" t="str">
@@ -30951,7 +31028,7 @@
       <c r="E757" t="s">
         <v>15</v>
       </c>
-      <c r="F757" t="s">
+      <c r="F757" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G757" s="3" t="str">
@@ -30976,7 +31053,7 @@
       <c r="E758" t="s">
         <v>11</v>
       </c>
-      <c r="F758" t="s">
+      <c r="F758" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G758" s="3" t="str">
@@ -31001,7 +31078,7 @@
       <c r="E759" t="s">
         <v>2</v>
       </c>
-      <c r="F759" t="s">
+      <c r="F759" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G759" s="3" t="str">
@@ -31026,7 +31103,7 @@
       <c r="E760" t="s">
         <v>831</v>
       </c>
-      <c r="F760" t="s">
+      <c r="F760" s="4" t="s">
         <v>832</v>
       </c>
       <c r="G760" s="3" t="str">
@@ -31051,7 +31128,7 @@
       <c r="E761" t="s">
         <v>828</v>
       </c>
-      <c r="F761" t="s">
+      <c r="F761" s="4" t="s">
         <v>829</v>
       </c>
       <c r="G761" s="3" t="str">
@@ -31076,7 +31153,7 @@
       <c r="E762" t="s">
         <v>849</v>
       </c>
-      <c r="F762" t="s">
+      <c r="F762" s="4" t="s">
         <v>856</v>
       </c>
       <c r="G762" s="3" t="str">
@@ -31101,7 +31178,7 @@
       <c r="E763" t="s">
         <v>847</v>
       </c>
-      <c r="F763" t="s">
+      <c r="F763" s="4" t="s">
         <v>855</v>
       </c>
       <c r="G763" s="3" t="str">
@@ -31126,7 +31203,7 @@
       <c r="E764" t="s">
         <v>844</v>
       </c>
-      <c r="F764" t="s">
+      <c r="F764" s="4" t="s">
         <v>854</v>
       </c>
       <c r="G764" s="3" t="str">
@@ -31151,7 +31228,7 @@
       <c r="E765" t="s">
         <v>841</v>
       </c>
-      <c r="F765" t="s">
+      <c r="F765" s="4" t="s">
         <v>853</v>
       </c>
       <c r="G765" s="3" t="str">
@@ -31176,7 +31253,7 @@
       <c r="E766" t="s">
         <v>838</v>
       </c>
-      <c r="F766" t="s">
+      <c r="F766" s="4" t="s">
         <v>852</v>
       </c>
       <c r="G766" s="3" t="str">
@@ -31201,7 +31278,7 @@
       <c r="E767" t="s">
         <v>835</v>
       </c>
-      <c r="F767" t="s">
+      <c r="F767" s="4" t="s">
         <v>851</v>
       </c>
       <c r="G767" s="3" t="str">
@@ -31226,7 +31303,7 @@
       <c r="E768" t="s">
         <v>2248</v>
       </c>
-      <c r="F768" t="s">
+      <c r="F768" s="4" t="s">
         <v>2246</v>
       </c>
       <c r="G768" s="3" t="str">
@@ -31251,7 +31328,7 @@
       <c r="E769" t="s">
         <v>2245</v>
       </c>
-      <c r="F769" t="s">
+      <c r="F769" s="4" t="s">
         <v>2242</v>
       </c>
       <c r="G769" s="3" t="str">
@@ -31276,7 +31353,7 @@
       <c r="E770" t="s">
         <v>2241</v>
       </c>
-      <c r="F770" t="s">
+      <c r="F770" s="4" t="s">
         <v>2238</v>
       </c>
       <c r="G770" s="3" t="str">
@@ -31301,7 +31378,7 @@
       <c r="E771" t="s">
         <v>2237</v>
       </c>
-      <c r="F771" t="s">
+      <c r="F771" s="4" t="s">
         <v>2234</v>
       </c>
       <c r="G771" s="3" t="str">
@@ -31326,7 +31403,7 @@
       <c r="E772" t="s">
         <v>2233</v>
       </c>
-      <c r="F772" t="s">
+      <c r="F772" s="4" t="s">
         <v>2230</v>
       </c>
       <c r="G772" s="3" t="str">
@@ -31351,7 +31428,7 @@
       <c r="E773" t="s">
         <v>2228</v>
       </c>
-      <c r="F773" t="s">
+      <c r="F773" s="4" t="s">
         <v>2229</v>
       </c>
       <c r="G773" s="3" t="str">
@@ -31376,7 +31453,7 @@
       <c r="E774" t="s">
         <v>2862</v>
       </c>
-      <c r="F774" t="s">
+      <c r="F774" s="4" t="s">
         <v>2874</v>
       </c>
       <c r="G774" s="3" t="str">
@@ -31401,7 +31478,7 @@
       <c r="E775" t="s">
         <v>2865</v>
       </c>
-      <c r="F775" t="s">
+      <c r="F775" s="4" t="s">
         <v>2875</v>
       </c>
       <c r="G775" s="3" t="str">
@@ -31426,7 +31503,7 @@
       <c r="E776" t="s">
         <v>2868</v>
       </c>
-      <c r="F776" t="s">
+      <c r="F776" s="4" t="s">
         <v>2876</v>
       </c>
       <c r="G776" s="3" t="str">
@@ -31451,7 +31528,7 @@
       <c r="E777" t="s">
         <v>2871</v>
       </c>
-      <c r="F777" t="s">
+      <c r="F777" s="4" t="s">
         <v>2877</v>
       </c>
       <c r="G777" s="3" t="str">
@@ -31476,7 +31553,7 @@
       <c r="E778" t="s">
         <v>2873</v>
       </c>
-      <c r="F778" t="s">
+      <c r="F778" s="4" t="s">
         <v>2878</v>
       </c>
       <c r="G778" s="3" t="str">
@@ -31501,7 +31578,7 @@
       <c r="E779" t="s">
         <v>2895</v>
       </c>
-      <c r="F779" t="s">
+      <c r="F779" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G779" s="3" t="str">
@@ -31523,7 +31600,7 @@
       <c r="E780" t="s">
         <v>2893</v>
       </c>
-      <c r="F780" t="s">
+      <c r="F780" s="4" t="s">
         <v>2896</v>
       </c>
       <c r="G780" s="3" t="str">
@@ -31548,7 +31625,7 @@
       <c r="E781" t="s">
         <v>160</v>
       </c>
-      <c r="F781" t="s">
+      <c r="F781" s="4" t="s">
         <v>2897</v>
       </c>
       <c r="G781" s="3" t="str">
@@ -31573,7 +31650,7 @@
       <c r="E782" t="s">
         <v>2891</v>
       </c>
-      <c r="F782" t="s">
+      <c r="F782" s="4" t="s">
         <v>2898</v>
       </c>
       <c r="G782" s="3" t="str">
@@ -31598,7 +31675,7 @@
       <c r="E783" t="s">
         <v>2245</v>
       </c>
-      <c r="F783" t="s">
+      <c r="F783" s="4" t="s">
         <v>2899</v>
       </c>
       <c r="G783" s="3" t="str">
@@ -31623,7 +31700,7 @@
       <c r="E784" t="s">
         <v>2889</v>
       </c>
-      <c r="F784" t="s">
+      <c r="F784" s="4" t="s">
         <v>2900</v>
       </c>
       <c r="G784" s="3" t="str">
@@ -31648,7 +31725,7 @@
       <c r="E785" t="s">
         <v>2888</v>
       </c>
-      <c r="F785" t="s">
+      <c r="F785" s="4" t="s">
         <v>2901</v>
       </c>
       <c r="G785" s="3" t="str">
@@ -31673,7 +31750,7 @@
       <c r="E786" t="s">
         <v>2903</v>
       </c>
-      <c r="F786" t="s">
+      <c r="F786" s="4" t="s">
         <v>2916</v>
       </c>
       <c r="G786" s="3" t="str">
@@ -31698,7 +31775,7 @@
       <c r="E787" t="s">
         <v>2906</v>
       </c>
-      <c r="F787" t="s">
+      <c r="F787" s="4" t="s">
         <v>2917</v>
       </c>
       <c r="G787" s="3" t="str">
@@ -31723,7 +31800,7 @@
       <c r="E788" t="s">
         <v>2909</v>
       </c>
-      <c r="F788" t="s">
+      <c r="F788" s="4" t="s">
         <v>2918</v>
       </c>
       <c r="G788" s="3" t="str">
@@ -31748,7 +31825,7 @@
       <c r="E789" t="s">
         <v>2248</v>
       </c>
-      <c r="F789" t="s">
+      <c r="F789" s="4" t="s">
         <v>2919</v>
       </c>
       <c r="G789" s="3" t="str">
@@ -31773,7 +31850,7 @@
       <c r="E790" t="s">
         <v>35</v>
       </c>
-      <c r="F790" t="s">
+      <c r="F790" s="4" t="s">
         <v>2921</v>
       </c>
       <c r="G790" s="3" t="str">
@@ -31798,7 +31875,7 @@
       <c r="E791" t="s">
         <v>35</v>
       </c>
-      <c r="F791" t="s">
+      <c r="F791" s="4" t="s">
         <v>2920</v>
       </c>
       <c r="G791" s="3" t="str">
@@ -31823,7 +31900,7 @@
       <c r="E792" t="s">
         <v>2924</v>
       </c>
-      <c r="F792" t="s">
+      <c r="F792" s="4" t="s">
         <v>2939</v>
       </c>
       <c r="G792" s="3" t="str">
@@ -31848,7 +31925,7 @@
       <c r="E793" t="s">
         <v>2927</v>
       </c>
-      <c r="F793" t="s">
+      <c r="F793" s="4" t="s">
         <v>2940</v>
       </c>
       <c r="G793" s="3" t="str">
@@ -31873,7 +31950,7 @@
       <c r="E794" t="s">
         <v>2930</v>
       </c>
-      <c r="F794" t="s">
+      <c r="F794" s="4" t="s">
         <v>2941</v>
       </c>
       <c r="G794" s="3" t="str">
@@ -31898,7 +31975,7 @@
       <c r="E795" t="s">
         <v>2933</v>
       </c>
-      <c r="F795" t="s">
+      <c r="F795" s="4" t="s">
         <v>2942</v>
       </c>
       <c r="G795" s="3" t="str">
@@ -31923,7 +32000,7 @@
       <c r="E796" t="s">
         <v>2936</v>
       </c>
-      <c r="F796" t="s">
+      <c r="F796" s="4" t="s">
         <v>2943</v>
       </c>
       <c r="G796" s="3" t="str">
@@ -31948,7 +32025,7 @@
       <c r="E797" t="s">
         <v>2938</v>
       </c>
-      <c r="F797" t="s">
+      <c r="F797" s="4" t="s">
         <v>2944</v>
       </c>
       <c r="G797" s="3" t="str">
@@ -31973,7 +32050,7 @@
       <c r="E798" t="s">
         <v>2947</v>
       </c>
-      <c r="F798" t="s">
+      <c r="F798" s="4" t="s">
         <v>2963</v>
       </c>
       <c r="G798" s="3" t="str">
@@ -31998,7 +32075,7 @@
       <c r="E799" t="s">
         <v>2950</v>
       </c>
-      <c r="F799" t="s">
+      <c r="F799" s="4" t="s">
         <v>2964</v>
       </c>
       <c r="G799" s="3" t="str">
@@ -32023,7 +32100,7 @@
       <c r="E800" t="s">
         <v>2953</v>
       </c>
-      <c r="F800" t="s">
+      <c r="F800" s="4" t="s">
         <v>2965</v>
       </c>
       <c r="G800" s="3" t="str">
@@ -32048,7 +32125,7 @@
       <c r="E801" t="s">
         <v>2956</v>
       </c>
-      <c r="F801" t="s">
+      <c r="F801" s="4" t="s">
         <v>2966</v>
       </c>
       <c r="G801" s="3" t="str">
@@ -32073,7 +32150,7 @@
       <c r="E802" t="s">
         <v>2959</v>
       </c>
-      <c r="F802" t="s">
+      <c r="F802" s="4" t="s">
         <v>2967</v>
       </c>
       <c r="G802" s="3" t="str">
@@ -32098,7 +32175,7 @@
       <c r="E803" t="s">
         <v>2962</v>
       </c>
-      <c r="F803" t="s">
+      <c r="F803" s="4" t="s">
         <v>2940</v>
       </c>
       <c r="G803" s="3" t="str">
@@ -32123,7 +32200,7 @@
       <c r="E804" t="s">
         <v>2972</v>
       </c>
-      <c r="F804" t="s">
+      <c r="F804" s="4" t="s">
         <v>2986</v>
       </c>
       <c r="G804" s="3" t="str">
@@ -32148,7 +32225,7 @@
       <c r="E805" t="s">
         <v>2973</v>
       </c>
-      <c r="F805" t="s">
+      <c r="F805" s="4" t="s">
         <v>2987</v>
       </c>
       <c r="G805" s="3" t="str">
@@ -32173,7 +32250,7 @@
       <c r="E806" t="s">
         <v>2976</v>
       </c>
-      <c r="F806" t="s">
+      <c r="F806" s="4" t="s">
         <v>2988</v>
       </c>
       <c r="G806" s="3" t="str">
@@ -32198,7 +32275,7 @@
       <c r="E807" t="s">
         <v>2979</v>
       </c>
-      <c r="F807" t="s">
+      <c r="F807" s="4" t="s">
         <v>2989</v>
       </c>
       <c r="G807" s="3" t="str">
@@ -32223,7 +32300,7 @@
       <c r="E808" t="s">
         <v>2982</v>
       </c>
-      <c r="F808" t="s">
+      <c r="F808" s="4" t="s">
         <v>2990</v>
       </c>
       <c r="G808" s="3" t="str">
@@ -32248,7 +32325,7 @@
       <c r="E809" t="s">
         <v>2985</v>
       </c>
-      <c r="F809" t="s">
+      <c r="F809" s="4" t="s">
         <v>2991</v>
       </c>
       <c r="G809" s="3" t="str">
@@ -32273,7 +32350,7 @@
       <c r="E810" t="s">
         <v>2985</v>
       </c>
-      <c r="F810" t="s">
+      <c r="F810" s="4" t="s">
         <v>3007</v>
       </c>
       <c r="G810" s="3" t="str">
@@ -32295,7 +32372,7 @@
       <c r="E811" t="s">
         <v>2995</v>
       </c>
-      <c r="F811" t="s">
+      <c r="F811" s="4" t="s">
         <v>3008</v>
       </c>
       <c r="G811" s="3" t="str">
@@ -32320,7 +32397,7 @@
       <c r="E812" t="s">
         <v>2998</v>
       </c>
-      <c r="F812" t="s">
+      <c r="F812" s="4" t="s">
         <v>3009</v>
       </c>
       <c r="G812" s="3" t="str">
@@ -32345,7 +32422,7 @@
       <c r="E813" t="s">
         <v>3001</v>
       </c>
-      <c r="F813" t="s">
+      <c r="F813" s="4" t="s">
         <v>3010</v>
       </c>
       <c r="G813" s="3" t="str">
@@ -32370,7 +32447,7 @@
       <c r="E814" t="s">
         <v>3006</v>
       </c>
-      <c r="F814" t="s">
+      <c r="F814" s="4" t="s">
         <v>3011</v>
       </c>
       <c r="G814" s="3" t="str">
@@ -32395,7 +32472,7 @@
       <c r="E815" t="s">
         <v>3005</v>
       </c>
-      <c r="F815" t="s">
+      <c r="F815" s="4" t="s">
         <v>3012</v>
       </c>
       <c r="G815" s="3" t="str">
@@ -32420,7 +32497,7 @@
       <c r="E816" t="s">
         <v>3014</v>
       </c>
-      <c r="F816" t="s">
+      <c r="F816" s="4" t="s">
         <v>3028</v>
       </c>
       <c r="G816" s="3" t="str">
@@ -32445,7 +32522,7 @@
       <c r="E817" t="s">
         <v>3017</v>
       </c>
-      <c r="F817" t="s">
+      <c r="F817" s="4" t="s">
         <v>3029</v>
       </c>
       <c r="G817" s="3" t="str">
@@ -32470,7 +32547,7 @@
       <c r="E818" t="s">
         <v>3019</v>
       </c>
-      <c r="F818" t="s">
+      <c r="F818" s="4" t="s">
         <v>3030</v>
       </c>
       <c r="G818" s="3" t="str">
@@ -32495,7 +32572,7 @@
       <c r="E819" t="s">
         <v>3022</v>
       </c>
-      <c r="F819" t="s">
+      <c r="F819" s="4" t="s">
         <v>3031</v>
       </c>
       <c r="G819" s="3" t="str">
@@ -32520,7 +32597,7 @@
       <c r="E820" t="s">
         <v>3024</v>
       </c>
-      <c r="F820" t="s">
+      <c r="F820" s="4" t="s">
         <v>3032</v>
       </c>
       <c r="G820" s="3" t="str">
@@ -32545,7 +32622,7 @@
       <c r="E821" t="s">
         <v>3027</v>
       </c>
-      <c r="F821" t="s">
+      <c r="F821" s="4" t="s">
         <v>3033</v>
       </c>
       <c r="G821" s="3" t="str">
@@ -32570,7 +32647,7 @@
       <c r="E822" t="s">
         <v>3036</v>
       </c>
-      <c r="F822" t="s">
+      <c r="F822" s="4" t="s">
         <v>3048</v>
       </c>
       <c r="G822" s="3" t="str">
@@ -32595,7 +32672,7 @@
       <c r="E823" t="s">
         <v>3039</v>
       </c>
-      <c r="F823" t="s">
+      <c r="F823" s="4" t="s">
         <v>3049</v>
       </c>
       <c r="G823" s="3" t="str">
@@ -32617,7 +32694,7 @@
       <c r="E824" t="s">
         <v>3041</v>
       </c>
-      <c r="F824" t="s">
+      <c r="F824" s="4" t="s">
         <v>3050</v>
       </c>
       <c r="G824" s="3" t="str">
@@ -32639,7 +32716,7 @@
       <c r="E825" t="s">
         <v>3043</v>
       </c>
-      <c r="F825" t="s">
+      <c r="F825" s="4" t="s">
         <v>3051</v>
       </c>
       <c r="G825" s="3" t="str">
@@ -32664,7 +32741,7 @@
       <c r="E826" t="s">
         <v>3045</v>
       </c>
-      <c r="F826" t="s">
+      <c r="F826" s="4" t="s">
         <v>3052</v>
       </c>
       <c r="G826" s="3" t="str">
@@ -32689,7 +32766,7 @@
       <c r="E827" t="s">
         <v>3047</v>
       </c>
-      <c r="F827" t="s">
+      <c r="F827" s="4" t="s">
         <v>3053</v>
       </c>
       <c r="G827" s="3" t="str">
@@ -32714,7 +32791,7 @@
       <c r="E828" t="s">
         <v>3055</v>
       </c>
-      <c r="F828" t="s">
+      <c r="F828" s="4" t="s">
         <v>3070</v>
       </c>
       <c r="G828" s="3" t="str">
@@ -32739,7 +32816,7 @@
       <c r="E829" t="s">
         <v>3058</v>
       </c>
-      <c r="F829" t="s">
+      <c r="F829" s="4" t="s">
         <v>3071</v>
       </c>
       <c r="G829" s="3" t="str">
@@ -32764,7 +32841,7 @@
       <c r="E830" t="s">
         <v>3061</v>
       </c>
-      <c r="F830" t="s">
+      <c r="F830" s="4" t="s">
         <v>3072</v>
       </c>
       <c r="G830" s="3" t="str">
@@ -32789,7 +32866,7 @@
       <c r="E831" t="s">
         <v>3064</v>
       </c>
-      <c r="F831" t="s">
+      <c r="F831" s="4" t="s">
         <v>3073</v>
       </c>
       <c r="G831" s="3" t="str">
@@ -32814,7 +32891,7 @@
       <c r="E832" t="s">
         <v>3067</v>
       </c>
-      <c r="F832" t="s">
+      <c r="F832" s="4" t="s">
         <v>3074</v>
       </c>
       <c r="G832" s="3" t="str">
@@ -32839,7 +32916,7 @@
       <c r="E833" t="s">
         <v>3069</v>
       </c>
-      <c r="F833" t="s">
+      <c r="F833" s="4" t="s">
         <v>3075</v>
       </c>
       <c r="G833" s="3" t="str">
@@ -32861,7 +32938,7 @@
       <c r="E834" t="s">
         <v>3076</v>
       </c>
-      <c r="F834" t="s">
+      <c r="F834" s="4" t="s">
         <v>3092</v>
       </c>
       <c r="G834" s="3" t="str">
@@ -32886,7 +32963,7 @@
       <c r="E835" t="s">
         <v>3080</v>
       </c>
-      <c r="F835" t="s">
+      <c r="F835" s="4" t="s">
         <v>3093</v>
       </c>
       <c r="G835" s="3" t="str">
@@ -32911,7 +32988,7 @@
       <c r="E836" t="s">
         <v>3083</v>
       </c>
-      <c r="F836" t="s">
+      <c r="F836" s="4" t="s">
         <v>3094</v>
       </c>
       <c r="G836" s="3" t="str">
@@ -32936,7 +33013,7 @@
       <c r="E837" t="s">
         <v>3086</v>
       </c>
-      <c r="F837" t="s">
+      <c r="F837" s="4" t="s">
         <v>3095</v>
       </c>
       <c r="G837" s="3" t="str">
@@ -32961,7 +33038,7 @@
       <c r="E838" t="s">
         <v>3088</v>
       </c>
-      <c r="F838" t="s">
+      <c r="F838" s="4" t="s">
         <v>3096</v>
       </c>
       <c r="G838" s="3" t="str">
@@ -32986,7 +33063,7 @@
       <c r="E839" t="s">
         <v>3091</v>
       </c>
-      <c r="F839" t="s">
+      <c r="F839" s="4" t="s">
         <v>3097</v>
       </c>
       <c r="G839" s="3" t="str">
@@ -33011,7 +33088,7 @@
       <c r="E840" t="s">
         <v>3099</v>
       </c>
-      <c r="F840" t="s">
+      <c r="F840" s="4" t="s">
         <v>3112</v>
       </c>
       <c r="G840" s="3" t="str">
@@ -33036,7 +33113,7 @@
       <c r="E841" t="s">
         <v>3099</v>
       </c>
-      <c r="F841" t="s">
+      <c r="F841" s="4" t="s">
         <v>3113</v>
       </c>
       <c r="G841" s="3" t="str">
@@ -33061,7 +33138,7 @@
       <c r="E842" t="s">
         <v>3103</v>
       </c>
-      <c r="F842" t="s">
+      <c r="F842" s="4" t="s">
         <v>3114</v>
       </c>
       <c r="G842" s="3" t="str">
@@ -33086,7 +33163,7 @@
       <c r="E843" t="s">
         <v>3103</v>
       </c>
-      <c r="F843" t="s">
+      <c r="F843" s="4" t="s">
         <v>3115</v>
       </c>
       <c r="G843" s="3" t="str">
@@ -33111,7 +33188,7 @@
       <c r="E844" t="s">
         <v>3108</v>
       </c>
-      <c r="F844" t="s">
+      <c r="F844" s="4" t="s">
         <v>3116</v>
       </c>
       <c r="G844" s="3" t="str">
@@ -33136,7 +33213,7 @@
       <c r="E845" t="s">
         <v>3111</v>
       </c>
-      <c r="F845" t="s">
+      <c r="F845" s="4" t="s">
         <v>3117</v>
       </c>
       <c r="G845" s="3" t="str">
@@ -33161,7 +33238,7 @@
       <c r="E846" t="s">
         <v>3119</v>
       </c>
-      <c r="F846" t="s">
+      <c r="F846" s="4" t="s">
         <v>3132</v>
       </c>
       <c r="G846" s="3" t="str">
@@ -33186,7 +33263,7 @@
       <c r="E847" t="s">
         <v>3119</v>
       </c>
-      <c r="F847" t="s">
+      <c r="F847" s="4" t="s">
         <v>3133</v>
       </c>
       <c r="G847" s="3" t="str">
@@ -33211,7 +33288,7 @@
       <c r="E848" t="s">
         <v>3124</v>
       </c>
-      <c r="F848" t="s">
+      <c r="F848" s="4" t="s">
         <v>3134</v>
       </c>
       <c r="G848" s="3" t="str">
@@ -33236,7 +33313,7 @@
       <c r="E849" t="s">
         <v>3099</v>
       </c>
-      <c r="F849" t="s">
+      <c r="F849" s="4" t="s">
         <v>3135</v>
       </c>
       <c r="G849" s="3" t="str">
@@ -33261,7 +33338,7 @@
       <c r="E850" t="s">
         <v>3129</v>
       </c>
-      <c r="F850" t="s">
+      <c r="F850" s="4" t="s">
         <v>3136</v>
       </c>
       <c r="G850" s="3" t="str">
@@ -33286,7 +33363,7 @@
       <c r="E851" t="s">
         <v>3131</v>
       </c>
-      <c r="F851" t="s">
+      <c r="F851" s="4" t="s">
         <v>3137</v>
       </c>
       <c r="G851" s="3" t="str">
@@ -33311,7 +33388,7 @@
       <c r="E852" t="s">
         <v>3140</v>
       </c>
-      <c r="F852" t="s">
+      <c r="F852" s="4" t="s">
         <v>3156</v>
       </c>
       <c r="G852" s="3" t="str">
@@ -33336,7 +33413,7 @@
       <c r="E853" t="s">
         <v>3143</v>
       </c>
-      <c r="F853" t="s">
+      <c r="F853" s="4" t="s">
         <v>3157</v>
       </c>
       <c r="G853" s="3" t="str">
@@ -33361,7 +33438,7 @@
       <c r="E854" t="s">
         <v>3146</v>
       </c>
-      <c r="F854" t="s">
+      <c r="F854" s="4" t="s">
         <v>3158</v>
       </c>
       <c r="G854" s="3" t="str">
@@ -33386,7 +33463,7 @@
       <c r="E855" t="s">
         <v>3149</v>
       </c>
-      <c r="F855" t="s">
+      <c r="F855" s="4" t="s">
         <v>3159</v>
       </c>
       <c r="G855" s="3" t="str">
@@ -33411,7 +33488,7 @@
       <c r="E856" t="s">
         <v>3152</v>
       </c>
-      <c r="F856" t="s">
+      <c r="F856" s="4" t="s">
         <v>3160</v>
       </c>
       <c r="G856" s="3" t="str">
@@ -33436,7 +33513,7 @@
       <c r="E857" t="s">
         <v>3155</v>
       </c>
-      <c r="F857" t="s">
+      <c r="F857" s="4" t="s">
         <v>3161</v>
       </c>
       <c r="G857" s="3" t="str">
@@ -33461,7 +33538,7 @@
       <c r="E858" t="s">
         <v>3163</v>
       </c>
-      <c r="F858" t="s">
+      <c r="F858" s="4" t="s">
         <v>3178</v>
       </c>
       <c r="G858" s="3" t="str">
@@ -33486,7 +33563,7 @@
       <c r="E859" t="s">
         <v>3167</v>
       </c>
-      <c r="F859" t="s">
+      <c r="F859" s="4" t="s">
         <v>3179</v>
       </c>
       <c r="G859" s="3" t="str">
@@ -33511,7 +33588,7 @@
       <c r="E860" t="s">
         <v>3170</v>
       </c>
-      <c r="F860" t="s">
+      <c r="F860" s="4" t="s">
         <v>3180</v>
       </c>
       <c r="G860" s="3" t="str">
@@ -33536,7 +33613,7 @@
       <c r="E861" t="s">
         <v>3172</v>
       </c>
-      <c r="F861" t="s">
+      <c r="F861" s="4" t="s">
         <v>3181</v>
       </c>
       <c r="G861" s="3" t="str">
@@ -33561,7 +33638,7 @@
       <c r="E862" t="s">
         <v>3172</v>
       </c>
-      <c r="F862" t="s">
+      <c r="F862" s="4" t="s">
         <v>3182</v>
       </c>
       <c r="G862" s="3" t="str">
@@ -33586,7 +33663,7 @@
       <c r="E863" t="s">
         <v>3177</v>
       </c>
-      <c r="F863" t="s">
+      <c r="F863" s="4" t="s">
         <v>3183</v>
       </c>
       <c r="G863" s="3" t="str">
@@ -33611,7 +33688,7 @@
       <c r="E864" t="s">
         <v>3186</v>
       </c>
-      <c r="F864" t="s">
+      <c r="F864" s="4" t="s">
         <v>3200</v>
       </c>
       <c r="G864" s="3" t="str">
@@ -33636,7 +33713,7 @@
       <c r="E865" t="s">
         <v>3189</v>
       </c>
-      <c r="F865" t="s">
+      <c r="F865" s="4" t="s">
         <v>3201</v>
       </c>
       <c r="G865" s="3" t="str">
@@ -33661,7 +33738,7 @@
       <c r="E866" t="s">
         <v>3194</v>
       </c>
-      <c r="F866" t="s">
+      <c r="F866" s="4" t="s">
         <v>3202</v>
       </c>
       <c r="G866" s="3" t="str">
@@ -33686,7 +33763,7 @@
       <c r="E867" t="s">
         <v>3193</v>
       </c>
-      <c r="F867" t="s">
+      <c r="F867" s="4" t="s">
         <v>3203</v>
       </c>
       <c r="G867" s="3" t="str">
@@ -33711,7 +33788,7 @@
       <c r="E868" t="s">
         <v>3196</v>
       </c>
-      <c r="F868" t="s">
+      <c r="F868" s="4" t="s">
         <v>3204</v>
       </c>
       <c r="G868" s="3" t="str">
@@ -33736,7 +33813,7 @@
       <c r="E869" t="s">
         <v>3199</v>
       </c>
-      <c r="F869" t="s">
+      <c r="F869" s="4" t="s">
         <v>3205</v>
       </c>
       <c r="G869" s="3" t="str">
@@ -33761,7 +33838,7 @@
       <c r="E870" t="s">
         <v>3207</v>
       </c>
-      <c r="F870" t="s">
+      <c r="F870" s="4" t="s">
         <v>3223</v>
       </c>
       <c r="G870" s="3" t="str">
@@ -33786,7 +33863,7 @@
       <c r="E871" t="s">
         <v>3210</v>
       </c>
-      <c r="F871" t="s">
+      <c r="F871" s="4" t="s">
         <v>3224</v>
       </c>
       <c r="G871" s="3" t="str">
@@ -33811,7 +33888,7 @@
       <c r="E872" t="s">
         <v>3213</v>
       </c>
-      <c r="F872" t="s">
+      <c r="F872" s="4" t="s">
         <v>3225</v>
       </c>
       <c r="G872" s="3" t="str">
@@ -33836,7 +33913,7 @@
       <c r="E873" t="s">
         <v>3216</v>
       </c>
-      <c r="F873" t="s">
+      <c r="F873" s="4" t="s">
         <v>3226</v>
       </c>
       <c r="G873" s="3" t="str">
@@ -33861,7 +33938,7 @@
       <c r="E874" t="s">
         <v>3219</v>
       </c>
-      <c r="F874" t="s">
+      <c r="F874" s="4" t="s">
         <v>3227</v>
       </c>
       <c r="G874" s="3" t="str">
@@ -33886,7 +33963,7 @@
       <c r="E875" t="s">
         <v>3221</v>
       </c>
-      <c r="F875" t="s">
+      <c r="F875" s="4" t="s">
         <v>3228</v>
       </c>
       <c r="G875" s="3" t="str">
@@ -33911,7 +33988,7 @@
       <c r="E876" t="s">
         <v>3231</v>
       </c>
-      <c r="F876" t="s">
+      <c r="F876" s="4" t="s">
         <v>3244</v>
       </c>
       <c r="G876" s="3" t="str">
@@ -33936,7 +34013,7 @@
       <c r="E877" t="s">
         <v>3233</v>
       </c>
-      <c r="F877" t="s">
+      <c r="F877" s="4" t="s">
         <v>3245</v>
       </c>
       <c r="G877" s="3" t="str">
@@ -33961,7 +34038,7 @@
       <c r="E878" t="s">
         <v>3233</v>
       </c>
-      <c r="F878" t="s">
+      <c r="F878" s="4" t="s">
         <v>3246</v>
       </c>
       <c r="G878" s="3" t="str">
@@ -33986,7 +34063,7 @@
       <c r="E879" t="s">
         <v>3238</v>
       </c>
-      <c r="F879" t="s">
+      <c r="F879" s="4" t="s">
         <v>3247</v>
       </c>
       <c r="G879" s="3" t="str">
@@ -34011,7 +34088,7 @@
       <c r="E880" t="s">
         <v>3242</v>
       </c>
-      <c r="F880" t="s">
+      <c r="F880" s="4" t="s">
         <v>3248</v>
       </c>
       <c r="G880" s="3" t="str">
@@ -34036,7 +34113,7 @@
       <c r="E881" t="s">
         <v>3243</v>
       </c>
-      <c r="F881" t="s">
+      <c r="F881" s="4" t="s">
         <v>3249</v>
       </c>
       <c r="G881" s="3" t="str">
@@ -34061,7 +34138,7 @@
       <c r="E882" t="s">
         <v>3251</v>
       </c>
-      <c r="F882" t="s">
+      <c r="F882" s="4" t="s">
         <v>3265</v>
       </c>
       <c r="G882" s="3" t="str">
@@ -34086,7 +34163,7 @@
       <c r="E883" t="s">
         <v>3253</v>
       </c>
-      <c r="F883" t="s">
+      <c r="F883" s="4" t="s">
         <v>3266</v>
       </c>
       <c r="G883" s="3" t="str">
@@ -34111,7 +34188,7 @@
       <c r="E884" t="s">
         <v>3256</v>
       </c>
-      <c r="F884" t="s">
+      <c r="F884" s="4" t="s">
         <v>3267</v>
       </c>
       <c r="G884" s="3" t="str">
@@ -34136,7 +34213,7 @@
       <c r="E885" t="s">
         <v>3259</v>
       </c>
-      <c r="F885" t="s">
+      <c r="F885" s="4" t="s">
         <v>3268</v>
       </c>
       <c r="G885" s="3" t="str">
@@ -34161,7 +34238,7 @@
       <c r="E886" t="s">
         <v>3259</v>
       </c>
-      <c r="F886" t="s">
+      <c r="F886" s="4" t="s">
         <v>3269</v>
       </c>
       <c r="G886" s="3" t="str">
@@ -34186,7 +34263,7 @@
       <c r="E887" t="s">
         <v>3264</v>
       </c>
-      <c r="F887" t="s">
+      <c r="F887" s="4" t="s">
         <v>3270</v>
       </c>
       <c r="G887" s="3" t="str">
@@ -34211,7 +34288,7 @@
       <c r="E888" t="s">
         <v>3273</v>
       </c>
-      <c r="F888" t="s">
+      <c r="F888" s="4" t="s">
         <v>3288</v>
       </c>
       <c r="G888" s="3" t="str">
@@ -34236,7 +34313,7 @@
       <c r="E889" t="s">
         <v>3276</v>
       </c>
-      <c r="F889" t="s">
+      <c r="F889" s="4" t="s">
         <v>3293</v>
       </c>
       <c r="G889" s="3" t="str">
@@ -34261,7 +34338,7 @@
       <c r="E890" t="s">
         <v>3278</v>
       </c>
-      <c r="F890" t="s">
+      <c r="F890" s="4" t="s">
         <v>3289</v>
       </c>
       <c r="G890" s="3" t="str">
@@ -34286,7 +34363,7 @@
       <c r="E891" t="s">
         <v>3282</v>
       </c>
-      <c r="F891" t="s">
+      <c r="F891" s="4" t="s">
         <v>3290</v>
       </c>
       <c r="G891" s="3" t="str">
@@ -34311,7 +34388,7 @@
       <c r="E892" t="s">
         <v>3285</v>
       </c>
-      <c r="F892" t="s">
+      <c r="F892" s="4" t="s">
         <v>3291</v>
       </c>
       <c r="G892" s="3" t="str">
@@ -34336,7 +34413,7 @@
       <c r="E893" t="s">
         <v>3287</v>
       </c>
-      <c r="F893" t="s">
+      <c r="F893" s="4" t="s">
         <v>3292</v>
       </c>
       <c r="G893" s="3" t="str">
@@ -34361,7 +34438,7 @@
       <c r="E894" t="s">
         <v>3295</v>
       </c>
-      <c r="F894" t="s">
+      <c r="F894" s="4" t="s">
         <v>3132</v>
       </c>
       <c r="G894" s="3" t="str">
@@ -34386,7 +34463,7 @@
       <c r="E895" t="s">
         <v>3298</v>
       </c>
-      <c r="F895" t="s">
+      <c r="F895" s="4" t="s">
         <v>3308</v>
       </c>
       <c r="G895" s="3" t="str">
@@ -34411,7 +34488,7 @@
       <c r="E896" t="s">
         <v>3233</v>
       </c>
-      <c r="F896" t="s">
+      <c r="F896" s="4" t="s">
         <v>3309</v>
       </c>
       <c r="G896" s="3" t="str">
@@ -34436,7 +34513,7 @@
       <c r="E897" t="s">
         <v>1159</v>
       </c>
-      <c r="F897" t="s">
+      <c r="F897" s="4" t="s">
         <v>3310</v>
       </c>
       <c r="G897" s="3" t="str">
@@ -34461,7 +34538,7 @@
       <c r="E898" t="s">
         <v>1159</v>
       </c>
-      <c r="F898" t="s">
+      <c r="F898" s="4" t="s">
         <v>3311</v>
       </c>
       <c r="G898" s="3" t="str">
@@ -34486,7 +34563,7 @@
       <c r="E899" t="s">
         <v>3307</v>
       </c>
-      <c r="F899" t="s">
+      <c r="F899" s="4" t="s">
         <v>3312</v>
       </c>
       <c r="G899" s="3" t="str">
@@ -34511,7 +34588,7 @@
       <c r="E900" t="s">
         <v>3315</v>
       </c>
-      <c r="F900" t="s">
+      <c r="F900" s="4" t="s">
         <v>3181</v>
       </c>
       <c r="G900" s="3" t="str">
@@ -34536,7 +34613,7 @@
       <c r="E901" t="s">
         <v>3315</v>
       </c>
-      <c r="F901" t="s">
+      <c r="F901" s="4" t="s">
         <v>3328</v>
       </c>
       <c r="G901" s="3" t="str">
@@ -34561,7 +34638,7 @@
       <c r="E902" t="s">
         <v>3319</v>
       </c>
-      <c r="F902" t="s">
+      <c r="F902" s="4" t="s">
         <v>3329</v>
       </c>
       <c r="G902" s="3" t="str">
@@ -34586,7 +34663,7 @@
       <c r="E903" t="s">
         <v>3321</v>
       </c>
-      <c r="F903" t="s">
+      <c r="F903" s="4" t="s">
         <v>3137</v>
       </c>
       <c r="G903" s="3" t="str">
@@ -34611,7 +34688,7 @@
       <c r="E904" t="s">
         <v>3324</v>
       </c>
-      <c r="F904" t="s">
+      <c r="F904" s="4" t="s">
         <v>3330</v>
       </c>
       <c r="G904" s="3" t="str">
@@ -34636,7 +34713,7 @@
       <c r="E905" t="s">
         <v>3327</v>
       </c>
-      <c r="F905" t="s">
+      <c r="F905" s="4" t="s">
         <v>3331</v>
       </c>
       <c r="G905" s="3" t="str">
@@ -34661,7 +34738,7 @@
       <c r="E906" t="s">
         <v>3334</v>
       </c>
-      <c r="F906" t="s">
+      <c r="F906" s="4" t="s">
         <v>3346</v>
       </c>
       <c r="G906" s="3" t="str">
@@ -34686,7 +34763,7 @@
       <c r="E907" t="s">
         <v>3336</v>
       </c>
-      <c r="F907" t="s">
+      <c r="F907" s="4" t="s">
         <v>3347</v>
       </c>
       <c r="G907" s="3" t="str">
@@ -34711,7 +34788,7 @@
       <c r="E908" t="s">
         <v>3233</v>
       </c>
-      <c r="F908" t="s">
+      <c r="F908" s="4" t="s">
         <v>3348</v>
       </c>
       <c r="G908" s="3" t="str">
@@ -34736,7 +34813,7 @@
       <c r="E909" t="s">
         <v>3233</v>
       </c>
-      <c r="F909" t="s">
+      <c r="F909" s="4" t="s">
         <v>3349</v>
       </c>
       <c r="G909" s="3" t="str">
@@ -34761,7 +34838,7 @@
       <c r="E910" t="s">
         <v>3342</v>
       </c>
-      <c r="F910" t="s">
+      <c r="F910" s="4" t="s">
         <v>3350</v>
       </c>
       <c r="G910" s="3" t="str">
@@ -34786,7 +34863,7 @@
       <c r="E911" t="s">
         <v>3345</v>
       </c>
-      <c r="F911" t="s">
+      <c r="F911" s="4" t="s">
         <v>3351</v>
       </c>
       <c r="G911" s="3" t="str">
@@ -34811,7 +34888,7 @@
       <c r="E912" t="s">
         <v>3099</v>
       </c>
-      <c r="F912" t="s">
+      <c r="F912" s="4" t="s">
         <v>3369</v>
       </c>
       <c r="G912" s="3" t="str">
@@ -34836,7 +34913,7 @@
       <c r="E913" t="s">
         <v>3356</v>
       </c>
-      <c r="F913" t="s">
+      <c r="F913" s="4" t="s">
         <v>3370</v>
       </c>
       <c r="G913" s="3" t="str">
@@ -34861,7 +34938,7 @@
       <c r="E914" t="s">
         <v>3359</v>
       </c>
-      <c r="F914" t="s">
+      <c r="F914" s="4" t="s">
         <v>3371</v>
       </c>
       <c r="G914" s="3" t="str">
@@ -34886,7 +34963,7 @@
       <c r="E915" t="s">
         <v>3362</v>
       </c>
-      <c r="F915" t="s">
+      <c r="F915" s="4" t="s">
         <v>3372</v>
       </c>
       <c r="G915" s="3" t="str">
@@ -34911,7 +34988,7 @@
       <c r="E916" t="s">
         <v>3365</v>
       </c>
-      <c r="F916" t="s">
+      <c r="F916" s="4" t="s">
         <v>3373</v>
       </c>
       <c r="G916" s="3" t="str">
@@ -34936,7 +35013,7 @@
       <c r="E917" t="s">
         <v>3368</v>
       </c>
-      <c r="F917" t="s">
+      <c r="F917" s="4" t="s">
         <v>3374</v>
       </c>
       <c r="G917" s="3" t="str">
@@ -34961,7 +35038,7 @@
       <c r="E918" t="s">
         <v>3376</v>
       </c>
-      <c r="F918" t="s">
+      <c r="F918" s="4" t="s">
         <v>3389</v>
       </c>
       <c r="G918" s="3" t="str">
@@ -34986,7 +35063,7 @@
       <c r="E919" t="s">
         <v>3379</v>
       </c>
-      <c r="F919" t="s">
+      <c r="F919" s="4" t="s">
         <v>3390</v>
       </c>
       <c r="G919" s="3" t="str">
@@ -35011,7 +35088,7 @@
       <c r="E920" t="s">
         <v>3382</v>
       </c>
-      <c r="F920" t="s">
+      <c r="F920" s="4" t="s">
         <v>3391</v>
       </c>
       <c r="G920" s="3" t="str">
@@ -35036,7 +35113,7 @@
       <c r="E921" t="s">
         <v>3385</v>
       </c>
-      <c r="F921" t="s">
+      <c r="F921" s="4" t="s">
         <v>3392</v>
       </c>
       <c r="G921" s="3" t="str">
@@ -35061,7 +35138,7 @@
       <c r="E922" t="s">
         <v>3233</v>
       </c>
-      <c r="F922" t="s">
+      <c r="F922" s="4" t="s">
         <v>3393</v>
       </c>
       <c r="G922" s="3" t="str">
@@ -35086,7 +35163,7 @@
       <c r="E923" t="s">
         <v>3233</v>
       </c>
-      <c r="F923" t="s">
+      <c r="F923" s="4" t="s">
         <v>3394</v>
       </c>
       <c r="G923" s="3" t="str">
@@ -35111,7 +35188,7 @@
       <c r="E924" t="s">
         <v>3397</v>
       </c>
-      <c r="F924" t="s">
+      <c r="F924" s="4" t="s">
         <v>3411</v>
       </c>
       <c r="G924" s="3" t="str">
@@ -35136,7 +35213,7 @@
       <c r="E925" t="s">
         <v>3397</v>
       </c>
-      <c r="F925" t="s">
+      <c r="F925" s="4" t="s">
         <v>3328</v>
       </c>
       <c r="G925" s="3" t="str">
@@ -35161,7 +35238,7 @@
       <c r="E926" t="s">
         <v>3401</v>
       </c>
-      <c r="F926" t="s">
+      <c r="F926" s="4" t="s">
         <v>3412</v>
       </c>
       <c r="G926" s="3" t="str">
@@ -35186,7 +35263,7 @@
       <c r="E927" t="s">
         <v>3404</v>
       </c>
-      <c r="F927" t="s">
+      <c r="F927" s="4" t="s">
         <v>3413</v>
       </c>
       <c r="G927" s="3" t="str">
@@ -35211,7 +35288,7 @@
       <c r="E928" t="s">
         <v>3407</v>
       </c>
-      <c r="F928" t="s">
+      <c r="F928" s="4" t="s">
         <v>3414</v>
       </c>
       <c r="G928" s="3" t="str">
@@ -35236,7 +35313,7 @@
       <c r="E929" t="s">
         <v>3410</v>
       </c>
-      <c r="F929" t="s">
+      <c r="F929" s="4" t="s">
         <v>3415</v>
       </c>
       <c r="G929" s="3" t="str">
@@ -35261,7 +35338,7 @@
       <c r="E930" t="s">
         <v>3418</v>
       </c>
-      <c r="F930" t="s">
+      <c r="F930" s="4" t="s">
         <v>3432</v>
       </c>
       <c r="G930" s="3" t="str">
@@ -35286,7 +35363,7 @@
       <c r="E931" t="s">
         <v>3420</v>
       </c>
-      <c r="F931" t="s">
+      <c r="F931" s="4" t="s">
         <v>3433</v>
       </c>
       <c r="G931" s="3" t="str">
@@ -35311,7 +35388,7 @@
       <c r="E932" t="s">
         <v>3422</v>
       </c>
-      <c r="F932" t="s">
+      <c r="F932" s="4" t="s">
         <v>3434</v>
       </c>
       <c r="G932" s="3" t="str">
@@ -35336,7 +35413,7 @@
       <c r="E933" t="s">
         <v>3425</v>
       </c>
-      <c r="F933" t="s">
+      <c r="F933" s="4" t="s">
         <v>3435</v>
       </c>
       <c r="G933" s="3" t="str">
@@ -35361,7 +35438,7 @@
       <c r="E934" t="s">
         <v>3428</v>
       </c>
-      <c r="F934" t="s">
+      <c r="F934" s="4" t="s">
         <v>3436</v>
       </c>
       <c r="G934" s="3" t="str">
@@ -35386,7 +35463,7 @@
       <c r="E935" t="s">
         <v>3431</v>
       </c>
-      <c r="F935" t="s">
+      <c r="F935" s="4" t="s">
         <v>3437</v>
       </c>
       <c r="G935" s="3" t="str">
@@ -35411,7 +35488,7 @@
       <c r="E936" t="s">
         <v>3440</v>
       </c>
-      <c r="F936" t="s">
+      <c r="F936" s="4" t="s">
         <v>3455</v>
       </c>
       <c r="G936" s="3" t="str">
@@ -35436,7 +35513,7 @@
       <c r="E937" t="s">
         <v>3442</v>
       </c>
-      <c r="F937" t="s">
+      <c r="F937" s="4" t="s">
         <v>3132</v>
       </c>
       <c r="G937" s="3" t="str">
@@ -35461,7 +35538,7 @@
       <c r="E938" t="s">
         <v>3444</v>
       </c>
-      <c r="F938" t="s">
+      <c r="F938" s="4" t="s">
         <v>3456</v>
       </c>
       <c r="G938" s="3" t="str">
@@ -35486,7 +35563,7 @@
       <c r="E939" t="s">
         <v>3448</v>
       </c>
-      <c r="F939" t="s">
+      <c r="F939" s="4" t="s">
         <v>3457</v>
       </c>
       <c r="G939" s="3" t="str">
@@ -35511,7 +35588,7 @@
       <c r="E940" t="s">
         <v>3451</v>
       </c>
-      <c r="F940" t="s">
+      <c r="F940" s="4" t="s">
         <v>3458</v>
       </c>
       <c r="G940" s="3" t="str">
@@ -35536,7 +35613,7 @@
       <c r="E941" t="s">
         <v>3454</v>
       </c>
-      <c r="F941" t="s">
+      <c r="F941" s="4" t="s">
         <v>3459</v>
       </c>
       <c r="G941" s="3" t="str">
@@ -35561,7 +35638,7 @@
       <c r="E942" t="s">
         <v>3461</v>
       </c>
-      <c r="F942" t="s">
+      <c r="F942" s="4" t="s">
         <v>3476</v>
       </c>
       <c r="G942" s="3" t="str">
@@ -35586,7 +35663,7 @@
       <c r="E943" t="s">
         <v>3464</v>
       </c>
-      <c r="F943" t="s">
+      <c r="F943" s="4" t="s">
         <v>3478</v>
       </c>
       <c r="G943" s="3" t="str">
@@ -35611,7 +35688,7 @@
       <c r="E944" t="s">
         <v>3467</v>
       </c>
-      <c r="F944" t="s">
+      <c r="F944" s="4" t="s">
         <v>3477</v>
       </c>
       <c r="G944" s="3" t="str">
@@ -35636,7 +35713,7 @@
       <c r="E945" t="s">
         <v>3470</v>
       </c>
-      <c r="F945" t="s">
+      <c r="F945" s="4" t="s">
         <v>3479</v>
       </c>
       <c r="G945" s="3" t="str">
@@ -35661,7 +35738,7 @@
       <c r="E946" t="s">
         <v>3473</v>
       </c>
-      <c r="F946" t="s">
+      <c r="F946" s="4" t="s">
         <v>3480</v>
       </c>
       <c r="G946" s="3" t="str">
@@ -35686,7 +35763,7 @@
       <c r="E947" t="s">
         <v>3397</v>
       </c>
-      <c r="F947" t="s">
+      <c r="F947" s="4" t="s">
         <v>3481</v>
       </c>
       <c r="G947" s="3" t="str">
@@ -35711,7 +35788,7 @@
       <c r="E948" t="s">
         <v>3487</v>
       </c>
-      <c r="F948" t="s">
+      <c r="F948" s="4" t="s">
         <v>3499</v>
       </c>
       <c r="G948" s="3" t="str">
@@ -35736,7 +35813,7 @@
       <c r="E949" t="s">
         <v>3486</v>
       </c>
-      <c r="F949" t="s">
+      <c r="F949" s="4" t="s">
         <v>3500</v>
       </c>
       <c r="G949" s="3" t="str">
@@ -35761,7 +35838,7 @@
       <c r="E950" t="s">
         <v>3490</v>
       </c>
-      <c r="F950" t="s">
+      <c r="F950" s="4" t="s">
         <v>3504</v>
       </c>
       <c r="G950" s="3" t="str">
@@ -35786,7 +35863,7 @@
       <c r="E951" t="s">
         <v>3490</v>
       </c>
-      <c r="F951" t="s">
+      <c r="F951" s="4" t="s">
         <v>3501</v>
       </c>
       <c r="G951" s="3" t="str">
@@ -35811,7 +35888,7 @@
       <c r="E952" t="s">
         <v>3495</v>
       </c>
-      <c r="F952" t="s">
+      <c r="F952" s="4" t="s">
         <v>3502</v>
       </c>
       <c r="G952" s="3" t="str">
@@ -35836,7 +35913,7 @@
       <c r="E953" t="s">
         <v>3498</v>
       </c>
-      <c r="F953" t="s">
+      <c r="F953" s="4" t="s">
         <v>3503</v>
       </c>
       <c r="G953" s="3" t="str">
@@ -35861,7 +35938,7 @@
       <c r="E954" t="s">
         <v>3507</v>
       </c>
-      <c r="F954" t="s">
+      <c r="F954" s="4" t="s">
         <v>3523</v>
       </c>
       <c r="G954" s="3" t="str">
@@ -35886,7 +35963,7 @@
       <c r="E955" t="s">
         <v>3510</v>
       </c>
-      <c r="F955" t="s">
+      <c r="F955" s="4" t="s">
         <v>3524</v>
       </c>
       <c r="G955" s="3" t="str">
@@ -35911,7 +35988,7 @@
       <c r="E956" t="s">
         <v>3513</v>
       </c>
-      <c r="F956" t="s">
+      <c r="F956" s="4" t="s">
         <v>3525</v>
       </c>
       <c r="G956" s="3" t="str">
@@ -35936,7 +36013,7 @@
       <c r="E957" t="s">
         <v>3516</v>
       </c>
-      <c r="F957" t="s">
+      <c r="F957" s="4" t="s">
         <v>3526</v>
       </c>
       <c r="G957" s="3" t="str">
@@ -35961,7 +36038,7 @@
       <c r="E958" t="s">
         <v>3519</v>
       </c>
-      <c r="F958" t="s">
+      <c r="F958" s="4" t="s">
         <v>3527</v>
       </c>
       <c r="G958" s="3" t="str">
@@ -35986,7 +36063,7 @@
       <c r="E959" t="s">
         <v>3522</v>
       </c>
-      <c r="F959" t="s">
+      <c r="F959" s="4" t="s">
         <v>3528</v>
       </c>
       <c r="G959" s="3" t="str">
@@ -36011,7 +36088,7 @@
       <c r="E960" t="s">
         <v>3233</v>
       </c>
-      <c r="F960" t="s">
+      <c r="F960" s="4" t="s">
         <v>3543</v>
       </c>
       <c r="G960" s="3" t="str">
@@ -36036,7 +36113,7 @@
       <c r="E961" t="s">
         <v>3531</v>
       </c>
-      <c r="F961" t="s">
+      <c r="F961" s="4" t="s">
         <v>3544</v>
       </c>
       <c r="G961" s="3" t="str">
@@ -36061,7 +36138,7 @@
       <c r="E962" t="s">
         <v>3233</v>
       </c>
-      <c r="F962" t="s">
+      <c r="F962" s="4" t="s">
         <v>3545</v>
       </c>
       <c r="G962" s="3" t="str">
@@ -36086,7 +36163,7 @@
       <c r="E963" t="s">
         <v>3537</v>
       </c>
-      <c r="F963" t="s">
+      <c r="F963" s="4" t="s">
         <v>3546</v>
       </c>
       <c r="G963" s="3" t="str">
@@ -36111,7 +36188,7 @@
       <c r="E964" t="s">
         <v>3540</v>
       </c>
-      <c r="F964" t="s">
+      <c r="F964" s="4" t="s">
         <v>3547</v>
       </c>
       <c r="G964" s="3" t="str">
@@ -36136,7 +36213,7 @@
       <c r="E965" t="s">
         <v>3542</v>
       </c>
-      <c r="F965" t="s">
+      <c r="F965" s="4" t="s">
         <v>3548</v>
       </c>
       <c r="G965" s="3" t="str">
@@ -36161,7 +36238,7 @@
       <c r="E966" t="s">
         <v>3550</v>
       </c>
-      <c r="F966" t="s">
+      <c r="F966" s="4" t="s">
         <v>3562</v>
       </c>
       <c r="G966" s="3" t="str">
@@ -36186,7 +36263,7 @@
       <c r="E967" t="s">
         <v>3550</v>
       </c>
-      <c r="F967" t="s">
+      <c r="F967" s="4" t="s">
         <v>3563</v>
       </c>
       <c r="G967" s="3" t="str">
@@ -36211,7 +36288,7 @@
       <c r="E968" t="s">
         <v>3554</v>
       </c>
-      <c r="F968" t="s">
+      <c r="F968" s="4" t="s">
         <v>3564</v>
       </c>
       <c r="G968" s="3" t="str">
@@ -36236,7 +36313,7 @@
       <c r="E969" t="s">
         <v>3556</v>
       </c>
-      <c r="F969" t="s">
+      <c r="F969" s="4" t="s">
         <v>3565</v>
       </c>
       <c r="G969" s="3" t="str">
@@ -36261,7 +36338,7 @@
       <c r="E970" t="s">
         <v>3559</v>
       </c>
-      <c r="F970" t="s">
+      <c r="F970" s="4" t="s">
         <v>3476</v>
       </c>
       <c r="G970" s="3" t="str">
@@ -36286,7 +36363,7 @@
       <c r="E971" t="s">
         <v>3561</v>
       </c>
-      <c r="F971" t="s">
+      <c r="F971" s="4" t="s">
         <v>3566</v>
       </c>
       <c r="G971" s="3" t="str">
@@ -36311,7 +36388,7 @@
       <c r="E972" t="s">
         <v>3570</v>
       </c>
-      <c r="F972" t="s">
+      <c r="F972" s="4" t="s">
         <v>3581</v>
       </c>
       <c r="G972" s="3" t="str">
@@ -36336,7 +36413,7 @@
       <c r="E973" t="s">
         <v>3233</v>
       </c>
-      <c r="F973" t="s">
+      <c r="F973" s="4" t="s">
         <v>3582</v>
       </c>
       <c r="G973" s="3" t="str">
@@ -36361,7 +36438,7 @@
       <c r="E974" t="s">
         <v>3574</v>
       </c>
-      <c r="F974" t="s">
+      <c r="F974" s="4" t="s">
         <v>3583</v>
       </c>
       <c r="G974" s="3" t="str">
@@ -36386,7 +36463,7 @@
       <c r="E975" t="s">
         <v>3490</v>
       </c>
-      <c r="F975" t="s">
+      <c r="F975" s="4" t="s">
         <v>3584</v>
       </c>
       <c r="G975" s="3" t="str">
@@ -36411,7 +36488,7 @@
       <c r="E976" t="s">
         <v>3578</v>
       </c>
-      <c r="F976" t="s">
+      <c r="F976" s="4" t="s">
         <v>3585</v>
       </c>
       <c r="G976" s="3" t="str">
@@ -36436,7 +36513,7 @@
       <c r="E977" t="s">
         <v>3580</v>
       </c>
-      <c r="F977" t="s">
+      <c r="F977" s="4" t="s">
         <v>3586</v>
       </c>
       <c r="G977" s="3" t="str">
@@ -36461,7 +36538,7 @@
       <c r="E978" t="s">
         <v>3589</v>
       </c>
-      <c r="F978" t="s">
+      <c r="F978" s="4" t="s">
         <v>3602</v>
       </c>
       <c r="G978" s="3" t="str">
@@ -36486,7 +36563,7 @@
       <c r="E979" t="s">
         <v>3591</v>
       </c>
-      <c r="F979" t="s">
+      <c r="F979" s="4" t="s">
         <v>3603</v>
       </c>
       <c r="G979" s="3" t="str">
@@ -36511,7 +36588,7 @@
       <c r="E980" t="s">
         <v>3594</v>
       </c>
-      <c r="F980" t="s">
+      <c r="F980" s="4" t="s">
         <v>3604</v>
       </c>
       <c r="G980" s="3" t="str">
@@ -36536,7 +36613,7 @@
       <c r="E981" t="s">
         <v>3597</v>
       </c>
-      <c r="F981" t="s">
+      <c r="F981" s="4" t="s">
         <v>3605</v>
       </c>
       <c r="G981" s="3" t="str">
@@ -36561,7 +36638,7 @@
       <c r="E982" t="s">
         <v>3600</v>
       </c>
-      <c r="F982" t="s">
+      <c r="F982" s="4" t="s">
         <v>3606</v>
       </c>
       <c r="G982" s="3" t="str">
@@ -36586,7 +36663,7 @@
       <c r="E983" t="s">
         <v>3559</v>
       </c>
-      <c r="F983" t="s">
+      <c r="F983" s="4" t="s">
         <v>3607</v>
       </c>
       <c r="G983" s="3" t="str">
@@ -36611,7 +36688,7 @@
       <c r="E984" t="s">
         <v>3610</v>
       </c>
-      <c r="F984" t="s">
+      <c r="F984" s="4" t="s">
         <v>3626</v>
       </c>
       <c r="G984" s="3" t="str">
@@ -36636,7 +36713,7 @@
       <c r="E985" t="s">
         <v>3613</v>
       </c>
-      <c r="F985" t="s">
+      <c r="F985" s="4" t="s">
         <v>3627</v>
       </c>
       <c r="G985" s="3" t="str">
@@ -36661,7 +36738,7 @@
       <c r="E986" t="s">
         <v>3616</v>
       </c>
-      <c r="F986" t="s">
+      <c r="F986" s="4" t="s">
         <v>3628</v>
       </c>
       <c r="G986" s="3" t="str">
@@ -36686,7 +36763,7 @@
       <c r="E987" t="s">
         <v>3619</v>
       </c>
-      <c r="F987" t="s">
+      <c r="F987" s="4" t="s">
         <v>3629</v>
       </c>
       <c r="G987" s="3" t="str">
@@ -36711,7 +36788,7 @@
       <c r="E988" t="s">
         <v>3622</v>
       </c>
-      <c r="F988" t="s">
+      <c r="F988" s="4" t="s">
         <v>3630</v>
       </c>
       <c r="G988" s="3" t="str">
@@ -36736,7 +36813,7 @@
       <c r="E989" t="s">
         <v>3625</v>
       </c>
-      <c r="F989" t="s">
+      <c r="F989" s="4" t="s">
         <v>3631</v>
       </c>
       <c r="G989" s="3" t="str">
@@ -36761,7 +36838,7 @@
       <c r="E990" t="s">
         <v>3633</v>
       </c>
-      <c r="F990" t="s">
+      <c r="F990" s="4" t="s">
         <v>3650</v>
       </c>
       <c r="G990" s="3" t="str">
@@ -36786,7 +36863,7 @@
       <c r="E991" t="s">
         <v>3642</v>
       </c>
-      <c r="F991" t="s">
+      <c r="F991" s="4" t="s">
         <v>3651</v>
       </c>
       <c r="G991" s="3" t="str">
@@ -36811,7 +36888,7 @@
       <c r="E992" t="s">
         <v>3643</v>
       </c>
-      <c r="F992" t="s">
+      <c r="F992" s="4" t="s">
         <v>3652</v>
       </c>
       <c r="G992" s="3" t="str">
@@ -36836,7 +36913,7 @@
       <c r="E993" t="s">
         <v>3644</v>
       </c>
-      <c r="F993" t="s">
+      <c r="F993" s="4" t="s">
         <v>3653</v>
       </c>
       <c r="G993" s="3" t="str">
@@ -36861,7 +36938,7 @@
       <c r="E994" t="s">
         <v>3616</v>
       </c>
-      <c r="F994" t="s">
+      <c r="F994" s="4" t="s">
         <v>3654</v>
       </c>
       <c r="G994" s="3" t="str">
@@ -36886,7 +36963,7 @@
       <c r="E995" t="s">
         <v>3647</v>
       </c>
-      <c r="F995" t="s">
+      <c r="F995" s="4" t="s">
         <v>3655</v>
       </c>
       <c r="G995" s="3" t="str">
@@ -36908,7 +36985,7 @@
       <c r="E996" t="s">
         <v>3649</v>
       </c>
-      <c r="F996" t="s">
+      <c r="F996" s="4" t="s">
         <v>3656</v>
       </c>
       <c r="G996" s="3" t="str">
@@ -36933,7 +37010,7 @@
       <c r="E997" t="s">
         <v>3659</v>
       </c>
-      <c r="F997" t="s">
+      <c r="F997" s="4" t="s">
         <v>3675</v>
       </c>
       <c r="G997" s="3" t="str">
@@ -36958,7 +37035,7 @@
       <c r="E998" t="s">
         <v>3662</v>
       </c>
-      <c r="F998" t="s">
+      <c r="F998" s="4" t="s">
         <v>3676</v>
       </c>
       <c r="G998" s="3" t="str">
@@ -36983,7 +37060,7 @@
       <c r="E999" t="s">
         <v>3665</v>
       </c>
-      <c r="F999" t="s">
+      <c r="F999" s="4" t="s">
         <v>3677</v>
       </c>
       <c r="G999" s="3" t="str">
@@ -37008,7 +37085,7 @@
       <c r="E1000" t="s">
         <v>3666</v>
       </c>
-      <c r="F1000" t="s">
+      <c r="F1000" s="4" t="s">
         <v>3678</v>
       </c>
       <c r="G1000" s="3" t="str">
@@ -37033,7 +37110,7 @@
       <c r="E1001" t="s">
         <v>3669</v>
       </c>
-      <c r="F1001" t="s">
+      <c r="F1001" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="G1001" s="3" t="str">
@@ -37058,7 +37135,7 @@
       <c r="E1002" t="s">
         <v>3671</v>
       </c>
-      <c r="F1002" t="s">
+      <c r="F1002" s="4" t="s">
         <v>3680</v>
       </c>
       <c r="G1002" s="3" t="str">
@@ -37083,7 +37160,7 @@
       <c r="E1003" t="s">
         <v>3674</v>
       </c>
-      <c r="F1003" t="s">
+      <c r="F1003" s="4" t="s">
         <v>3681</v>
       </c>
       <c r="G1003" s="3" t="str">
@@ -37108,7 +37185,7 @@
       <c r="E1004" t="s">
         <v>3685</v>
       </c>
-      <c r="F1004" t="s">
+      <c r="F1004" s="4" t="s">
         <v>3701</v>
       </c>
       <c r="G1004" s="3" t="str">
@@ -37133,7 +37210,7 @@
       <c r="E1005" t="s">
         <v>3687</v>
       </c>
-      <c r="F1005" t="s">
+      <c r="F1005" s="4" t="s">
         <v>3702</v>
       </c>
       <c r="G1005" s="3" t="str">
@@ -37158,7 +37235,7 @@
       <c r="E1006" t="s">
         <v>3690</v>
       </c>
-      <c r="F1006" t="s">
+      <c r="F1006" s="4" t="s">
         <v>3703</v>
       </c>
       <c r="G1006" s="3" t="str">
@@ -37183,7 +37260,7 @@
       <c r="E1007" t="s">
         <v>3693</v>
       </c>
-      <c r="F1007" t="s">
+      <c r="F1007" s="4" t="s">
         <v>3704</v>
       </c>
       <c r="G1007" s="3" t="str">
@@ -37208,7 +37285,7 @@
       <c r="E1008" t="s">
         <v>3695</v>
       </c>
-      <c r="F1008" t="s">
+      <c r="F1008" s="4" t="s">
         <v>3156</v>
       </c>
       <c r="G1008" s="3" t="str">
@@ -37233,7 +37310,7 @@
       <c r="E1009" t="s">
         <v>3698</v>
       </c>
-      <c r="F1009" t="s">
+      <c r="F1009" s="4" t="s">
         <v>3705</v>
       </c>
       <c r="G1009" s="3" t="str">
@@ -37258,7 +37335,7 @@
       <c r="E1010" t="s">
         <v>3700</v>
       </c>
-      <c r="F1010" t="s">
+      <c r="F1010" s="4" t="s">
         <v>3706</v>
       </c>
       <c r="G1010" s="3" t="str">
@@ -37283,7 +37360,7 @@
       <c r="E1011" t="s">
         <v>3714</v>
       </c>
-      <c r="F1011" t="s">
+      <c r="F1011" s="4" t="s">
         <v>3726</v>
       </c>
       <c r="G1011" s="3" t="str">
@@ -37308,7 +37385,7 @@
       <c r="E1012" t="s">
         <v>3715</v>
       </c>
-      <c r="F1012" t="s">
+      <c r="F1012" s="4" t="s">
         <v>3727</v>
       </c>
       <c r="G1012" s="3" t="str">
@@ -37333,7 +37410,7 @@
       <c r="E1013" t="s">
         <v>3713</v>
       </c>
-      <c r="F1013" t="s">
+      <c r="F1013" s="4" t="s">
         <v>3728</v>
       </c>
       <c r="G1013" s="3" t="str">
@@ -37358,7 +37435,7 @@
       <c r="E1014" t="s">
         <v>3718</v>
       </c>
-      <c r="F1014" t="s">
+      <c r="F1014" s="4" t="s">
         <v>3729</v>
       </c>
       <c r="G1014" s="3" t="str">
@@ -37383,7 +37460,7 @@
       <c r="E1015" t="s">
         <v>3698</v>
       </c>
-      <c r="F1015" t="s">
+      <c r="F1015" s="4" t="s">
         <v>3730</v>
       </c>
       <c r="G1015" s="3" t="str">
@@ -37408,7 +37485,7 @@
       <c r="E1016" t="s">
         <v>3722</v>
       </c>
-      <c r="F1016" t="s">
+      <c r="F1016" s="4" t="s">
         <v>3702</v>
       </c>
       <c r="G1016" s="3" t="str">
@@ -37433,7 +37510,7 @@
       <c r="E1017" t="s">
         <v>3723</v>
       </c>
-      <c r="F1017" t="s">
+      <c r="F1017" s="4" t="s">
         <v>3731</v>
       </c>
       <c r="G1017" s="3" t="str">
@@ -37458,7 +37535,7 @@
       <c r="E1018" t="s">
         <v>3734</v>
       </c>
-      <c r="F1018" t="s">
+      <c r="F1018" s="4" t="s">
         <v>3749</v>
       </c>
       <c r="G1018" s="3" t="str">
@@ -37483,7 +37560,7 @@
       <c r="E1019" t="s">
         <v>3737</v>
       </c>
-      <c r="F1019" t="s">
+      <c r="F1019" s="4" t="s">
         <v>3750</v>
       </c>
       <c r="G1019" s="3" t="str">
@@ -37508,7 +37585,7 @@
       <c r="E1020" t="s">
         <v>3756</v>
       </c>
-      <c r="F1020" t="s">
+      <c r="F1020" s="4" t="s">
         <v>3757</v>
       </c>
       <c r="G1020" s="3" t="str">
@@ -37533,7 +37610,7 @@
       <c r="E1021" t="s">
         <v>3740</v>
       </c>
-      <c r="F1021" t="s">
+      <c r="F1021" s="4" t="s">
         <v>3751</v>
       </c>
       <c r="G1021" s="3" t="str">
@@ -37558,7 +37635,7 @@
       <c r="E1022" t="s">
         <v>3698</v>
       </c>
-      <c r="F1022" t="s">
+      <c r="F1022" s="4" t="s">
         <v>3654</v>
       </c>
       <c r="G1022" s="3" t="str">
@@ -37583,7 +37660,7 @@
       <c r="E1023" t="s">
         <v>3745</v>
       </c>
-      <c r="F1023" t="s">
+      <c r="F1023" s="4" t="s">
         <v>3752</v>
       </c>
       <c r="G1023" s="3" t="str">
@@ -37608,7 +37685,7 @@
       <c r="E1024" t="s">
         <v>3748</v>
       </c>
-      <c r="F1024" t="s">
+      <c r="F1024" s="4" t="s">
         <v>3753</v>
       </c>
       <c r="G1024" s="3" t="str">
@@ -37633,7 +37710,7 @@
       <c r="E1025" t="s">
         <v>3759</v>
       </c>
-      <c r="F1025" t="s">
+      <c r="F1025" s="4" t="s">
         <v>3053</v>
       </c>
       <c r="G1025" s="3" t="str">
@@ -37655,11 +37732,11 @@
       <c r="E1026" t="s">
         <v>3761</v>
       </c>
-      <c r="F1026" t="s">
+      <c r="F1026" s="4" t="s">
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1045" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1052" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37680,7 +37757,7 @@
       <c r="E1027" t="s">
         <v>3764</v>
       </c>
-      <c r="F1027" t="s">
+      <c r="F1027" s="4" t="s">
         <v>3776</v>
       </c>
       <c r="G1027" s="3" t="str">
@@ -37705,7 +37782,7 @@
       <c r="E1028" t="s">
         <v>3767</v>
       </c>
-      <c r="F1028" t="s">
+      <c r="F1028" s="4" t="s">
         <v>3777</v>
       </c>
       <c r="G1028" s="3" t="str">
@@ -37715,7 +37792,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1045" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1052" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -37730,7 +37807,7 @@
       <c r="E1029" t="s">
         <v>3770</v>
       </c>
-      <c r="F1029" t="s">
+      <c r="F1029" s="4" t="s">
         <v>3778</v>
       </c>
       <c r="G1029" s="3" t="str">
@@ -37755,7 +37832,7 @@
       <c r="E1030" t="s">
         <v>3698</v>
       </c>
-      <c r="F1030" t="s">
+      <c r="F1030" s="4" t="s">
         <v>3584</v>
       </c>
       <c r="G1030" s="3" t="str">
@@ -37780,7 +37857,7 @@
       <c r="E1031" t="s">
         <v>3774</v>
       </c>
-      <c r="F1031" t="s">
+      <c r="F1031" s="4" t="s">
         <v>3779</v>
       </c>
       <c r="G1031" s="3" t="str">
@@ -37805,7 +37882,7 @@
       <c r="E1032" t="s">
         <v>3782</v>
       </c>
-      <c r="F1032" t="s">
+      <c r="F1032" s="4" t="s">
         <v>3783</v>
       </c>
       <c r="G1032" s="3" t="str">
@@ -37827,7 +37904,7 @@
       <c r="E1033" t="s">
         <v>3785</v>
       </c>
-      <c r="F1033" t="s">
+      <c r="F1033" s="4" t="s">
         <v>3786</v>
       </c>
       <c r="G1033" s="3" t="str">
@@ -37852,7 +37929,7 @@
       <c r="E1034" t="s">
         <v>3790</v>
       </c>
-      <c r="F1034" t="s">
+      <c r="F1034" s="4" t="s">
         <v>3678</v>
       </c>
       <c r="G1034" s="3" t="str">
@@ -37877,7 +37954,7 @@
       <c r="E1035" t="s">
         <v>3793</v>
       </c>
-      <c r="F1035" t="s">
+      <c r="F1035" s="4" t="s">
         <v>3802</v>
       </c>
       <c r="G1035" s="3" t="str">
@@ -37902,7 +37979,7 @@
       <c r="E1036" t="s">
         <v>3798</v>
       </c>
-      <c r="F1036" t="s">
+      <c r="F1036" s="4" t="s">
         <v>3803</v>
       </c>
       <c r="G1036" s="3" t="str">
@@ -37927,7 +38004,7 @@
       <c r="E1037" t="s">
         <v>3801</v>
       </c>
-      <c r="F1037" t="s">
+      <c r="F1037" s="4" t="s">
         <v>3804</v>
       </c>
       <c r="G1037" s="3" t="str">
@@ -37952,7 +38029,7 @@
       <c r="E1038" t="s">
         <v>3787</v>
       </c>
-      <c r="F1038" t="s">
+      <c r="F1038" s="4" t="s">
         <v>3788</v>
       </c>
       <c r="G1038" s="3" t="str">
@@ -38133,6 +38210,181 @@
       <c r="G1045" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/topics.html#MedinaK2025</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <f t="shared" si="33"/>
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D1046">
+        <v>2025</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F1046" s="4" t="s">
+        <v>3845</v>
+      </c>
+      <c r="G1046" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#MarinA2025</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <f t="shared" si="33"/>
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>3829</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D1047">
+        <v>1972</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>3831</v>
+      </c>
+      <c r="F1047" s="4" t="s">
+        <v>3846</v>
+      </c>
+      <c r="G1047" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SulekJA1972</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <f t="shared" si="33"/>
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D1048">
+        <v>1994</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>3834</v>
+      </c>
+      <c r="F1048" s="4" t="s">
+        <v>3847</v>
+      </c>
+      <c r="G1048" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/fields.html#MartinezA1994</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <f t="shared" si="33"/>
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>3835</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D1049">
+        <v>1976</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F1049" s="4" t="s">
+        <v>3848</v>
+      </c>
+      <c r="G1049" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/tstratigraphy.html#SwansonDCKeyCE1976</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <f t="shared" si="33"/>
+        <v>1049</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1050">
+        <v>2025</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F1050" s="4" t="s">
+        <v>3849</v>
+      </c>
+      <c r="G1050" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025c</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <f t="shared" si="33"/>
+        <v>1050</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1051">
+        <v>1977</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>3841</v>
+      </c>
+      <c r="F1051" s="4" t="s">
+        <v>3850</v>
+      </c>
+      <c r="G1051" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#StephanJEetal1977</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <f t="shared" si="33"/>
+        <v>1051</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D1052">
+        <v>1984</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>3844</v>
+      </c>
+      <c r="F1052" s="4" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G1052" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#UCV1984</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268F611-86ED-417B-B72F-41C6B32839D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0E788-2ECB-4998-AEEB-28D332650E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -11763,9 +11763,6 @@
     <t>https://mariantoc.github.io/fields.html#MartinezA1994</t>
   </si>
   <si>
-    <t>https://mariantoc.github.io/tstratigraphy.html#SwansonDCKeyCE1976</t>
-  </si>
-  <si>
     <t>https://mariantoc.github.io/topics.html#CasasJE2025c</t>
   </si>
   <si>
@@ -11776,6 +11773,9 @@
   </si>
   <si>
     <t>Transición energética en Venezuela (Parte 2). ¿Cómo armonizar el legado petrolero con visión de futuro basado en energías?</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SwansonDCKeyCE1976</t>
   </si>
 </sst>
 </file>
@@ -11848,7 +11848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11856,6 +11856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -38218,7 +38219,7 @@
         <v>1045</v>
       </c>
       <c r="B1046" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="C1046" t="s">
         <v>3828</v>
@@ -38304,12 +38305,12 @@
       <c r="E1049" t="s">
         <v>3837</v>
       </c>
-      <c r="F1049" s="4" t="s">
-        <v>3848</v>
+      <c r="F1049" s="5" t="s">
+        <v>3852</v>
       </c>
       <c r="G1049" s="3" t="str">
         <f t="shared" si="32"/>
-        <v>https://mariantoc.github.io/tstratigraphy.html#SwansonDCKeyCE1976</v>
+        <v>https://mariantoc.github.io/stratigraphy.html#SwansonDCKeyCE1976</v>
       </c>
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
@@ -38330,7 +38331,7 @@
         <v>3818</v>
       </c>
       <c r="F1050" s="4" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="G1050" s="3" t="str">
         <f t="shared" si="32"/>
@@ -38355,7 +38356,7 @@
         <v>3841</v>
       </c>
       <c r="F1051" s="4" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="G1051" s="3" t="str">
         <f t="shared" si="32"/>
@@ -38380,7 +38381,7 @@
         <v>3844</v>
       </c>
       <c r="F1052" s="4" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="G1052" s="3" t="str">
         <f t="shared" si="32"/>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0E788-2ECB-4998-AEEB-28D332650E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E741B-B413-4959-B7D8-D58553291951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="3853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="3878">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11776,6 +11776,125 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/stratigraphy.html#SwansonDCKeyCE1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo Mederos Herrera (1930 – 2025): geólogo, palinólogo, profesor y mentor. Homenaje a un maestro que nunca dejo de evolucionar. </t>
+  </si>
+  <si>
+    <t>Marianto Castro Mora y Luiraima Salazar – Langer</t>
+  </si>
+  <si>
+    <t>MAYA. Revista de Geociencias. Edición Especial XXV, suplemento de septiembre 2025</t>
+  </si>
+  <si>
+    <t>Foro “Día del Geólogo Venezolano”  Caracas 29 de Septiembre de 2022.</t>
+  </si>
+  <si>
+    <t>Foro auspiciado por la Academia Nacional de la Ingeniería y el Hábitat, Sociedad Venezolana de Geólogos, Sociedad Venezolana de Historia de las Geociencias. Boletín de la Sociedad Venezolana de Historia de las Geociencias, Número 57, 29 de Septiembre de 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farallón Centinela. Un oasis oculto en el mar. </t>
+  </si>
+  <si>
+    <t>Carta Ecológica de Lagoven S.A., Número 52, Enero – Marzo, 1990</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the supposed Aptian occurrence of the ammonite genus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neodeshayesites</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Colombia and Venezuela; with an appendix on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Neodeshayesites karsteni</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Marcou).</t>
+    </r>
+  </si>
+  <si>
+    <t>Fernando Etayo Serna</t>
+  </si>
+  <si>
+    <t>Geología Norandina, Número 3, Mayo – Junio, 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guía práctica para la preparación de muestras para estudio de nannoplancton calcáreo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isbelia Durán </t>
+  </si>
+  <si>
+    <t>Guía de procesos de laboratorio de Maraven S.A.</t>
+  </si>
+  <si>
+    <t>Entrevista radial sobre “La transición a energías limpias y el extractivismo”. Minerales críticos para explotar en Venezuela.</t>
+  </si>
+  <si>
+    <t>Boletín de la Academia Nacional de la Ingeniería y el Hábitat, Número 62, Enero – Marzo, 2024</t>
+  </si>
+  <si>
+    <t>Las mayores cuevas de Venezuela.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urbani, F.; Pérez, F. </t>
+  </si>
+  <si>
+    <t>Boletín Informativo de la Asociación Venezolana de Geología, Minería y Petróleo, Volúmen 16, Números 7, 8 y 9, Julio, Agosto y Septiembre de 1973</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#CastroMSalazarL2025</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/biography.html#Foro2022</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#Carta1990</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SernaF1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#DuranI1991</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/minerals.html#MarinoN2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/speleology.html#UrbaniFPerezF1973</t>
   </si>
 </sst>
 </file>
@@ -12172,10 +12291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1052"/>
+  <dimension ref="A1:H1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1034" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1046" sqref="B1046"/>
+    <sheetView tabSelected="1" topLeftCell="A1046" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1053" sqref="A1053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37737,7 +37856,7 @@
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1052" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1059" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37793,7 +37912,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1052" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1059" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -38305,7 +38424,7 @@
       <c r="E1049" t="s">
         <v>3837</v>
       </c>
-      <c r="F1049" s="5" t="s">
+      <c r="F1049" t="s">
         <v>3852</v>
       </c>
       <c r="G1049" s="3" t="str">
@@ -38386,6 +38505,175 @@
       <c r="G1052" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/biography.html#UCV1984</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <f t="shared" si="33"/>
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D1053">
+        <v>2025</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>3855</v>
+      </c>
+      <c r="F1053" s="5" t="s">
+        <v>3871</v>
+      </c>
+      <c r="G1053" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#CastroMSalazarL2025</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <f t="shared" si="33"/>
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D1054">
+        <v>2022</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F1054" s="5" t="s">
+        <v>3872</v>
+      </c>
+      <c r="G1054" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/biography.html#Foro2022</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <f t="shared" si="33"/>
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D1055">
+        <v>1990</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F1055" s="5" t="s">
+        <v>3873</v>
+      </c>
+      <c r="G1055" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/ecology.html#Carta1990</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <f t="shared" si="33"/>
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>3861</v>
+      </c>
+      <c r="D1056">
+        <v>1991</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F1056" s="5" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G1056" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SernaF1981</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <f t="shared" si="33"/>
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>3864</v>
+      </c>
+      <c r="D1057">
+        <v>1991</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>3865</v>
+      </c>
+      <c r="F1057" s="5" t="s">
+        <v>3875</v>
+      </c>
+      <c r="G1057" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#DuranI1991</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <f t="shared" si="33"/>
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1058">
+        <v>2024</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F1058" s="5" t="s">
+        <v>3876</v>
+      </c>
+      <c r="G1058" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/minerals.html#MarinoN2024</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <f t="shared" si="33"/>
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D1059">
+        <v>1973</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>3870</v>
+      </c>
+      <c r="F1059" s="5" t="s">
+        <v>3877</v>
+      </c>
+      <c r="G1059" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/speleology.html#UrbaniFPerezF1973</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E741B-B413-4959-B7D8-D58553291951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E590A2-4505-4E20-A9CE-B7212D4BE304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="3878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4242" uniqueCount="3903">
   <si>
     <t>Distribution of Mineral Occurrences in Northeastern South America</t>
   </si>
@@ -11895,6 +11895,81 @@
   </si>
   <si>
     <t>https://mariantoc.github.io/speleology.html#UrbaniFPerezF1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singularidades geológicas exploradas con el minisubmarino del “Calypso” en Venezuela. </t>
+  </si>
+  <si>
+    <t>Butenko, J.; Barbot, J. P.; Daza, J.</t>
+  </si>
+  <si>
+    <t>Revista Técnica de Intevep, Volumen 1, Número 1, Enero 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Declaration of Independence and the first reported description of a dinosaur iUSA. How these two subjects can be related? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Agnatos Paleozoicos. Aparición de la Gnatostomia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Teresa Sánchez de Benedetto </t>
+  </si>
+  <si>
+    <t>Guía de clases de la profesora Benedetto en la ilustre Universidad Central de Venezuela, Escuela de Geología, Minas y Geofísica, 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio climático, pandemia, comunidades sostenibles y prioridades en Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo Cilento Sardi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excursión geológica Barinitas – obras hidroeléctricas del Río Santo Domingo, Estado Mérida, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos, V.; Fierro, I.; Villalta, D. </t>
+  </si>
+  <si>
+    <t>Sociedad Venezolana de Geólogos, excursión realizada entre los días 26 al 28 de Abril de 1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis por nannoplancton calcáreo de siete (7) muestras de superficie del Valle del Dátil, Isla de Margarita, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianto Castro Mora </t>
+  </si>
+  <si>
+    <t>Convenio de ayuda técnica especializada entre el Departamento de Geología de Lagoven S. A. y el Departamento de Geología de la ilustre Universidad Central de Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación de estratigrafía secuencial detallada en los yacimientos Carapita 05 y 07, Campo Orocual, Estado Monagas, Venezuela. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Márquez, P.; Uroza, C.; Mistage, M.; Giffuni, G.; Castro Mora, M. </t>
+  </si>
+  <si>
+    <t>Borrador del trabajo presentado en el Congreso Latinoamericano de Geología, 1995</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#ButenkoJetal1981</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/topics.html#CasasJE2025d</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#SanchezMT1976</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/ecology.html#CilentoA2024</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/excursions.html#CamposVetal1973</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#CastroM1988</t>
+  </si>
+  <si>
+    <t>https://mariantoc.github.io/stratigraphy.html#MarquezPetal1995</t>
   </si>
 </sst>
 </file>
@@ -12291,10 +12366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B496A77-4B74-49B4-B08F-A7274E320005}">
-  <dimension ref="A1:H1059"/>
+  <dimension ref="A1:H1066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1046" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1053" sqref="A1053"/>
+    <sheetView tabSelected="1" topLeftCell="A1052" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1060" sqref="A1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37856,7 +37931,7 @@
         <v>3775</v>
       </c>
       <c r="G1026" s="3" t="str">
-        <f t="shared" ref="G1026:G1059" si="32">HYPERLINK(F1026)</f>
+        <f t="shared" ref="G1026:G1066" si="32">HYPERLINK(F1026)</f>
         <v>https://mariantoc.github.io/stratigraphy.html#Anonimo2001</v>
       </c>
     </row>
@@ -37912,7 +37987,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029">
-        <f t="shared" ref="A1029:A1059" si="33">A1028+1</f>
+        <f t="shared" ref="A1029:A1066" si="33">A1028+1</f>
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
@@ -38524,7 +38599,7 @@
       <c r="E1053" t="s">
         <v>3855</v>
       </c>
-      <c r="F1053" s="5" t="s">
+      <c r="F1053" t="s">
         <v>3871</v>
       </c>
       <c r="G1053" s="3" t="str">
@@ -38546,7 +38621,7 @@
       <c r="E1054" t="s">
         <v>3857</v>
       </c>
-      <c r="F1054" s="5" t="s">
+      <c r="F1054" t="s">
         <v>3872</v>
       </c>
       <c r="G1054" s="3" t="str">
@@ -38568,7 +38643,7 @@
       <c r="E1055" t="s">
         <v>3859</v>
       </c>
-      <c r="F1055" s="5" t="s">
+      <c r="F1055" t="s">
         <v>3873</v>
       </c>
       <c r="G1055" s="3" t="str">
@@ -38593,7 +38668,7 @@
       <c r="E1056" t="s">
         <v>3862</v>
       </c>
-      <c r="F1056" s="5" t="s">
+      <c r="F1056" t="s">
         <v>3874</v>
       </c>
       <c r="G1056" s="3" t="str">
@@ -38618,7 +38693,7 @@
       <c r="E1057" t="s">
         <v>3865</v>
       </c>
-      <c r="F1057" s="5" t="s">
+      <c r="F1057" t="s">
         <v>3875</v>
       </c>
       <c r="G1057" s="3" t="str">
@@ -38643,7 +38718,7 @@
       <c r="E1058" t="s">
         <v>3867</v>
       </c>
-      <c r="F1058" s="5" t="s">
+      <c r="F1058" t="s">
         <v>3876</v>
       </c>
       <c r="G1058" s="3" t="str">
@@ -38668,12 +38743,187 @@
       <c r="E1059" t="s">
         <v>3870</v>
       </c>
-      <c r="F1059" s="5" t="s">
+      <c r="F1059" t="s">
         <v>3877</v>
       </c>
       <c r="G1059" s="3" t="str">
         <f t="shared" si="32"/>
         <v>https://mariantoc.github.io/speleology.html#UrbaniFPerezF1973</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <f t="shared" si="33"/>
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D1060">
+        <v>1981</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>3880</v>
+      </c>
+      <c r="F1060" s="5" t="s">
+        <v>3896</v>
+      </c>
+      <c r="G1060" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#ButenkoJetal1981</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <f t="shared" si="33"/>
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1061">
+        <v>2025</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F1061" s="5" t="s">
+        <v>3897</v>
+      </c>
+      <c r="G1061" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/topics.html#CasasJE2025d</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <f t="shared" si="33"/>
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D1062">
+        <v>1976</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F1062" s="5" t="s">
+        <v>3898</v>
+      </c>
+      <c r="G1062" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#SanchezMT1976</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <f t="shared" si="33"/>
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D1063">
+        <v>2024</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F1063" s="5" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1063" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/ecology.html#CilentoA2024</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <f t="shared" si="33"/>
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D1064">
+        <v>1973</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F1064" s="5" t="s">
+        <v>3900</v>
+      </c>
+      <c r="G1064" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/excursions.html#CamposVetal1973</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <f t="shared" si="33"/>
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D1065">
+        <v>1988</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>3892</v>
+      </c>
+      <c r="F1065" s="5" t="s">
+        <v>3901</v>
+      </c>
+      <c r="G1065" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#CastroM1988</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <f t="shared" si="33"/>
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D1066">
+        <v>1995</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>3895</v>
+      </c>
+      <c r="F1066" s="5" t="s">
+        <v>3902</v>
+      </c>
+      <c r="G1066" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>https://mariantoc.github.io/stratigraphy.html#MarquezPetal1995</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/NotasGeologiaPublicationList.xlsx
+++ b/Resources/NotasGeologiaPublicationList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\castr\Documents\GitHub\mariantoc.github.io\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E590A2-4505-4E20-A9CE-B7212D4BE304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA56DE-DD28-4904-B362-21DAA492F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F60C23B-EB8B-4BF1-B197-717718F4FFB2}"/>
   </bookViews>
@@ -12042,7 +12042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -12050,7 +12050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12369,7 +12368,7 @@
   <dimension ref="A1:H1066"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1052" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1060" sqref="A1060"/>
+      <selection activeCell="B1060" sqref="B1060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38768,7 +38767,7 @@
       <c r="E1060" t="s">
         <v>3880</v>
       </c>
-      <c r="F1060" s="5" t="s">
+      <c r="F1060" t="s">
         <v>3896</v>
       </c>
       <c r="G1060" s="3" t="str">
@@ -38793,7 +38792,7 @@
       <c r="E1061" t="s">
         <v>3818</v>
       </c>
-      <c r="F1061" s="5" t="s">
+      <c r="F1061" t="s">
         <v>3897</v>
       </c>
       <c r="G1061" s="3" t="str">
@@ -38818,7 +38817,7 @@
       <c r="E1062" t="s">
         <v>3884</v>
       </c>
-      <c r="F1062" s="5" t="s">
+      <c r="F1062" t="s">
         <v>3898</v>
       </c>
       <c r="G1062" s="3" t="str">
@@ -38843,7 +38842,7 @@
       <c r="E1063" t="s">
         <v>3867</v>
       </c>
-      <c r="F1063" s="5" t="s">
+      <c r="F1063" t="s">
         <v>3899</v>
       </c>
       <c r="G1063" s="3" t="str">
@@ -38868,7 +38867,7 @@
       <c r="E1064" t="s">
         <v>3889</v>
       </c>
-      <c r="F1064" s="5" t="s">
+      <c r="F1064" t="s">
         <v>3900</v>
       </c>
       <c r="G1064" s="3" t="str">
@@ -38893,7 +38892,7 @@
       <c r="E1065" t="s">
         <v>3892</v>
       </c>
-      <c r="F1065" s="5" t="s">
+      <c r="F1065" t="s">
         <v>3901</v>
       </c>
       <c r="G1065" s="3" t="str">
@@ -38918,7 +38917,7 @@
       <c r="E1066" t="s">
         <v>3895</v>
       </c>
-      <c r="F1066" s="5" t="s">
+      <c r="F1066" t="s">
         <v>3902</v>
       </c>
       <c r="G1066" s="3" t="str">
